--- a/P2012001/3 项目管理/3-1 计划/开发计划.xlsx
+++ b/P2012001/3 项目管理/3-1 计划/开发计划.xlsx
@@ -10,7 +10,7 @@
     <sheet name="开发计划" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">开发计划!$A$3:$IP$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">开发计划!$A$3:$IP$42</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>Excel Gantt Chart</t>
   </si>
@@ -321,24 +321,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Lifepulp</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="18"/>
-        <color indexed="52"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>功能实现开发计划</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -391,6 +373,40 @@
     <t>第一次迭代</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>Adler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Adler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵感分享网站开发计划</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -399,7 +415,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m\ /\ d\ /\ yy"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -484,14 +500,6 @@
     <font>
       <sz val="8"/>
       <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="18"/>
-      <color indexed="52"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -695,7 +703,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -724,7 +732,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -761,34 +768,22 @@
     <xf numFmtId="9" fontId="3" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -797,16 +792,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -818,16 +813,16 @@
     <xf numFmtId="9" fontId="3" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -839,13 +834,13 @@
     <xf numFmtId="9" fontId="3" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -864,31 +859,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="23" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="23" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="23" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="23" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -897,13 +892,13 @@
     <xf numFmtId="9" fontId="3" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -911,83 +906,50 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="23"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="23"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill>
@@ -1077,136 +1039,6 @@
       <fill>
         <patternFill>
           <bgColor indexed="40"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="23"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="63"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="40"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="63"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="40"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="63"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="40"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="23"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1661,20 +1493,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IP39"/>
+  <dimension ref="A1:IP41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.7109375" customWidth="1"/>
@@ -1691,19 +1523,19 @@
       <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="15"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="11"/>
-      <c r="F1" s="15"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:250" ht="24">
-      <c r="A3" s="14" t="s">
-        <v>28</v>
+    <row r="3" spans="1:250" ht="22.5">
+      <c r="A3" s="88" t="s">
+        <v>41</v>
       </c>
       <c r="I3" s="8"/>
     </row>
@@ -1715,12 +1547,12 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="59">
+      <c r="C5" s="54">
         <v>40994</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="20"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="2"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1733,21 +1565,21 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:250" s="79" customFormat="1">
+    <row r="7" spans="1:250" s="74" customFormat="1">
       <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="55">
         <v>41000</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="55">
         <v>41061</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
       <c r="I7" s="8"/>
@@ -2716,464 +2548,464 @@
       </c>
     </row>
     <row r="8" spans="1:250" s="10" customFormat="1" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="C8" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="D8" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="E8" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="F8" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="G8" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="H8" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="33">
+      <c r="J8" s="16"/>
+      <c r="K8" s="85">
         <f>K7</f>
         <v>41001</v>
       </c>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="30">
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="82">
         <f>P7</f>
         <v>41008</v>
       </c>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="30">
+      <c r="Q8" s="83"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="82">
         <f>U7</f>
         <v>41015</v>
       </c>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="30">
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="83"/>
+      <c r="Y8" s="84"/>
+      <c r="Z8" s="82">
         <f>Z7</f>
         <v>41022</v>
       </c>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="30">
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="83"/>
+      <c r="AC8" s="83"/>
+      <c r="AD8" s="84"/>
+      <c r="AE8" s="82">
         <f>AE7</f>
         <v>41029</v>
       </c>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="31"/>
-      <c r="AI8" s="32"/>
-      <c r="AJ8" s="30">
+      <c r="AF8" s="83"/>
+      <c r="AG8" s="83"/>
+      <c r="AH8" s="83"/>
+      <c r="AI8" s="84"/>
+      <c r="AJ8" s="82">
         <f>AJ7</f>
         <v>41036</v>
       </c>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="31"/>
-      <c r="AM8" s="31"/>
-      <c r="AN8" s="32"/>
-      <c r="AO8" s="30">
+      <c r="AK8" s="83"/>
+      <c r="AL8" s="83"/>
+      <c r="AM8" s="83"/>
+      <c r="AN8" s="84"/>
+      <c r="AO8" s="82">
         <f>AO7</f>
         <v>41043</v>
       </c>
-      <c r="AP8" s="31"/>
-      <c r="AQ8" s="31"/>
-      <c r="AR8" s="31"/>
-      <c r="AS8" s="32"/>
-      <c r="AT8" s="30">
+      <c r="AP8" s="83"/>
+      <c r="AQ8" s="83"/>
+      <c r="AR8" s="83"/>
+      <c r="AS8" s="84"/>
+      <c r="AT8" s="82">
         <f>AT7</f>
         <v>41050</v>
       </c>
-      <c r="AU8" s="31"/>
-      <c r="AV8" s="31"/>
-      <c r="AW8" s="31"/>
-      <c r="AX8" s="32"/>
-      <c r="AY8" s="30">
+      <c r="AU8" s="83"/>
+      <c r="AV8" s="83"/>
+      <c r="AW8" s="83"/>
+      <c r="AX8" s="84"/>
+      <c r="AY8" s="82">
         <f>AY7</f>
         <v>41057</v>
       </c>
-      <c r="AZ8" s="31"/>
-      <c r="BA8" s="31"/>
-      <c r="BB8" s="31"/>
-      <c r="BC8" s="32"/>
-      <c r="BD8" s="30">
+      <c r="AZ8" s="83"/>
+      <c r="BA8" s="83"/>
+      <c r="BB8" s="83"/>
+      <c r="BC8" s="84"/>
+      <c r="BD8" s="82">
         <f>BD7</f>
         <v>41064</v>
       </c>
-      <c r="BE8" s="31"/>
-      <c r="BF8" s="31"/>
-      <c r="BG8" s="31"/>
-      <c r="BH8" s="32"/>
-      <c r="BI8" s="30">
+      <c r="BE8" s="83"/>
+      <c r="BF8" s="83"/>
+      <c r="BG8" s="83"/>
+      <c r="BH8" s="84"/>
+      <c r="BI8" s="82">
         <f>BI7</f>
         <v>41071</v>
       </c>
-      <c r="BJ8" s="31"/>
-      <c r="BK8" s="31"/>
-      <c r="BL8" s="31"/>
-      <c r="BM8" s="32"/>
-      <c r="BN8" s="30">
+      <c r="BJ8" s="83"/>
+      <c r="BK8" s="83"/>
+      <c r="BL8" s="83"/>
+      <c r="BM8" s="84"/>
+      <c r="BN8" s="82">
         <f>BN7</f>
         <v>41078</v>
       </c>
-      <c r="BO8" s="31"/>
-      <c r="BP8" s="31"/>
-      <c r="BQ8" s="31"/>
-      <c r="BR8" s="32"/>
-      <c r="BS8" s="30">
+      <c r="BO8" s="83"/>
+      <c r="BP8" s="83"/>
+      <c r="BQ8" s="83"/>
+      <c r="BR8" s="84"/>
+      <c r="BS8" s="82">
         <f>BS7</f>
         <v>41085</v>
       </c>
-      <c r="BT8" s="31"/>
-      <c r="BU8" s="31"/>
-      <c r="BV8" s="31"/>
-      <c r="BW8" s="32"/>
-      <c r="BX8" s="30">
+      <c r="BT8" s="83"/>
+      <c r="BU8" s="83"/>
+      <c r="BV8" s="83"/>
+      <c r="BW8" s="84"/>
+      <c r="BX8" s="82">
         <f>BX7</f>
         <v>41092</v>
       </c>
-      <c r="BY8" s="31"/>
-      <c r="BZ8" s="31"/>
-      <c r="CA8" s="31"/>
-      <c r="CB8" s="32"/>
-      <c r="CC8" s="30">
+      <c r="BY8" s="83"/>
+      <c r="BZ8" s="83"/>
+      <c r="CA8" s="83"/>
+      <c r="CB8" s="84"/>
+      <c r="CC8" s="82">
         <f>CC7</f>
         <v>41099</v>
       </c>
-      <c r="CD8" s="31"/>
-      <c r="CE8" s="31"/>
-      <c r="CF8" s="31"/>
-      <c r="CG8" s="32"/>
-      <c r="CH8" s="30">
+      <c r="CD8" s="83"/>
+      <c r="CE8" s="83"/>
+      <c r="CF8" s="83"/>
+      <c r="CG8" s="84"/>
+      <c r="CH8" s="82">
         <f>CH7</f>
         <v>41106</v>
       </c>
-      <c r="CI8" s="31"/>
-      <c r="CJ8" s="31"/>
-      <c r="CK8" s="31"/>
-      <c r="CL8" s="32"/>
-      <c r="CM8" s="30">
+      <c r="CI8" s="83"/>
+      <c r="CJ8" s="83"/>
+      <c r="CK8" s="83"/>
+      <c r="CL8" s="84"/>
+      <c r="CM8" s="82">
         <f>CM7</f>
         <v>41113</v>
       </c>
-      <c r="CN8" s="31"/>
-      <c r="CO8" s="31"/>
-      <c r="CP8" s="31"/>
-      <c r="CQ8" s="32"/>
-      <c r="CR8" s="30">
+      <c r="CN8" s="83"/>
+      <c r="CO8" s="83"/>
+      <c r="CP8" s="83"/>
+      <c r="CQ8" s="84"/>
+      <c r="CR8" s="82">
         <f>CR7</f>
         <v>41120</v>
       </c>
-      <c r="CS8" s="31"/>
-      <c r="CT8" s="31"/>
-      <c r="CU8" s="31"/>
-      <c r="CV8" s="32"/>
-      <c r="CW8" s="30">
+      <c r="CS8" s="83"/>
+      <c r="CT8" s="83"/>
+      <c r="CU8" s="83"/>
+      <c r="CV8" s="84"/>
+      <c r="CW8" s="82">
         <f>CW7</f>
         <v>41127</v>
       </c>
-      <c r="CX8" s="31"/>
-      <c r="CY8" s="31"/>
-      <c r="CZ8" s="31"/>
-      <c r="DA8" s="32"/>
-      <c r="DB8" s="30">
+      <c r="CX8" s="83"/>
+      <c r="CY8" s="83"/>
+      <c r="CZ8" s="83"/>
+      <c r="DA8" s="84"/>
+      <c r="DB8" s="82">
         <f>DB7</f>
         <v>41134</v>
       </c>
-      <c r="DC8" s="31"/>
-      <c r="DD8" s="31"/>
-      <c r="DE8" s="31"/>
-      <c r="DF8" s="32"/>
-      <c r="DG8" s="30">
+      <c r="DC8" s="83"/>
+      <c r="DD8" s="83"/>
+      <c r="DE8" s="83"/>
+      <c r="DF8" s="84"/>
+      <c r="DG8" s="82">
         <f>DG7</f>
         <v>41141</v>
       </c>
-      <c r="DH8" s="31"/>
-      <c r="DI8" s="31"/>
-      <c r="DJ8" s="31"/>
-      <c r="DK8" s="32"/>
-      <c r="DL8" s="30">
+      <c r="DH8" s="83"/>
+      <c r="DI8" s="83"/>
+      <c r="DJ8" s="83"/>
+      <c r="DK8" s="84"/>
+      <c r="DL8" s="82">
         <f>DL7</f>
         <v>41148</v>
       </c>
-      <c r="DM8" s="31"/>
-      <c r="DN8" s="31"/>
-      <c r="DO8" s="31"/>
-      <c r="DP8" s="32"/>
-      <c r="DQ8" s="30">
+      <c r="DM8" s="83"/>
+      <c r="DN8" s="83"/>
+      <c r="DO8" s="83"/>
+      <c r="DP8" s="84"/>
+      <c r="DQ8" s="82">
         <f>DQ7</f>
         <v>41155</v>
       </c>
-      <c r="DR8" s="31"/>
-      <c r="DS8" s="31"/>
-      <c r="DT8" s="31"/>
-      <c r="DU8" s="32"/>
-      <c r="DV8" s="30">
+      <c r="DR8" s="83"/>
+      <c r="DS8" s="83"/>
+      <c r="DT8" s="83"/>
+      <c r="DU8" s="84"/>
+      <c r="DV8" s="82">
         <f>DV7</f>
         <v>41162</v>
       </c>
-      <c r="DW8" s="31"/>
-      <c r="DX8" s="31"/>
-      <c r="DY8" s="31"/>
-      <c r="DZ8" s="32"/>
-      <c r="EA8" s="30">
+      <c r="DW8" s="83"/>
+      <c r="DX8" s="83"/>
+      <c r="DY8" s="83"/>
+      <c r="DZ8" s="84"/>
+      <c r="EA8" s="82">
         <f>EA7</f>
         <v>41169</v>
       </c>
-      <c r="EB8" s="31"/>
-      <c r="EC8" s="31"/>
-      <c r="ED8" s="31"/>
-      <c r="EE8" s="32"/>
-      <c r="EF8" s="30">
+      <c r="EB8" s="83"/>
+      <c r="EC8" s="83"/>
+      <c r="ED8" s="83"/>
+      <c r="EE8" s="84"/>
+      <c r="EF8" s="82">
         <f>EF7</f>
         <v>41176</v>
       </c>
-      <c r="EG8" s="31"/>
-      <c r="EH8" s="31"/>
-      <c r="EI8" s="31"/>
-      <c r="EJ8" s="32"/>
-      <c r="EK8" s="30">
+      <c r="EG8" s="83"/>
+      <c r="EH8" s="83"/>
+      <c r="EI8" s="83"/>
+      <c r="EJ8" s="84"/>
+      <c r="EK8" s="82">
         <f>EK7</f>
         <v>41183</v>
       </c>
-      <c r="EL8" s="31"/>
-      <c r="EM8" s="31"/>
-      <c r="EN8" s="31"/>
-      <c r="EO8" s="32"/>
-      <c r="EP8" s="30">
+      <c r="EL8" s="83"/>
+      <c r="EM8" s="83"/>
+      <c r="EN8" s="83"/>
+      <c r="EO8" s="84"/>
+      <c r="EP8" s="82">
         <f>EP7</f>
         <v>41190</v>
       </c>
-      <c r="EQ8" s="31"/>
-      <c r="ER8" s="31"/>
-      <c r="ES8" s="31"/>
-      <c r="ET8" s="32"/>
-      <c r="EU8" s="30">
+      <c r="EQ8" s="83"/>
+      <c r="ER8" s="83"/>
+      <c r="ES8" s="83"/>
+      <c r="ET8" s="84"/>
+      <c r="EU8" s="82">
         <f>EU7</f>
         <v>41197</v>
       </c>
-      <c r="EV8" s="31"/>
-      <c r="EW8" s="31"/>
-      <c r="EX8" s="31"/>
-      <c r="EY8" s="32"/>
-      <c r="EZ8" s="30">
+      <c r="EV8" s="83"/>
+      <c r="EW8" s="83"/>
+      <c r="EX8" s="83"/>
+      <c r="EY8" s="84"/>
+      <c r="EZ8" s="82">
         <f>EZ7</f>
         <v>41204</v>
       </c>
-      <c r="FA8" s="31"/>
-      <c r="FB8" s="31"/>
-      <c r="FC8" s="31"/>
-      <c r="FD8" s="32"/>
-      <c r="FE8" s="30">
+      <c r="FA8" s="83"/>
+      <c r="FB8" s="83"/>
+      <c r="FC8" s="83"/>
+      <c r="FD8" s="84"/>
+      <c r="FE8" s="82">
         <f>FE7</f>
         <v>41211</v>
       </c>
-      <c r="FF8" s="31"/>
-      <c r="FG8" s="31"/>
-      <c r="FH8" s="31"/>
-      <c r="FI8" s="32"/>
-      <c r="FJ8" s="30">
+      <c r="FF8" s="83"/>
+      <c r="FG8" s="83"/>
+      <c r="FH8" s="83"/>
+      <c r="FI8" s="84"/>
+      <c r="FJ8" s="82">
         <f>FJ7</f>
         <v>41218</v>
       </c>
-      <c r="FK8" s="31"/>
-      <c r="FL8" s="31"/>
-      <c r="FM8" s="31"/>
-      <c r="FN8" s="32"/>
-      <c r="FO8" s="30">
+      <c r="FK8" s="83"/>
+      <c r="FL8" s="83"/>
+      <c r="FM8" s="83"/>
+      <c r="FN8" s="84"/>
+      <c r="FO8" s="82">
         <f>FO7</f>
         <v>41225</v>
       </c>
-      <c r="FP8" s="31"/>
-      <c r="FQ8" s="31"/>
-      <c r="FR8" s="31"/>
-      <c r="FS8" s="32"/>
-      <c r="FT8" s="30">
+      <c r="FP8" s="83"/>
+      <c r="FQ8" s="83"/>
+      <c r="FR8" s="83"/>
+      <c r="FS8" s="84"/>
+      <c r="FT8" s="82">
         <f>FT7</f>
         <v>41232</v>
       </c>
-      <c r="FU8" s="31"/>
-      <c r="FV8" s="31"/>
-      <c r="FW8" s="31"/>
-      <c r="FX8" s="32"/>
-      <c r="FY8" s="30">
+      <c r="FU8" s="83"/>
+      <c r="FV8" s="83"/>
+      <c r="FW8" s="83"/>
+      <c r="FX8" s="84"/>
+      <c r="FY8" s="82">
         <f>FY7</f>
         <v>41239</v>
       </c>
-      <c r="FZ8" s="31"/>
-      <c r="GA8" s="31"/>
-      <c r="GB8" s="31"/>
-      <c r="GC8" s="32"/>
-      <c r="GD8" s="30">
+      <c r="FZ8" s="83"/>
+      <c r="GA8" s="83"/>
+      <c r="GB8" s="83"/>
+      <c r="GC8" s="84"/>
+      <c r="GD8" s="82">
         <f>GD7</f>
         <v>41246</v>
       </c>
-      <c r="GE8" s="31"/>
-      <c r="GF8" s="31"/>
-      <c r="GG8" s="31"/>
-      <c r="GH8" s="32"/>
-      <c r="GI8" s="30">
+      <c r="GE8" s="83"/>
+      <c r="GF8" s="83"/>
+      <c r="GG8" s="83"/>
+      <c r="GH8" s="84"/>
+      <c r="GI8" s="82">
         <f>GI7</f>
         <v>41253</v>
       </c>
-      <c r="GJ8" s="31"/>
-      <c r="GK8" s="31"/>
-      <c r="GL8" s="31"/>
-      <c r="GM8" s="32"/>
-      <c r="GN8" s="30">
+      <c r="GJ8" s="83"/>
+      <c r="GK8" s="83"/>
+      <c r="GL8" s="83"/>
+      <c r="GM8" s="84"/>
+      <c r="GN8" s="82">
         <f>GN7</f>
         <v>41260</v>
       </c>
-      <c r="GO8" s="31"/>
-      <c r="GP8" s="31"/>
-      <c r="GQ8" s="31"/>
-      <c r="GR8" s="32"/>
-      <c r="GS8" s="30">
+      <c r="GO8" s="83"/>
+      <c r="GP8" s="83"/>
+      <c r="GQ8" s="83"/>
+      <c r="GR8" s="84"/>
+      <c r="GS8" s="82">
         <f>GS7</f>
         <v>41267</v>
       </c>
-      <c r="GT8" s="31"/>
-      <c r="GU8" s="31"/>
-      <c r="GV8" s="31"/>
-      <c r="GW8" s="32"/>
-      <c r="GX8" s="30">
+      <c r="GT8" s="83"/>
+      <c r="GU8" s="83"/>
+      <c r="GV8" s="83"/>
+      <c r="GW8" s="84"/>
+      <c r="GX8" s="82">
         <f>GX7</f>
         <v>41274</v>
       </c>
-      <c r="GY8" s="31"/>
-      <c r="GZ8" s="31"/>
-      <c r="HA8" s="31"/>
-      <c r="HB8" s="32"/>
-      <c r="HC8" s="30">
+      <c r="GY8" s="83"/>
+      <c r="GZ8" s="83"/>
+      <c r="HA8" s="83"/>
+      <c r="HB8" s="84"/>
+      <c r="HC8" s="82">
         <f>HC7</f>
         <v>41281</v>
       </c>
-      <c r="HD8" s="31"/>
-      <c r="HE8" s="31"/>
-      <c r="HF8" s="31"/>
-      <c r="HG8" s="32"/>
-      <c r="HH8" s="30">
+      <c r="HD8" s="83"/>
+      <c r="HE8" s="83"/>
+      <c r="HF8" s="83"/>
+      <c r="HG8" s="84"/>
+      <c r="HH8" s="82">
         <f>HH7</f>
         <v>41288</v>
       </c>
-      <c r="HI8" s="31"/>
-      <c r="HJ8" s="31"/>
-      <c r="HK8" s="31"/>
-      <c r="HL8" s="32"/>
-      <c r="HM8" s="30">
+      <c r="HI8" s="83"/>
+      <c r="HJ8" s="83"/>
+      <c r="HK8" s="83"/>
+      <c r="HL8" s="84"/>
+      <c r="HM8" s="82">
         <f>HM7</f>
         <v>41295</v>
       </c>
-      <c r="HN8" s="31"/>
-      <c r="HO8" s="31"/>
-      <c r="HP8" s="31"/>
-      <c r="HQ8" s="32"/>
-      <c r="HR8" s="30">
+      <c r="HN8" s="83"/>
+      <c r="HO8" s="83"/>
+      <c r="HP8" s="83"/>
+      <c r="HQ8" s="84"/>
+      <c r="HR8" s="82">
         <f>HR7</f>
         <v>41302</v>
       </c>
-      <c r="HS8" s="31"/>
-      <c r="HT8" s="31"/>
-      <c r="HU8" s="31"/>
-      <c r="HV8" s="32"/>
-      <c r="HW8" s="30">
+      <c r="HS8" s="83"/>
+      <c r="HT8" s="83"/>
+      <c r="HU8" s="83"/>
+      <c r="HV8" s="84"/>
+      <c r="HW8" s="82">
         <f>HW7</f>
         <v>41309</v>
       </c>
-      <c r="HX8" s="31"/>
-      <c r="HY8" s="31"/>
-      <c r="HZ8" s="31"/>
-      <c r="IA8" s="32"/>
-      <c r="IB8" s="30">
+      <c r="HX8" s="83"/>
+      <c r="HY8" s="83"/>
+      <c r="HZ8" s="83"/>
+      <c r="IA8" s="84"/>
+      <c r="IB8" s="82">
         <f>IB7</f>
         <v>41316</v>
       </c>
-      <c r="IC8" s="31"/>
-      <c r="ID8" s="31"/>
-      <c r="IE8" s="31"/>
-      <c r="IF8" s="32"/>
-      <c r="IG8" s="30">
+      <c r="IC8" s="83"/>
+      <c r="ID8" s="83"/>
+      <c r="IE8" s="83"/>
+      <c r="IF8" s="84"/>
+      <c r="IG8" s="82">
         <f>IG7</f>
         <v>41323</v>
       </c>
-      <c r="IH8" s="31"/>
-      <c r="II8" s="31"/>
-      <c r="IJ8" s="31"/>
-      <c r="IK8" s="32"/>
-      <c r="IL8" s="30">
+      <c r="IH8" s="83"/>
+      <c r="II8" s="83"/>
+      <c r="IJ8" s="83"/>
+      <c r="IK8" s="84"/>
+      <c r="IL8" s="82">
         <f>IL7</f>
         <v>41330</v>
       </c>
-      <c r="IM8" s="31"/>
-      <c r="IN8" s="31"/>
-      <c r="IO8" s="31"/>
-      <c r="IP8" s="32"/>
+      <c r="IM8" s="83"/>
+      <c r="IN8" s="83"/>
+      <c r="IO8" s="83"/>
+      <c r="IP8" s="84"/>
     </row>
     <row r="9" spans="1:250" s="6" customFormat="1" ht="15.75">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="65">
+      <c r="D9" s="60">
         <v>41001</v>
       </c>
-      <c r="E9" s="65">
+      <c r="E9" s="60">
         <v>41031</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27">
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26">
         <v>26</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="18"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:250" s="7" customFormat="1">
-      <c r="A10" s="85">
+      <c r="A10" s="80">
         <v>1</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="61">
         <v>41001</v>
       </c>
-      <c r="E10" s="66">
+      <c r="E10" s="61">
         <v>41014</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="18"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="17"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -3416,26 +3248,32 @@
       <c r="IP10" s="6"/>
     </row>
     <row r="11" spans="1:250" s="7" customFormat="1" ht="11.25">
-      <c r="A11" s="40">
+      <c r="A11" s="35">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="26">
+      <c r="C11" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="25">
         <v>41001</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <v>41002</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="18"/>
+      <c r="F11" s="25">
+        <v>40994</v>
+      </c>
+      <c r="G11" s="25">
+        <v>40998</v>
+      </c>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27">
+        <v>1</v>
+      </c>
+      <c r="J11" s="17"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -3678,26 +3516,26 @@
       <c r="IP11" s="6"/>
     </row>
     <row r="12" spans="1:250" s="7" customFormat="1" ht="11.25">
-      <c r="A12" s="40">
+      <c r="A12" s="35">
         <v>1.2</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="26">
+      <c r="C12" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="25">
         <v>41003</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="25">
         <v>41005</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="18"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="17"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -3940,26 +3778,26 @@
       <c r="IP12" s="6"/>
     </row>
     <row r="13" spans="1:250" s="7" customFormat="1" ht="11.25">
-      <c r="A13" s="40">
+      <c r="A13" s="35">
         <v>1.3</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="25">
         <v>41001</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="25">
         <v>41005</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="18"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="17"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -4202,26 +4040,26 @@
       <c r="IP13" s="6"/>
     </row>
     <row r="14" spans="1:250" s="7" customFormat="1" ht="11.25">
-      <c r="A14" s="40">
+      <c r="A14" s="35">
         <v>1.4</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="25">
         <v>41006</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="25">
         <v>41012</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="18"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="17"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -4464,26 +4302,26 @@
       <c r="IP14" s="6"/>
     </row>
     <row r="15" spans="1:250" s="7" customFormat="1" ht="11.25">
-      <c r="A15" s="40">
+      <c r="A15" s="35">
         <v>1.5</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="25">
         <v>41013</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="25">
         <v>41013</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="18"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="17"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -4726,26 +4564,26 @@
       <c r="IP15" s="6"/>
     </row>
     <row r="16" spans="1:250" s="7" customFormat="1" ht="11.25">
-      <c r="A16" s="40">
+      <c r="A16" s="35">
         <v>1.6</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="25">
         <v>41014</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="25">
         <v>41014</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="18"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="17"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -4988,600 +4826,108 @@
       <c r="IP16" s="6"/>
     </row>
     <row r="17" spans="1:250" s="6" customFormat="1">
-      <c r="A17" s="85">
+      <c r="A17" s="80">
         <v>2</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="66">
+      <c r="D17" s="61">
         <v>41015</v>
       </c>
-      <c r="E17" s="66">
+      <c r="E17" s="61">
         <v>41025</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="18"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:250" s="6" customFormat="1">
-      <c r="A18" s="85">
+      <c r="A18" s="86"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:250" s="6" customFormat="1">
+      <c r="A19" s="80">
         <v>3</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B19" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C19" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="66">
+      <c r="D19" s="61">
         <v>41026</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E19" s="61">
         <v>41031</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="18"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="17"/>
     </row>
-    <row r="19" spans="1:250" s="6" customFormat="1" ht="12">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="18"/>
+    <row r="20" spans="1:250" s="6" customFormat="1">
+      <c r="A20" s="86"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="17"/>
     </row>
-    <row r="20" spans="1:250" s="7" customFormat="1" ht="15.75">
-      <c r="A20" s="43" t="s">
+    <row r="21" spans="1:250" s="6" customFormat="1" ht="12">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="1:250" s="7" customFormat="1" ht="15.75">
+      <c r="A22" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B22" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C22" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="67">
+      <c r="D22" s="62">
         <v>41032</v>
       </c>
-      <c r="E20" s="67">
+      <c r="E22" s="62">
         <v>41046</v>
       </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="46">
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="41">
         <v>15</v>
       </c>
-      <c r="I20" s="47"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="6"/>
-      <c r="AK20" s="6"/>
-      <c r="AL20" s="6"/>
-      <c r="AM20" s="6"/>
-      <c r="AN20" s="6"/>
-      <c r="AO20" s="6"/>
-      <c r="AP20" s="6"/>
-      <c r="AQ20" s="6"/>
-      <c r="AR20" s="6"/>
-      <c r="AS20" s="6"/>
-      <c r="AT20" s="6"/>
-      <c r="AU20" s="6"/>
-      <c r="AV20" s="6"/>
-      <c r="AW20" s="6"/>
-      <c r="AX20" s="6"/>
-      <c r="AY20" s="6"/>
-      <c r="AZ20" s="6"/>
-      <c r="BA20" s="6"/>
-      <c r="BB20" s="6"/>
-      <c r="BC20" s="6"/>
-      <c r="BD20" s="6"/>
-      <c r="BE20" s="6"/>
-      <c r="BF20" s="6"/>
-      <c r="BG20" s="6"/>
-      <c r="BH20" s="6"/>
-      <c r="BI20" s="6"/>
-      <c r="BJ20" s="6"/>
-      <c r="BK20" s="6"/>
-      <c r="BL20" s="6"/>
-      <c r="BM20" s="6"/>
-      <c r="BN20" s="6"/>
-      <c r="BO20" s="6"/>
-      <c r="BP20" s="6"/>
-      <c r="BQ20" s="6"/>
-      <c r="BR20" s="6"/>
-      <c r="BS20" s="6"/>
-      <c r="BT20" s="6"/>
-      <c r="BU20" s="6"/>
-      <c r="BV20" s="6"/>
-      <c r="BW20" s="6"/>
-      <c r="BX20" s="6"/>
-      <c r="BY20" s="6"/>
-      <c r="BZ20" s="6"/>
-      <c r="CA20" s="6"/>
-      <c r="CB20" s="6"/>
-      <c r="CC20" s="6"/>
-      <c r="CD20" s="6"/>
-      <c r="CE20" s="6"/>
-      <c r="CF20" s="6"/>
-      <c r="CG20" s="6"/>
-      <c r="CH20" s="6"/>
-      <c r="CI20" s="6"/>
-      <c r="CJ20" s="6"/>
-      <c r="CK20" s="6"/>
-      <c r="CL20" s="6"/>
-      <c r="CM20" s="6"/>
-      <c r="CN20" s="6"/>
-      <c r="CO20" s="6"/>
-      <c r="CP20" s="6"/>
-      <c r="CQ20" s="6"/>
-      <c r="CR20" s="6"/>
-      <c r="CS20" s="6"/>
-      <c r="CT20" s="6"/>
-      <c r="CU20" s="6"/>
-      <c r="CV20" s="6"/>
-      <c r="CW20" s="6"/>
-      <c r="CX20" s="6"/>
-      <c r="CY20" s="6"/>
-      <c r="CZ20" s="6"/>
-      <c r="DA20" s="6"/>
-      <c r="DB20" s="6"/>
-      <c r="DC20" s="6"/>
-      <c r="DD20" s="6"/>
-      <c r="DE20" s="6"/>
-      <c r="DF20" s="6"/>
-      <c r="DG20" s="6"/>
-      <c r="DH20" s="6"/>
-      <c r="DI20" s="6"/>
-      <c r="DJ20" s="6"/>
-      <c r="DK20" s="6"/>
-      <c r="DL20" s="6"/>
-      <c r="DM20" s="6"/>
-      <c r="DN20" s="6"/>
-      <c r="DO20" s="6"/>
-      <c r="DP20" s="6"/>
-      <c r="DQ20" s="6"/>
-      <c r="DR20" s="6"/>
-      <c r="DS20" s="6"/>
-      <c r="DT20" s="6"/>
-      <c r="DU20" s="6"/>
-      <c r="DV20" s="6"/>
-      <c r="DW20" s="6"/>
-      <c r="DX20" s="6"/>
-      <c r="DY20" s="6"/>
-      <c r="DZ20" s="6"/>
-      <c r="EA20" s="6"/>
-      <c r="EB20" s="6"/>
-      <c r="EC20" s="6"/>
-      <c r="ED20" s="6"/>
-      <c r="EE20" s="6"/>
-      <c r="EF20" s="6"/>
-      <c r="EG20" s="6"/>
-      <c r="EH20" s="6"/>
-      <c r="EI20" s="6"/>
-      <c r="EJ20" s="6"/>
-      <c r="EK20" s="6"/>
-      <c r="EL20" s="6"/>
-      <c r="EM20" s="6"/>
-      <c r="EN20" s="6"/>
-      <c r="EO20" s="6"/>
-      <c r="EP20" s="6"/>
-      <c r="EQ20" s="6"/>
-      <c r="ER20" s="6"/>
-      <c r="ES20" s="6"/>
-      <c r="ET20" s="6"/>
-      <c r="EU20" s="6"/>
-      <c r="EV20" s="6"/>
-      <c r="EW20" s="6"/>
-      <c r="EX20" s="6"/>
-      <c r="EY20" s="6"/>
-      <c r="EZ20" s="6"/>
-      <c r="FA20" s="6"/>
-      <c r="FB20" s="6"/>
-      <c r="FC20" s="6"/>
-      <c r="FD20" s="6"/>
-      <c r="FE20" s="6"/>
-      <c r="FF20" s="6"/>
-      <c r="FG20" s="6"/>
-      <c r="FH20" s="6"/>
-      <c r="FI20" s="6"/>
-      <c r="FJ20" s="6"/>
-      <c r="FK20" s="6"/>
-      <c r="FL20" s="6"/>
-      <c r="FM20" s="6"/>
-      <c r="FN20" s="6"/>
-      <c r="FO20" s="6"/>
-      <c r="FP20" s="6"/>
-      <c r="FQ20" s="6"/>
-      <c r="FR20" s="6"/>
-      <c r="FS20" s="6"/>
-      <c r="FT20" s="6"/>
-      <c r="FU20" s="6"/>
-      <c r="FV20" s="6"/>
-      <c r="FW20" s="6"/>
-      <c r="FX20" s="6"/>
-      <c r="FY20" s="6"/>
-      <c r="FZ20" s="6"/>
-      <c r="GA20" s="6"/>
-      <c r="GB20" s="6"/>
-      <c r="GC20" s="6"/>
-      <c r="GD20" s="6"/>
-      <c r="GE20" s="6"/>
-      <c r="GF20" s="6"/>
-      <c r="GG20" s="6"/>
-      <c r="GH20" s="6"/>
-      <c r="GI20" s="6"/>
-      <c r="GJ20" s="6"/>
-      <c r="GK20" s="6"/>
-      <c r="GL20" s="6"/>
-      <c r="GM20" s="6"/>
-      <c r="GN20" s="6"/>
-      <c r="GO20" s="6"/>
-      <c r="GP20" s="6"/>
-      <c r="GQ20" s="6"/>
-      <c r="GR20" s="6"/>
-      <c r="GS20" s="6"/>
-      <c r="GT20" s="6"/>
-      <c r="GU20" s="6"/>
-      <c r="GV20" s="6"/>
-      <c r="GW20" s="6"/>
-      <c r="GX20" s="6"/>
-      <c r="GY20" s="6"/>
-      <c r="GZ20" s="6"/>
-      <c r="HA20" s="6"/>
-      <c r="HB20" s="6"/>
-      <c r="HC20" s="6"/>
-      <c r="HD20" s="6"/>
-      <c r="HE20" s="6"/>
-      <c r="HF20" s="6"/>
-      <c r="HG20" s="6"/>
-      <c r="HH20" s="6"/>
-      <c r="HI20" s="6"/>
-      <c r="HJ20" s="6"/>
-      <c r="HK20" s="6"/>
-      <c r="HL20" s="6"/>
-      <c r="HM20" s="6"/>
-      <c r="HN20" s="6"/>
-      <c r="HO20" s="6"/>
-      <c r="HP20" s="6"/>
-      <c r="HQ20" s="6"/>
-      <c r="HR20" s="6"/>
-      <c r="HS20" s="6"/>
-      <c r="HT20" s="6"/>
-      <c r="HU20" s="6"/>
-      <c r="HV20" s="6"/>
-      <c r="HW20" s="6"/>
-      <c r="HX20" s="6"/>
-      <c r="HY20" s="6"/>
-      <c r="HZ20" s="6"/>
-      <c r="IA20" s="6"/>
-      <c r="IB20" s="6"/>
-      <c r="IC20" s="6"/>
-      <c r="ID20" s="6"/>
-      <c r="IE20" s="6"/>
-      <c r="IF20" s="6"/>
-      <c r="IG20" s="6"/>
-      <c r="IH20" s="6"/>
-      <c r="II20" s="6"/>
-      <c r="IJ20" s="6"/>
-      <c r="IK20" s="6"/>
-      <c r="IL20" s="6"/>
-      <c r="IM20" s="6"/>
-      <c r="IN20" s="6"/>
-      <c r="IO20" s="6"/>
-      <c r="IP20" s="6"/>
-    </row>
-    <row r="21" spans="1:250" s="7" customFormat="1" ht="12">
-      <c r="A21" s="81">
-        <v>1</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
-      <c r="AH21" s="6"/>
-      <c r="AI21" s="6"/>
-      <c r="AJ21" s="6"/>
-      <c r="AK21" s="6"/>
-      <c r="AL21" s="6"/>
-      <c r="AM21" s="6"/>
-      <c r="AN21" s="6"/>
-      <c r="AO21" s="6"/>
-      <c r="AP21" s="6"/>
-      <c r="AQ21" s="6"/>
-      <c r="AR21" s="6"/>
-      <c r="AS21" s="6"/>
-      <c r="AT21" s="6"/>
-      <c r="AU21" s="6"/>
-      <c r="AV21" s="6"/>
-      <c r="AW21" s="6"/>
-      <c r="AX21" s="6"/>
-      <c r="AY21" s="6"/>
-      <c r="AZ21" s="6"/>
-      <c r="BA21" s="6"/>
-      <c r="BB21" s="6"/>
-      <c r="BC21" s="6"/>
-      <c r="BD21" s="6"/>
-      <c r="BE21" s="6"/>
-      <c r="BF21" s="6"/>
-      <c r="BG21" s="6"/>
-      <c r="BH21" s="6"/>
-      <c r="BI21" s="6"/>
-      <c r="BJ21" s="6"/>
-      <c r="BK21" s="6"/>
-      <c r="BL21" s="6"/>
-      <c r="BM21" s="6"/>
-      <c r="BN21" s="6"/>
-      <c r="BO21" s="6"/>
-      <c r="BP21" s="6"/>
-      <c r="BQ21" s="6"/>
-      <c r="BR21" s="6"/>
-      <c r="BS21" s="6"/>
-      <c r="BT21" s="6"/>
-      <c r="BU21" s="6"/>
-      <c r="BV21" s="6"/>
-      <c r="BW21" s="6"/>
-      <c r="BX21" s="6"/>
-      <c r="BY21" s="6"/>
-      <c r="BZ21" s="6"/>
-      <c r="CA21" s="6"/>
-      <c r="CB21" s="6"/>
-      <c r="CC21" s="6"/>
-      <c r="CD21" s="6"/>
-      <c r="CE21" s="6"/>
-      <c r="CF21" s="6"/>
-      <c r="CG21" s="6"/>
-      <c r="CH21" s="6"/>
-      <c r="CI21" s="6"/>
-      <c r="CJ21" s="6"/>
-      <c r="CK21" s="6"/>
-      <c r="CL21" s="6"/>
-      <c r="CM21" s="6"/>
-      <c r="CN21" s="6"/>
-      <c r="CO21" s="6"/>
-      <c r="CP21" s="6"/>
-      <c r="CQ21" s="6"/>
-      <c r="CR21" s="6"/>
-      <c r="CS21" s="6"/>
-      <c r="CT21" s="6"/>
-      <c r="CU21" s="6"/>
-      <c r="CV21" s="6"/>
-      <c r="CW21" s="6"/>
-      <c r="CX21" s="6"/>
-      <c r="CY21" s="6"/>
-      <c r="CZ21" s="6"/>
-      <c r="DA21" s="6"/>
-      <c r="DB21" s="6"/>
-      <c r="DC21" s="6"/>
-      <c r="DD21" s="6"/>
-      <c r="DE21" s="6"/>
-      <c r="DF21" s="6"/>
-      <c r="DG21" s="6"/>
-      <c r="DH21" s="6"/>
-      <c r="DI21" s="6"/>
-      <c r="DJ21" s="6"/>
-      <c r="DK21" s="6"/>
-      <c r="DL21" s="6"/>
-      <c r="DM21" s="6"/>
-      <c r="DN21" s="6"/>
-      <c r="DO21" s="6"/>
-      <c r="DP21" s="6"/>
-      <c r="DQ21" s="6"/>
-      <c r="DR21" s="6"/>
-      <c r="DS21" s="6"/>
-      <c r="DT21" s="6"/>
-      <c r="DU21" s="6"/>
-      <c r="DV21" s="6"/>
-      <c r="DW21" s="6"/>
-      <c r="DX21" s="6"/>
-      <c r="DY21" s="6"/>
-      <c r="DZ21" s="6"/>
-      <c r="EA21" s="6"/>
-      <c r="EB21" s="6"/>
-      <c r="EC21" s="6"/>
-      <c r="ED21" s="6"/>
-      <c r="EE21" s="6"/>
-      <c r="EF21" s="6"/>
-      <c r="EG21" s="6"/>
-      <c r="EH21" s="6"/>
-      <c r="EI21" s="6"/>
-      <c r="EJ21" s="6"/>
-      <c r="EK21" s="6"/>
-      <c r="EL21" s="6"/>
-      <c r="EM21" s="6"/>
-      <c r="EN21" s="6"/>
-      <c r="EO21" s="6"/>
-      <c r="EP21" s="6"/>
-      <c r="EQ21" s="6"/>
-      <c r="ER21" s="6"/>
-      <c r="ES21" s="6"/>
-      <c r="ET21" s="6"/>
-      <c r="EU21" s="6"/>
-      <c r="EV21" s="6"/>
-      <c r="EW21" s="6"/>
-      <c r="EX21" s="6"/>
-      <c r="EY21" s="6"/>
-      <c r="EZ21" s="6"/>
-      <c r="FA21" s="6"/>
-      <c r="FB21" s="6"/>
-      <c r="FC21" s="6"/>
-      <c r="FD21" s="6"/>
-      <c r="FE21" s="6"/>
-      <c r="FF21" s="6"/>
-      <c r="FG21" s="6"/>
-      <c r="FH21" s="6"/>
-      <c r="FI21" s="6"/>
-      <c r="FJ21" s="6"/>
-      <c r="FK21" s="6"/>
-      <c r="FL21" s="6"/>
-      <c r="FM21" s="6"/>
-      <c r="FN21" s="6"/>
-      <c r="FO21" s="6"/>
-      <c r="FP21" s="6"/>
-      <c r="FQ21" s="6"/>
-      <c r="FR21" s="6"/>
-      <c r="FS21" s="6"/>
-      <c r="FT21" s="6"/>
-      <c r="FU21" s="6"/>
-      <c r="FV21" s="6"/>
-      <c r="FW21" s="6"/>
-      <c r="FX21" s="6"/>
-      <c r="FY21" s="6"/>
-      <c r="FZ21" s="6"/>
-      <c r="GA21" s="6"/>
-      <c r="GB21" s="6"/>
-      <c r="GC21" s="6"/>
-      <c r="GD21" s="6"/>
-      <c r="GE21" s="6"/>
-      <c r="GF21" s="6"/>
-      <c r="GG21" s="6"/>
-      <c r="GH21" s="6"/>
-      <c r="GI21" s="6"/>
-      <c r="GJ21" s="6"/>
-      <c r="GK21" s="6"/>
-      <c r="GL21" s="6"/>
-      <c r="GM21" s="6"/>
-      <c r="GN21" s="6"/>
-      <c r="GO21" s="6"/>
-      <c r="GP21" s="6"/>
-      <c r="GQ21" s="6"/>
-      <c r="GR21" s="6"/>
-      <c r="GS21" s="6"/>
-      <c r="GT21" s="6"/>
-      <c r="GU21" s="6"/>
-      <c r="GV21" s="6"/>
-      <c r="GW21" s="6"/>
-      <c r="GX21" s="6"/>
-      <c r="GY21" s="6"/>
-      <c r="GZ21" s="6"/>
-      <c r="HA21" s="6"/>
-      <c r="HB21" s="6"/>
-      <c r="HC21" s="6"/>
-      <c r="HD21" s="6"/>
-      <c r="HE21" s="6"/>
-      <c r="HF21" s="6"/>
-      <c r="HG21" s="6"/>
-      <c r="HH21" s="6"/>
-      <c r="HI21" s="6"/>
-      <c r="HJ21" s="6"/>
-      <c r="HK21" s="6"/>
-      <c r="HL21" s="6"/>
-      <c r="HM21" s="6"/>
-      <c r="HN21" s="6"/>
-      <c r="HO21" s="6"/>
-      <c r="HP21" s="6"/>
-      <c r="HQ21" s="6"/>
-      <c r="HR21" s="6"/>
-      <c r="HS21" s="6"/>
-      <c r="HT21" s="6"/>
-      <c r="HU21" s="6"/>
-      <c r="HV21" s="6"/>
-      <c r="HW21" s="6"/>
-      <c r="HX21" s="6"/>
-      <c r="HY21" s="6"/>
-      <c r="HZ21" s="6"/>
-      <c r="IA21" s="6"/>
-      <c r="IB21" s="6"/>
-      <c r="IC21" s="6"/>
-      <c r="ID21" s="6"/>
-      <c r="IE21" s="6"/>
-      <c r="IF21" s="6"/>
-      <c r="IG21" s="6"/>
-      <c r="IH21" s="6"/>
-      <c r="II21" s="6"/>
-      <c r="IJ21" s="6"/>
-      <c r="IK21" s="6"/>
-      <c r="IL21" s="6"/>
-      <c r="IM21" s="6"/>
-      <c r="IN21" s="6"/>
-      <c r="IO21" s="6"/>
-      <c r="IP21" s="6"/>
-    </row>
-    <row r="22" spans="1:250" s="7" customFormat="1" ht="11.25">
-      <c r="A22" s="80">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="18"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="17"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
@@ -5823,23 +5169,23 @@
       <c r="IO22" s="6"/>
       <c r="IP22" s="6"/>
     </row>
-    <row r="23" spans="1:250" s="7" customFormat="1" ht="11.25">
-      <c r="A23" s="80">
-        <v>1.2</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="18"/>
+    <row r="23" spans="1:250" s="7" customFormat="1" ht="12">
+      <c r="A23" s="76">
+        <v>1</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="17"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -6082,22 +5428,22 @@
       <c r="IP23" s="6"/>
     </row>
     <row r="24" spans="1:250" s="7" customFormat="1" ht="11.25">
-      <c r="A24" s="80">
-        <v>1.4</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="62" t="s">
+      <c r="A24" s="75">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="18"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="17"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
@@ -6340,22 +5686,22 @@
       <c r="IP24" s="6"/>
     </row>
     <row r="25" spans="1:250" s="7" customFormat="1" ht="11.25">
-      <c r="A25" s="80">
-        <v>1.6</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="62" t="s">
+      <c r="A25" s="75">
+        <v>1.2</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="18"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="17"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
@@ -6597,575 +5943,569 @@
       <c r="IO25" s="6"/>
       <c r="IP25" s="6"/>
     </row>
-    <row r="26" spans="1:250" s="6" customFormat="1" ht="12">
-      <c r="A26" s="81">
+    <row r="26" spans="1:250" s="7" customFormat="1" ht="11.25">
+      <c r="A26" s="75">
+        <v>1.4</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="6"/>
+      <c r="AN26" s="6"/>
+      <c r="AO26" s="6"/>
+      <c r="AP26" s="6"/>
+      <c r="AQ26" s="6"/>
+      <c r="AR26" s="6"/>
+      <c r="AS26" s="6"/>
+      <c r="AT26" s="6"/>
+      <c r="AU26" s="6"/>
+      <c r="AV26" s="6"/>
+      <c r="AW26" s="6"/>
+      <c r="AX26" s="6"/>
+      <c r="AY26" s="6"/>
+      <c r="AZ26" s="6"/>
+      <c r="BA26" s="6"/>
+      <c r="BB26" s="6"/>
+      <c r="BC26" s="6"/>
+      <c r="BD26" s="6"/>
+      <c r="BE26" s="6"/>
+      <c r="BF26" s="6"/>
+      <c r="BG26" s="6"/>
+      <c r="BH26" s="6"/>
+      <c r="BI26" s="6"/>
+      <c r="BJ26" s="6"/>
+      <c r="BK26" s="6"/>
+      <c r="BL26" s="6"/>
+      <c r="BM26" s="6"/>
+      <c r="BN26" s="6"/>
+      <c r="BO26" s="6"/>
+      <c r="BP26" s="6"/>
+      <c r="BQ26" s="6"/>
+      <c r="BR26" s="6"/>
+      <c r="BS26" s="6"/>
+      <c r="BT26" s="6"/>
+      <c r="BU26" s="6"/>
+      <c r="BV26" s="6"/>
+      <c r="BW26" s="6"/>
+      <c r="BX26" s="6"/>
+      <c r="BY26" s="6"/>
+      <c r="BZ26" s="6"/>
+      <c r="CA26" s="6"/>
+      <c r="CB26" s="6"/>
+      <c r="CC26" s="6"/>
+      <c r="CD26" s="6"/>
+      <c r="CE26" s="6"/>
+      <c r="CF26" s="6"/>
+      <c r="CG26" s="6"/>
+      <c r="CH26" s="6"/>
+      <c r="CI26" s="6"/>
+      <c r="CJ26" s="6"/>
+      <c r="CK26" s="6"/>
+      <c r="CL26" s="6"/>
+      <c r="CM26" s="6"/>
+      <c r="CN26" s="6"/>
+      <c r="CO26" s="6"/>
+      <c r="CP26" s="6"/>
+      <c r="CQ26" s="6"/>
+      <c r="CR26" s="6"/>
+      <c r="CS26" s="6"/>
+      <c r="CT26" s="6"/>
+      <c r="CU26" s="6"/>
+      <c r="CV26" s="6"/>
+      <c r="CW26" s="6"/>
+      <c r="CX26" s="6"/>
+      <c r="CY26" s="6"/>
+      <c r="CZ26" s="6"/>
+      <c r="DA26" s="6"/>
+      <c r="DB26" s="6"/>
+      <c r="DC26" s="6"/>
+      <c r="DD26" s="6"/>
+      <c r="DE26" s="6"/>
+      <c r="DF26" s="6"/>
+      <c r="DG26" s="6"/>
+      <c r="DH26" s="6"/>
+      <c r="DI26" s="6"/>
+      <c r="DJ26" s="6"/>
+      <c r="DK26" s="6"/>
+      <c r="DL26" s="6"/>
+      <c r="DM26" s="6"/>
+      <c r="DN26" s="6"/>
+      <c r="DO26" s="6"/>
+      <c r="DP26" s="6"/>
+      <c r="DQ26" s="6"/>
+      <c r="DR26" s="6"/>
+      <c r="DS26" s="6"/>
+      <c r="DT26" s="6"/>
+      <c r="DU26" s="6"/>
+      <c r="DV26" s="6"/>
+      <c r="DW26" s="6"/>
+      <c r="DX26" s="6"/>
+      <c r="DY26" s="6"/>
+      <c r="DZ26" s="6"/>
+      <c r="EA26" s="6"/>
+      <c r="EB26" s="6"/>
+      <c r="EC26" s="6"/>
+      <c r="ED26" s="6"/>
+      <c r="EE26" s="6"/>
+      <c r="EF26" s="6"/>
+      <c r="EG26" s="6"/>
+      <c r="EH26" s="6"/>
+      <c r="EI26" s="6"/>
+      <c r="EJ26" s="6"/>
+      <c r="EK26" s="6"/>
+      <c r="EL26" s="6"/>
+      <c r="EM26" s="6"/>
+      <c r="EN26" s="6"/>
+      <c r="EO26" s="6"/>
+      <c r="EP26" s="6"/>
+      <c r="EQ26" s="6"/>
+      <c r="ER26" s="6"/>
+      <c r="ES26" s="6"/>
+      <c r="ET26" s="6"/>
+      <c r="EU26" s="6"/>
+      <c r="EV26" s="6"/>
+      <c r="EW26" s="6"/>
+      <c r="EX26" s="6"/>
+      <c r="EY26" s="6"/>
+      <c r="EZ26" s="6"/>
+      <c r="FA26" s="6"/>
+      <c r="FB26" s="6"/>
+      <c r="FC26" s="6"/>
+      <c r="FD26" s="6"/>
+      <c r="FE26" s="6"/>
+      <c r="FF26" s="6"/>
+      <c r="FG26" s="6"/>
+      <c r="FH26" s="6"/>
+      <c r="FI26" s="6"/>
+      <c r="FJ26" s="6"/>
+      <c r="FK26" s="6"/>
+      <c r="FL26" s="6"/>
+      <c r="FM26" s="6"/>
+      <c r="FN26" s="6"/>
+      <c r="FO26" s="6"/>
+      <c r="FP26" s="6"/>
+      <c r="FQ26" s="6"/>
+      <c r="FR26" s="6"/>
+      <c r="FS26" s="6"/>
+      <c r="FT26" s="6"/>
+      <c r="FU26" s="6"/>
+      <c r="FV26" s="6"/>
+      <c r="FW26" s="6"/>
+      <c r="FX26" s="6"/>
+      <c r="FY26" s="6"/>
+      <c r="FZ26" s="6"/>
+      <c r="GA26" s="6"/>
+      <c r="GB26" s="6"/>
+      <c r="GC26" s="6"/>
+      <c r="GD26" s="6"/>
+      <c r="GE26" s="6"/>
+      <c r="GF26" s="6"/>
+      <c r="GG26" s="6"/>
+      <c r="GH26" s="6"/>
+      <c r="GI26" s="6"/>
+      <c r="GJ26" s="6"/>
+      <c r="GK26" s="6"/>
+      <c r="GL26" s="6"/>
+      <c r="GM26" s="6"/>
+      <c r="GN26" s="6"/>
+      <c r="GO26" s="6"/>
+      <c r="GP26" s="6"/>
+      <c r="GQ26" s="6"/>
+      <c r="GR26" s="6"/>
+      <c r="GS26" s="6"/>
+      <c r="GT26" s="6"/>
+      <c r="GU26" s="6"/>
+      <c r="GV26" s="6"/>
+      <c r="GW26" s="6"/>
+      <c r="GX26" s="6"/>
+      <c r="GY26" s="6"/>
+      <c r="GZ26" s="6"/>
+      <c r="HA26" s="6"/>
+      <c r="HB26" s="6"/>
+      <c r="HC26" s="6"/>
+      <c r="HD26" s="6"/>
+      <c r="HE26" s="6"/>
+      <c r="HF26" s="6"/>
+      <c r="HG26" s="6"/>
+      <c r="HH26" s="6"/>
+      <c r="HI26" s="6"/>
+      <c r="HJ26" s="6"/>
+      <c r="HK26" s="6"/>
+      <c r="HL26" s="6"/>
+      <c r="HM26" s="6"/>
+      <c r="HN26" s="6"/>
+      <c r="HO26" s="6"/>
+      <c r="HP26" s="6"/>
+      <c r="HQ26" s="6"/>
+      <c r="HR26" s="6"/>
+      <c r="HS26" s="6"/>
+      <c r="HT26" s="6"/>
+      <c r="HU26" s="6"/>
+      <c r="HV26" s="6"/>
+      <c r="HW26" s="6"/>
+      <c r="HX26" s="6"/>
+      <c r="HY26" s="6"/>
+      <c r="HZ26" s="6"/>
+      <c r="IA26" s="6"/>
+      <c r="IB26" s="6"/>
+      <c r="IC26" s="6"/>
+      <c r="ID26" s="6"/>
+      <c r="IE26" s="6"/>
+      <c r="IF26" s="6"/>
+      <c r="IG26" s="6"/>
+      <c r="IH26" s="6"/>
+      <c r="II26" s="6"/>
+      <c r="IJ26" s="6"/>
+      <c r="IK26" s="6"/>
+      <c r="IL26" s="6"/>
+      <c r="IM26" s="6"/>
+      <c r="IN26" s="6"/>
+      <c r="IO26" s="6"/>
+      <c r="IP26" s="6"/>
+    </row>
+    <row r="27" spans="1:250" s="7" customFormat="1" ht="11.25">
+      <c r="A27" s="75">
+        <v>1.6</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6"/>
+      <c r="AN27" s="6"/>
+      <c r="AO27" s="6"/>
+      <c r="AP27" s="6"/>
+      <c r="AQ27" s="6"/>
+      <c r="AR27" s="6"/>
+      <c r="AS27" s="6"/>
+      <c r="AT27" s="6"/>
+      <c r="AU27" s="6"/>
+      <c r="AV27" s="6"/>
+      <c r="AW27" s="6"/>
+      <c r="AX27" s="6"/>
+      <c r="AY27" s="6"/>
+      <c r="AZ27" s="6"/>
+      <c r="BA27" s="6"/>
+      <c r="BB27" s="6"/>
+      <c r="BC27" s="6"/>
+      <c r="BD27" s="6"/>
+      <c r="BE27" s="6"/>
+      <c r="BF27" s="6"/>
+      <c r="BG27" s="6"/>
+      <c r="BH27" s="6"/>
+      <c r="BI27" s="6"/>
+      <c r="BJ27" s="6"/>
+      <c r="BK27" s="6"/>
+      <c r="BL27" s="6"/>
+      <c r="BM27" s="6"/>
+      <c r="BN27" s="6"/>
+      <c r="BO27" s="6"/>
+      <c r="BP27" s="6"/>
+      <c r="BQ27" s="6"/>
+      <c r="BR27" s="6"/>
+      <c r="BS27" s="6"/>
+      <c r="BT27" s="6"/>
+      <c r="BU27" s="6"/>
+      <c r="BV27" s="6"/>
+      <c r="BW27" s="6"/>
+      <c r="BX27" s="6"/>
+      <c r="BY27" s="6"/>
+      <c r="BZ27" s="6"/>
+      <c r="CA27" s="6"/>
+      <c r="CB27" s="6"/>
+      <c r="CC27" s="6"/>
+      <c r="CD27" s="6"/>
+      <c r="CE27" s="6"/>
+      <c r="CF27" s="6"/>
+      <c r="CG27" s="6"/>
+      <c r="CH27" s="6"/>
+      <c r="CI27" s="6"/>
+      <c r="CJ27" s="6"/>
+      <c r="CK27" s="6"/>
+      <c r="CL27" s="6"/>
+      <c r="CM27" s="6"/>
+      <c r="CN27" s="6"/>
+      <c r="CO27" s="6"/>
+      <c r="CP27" s="6"/>
+      <c r="CQ27" s="6"/>
+      <c r="CR27" s="6"/>
+      <c r="CS27" s="6"/>
+      <c r="CT27" s="6"/>
+      <c r="CU27" s="6"/>
+      <c r="CV27" s="6"/>
+      <c r="CW27" s="6"/>
+      <c r="CX27" s="6"/>
+      <c r="CY27" s="6"/>
+      <c r="CZ27" s="6"/>
+      <c r="DA27" s="6"/>
+      <c r="DB27" s="6"/>
+      <c r="DC27" s="6"/>
+      <c r="DD27" s="6"/>
+      <c r="DE27" s="6"/>
+      <c r="DF27" s="6"/>
+      <c r="DG27" s="6"/>
+      <c r="DH27" s="6"/>
+      <c r="DI27" s="6"/>
+      <c r="DJ27" s="6"/>
+      <c r="DK27" s="6"/>
+      <c r="DL27" s="6"/>
+      <c r="DM27" s="6"/>
+      <c r="DN27" s="6"/>
+      <c r="DO27" s="6"/>
+      <c r="DP27" s="6"/>
+      <c r="DQ27" s="6"/>
+      <c r="DR27" s="6"/>
+      <c r="DS27" s="6"/>
+      <c r="DT27" s="6"/>
+      <c r="DU27" s="6"/>
+      <c r="DV27" s="6"/>
+      <c r="DW27" s="6"/>
+      <c r="DX27" s="6"/>
+      <c r="DY27" s="6"/>
+      <c r="DZ27" s="6"/>
+      <c r="EA27" s="6"/>
+      <c r="EB27" s="6"/>
+      <c r="EC27" s="6"/>
+      <c r="ED27" s="6"/>
+      <c r="EE27" s="6"/>
+      <c r="EF27" s="6"/>
+      <c r="EG27" s="6"/>
+      <c r="EH27" s="6"/>
+      <c r="EI27" s="6"/>
+      <c r="EJ27" s="6"/>
+      <c r="EK27" s="6"/>
+      <c r="EL27" s="6"/>
+      <c r="EM27" s="6"/>
+      <c r="EN27" s="6"/>
+      <c r="EO27" s="6"/>
+      <c r="EP27" s="6"/>
+      <c r="EQ27" s="6"/>
+      <c r="ER27" s="6"/>
+      <c r="ES27" s="6"/>
+      <c r="ET27" s="6"/>
+      <c r="EU27" s="6"/>
+      <c r="EV27" s="6"/>
+      <c r="EW27" s="6"/>
+      <c r="EX27" s="6"/>
+      <c r="EY27" s="6"/>
+      <c r="EZ27" s="6"/>
+      <c r="FA27" s="6"/>
+      <c r="FB27" s="6"/>
+      <c r="FC27" s="6"/>
+      <c r="FD27" s="6"/>
+      <c r="FE27" s="6"/>
+      <c r="FF27" s="6"/>
+      <c r="FG27" s="6"/>
+      <c r="FH27" s="6"/>
+      <c r="FI27" s="6"/>
+      <c r="FJ27" s="6"/>
+      <c r="FK27" s="6"/>
+      <c r="FL27" s="6"/>
+      <c r="FM27" s="6"/>
+      <c r="FN27" s="6"/>
+      <c r="FO27" s="6"/>
+      <c r="FP27" s="6"/>
+      <c r="FQ27" s="6"/>
+      <c r="FR27" s="6"/>
+      <c r="FS27" s="6"/>
+      <c r="FT27" s="6"/>
+      <c r="FU27" s="6"/>
+      <c r="FV27" s="6"/>
+      <c r="FW27" s="6"/>
+      <c r="FX27" s="6"/>
+      <c r="FY27" s="6"/>
+      <c r="FZ27" s="6"/>
+      <c r="GA27" s="6"/>
+      <c r="GB27" s="6"/>
+      <c r="GC27" s="6"/>
+      <c r="GD27" s="6"/>
+      <c r="GE27" s="6"/>
+      <c r="GF27" s="6"/>
+      <c r="GG27" s="6"/>
+      <c r="GH27" s="6"/>
+      <c r="GI27" s="6"/>
+      <c r="GJ27" s="6"/>
+      <c r="GK27" s="6"/>
+      <c r="GL27" s="6"/>
+      <c r="GM27" s="6"/>
+      <c r="GN27" s="6"/>
+      <c r="GO27" s="6"/>
+      <c r="GP27" s="6"/>
+      <c r="GQ27" s="6"/>
+      <c r="GR27" s="6"/>
+      <c r="GS27" s="6"/>
+      <c r="GT27" s="6"/>
+      <c r="GU27" s="6"/>
+      <c r="GV27" s="6"/>
+      <c r="GW27" s="6"/>
+      <c r="GX27" s="6"/>
+      <c r="GY27" s="6"/>
+      <c r="GZ27" s="6"/>
+      <c r="HA27" s="6"/>
+      <c r="HB27" s="6"/>
+      <c r="HC27" s="6"/>
+      <c r="HD27" s="6"/>
+      <c r="HE27" s="6"/>
+      <c r="HF27" s="6"/>
+      <c r="HG27" s="6"/>
+      <c r="HH27" s="6"/>
+      <c r="HI27" s="6"/>
+      <c r="HJ27" s="6"/>
+      <c r="HK27" s="6"/>
+      <c r="HL27" s="6"/>
+      <c r="HM27" s="6"/>
+      <c r="HN27" s="6"/>
+      <c r="HO27" s="6"/>
+      <c r="HP27" s="6"/>
+      <c r="HQ27" s="6"/>
+      <c r="HR27" s="6"/>
+      <c r="HS27" s="6"/>
+      <c r="HT27" s="6"/>
+      <c r="HU27" s="6"/>
+      <c r="HV27" s="6"/>
+      <c r="HW27" s="6"/>
+      <c r="HX27" s="6"/>
+      <c r="HY27" s="6"/>
+      <c r="HZ27" s="6"/>
+      <c r="IA27" s="6"/>
+      <c r="IB27" s="6"/>
+      <c r="IC27" s="6"/>
+      <c r="ID27" s="6"/>
+      <c r="IE27" s="6"/>
+      <c r="IF27" s="6"/>
+      <c r="IG27" s="6"/>
+      <c r="IH27" s="6"/>
+      <c r="II27" s="6"/>
+      <c r="IJ27" s="6"/>
+      <c r="IK27" s="6"/>
+      <c r="IL27" s="6"/>
+      <c r="IM27" s="6"/>
+      <c r="IN27" s="6"/>
+      <c r="IO27" s="6"/>
+      <c r="IP27" s="6"/>
+    </row>
+    <row r="28" spans="1:250" s="6" customFormat="1" ht="12">
+      <c r="A28" s="76">
         <v>2</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B28" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C28" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="18"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="17"/>
     </row>
-    <row r="27" spans="1:250" s="6" customFormat="1" ht="12">
-      <c r="A27" s="81">
+    <row r="29" spans="1:250" s="6" customFormat="1" ht="12">
+      <c r="A29" s="76">
         <v>3</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B29" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C29" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="18"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="17"/>
     </row>
-    <row r="28" spans="1:250" s="7" customFormat="1">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="6"/>
-      <c r="AD28" s="6"/>
-      <c r="AE28" s="6"/>
-      <c r="AF28" s="6"/>
-      <c r="AG28" s="6"/>
-      <c r="AH28" s="6"/>
-      <c r="AI28" s="6"/>
-      <c r="AJ28" s="6"/>
-      <c r="AK28" s="6"/>
-      <c r="AL28" s="6"/>
-      <c r="AM28" s="6"/>
-      <c r="AN28" s="6"/>
-      <c r="AO28" s="6"/>
-      <c r="AP28" s="6"/>
-      <c r="AQ28" s="6"/>
-      <c r="AR28" s="6"/>
-      <c r="AS28" s="6"/>
-      <c r="AT28" s="6"/>
-      <c r="AU28" s="6"/>
-      <c r="AV28" s="6"/>
-      <c r="AW28" s="6"/>
-      <c r="AX28" s="6"/>
-      <c r="AY28" s="6"/>
-      <c r="AZ28" s="6"/>
-      <c r="BA28" s="6"/>
-      <c r="BB28" s="6"/>
-      <c r="BC28" s="6"/>
-      <c r="BD28" s="6"/>
-      <c r="BE28" s="6"/>
-      <c r="BF28" s="6"/>
-      <c r="BG28" s="6"/>
-      <c r="BH28" s="6"/>
-      <c r="BI28" s="6"/>
-      <c r="BJ28" s="6"/>
-      <c r="BK28" s="6"/>
-      <c r="BL28" s="6"/>
-      <c r="BM28" s="6"/>
-      <c r="BN28" s="6"/>
-      <c r="BO28" s="6"/>
-      <c r="BP28" s="6"/>
-      <c r="BQ28" s="6"/>
-      <c r="BR28" s="6"/>
-      <c r="BS28" s="6"/>
-      <c r="BT28" s="6"/>
-      <c r="BU28" s="6"/>
-      <c r="BV28" s="6"/>
-      <c r="BW28" s="6"/>
-      <c r="BX28" s="6"/>
-      <c r="BY28" s="6"/>
-      <c r="BZ28" s="6"/>
-      <c r="CA28" s="6"/>
-      <c r="CB28" s="6"/>
-      <c r="CC28" s="6"/>
-      <c r="CD28" s="6"/>
-      <c r="CE28" s="6"/>
-      <c r="CF28" s="6"/>
-      <c r="CG28" s="6"/>
-      <c r="CH28" s="6"/>
-      <c r="CI28" s="6"/>
-      <c r="CJ28" s="6"/>
-      <c r="CK28" s="6"/>
-      <c r="CL28" s="6"/>
-      <c r="CM28" s="6"/>
-      <c r="CN28" s="6"/>
-      <c r="CO28" s="6"/>
-      <c r="CP28" s="6"/>
-      <c r="CQ28" s="6"/>
-      <c r="CR28" s="6"/>
-      <c r="CS28" s="6"/>
-      <c r="CT28" s="6"/>
-      <c r="CU28" s="6"/>
-      <c r="CV28" s="6"/>
-      <c r="CW28" s="6"/>
-      <c r="CX28" s="6"/>
-      <c r="CY28" s="6"/>
-      <c r="CZ28" s="6"/>
-      <c r="DA28" s="6"/>
-      <c r="DB28" s="6"/>
-      <c r="DC28" s="6"/>
-      <c r="DD28" s="6"/>
-      <c r="DE28" s="6"/>
-      <c r="DF28" s="6"/>
-      <c r="DG28" s="6"/>
-      <c r="DH28" s="6"/>
-      <c r="DI28" s="6"/>
-      <c r="DJ28" s="6"/>
-      <c r="DK28" s="6"/>
-      <c r="DL28" s="6"/>
-      <c r="DM28" s="6"/>
-      <c r="DN28" s="6"/>
-      <c r="DO28" s="6"/>
-      <c r="DP28" s="6"/>
-      <c r="DQ28" s="6"/>
-      <c r="DR28" s="6"/>
-      <c r="DS28" s="6"/>
-      <c r="DT28" s="6"/>
-      <c r="DU28" s="6"/>
-      <c r="DV28" s="6"/>
-      <c r="DW28" s="6"/>
-      <c r="DX28" s="6"/>
-      <c r="DY28" s="6"/>
-      <c r="DZ28" s="6"/>
-      <c r="EA28" s="6"/>
-      <c r="EB28" s="6"/>
-      <c r="EC28" s="6"/>
-      <c r="ED28" s="6"/>
-      <c r="EE28" s="6"/>
-      <c r="EF28" s="6"/>
-      <c r="EG28" s="6"/>
-      <c r="EH28" s="6"/>
-      <c r="EI28" s="6"/>
-      <c r="EJ28" s="6"/>
-      <c r="EK28" s="6"/>
-      <c r="EL28" s="6"/>
-      <c r="EM28" s="6"/>
-      <c r="EN28" s="6"/>
-      <c r="EO28" s="6"/>
-      <c r="EP28" s="6"/>
-      <c r="EQ28" s="6"/>
-      <c r="ER28" s="6"/>
-      <c r="ES28" s="6"/>
-      <c r="ET28" s="6"/>
-      <c r="EU28" s="6"/>
-      <c r="EV28" s="6"/>
-      <c r="EW28" s="6"/>
-      <c r="EX28" s="6"/>
-      <c r="EY28" s="6"/>
-      <c r="EZ28" s="6"/>
-      <c r="FA28" s="6"/>
-      <c r="FB28" s="6"/>
-      <c r="FC28" s="6"/>
-      <c r="FD28" s="6"/>
-      <c r="FE28" s="6"/>
-      <c r="FF28" s="6"/>
-      <c r="FG28" s="6"/>
-      <c r="FH28" s="6"/>
-      <c r="FI28" s="6"/>
-      <c r="FJ28" s="6"/>
-      <c r="FK28" s="6"/>
-      <c r="FL28" s="6"/>
-      <c r="FM28" s="6"/>
-      <c r="FN28" s="6"/>
-      <c r="FO28" s="6"/>
-      <c r="FP28" s="6"/>
-      <c r="FQ28" s="6"/>
-      <c r="FR28" s="6"/>
-      <c r="FS28" s="6"/>
-      <c r="FT28" s="6"/>
-      <c r="FU28" s="6"/>
-      <c r="FV28" s="6"/>
-      <c r="FW28" s="6"/>
-      <c r="FX28" s="6"/>
-      <c r="FY28" s="6"/>
-      <c r="FZ28" s="6"/>
-      <c r="GA28" s="6"/>
-      <c r="GB28" s="6"/>
-      <c r="GC28" s="6"/>
-      <c r="GD28" s="6"/>
-      <c r="GE28" s="6"/>
-      <c r="GF28" s="6"/>
-      <c r="GG28" s="6"/>
-      <c r="GH28" s="6"/>
-      <c r="GI28" s="6"/>
-      <c r="GJ28" s="6"/>
-      <c r="GK28" s="6"/>
-      <c r="GL28" s="6"/>
-      <c r="GM28" s="6"/>
-      <c r="GN28" s="6"/>
-      <c r="GO28" s="6"/>
-      <c r="GP28" s="6"/>
-      <c r="GQ28" s="6"/>
-      <c r="GR28" s="6"/>
-      <c r="GS28" s="6"/>
-      <c r="GT28" s="6"/>
-      <c r="GU28" s="6"/>
-      <c r="GV28" s="6"/>
-      <c r="GW28" s="6"/>
-      <c r="GX28" s="6"/>
-      <c r="GY28" s="6"/>
-      <c r="GZ28" s="6"/>
-      <c r="HA28" s="6"/>
-      <c r="HB28" s="6"/>
-      <c r="HC28" s="6"/>
-      <c r="HD28" s="6"/>
-      <c r="HE28" s="6"/>
-      <c r="HF28" s="6"/>
-      <c r="HG28" s="6"/>
-      <c r="HH28" s="6"/>
-      <c r="HI28" s="6"/>
-      <c r="HJ28" s="6"/>
-      <c r="HK28" s="6"/>
-      <c r="HL28" s="6"/>
-      <c r="HM28" s="6"/>
-      <c r="HN28" s="6"/>
-      <c r="HO28" s="6"/>
-      <c r="HP28" s="6"/>
-      <c r="HQ28" s="6"/>
-      <c r="HR28" s="6"/>
-      <c r="HS28" s="6"/>
-      <c r="HT28" s="6"/>
-      <c r="HU28" s="6"/>
-      <c r="HV28" s="6"/>
-      <c r="HW28" s="6"/>
-      <c r="HX28" s="6"/>
-      <c r="HY28" s="6"/>
-      <c r="HZ28" s="6"/>
-      <c r="IA28" s="6"/>
-      <c r="IB28" s="6"/>
-      <c r="IC28" s="6"/>
-      <c r="ID28" s="6"/>
-      <c r="IE28" s="6"/>
-      <c r="IF28" s="6"/>
-      <c r="IG28" s="6"/>
-      <c r="IH28" s="6"/>
-      <c r="II28" s="6"/>
-      <c r="IJ28" s="6"/>
-      <c r="IK28" s="6"/>
-      <c r="IL28" s="6"/>
-      <c r="IM28" s="6"/>
-      <c r="IN28" s="6"/>
-      <c r="IO28" s="6"/>
-      <c r="IP28" s="6"/>
-    </row>
-    <row r="29" spans="1:250" s="7" customFormat="1" ht="15.75">
-      <c r="A29" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="68">
-        <v>41047</v>
-      </c>
-      <c r="E29" s="68">
-        <v>41055</v>
-      </c>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="53">
-        <v>9</v>
-      </c>
-      <c r="I29" s="54"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="6"/>
-      <c r="AE29" s="6"/>
-      <c r="AF29" s="6"/>
-      <c r="AG29" s="6"/>
-      <c r="AH29" s="6"/>
-      <c r="AI29" s="6"/>
-      <c r="AJ29" s="6"/>
-      <c r="AK29" s="6"/>
-      <c r="AL29" s="6"/>
-      <c r="AM29" s="6"/>
-      <c r="AN29" s="6"/>
-      <c r="AO29" s="6"/>
-      <c r="AP29" s="6"/>
-      <c r="AQ29" s="6"/>
-      <c r="AR29" s="6"/>
-      <c r="AS29" s="6"/>
-      <c r="AT29" s="6"/>
-      <c r="AU29" s="6"/>
-      <c r="AV29" s="6"/>
-      <c r="AW29" s="6"/>
-      <c r="AX29" s="6"/>
-      <c r="AY29" s="6"/>
-      <c r="AZ29" s="6"/>
-      <c r="BA29" s="6"/>
-      <c r="BB29" s="6"/>
-      <c r="BC29" s="6"/>
-      <c r="BD29" s="6"/>
-      <c r="BE29" s="6"/>
-      <c r="BF29" s="6"/>
-      <c r="BG29" s="6"/>
-      <c r="BH29" s="6"/>
-      <c r="BI29" s="6"/>
-      <c r="BJ29" s="6"/>
-      <c r="BK29" s="6"/>
-      <c r="BL29" s="6"/>
-      <c r="BM29" s="6"/>
-      <c r="BN29" s="6"/>
-      <c r="BO29" s="6"/>
-      <c r="BP29" s="6"/>
-      <c r="BQ29" s="6"/>
-      <c r="BR29" s="6"/>
-      <c r="BS29" s="6"/>
-      <c r="BT29" s="6"/>
-      <c r="BU29" s="6"/>
-      <c r="BV29" s="6"/>
-      <c r="BW29" s="6"/>
-      <c r="BX29" s="6"/>
-      <c r="BY29" s="6"/>
-      <c r="BZ29" s="6"/>
-      <c r="CA29" s="6"/>
-      <c r="CB29" s="6"/>
-      <c r="CC29" s="6"/>
-      <c r="CD29" s="6"/>
-      <c r="CE29" s="6"/>
-      <c r="CF29" s="6"/>
-      <c r="CG29" s="6"/>
-      <c r="CH29" s="6"/>
-      <c r="CI29" s="6"/>
-      <c r="CJ29" s="6"/>
-      <c r="CK29" s="6"/>
-      <c r="CL29" s="6"/>
-      <c r="CM29" s="6"/>
-      <c r="CN29" s="6"/>
-      <c r="CO29" s="6"/>
-      <c r="CP29" s="6"/>
-      <c r="CQ29" s="6"/>
-      <c r="CR29" s="6"/>
-      <c r="CS29" s="6"/>
-      <c r="CT29" s="6"/>
-      <c r="CU29" s="6"/>
-      <c r="CV29" s="6"/>
-      <c r="CW29" s="6"/>
-      <c r="CX29" s="6"/>
-      <c r="CY29" s="6"/>
-      <c r="CZ29" s="6"/>
-      <c r="DA29" s="6"/>
-      <c r="DB29" s="6"/>
-      <c r="DC29" s="6"/>
-      <c r="DD29" s="6"/>
-      <c r="DE29" s="6"/>
-      <c r="DF29" s="6"/>
-      <c r="DG29" s="6"/>
-      <c r="DH29" s="6"/>
-      <c r="DI29" s="6"/>
-      <c r="DJ29" s="6"/>
-      <c r="DK29" s="6"/>
-      <c r="DL29" s="6"/>
-      <c r="DM29" s="6"/>
-      <c r="DN29" s="6"/>
-      <c r="DO29" s="6"/>
-      <c r="DP29" s="6"/>
-      <c r="DQ29" s="6"/>
-      <c r="DR29" s="6"/>
-      <c r="DS29" s="6"/>
-      <c r="DT29" s="6"/>
-      <c r="DU29" s="6"/>
-      <c r="DV29" s="6"/>
-      <c r="DW29" s="6"/>
-      <c r="DX29" s="6"/>
-      <c r="DY29" s="6"/>
-      <c r="DZ29" s="6"/>
-      <c r="EA29" s="6"/>
-      <c r="EB29" s="6"/>
-      <c r="EC29" s="6"/>
-      <c r="ED29" s="6"/>
-      <c r="EE29" s="6"/>
-      <c r="EF29" s="6"/>
-      <c r="EG29" s="6"/>
-      <c r="EH29" s="6"/>
-      <c r="EI29" s="6"/>
-      <c r="EJ29" s="6"/>
-      <c r="EK29" s="6"/>
-      <c r="EL29" s="6"/>
-      <c r="EM29" s="6"/>
-      <c r="EN29" s="6"/>
-      <c r="EO29" s="6"/>
-      <c r="EP29" s="6"/>
-      <c r="EQ29" s="6"/>
-      <c r="ER29" s="6"/>
-      <c r="ES29" s="6"/>
-      <c r="ET29" s="6"/>
-      <c r="EU29" s="6"/>
-      <c r="EV29" s="6"/>
-      <c r="EW29" s="6"/>
-      <c r="EX29" s="6"/>
-      <c r="EY29" s="6"/>
-      <c r="EZ29" s="6"/>
-      <c r="FA29" s="6"/>
-      <c r="FB29" s="6"/>
-      <c r="FC29" s="6"/>
-      <c r="FD29" s="6"/>
-      <c r="FE29" s="6"/>
-      <c r="FF29" s="6"/>
-      <c r="FG29" s="6"/>
-      <c r="FH29" s="6"/>
-      <c r="FI29" s="6"/>
-      <c r="FJ29" s="6"/>
-      <c r="FK29" s="6"/>
-      <c r="FL29" s="6"/>
-      <c r="FM29" s="6"/>
-      <c r="FN29" s="6"/>
-      <c r="FO29" s="6"/>
-      <c r="FP29" s="6"/>
-      <c r="FQ29" s="6"/>
-      <c r="FR29" s="6"/>
-      <c r="FS29" s="6"/>
-      <c r="FT29" s="6"/>
-      <c r="FU29" s="6"/>
-      <c r="FV29" s="6"/>
-      <c r="FW29" s="6"/>
-      <c r="FX29" s="6"/>
-      <c r="FY29" s="6"/>
-      <c r="FZ29" s="6"/>
-      <c r="GA29" s="6"/>
-      <c r="GB29" s="6"/>
-      <c r="GC29" s="6"/>
-      <c r="GD29" s="6"/>
-      <c r="GE29" s="6"/>
-      <c r="GF29" s="6"/>
-      <c r="GG29" s="6"/>
-      <c r="GH29" s="6"/>
-      <c r="GI29" s="6"/>
-      <c r="GJ29" s="6"/>
-      <c r="GK29" s="6"/>
-      <c r="GL29" s="6"/>
-      <c r="GM29" s="6"/>
-      <c r="GN29" s="6"/>
-      <c r="GO29" s="6"/>
-      <c r="GP29" s="6"/>
-      <c r="GQ29" s="6"/>
-      <c r="GR29" s="6"/>
-      <c r="GS29" s="6"/>
-      <c r="GT29" s="6"/>
-      <c r="GU29" s="6"/>
-      <c r="GV29" s="6"/>
-      <c r="GW29" s="6"/>
-      <c r="GX29" s="6"/>
-      <c r="GY29" s="6"/>
-      <c r="GZ29" s="6"/>
-      <c r="HA29" s="6"/>
-      <c r="HB29" s="6"/>
-      <c r="HC29" s="6"/>
-      <c r="HD29" s="6"/>
-      <c r="HE29" s="6"/>
-      <c r="HF29" s="6"/>
-      <c r="HG29" s="6"/>
-      <c r="HH29" s="6"/>
-      <c r="HI29" s="6"/>
-      <c r="HJ29" s="6"/>
-      <c r="HK29" s="6"/>
-      <c r="HL29" s="6"/>
-      <c r="HM29" s="6"/>
-      <c r="HN29" s="6"/>
-      <c r="HO29" s="6"/>
-      <c r="HP29" s="6"/>
-      <c r="HQ29" s="6"/>
-      <c r="HR29" s="6"/>
-      <c r="HS29" s="6"/>
-      <c r="HT29" s="6"/>
-      <c r="HU29" s="6"/>
-      <c r="HV29" s="6"/>
-      <c r="HW29" s="6"/>
-      <c r="HX29" s="6"/>
-      <c r="HY29" s="6"/>
-      <c r="HZ29" s="6"/>
-      <c r="IA29" s="6"/>
-      <c r="IB29" s="6"/>
-      <c r="IC29" s="6"/>
-      <c r="ID29" s="6"/>
-      <c r="IE29" s="6"/>
-      <c r="IF29" s="6"/>
-      <c r="IG29" s="6"/>
-      <c r="IH29" s="6"/>
-      <c r="II29" s="6"/>
-      <c r="IJ29" s="6"/>
-      <c r="IK29" s="6"/>
-      <c r="IL29" s="6"/>
-      <c r="IM29" s="6"/>
-      <c r="IN29" s="6"/>
-      <c r="IO29" s="6"/>
-      <c r="IP29" s="6"/>
-    </row>
-    <row r="30" spans="1:250" s="7" customFormat="1" ht="12">
-      <c r="A30" s="82">
-        <v>1</v>
-      </c>
-      <c r="B30" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="18"/>
+    <row r="30" spans="1:250" s="7" customFormat="1">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="17"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
@@ -7407,23 +6747,29 @@
       <c r="IO30" s="6"/>
       <c r="IP30" s="6"/>
     </row>
-    <row r="31" spans="1:250" s="7" customFormat="1" ht="11.25">
-      <c r="A31" s="83">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B31" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="18"/>
+    <row r="31" spans="1:250" s="7" customFormat="1" ht="15.75">
+      <c r="A31" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="63">
+        <v>41047</v>
+      </c>
+      <c r="E31" s="63">
+        <v>41055</v>
+      </c>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="48">
+        <v>9</v>
+      </c>
+      <c r="I31" s="49"/>
+      <c r="J31" s="17"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
@@ -7665,23 +7011,23 @@
       <c r="IO31" s="6"/>
       <c r="IP31" s="6"/>
     </row>
-    <row r="32" spans="1:250" s="7" customFormat="1" ht="11.25">
-      <c r="A32" s="83">
-        <v>1.2</v>
-      </c>
-      <c r="B32" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="18"/>
+    <row r="32" spans="1:250" s="7" customFormat="1" ht="12">
+      <c r="A32" s="77">
+        <v>1</v>
+      </c>
+      <c r="B32" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="17"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
@@ -7924,22 +7270,22 @@
       <c r="IP32" s="6"/>
     </row>
     <row r="33" spans="1:250" s="7" customFormat="1" ht="11.25">
-      <c r="A33" s="83">
-        <v>1.4</v>
-      </c>
-      <c r="B33" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="69" t="s">
+      <c r="A33" s="78">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B33" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="18"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="17"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
@@ -8182,22 +7528,22 @@
       <c r="IP33" s="6"/>
     </row>
     <row r="34" spans="1:250" s="7" customFormat="1" ht="11.25">
-      <c r="A34" s="83">
-        <v>1.6</v>
-      </c>
-      <c r="B34" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="69" t="s">
+      <c r="A34" s="78">
+        <v>1.2</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="18"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="17"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
@@ -8439,573 +7785,569 @@
       <c r="IO34" s="6"/>
       <c r="IP34" s="6"/>
     </row>
-    <row r="35" spans="1:250" s="6" customFormat="1" ht="12">
-      <c r="A35" s="82">
+    <row r="35" spans="1:250" s="7" customFormat="1" ht="11.25">
+      <c r="A35" s="78">
+        <v>1.4</v>
+      </c>
+      <c r="B35" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="6"/>
+      <c r="AN35" s="6"/>
+      <c r="AO35" s="6"/>
+      <c r="AP35" s="6"/>
+      <c r="AQ35" s="6"/>
+      <c r="AR35" s="6"/>
+      <c r="AS35" s="6"/>
+      <c r="AT35" s="6"/>
+      <c r="AU35" s="6"/>
+      <c r="AV35" s="6"/>
+      <c r="AW35" s="6"/>
+      <c r="AX35" s="6"/>
+      <c r="AY35" s="6"/>
+      <c r="AZ35" s="6"/>
+      <c r="BA35" s="6"/>
+      <c r="BB35" s="6"/>
+      <c r="BC35" s="6"/>
+      <c r="BD35" s="6"/>
+      <c r="BE35" s="6"/>
+      <c r="BF35" s="6"/>
+      <c r="BG35" s="6"/>
+      <c r="BH35" s="6"/>
+      <c r="BI35" s="6"/>
+      <c r="BJ35" s="6"/>
+      <c r="BK35" s="6"/>
+      <c r="BL35" s="6"/>
+      <c r="BM35" s="6"/>
+      <c r="BN35" s="6"/>
+      <c r="BO35" s="6"/>
+      <c r="BP35" s="6"/>
+      <c r="BQ35" s="6"/>
+      <c r="BR35" s="6"/>
+      <c r="BS35" s="6"/>
+      <c r="BT35" s="6"/>
+      <c r="BU35" s="6"/>
+      <c r="BV35" s="6"/>
+      <c r="BW35" s="6"/>
+      <c r="BX35" s="6"/>
+      <c r="BY35" s="6"/>
+      <c r="BZ35" s="6"/>
+      <c r="CA35" s="6"/>
+      <c r="CB35" s="6"/>
+      <c r="CC35" s="6"/>
+      <c r="CD35" s="6"/>
+      <c r="CE35" s="6"/>
+      <c r="CF35" s="6"/>
+      <c r="CG35" s="6"/>
+      <c r="CH35" s="6"/>
+      <c r="CI35" s="6"/>
+      <c r="CJ35" s="6"/>
+      <c r="CK35" s="6"/>
+      <c r="CL35" s="6"/>
+      <c r="CM35" s="6"/>
+      <c r="CN35" s="6"/>
+      <c r="CO35" s="6"/>
+      <c r="CP35" s="6"/>
+      <c r="CQ35" s="6"/>
+      <c r="CR35" s="6"/>
+      <c r="CS35" s="6"/>
+      <c r="CT35" s="6"/>
+      <c r="CU35" s="6"/>
+      <c r="CV35" s="6"/>
+      <c r="CW35" s="6"/>
+      <c r="CX35" s="6"/>
+      <c r="CY35" s="6"/>
+      <c r="CZ35" s="6"/>
+      <c r="DA35" s="6"/>
+      <c r="DB35" s="6"/>
+      <c r="DC35" s="6"/>
+      <c r="DD35" s="6"/>
+      <c r="DE35" s="6"/>
+      <c r="DF35" s="6"/>
+      <c r="DG35" s="6"/>
+      <c r="DH35" s="6"/>
+      <c r="DI35" s="6"/>
+      <c r="DJ35" s="6"/>
+      <c r="DK35" s="6"/>
+      <c r="DL35" s="6"/>
+      <c r="DM35" s="6"/>
+      <c r="DN35" s="6"/>
+      <c r="DO35" s="6"/>
+      <c r="DP35" s="6"/>
+      <c r="DQ35" s="6"/>
+      <c r="DR35" s="6"/>
+      <c r="DS35" s="6"/>
+      <c r="DT35" s="6"/>
+      <c r="DU35" s="6"/>
+      <c r="DV35" s="6"/>
+      <c r="DW35" s="6"/>
+      <c r="DX35" s="6"/>
+      <c r="DY35" s="6"/>
+      <c r="DZ35" s="6"/>
+      <c r="EA35" s="6"/>
+      <c r="EB35" s="6"/>
+      <c r="EC35" s="6"/>
+      <c r="ED35" s="6"/>
+      <c r="EE35" s="6"/>
+      <c r="EF35" s="6"/>
+      <c r="EG35" s="6"/>
+      <c r="EH35" s="6"/>
+      <c r="EI35" s="6"/>
+      <c r="EJ35" s="6"/>
+      <c r="EK35" s="6"/>
+      <c r="EL35" s="6"/>
+      <c r="EM35" s="6"/>
+      <c r="EN35" s="6"/>
+      <c r="EO35" s="6"/>
+      <c r="EP35" s="6"/>
+      <c r="EQ35" s="6"/>
+      <c r="ER35" s="6"/>
+      <c r="ES35" s="6"/>
+      <c r="ET35" s="6"/>
+      <c r="EU35" s="6"/>
+      <c r="EV35" s="6"/>
+      <c r="EW35" s="6"/>
+      <c r="EX35" s="6"/>
+      <c r="EY35" s="6"/>
+      <c r="EZ35" s="6"/>
+      <c r="FA35" s="6"/>
+      <c r="FB35" s="6"/>
+      <c r="FC35" s="6"/>
+      <c r="FD35" s="6"/>
+      <c r="FE35" s="6"/>
+      <c r="FF35" s="6"/>
+      <c r="FG35" s="6"/>
+      <c r="FH35" s="6"/>
+      <c r="FI35" s="6"/>
+      <c r="FJ35" s="6"/>
+      <c r="FK35" s="6"/>
+      <c r="FL35" s="6"/>
+      <c r="FM35" s="6"/>
+      <c r="FN35" s="6"/>
+      <c r="FO35" s="6"/>
+      <c r="FP35" s="6"/>
+      <c r="FQ35" s="6"/>
+      <c r="FR35" s="6"/>
+      <c r="FS35" s="6"/>
+      <c r="FT35" s="6"/>
+      <c r="FU35" s="6"/>
+      <c r="FV35" s="6"/>
+      <c r="FW35" s="6"/>
+      <c r="FX35" s="6"/>
+      <c r="FY35" s="6"/>
+      <c r="FZ35" s="6"/>
+      <c r="GA35" s="6"/>
+      <c r="GB35" s="6"/>
+      <c r="GC35" s="6"/>
+      <c r="GD35" s="6"/>
+      <c r="GE35" s="6"/>
+      <c r="GF35" s="6"/>
+      <c r="GG35" s="6"/>
+      <c r="GH35" s="6"/>
+      <c r="GI35" s="6"/>
+      <c r="GJ35" s="6"/>
+      <c r="GK35" s="6"/>
+      <c r="GL35" s="6"/>
+      <c r="GM35" s="6"/>
+      <c r="GN35" s="6"/>
+      <c r="GO35" s="6"/>
+      <c r="GP35" s="6"/>
+      <c r="GQ35" s="6"/>
+      <c r="GR35" s="6"/>
+      <c r="GS35" s="6"/>
+      <c r="GT35" s="6"/>
+      <c r="GU35" s="6"/>
+      <c r="GV35" s="6"/>
+      <c r="GW35" s="6"/>
+      <c r="GX35" s="6"/>
+      <c r="GY35" s="6"/>
+      <c r="GZ35" s="6"/>
+      <c r="HA35" s="6"/>
+      <c r="HB35" s="6"/>
+      <c r="HC35" s="6"/>
+      <c r="HD35" s="6"/>
+      <c r="HE35" s="6"/>
+      <c r="HF35" s="6"/>
+      <c r="HG35" s="6"/>
+      <c r="HH35" s="6"/>
+      <c r="HI35" s="6"/>
+      <c r="HJ35" s="6"/>
+      <c r="HK35" s="6"/>
+      <c r="HL35" s="6"/>
+      <c r="HM35" s="6"/>
+      <c r="HN35" s="6"/>
+      <c r="HO35" s="6"/>
+      <c r="HP35" s="6"/>
+      <c r="HQ35" s="6"/>
+      <c r="HR35" s="6"/>
+      <c r="HS35" s="6"/>
+      <c r="HT35" s="6"/>
+      <c r="HU35" s="6"/>
+      <c r="HV35" s="6"/>
+      <c r="HW35" s="6"/>
+      <c r="HX35" s="6"/>
+      <c r="HY35" s="6"/>
+      <c r="HZ35" s="6"/>
+      <c r="IA35" s="6"/>
+      <c r="IB35" s="6"/>
+      <c r="IC35" s="6"/>
+      <c r="ID35" s="6"/>
+      <c r="IE35" s="6"/>
+      <c r="IF35" s="6"/>
+      <c r="IG35" s="6"/>
+      <c r="IH35" s="6"/>
+      <c r="II35" s="6"/>
+      <c r="IJ35" s="6"/>
+      <c r="IK35" s="6"/>
+      <c r="IL35" s="6"/>
+      <c r="IM35" s="6"/>
+      <c r="IN35" s="6"/>
+      <c r="IO35" s="6"/>
+      <c r="IP35" s="6"/>
+    </row>
+    <row r="36" spans="1:250" s="7" customFormat="1" ht="11.25">
+      <c r="A36" s="78">
+        <v>1.6</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="6"/>
+      <c r="AN36" s="6"/>
+      <c r="AO36" s="6"/>
+      <c r="AP36" s="6"/>
+      <c r="AQ36" s="6"/>
+      <c r="AR36" s="6"/>
+      <c r="AS36" s="6"/>
+      <c r="AT36" s="6"/>
+      <c r="AU36" s="6"/>
+      <c r="AV36" s="6"/>
+      <c r="AW36" s="6"/>
+      <c r="AX36" s="6"/>
+      <c r="AY36" s="6"/>
+      <c r="AZ36" s="6"/>
+      <c r="BA36" s="6"/>
+      <c r="BB36" s="6"/>
+      <c r="BC36" s="6"/>
+      <c r="BD36" s="6"/>
+      <c r="BE36" s="6"/>
+      <c r="BF36" s="6"/>
+      <c r="BG36" s="6"/>
+      <c r="BH36" s="6"/>
+      <c r="BI36" s="6"/>
+      <c r="BJ36" s="6"/>
+      <c r="BK36" s="6"/>
+      <c r="BL36" s="6"/>
+      <c r="BM36" s="6"/>
+      <c r="BN36" s="6"/>
+      <c r="BO36" s="6"/>
+      <c r="BP36" s="6"/>
+      <c r="BQ36" s="6"/>
+      <c r="BR36" s="6"/>
+      <c r="BS36" s="6"/>
+      <c r="BT36" s="6"/>
+      <c r="BU36" s="6"/>
+      <c r="BV36" s="6"/>
+      <c r="BW36" s="6"/>
+      <c r="BX36" s="6"/>
+      <c r="BY36" s="6"/>
+      <c r="BZ36" s="6"/>
+      <c r="CA36" s="6"/>
+      <c r="CB36" s="6"/>
+      <c r="CC36" s="6"/>
+      <c r="CD36" s="6"/>
+      <c r="CE36" s="6"/>
+      <c r="CF36" s="6"/>
+      <c r="CG36" s="6"/>
+      <c r="CH36" s="6"/>
+      <c r="CI36" s="6"/>
+      <c r="CJ36" s="6"/>
+      <c r="CK36" s="6"/>
+      <c r="CL36" s="6"/>
+      <c r="CM36" s="6"/>
+      <c r="CN36" s="6"/>
+      <c r="CO36" s="6"/>
+      <c r="CP36" s="6"/>
+      <c r="CQ36" s="6"/>
+      <c r="CR36" s="6"/>
+      <c r="CS36" s="6"/>
+      <c r="CT36" s="6"/>
+      <c r="CU36" s="6"/>
+      <c r="CV36" s="6"/>
+      <c r="CW36" s="6"/>
+      <c r="CX36" s="6"/>
+      <c r="CY36" s="6"/>
+      <c r="CZ36" s="6"/>
+      <c r="DA36" s="6"/>
+      <c r="DB36" s="6"/>
+      <c r="DC36" s="6"/>
+      <c r="DD36" s="6"/>
+      <c r="DE36" s="6"/>
+      <c r="DF36" s="6"/>
+      <c r="DG36" s="6"/>
+      <c r="DH36" s="6"/>
+      <c r="DI36" s="6"/>
+      <c r="DJ36" s="6"/>
+      <c r="DK36" s="6"/>
+      <c r="DL36" s="6"/>
+      <c r="DM36" s="6"/>
+      <c r="DN36" s="6"/>
+      <c r="DO36" s="6"/>
+      <c r="DP36" s="6"/>
+      <c r="DQ36" s="6"/>
+      <c r="DR36" s="6"/>
+      <c r="DS36" s="6"/>
+      <c r="DT36" s="6"/>
+      <c r="DU36" s="6"/>
+      <c r="DV36" s="6"/>
+      <c r="DW36" s="6"/>
+      <c r="DX36" s="6"/>
+      <c r="DY36" s="6"/>
+      <c r="DZ36" s="6"/>
+      <c r="EA36" s="6"/>
+      <c r="EB36" s="6"/>
+      <c r="EC36" s="6"/>
+      <c r="ED36" s="6"/>
+      <c r="EE36" s="6"/>
+      <c r="EF36" s="6"/>
+      <c r="EG36" s="6"/>
+      <c r="EH36" s="6"/>
+      <c r="EI36" s="6"/>
+      <c r="EJ36" s="6"/>
+      <c r="EK36" s="6"/>
+      <c r="EL36" s="6"/>
+      <c r="EM36" s="6"/>
+      <c r="EN36" s="6"/>
+      <c r="EO36" s="6"/>
+      <c r="EP36" s="6"/>
+      <c r="EQ36" s="6"/>
+      <c r="ER36" s="6"/>
+      <c r="ES36" s="6"/>
+      <c r="ET36" s="6"/>
+      <c r="EU36" s="6"/>
+      <c r="EV36" s="6"/>
+      <c r="EW36" s="6"/>
+      <c r="EX36" s="6"/>
+      <c r="EY36" s="6"/>
+      <c r="EZ36" s="6"/>
+      <c r="FA36" s="6"/>
+      <c r="FB36" s="6"/>
+      <c r="FC36" s="6"/>
+      <c r="FD36" s="6"/>
+      <c r="FE36" s="6"/>
+      <c r="FF36" s="6"/>
+      <c r="FG36" s="6"/>
+      <c r="FH36" s="6"/>
+      <c r="FI36" s="6"/>
+      <c r="FJ36" s="6"/>
+      <c r="FK36" s="6"/>
+      <c r="FL36" s="6"/>
+      <c r="FM36" s="6"/>
+      <c r="FN36" s="6"/>
+      <c r="FO36" s="6"/>
+      <c r="FP36" s="6"/>
+      <c r="FQ36" s="6"/>
+      <c r="FR36" s="6"/>
+      <c r="FS36" s="6"/>
+      <c r="FT36" s="6"/>
+      <c r="FU36" s="6"/>
+      <c r="FV36" s="6"/>
+      <c r="FW36" s="6"/>
+      <c r="FX36" s="6"/>
+      <c r="FY36" s="6"/>
+      <c r="FZ36" s="6"/>
+      <c r="GA36" s="6"/>
+      <c r="GB36" s="6"/>
+      <c r="GC36" s="6"/>
+      <c r="GD36" s="6"/>
+      <c r="GE36" s="6"/>
+      <c r="GF36" s="6"/>
+      <c r="GG36" s="6"/>
+      <c r="GH36" s="6"/>
+      <c r="GI36" s="6"/>
+      <c r="GJ36" s="6"/>
+      <c r="GK36" s="6"/>
+      <c r="GL36" s="6"/>
+      <c r="GM36" s="6"/>
+      <c r="GN36" s="6"/>
+      <c r="GO36" s="6"/>
+      <c r="GP36" s="6"/>
+      <c r="GQ36" s="6"/>
+      <c r="GR36" s="6"/>
+      <c r="GS36" s="6"/>
+      <c r="GT36" s="6"/>
+      <c r="GU36" s="6"/>
+      <c r="GV36" s="6"/>
+      <c r="GW36" s="6"/>
+      <c r="GX36" s="6"/>
+      <c r="GY36" s="6"/>
+      <c r="GZ36" s="6"/>
+      <c r="HA36" s="6"/>
+      <c r="HB36" s="6"/>
+      <c r="HC36" s="6"/>
+      <c r="HD36" s="6"/>
+      <c r="HE36" s="6"/>
+      <c r="HF36" s="6"/>
+      <c r="HG36" s="6"/>
+      <c r="HH36" s="6"/>
+      <c r="HI36" s="6"/>
+      <c r="HJ36" s="6"/>
+      <c r="HK36" s="6"/>
+      <c r="HL36" s="6"/>
+      <c r="HM36" s="6"/>
+      <c r="HN36" s="6"/>
+      <c r="HO36" s="6"/>
+      <c r="HP36" s="6"/>
+      <c r="HQ36" s="6"/>
+      <c r="HR36" s="6"/>
+      <c r="HS36" s="6"/>
+      <c r="HT36" s="6"/>
+      <c r="HU36" s="6"/>
+      <c r="HV36" s="6"/>
+      <c r="HW36" s="6"/>
+      <c r="HX36" s="6"/>
+      <c r="HY36" s="6"/>
+      <c r="HZ36" s="6"/>
+      <c r="IA36" s="6"/>
+      <c r="IB36" s="6"/>
+      <c r="IC36" s="6"/>
+      <c r="ID36" s="6"/>
+      <c r="IE36" s="6"/>
+      <c r="IF36" s="6"/>
+      <c r="IG36" s="6"/>
+      <c r="IH36" s="6"/>
+      <c r="II36" s="6"/>
+      <c r="IJ36" s="6"/>
+      <c r="IK36" s="6"/>
+      <c r="IL36" s="6"/>
+      <c r="IM36" s="6"/>
+      <c r="IN36" s="6"/>
+      <c r="IO36" s="6"/>
+      <c r="IP36" s="6"/>
+    </row>
+    <row r="37" spans="1:250" s="6" customFormat="1" ht="12">
+      <c r="A37" s="77">
         <v>2</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B37" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C37" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="18"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="17"/>
     </row>
-    <row r="36" spans="1:250" s="6" customFormat="1" ht="12">
-      <c r="A36" s="82">
+    <row r="38" spans="1:250" s="6" customFormat="1" ht="12">
+      <c r="A38" s="77">
         <v>3</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="B38" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="69" t="s">
+      <c r="C38" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="18"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="17"/>
     </row>
-    <row r="37" spans="1:250" s="7" customFormat="1">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
-      <c r="AA37" s="6"/>
-      <c r="AB37" s="6"/>
-      <c r="AC37" s="6"/>
-      <c r="AD37" s="6"/>
-      <c r="AE37" s="6"/>
-      <c r="AF37" s="6"/>
-      <c r="AG37" s="6"/>
-      <c r="AH37" s="6"/>
-      <c r="AI37" s="6"/>
-      <c r="AJ37" s="6"/>
-      <c r="AK37" s="6"/>
-      <c r="AL37" s="6"/>
-      <c r="AM37" s="6"/>
-      <c r="AN37" s="6"/>
-      <c r="AO37" s="6"/>
-      <c r="AP37" s="6"/>
-      <c r="AQ37" s="6"/>
-      <c r="AR37" s="6"/>
-      <c r="AS37" s="6"/>
-      <c r="AT37" s="6"/>
-      <c r="AU37" s="6"/>
-      <c r="AV37" s="6"/>
-      <c r="AW37" s="6"/>
-      <c r="AX37" s="6"/>
-      <c r="AY37" s="6"/>
-      <c r="AZ37" s="6"/>
-      <c r="BA37" s="6"/>
-      <c r="BB37" s="6"/>
-      <c r="BC37" s="6"/>
-      <c r="BD37" s="6"/>
-      <c r="BE37" s="6"/>
-      <c r="BF37" s="6"/>
-      <c r="BG37" s="6"/>
-      <c r="BH37" s="6"/>
-      <c r="BI37" s="6"/>
-      <c r="BJ37" s="6"/>
-      <c r="BK37" s="6"/>
-      <c r="BL37" s="6"/>
-      <c r="BM37" s="6"/>
-      <c r="BN37" s="6"/>
-      <c r="BO37" s="6"/>
-      <c r="BP37" s="6"/>
-      <c r="BQ37" s="6"/>
-      <c r="BR37" s="6"/>
-      <c r="BS37" s="6"/>
-      <c r="BT37" s="6"/>
-      <c r="BU37" s="6"/>
-      <c r="BV37" s="6"/>
-      <c r="BW37" s="6"/>
-      <c r="BX37" s="6"/>
-      <c r="BY37" s="6"/>
-      <c r="BZ37" s="6"/>
-      <c r="CA37" s="6"/>
-      <c r="CB37" s="6"/>
-      <c r="CC37" s="6"/>
-      <c r="CD37" s="6"/>
-      <c r="CE37" s="6"/>
-      <c r="CF37" s="6"/>
-      <c r="CG37" s="6"/>
-      <c r="CH37" s="6"/>
-      <c r="CI37" s="6"/>
-      <c r="CJ37" s="6"/>
-      <c r="CK37" s="6"/>
-      <c r="CL37" s="6"/>
-      <c r="CM37" s="6"/>
-      <c r="CN37" s="6"/>
-      <c r="CO37" s="6"/>
-      <c r="CP37" s="6"/>
-      <c r="CQ37" s="6"/>
-      <c r="CR37" s="6"/>
-      <c r="CS37" s="6"/>
-      <c r="CT37" s="6"/>
-      <c r="CU37" s="6"/>
-      <c r="CV37" s="6"/>
-      <c r="CW37" s="6"/>
-      <c r="CX37" s="6"/>
-      <c r="CY37" s="6"/>
-      <c r="CZ37" s="6"/>
-      <c r="DA37" s="6"/>
-      <c r="DB37" s="6"/>
-      <c r="DC37" s="6"/>
-      <c r="DD37" s="6"/>
-      <c r="DE37" s="6"/>
-      <c r="DF37" s="6"/>
-      <c r="DG37" s="6"/>
-      <c r="DH37" s="6"/>
-      <c r="DI37" s="6"/>
-      <c r="DJ37" s="6"/>
-      <c r="DK37" s="6"/>
-      <c r="DL37" s="6"/>
-      <c r="DM37" s="6"/>
-      <c r="DN37" s="6"/>
-      <c r="DO37" s="6"/>
-      <c r="DP37" s="6"/>
-      <c r="DQ37" s="6"/>
-      <c r="DR37" s="6"/>
-      <c r="DS37" s="6"/>
-      <c r="DT37" s="6"/>
-      <c r="DU37" s="6"/>
-      <c r="DV37" s="6"/>
-      <c r="DW37" s="6"/>
-      <c r="DX37" s="6"/>
-      <c r="DY37" s="6"/>
-      <c r="DZ37" s="6"/>
-      <c r="EA37" s="6"/>
-      <c r="EB37" s="6"/>
-      <c r="EC37" s="6"/>
-      <c r="ED37" s="6"/>
-      <c r="EE37" s="6"/>
-      <c r="EF37" s="6"/>
-      <c r="EG37" s="6"/>
-      <c r="EH37" s="6"/>
-      <c r="EI37" s="6"/>
-      <c r="EJ37" s="6"/>
-      <c r="EK37" s="6"/>
-      <c r="EL37" s="6"/>
-      <c r="EM37" s="6"/>
-      <c r="EN37" s="6"/>
-      <c r="EO37" s="6"/>
-      <c r="EP37" s="6"/>
-      <c r="EQ37" s="6"/>
-      <c r="ER37" s="6"/>
-      <c r="ES37" s="6"/>
-      <c r="ET37" s="6"/>
-      <c r="EU37" s="6"/>
-      <c r="EV37" s="6"/>
-      <c r="EW37" s="6"/>
-      <c r="EX37" s="6"/>
-      <c r="EY37" s="6"/>
-      <c r="EZ37" s="6"/>
-      <c r="FA37" s="6"/>
-      <c r="FB37" s="6"/>
-      <c r="FC37" s="6"/>
-      <c r="FD37" s="6"/>
-      <c r="FE37" s="6"/>
-      <c r="FF37" s="6"/>
-      <c r="FG37" s="6"/>
-      <c r="FH37" s="6"/>
-      <c r="FI37" s="6"/>
-      <c r="FJ37" s="6"/>
-      <c r="FK37" s="6"/>
-      <c r="FL37" s="6"/>
-      <c r="FM37" s="6"/>
-      <c r="FN37" s="6"/>
-      <c r="FO37" s="6"/>
-      <c r="FP37" s="6"/>
-      <c r="FQ37" s="6"/>
-      <c r="FR37" s="6"/>
-      <c r="FS37" s="6"/>
-      <c r="FT37" s="6"/>
-      <c r="FU37" s="6"/>
-      <c r="FV37" s="6"/>
-      <c r="FW37" s="6"/>
-      <c r="FX37" s="6"/>
-      <c r="FY37" s="6"/>
-      <c r="FZ37" s="6"/>
-      <c r="GA37" s="6"/>
-      <c r="GB37" s="6"/>
-      <c r="GC37" s="6"/>
-      <c r="GD37" s="6"/>
-      <c r="GE37" s="6"/>
-      <c r="GF37" s="6"/>
-      <c r="GG37" s="6"/>
-      <c r="GH37" s="6"/>
-      <c r="GI37" s="6"/>
-      <c r="GJ37" s="6"/>
-      <c r="GK37" s="6"/>
-      <c r="GL37" s="6"/>
-      <c r="GM37" s="6"/>
-      <c r="GN37" s="6"/>
-      <c r="GO37" s="6"/>
-      <c r="GP37" s="6"/>
-      <c r="GQ37" s="6"/>
-      <c r="GR37" s="6"/>
-      <c r="GS37" s="6"/>
-      <c r="GT37" s="6"/>
-      <c r="GU37" s="6"/>
-      <c r="GV37" s="6"/>
-      <c r="GW37" s="6"/>
-      <c r="GX37" s="6"/>
-      <c r="GY37" s="6"/>
-      <c r="GZ37" s="6"/>
-      <c r="HA37" s="6"/>
-      <c r="HB37" s="6"/>
-      <c r="HC37" s="6"/>
-      <c r="HD37" s="6"/>
-      <c r="HE37" s="6"/>
-      <c r="HF37" s="6"/>
-      <c r="HG37" s="6"/>
-      <c r="HH37" s="6"/>
-      <c r="HI37" s="6"/>
-      <c r="HJ37" s="6"/>
-      <c r="HK37" s="6"/>
-      <c r="HL37" s="6"/>
-      <c r="HM37" s="6"/>
-      <c r="HN37" s="6"/>
-      <c r="HO37" s="6"/>
-      <c r="HP37" s="6"/>
-      <c r="HQ37" s="6"/>
-      <c r="HR37" s="6"/>
-      <c r="HS37" s="6"/>
-      <c r="HT37" s="6"/>
-      <c r="HU37" s="6"/>
-      <c r="HV37" s="6"/>
-      <c r="HW37" s="6"/>
-      <c r="HX37" s="6"/>
-      <c r="HY37" s="6"/>
-      <c r="HZ37" s="6"/>
-      <c r="IA37" s="6"/>
-      <c r="IB37" s="6"/>
-      <c r="IC37" s="6"/>
-      <c r="ID37" s="6"/>
-      <c r="IE37" s="6"/>
-      <c r="IF37" s="6"/>
-      <c r="IG37" s="6"/>
-      <c r="IH37" s="6"/>
-      <c r="II37" s="6"/>
-      <c r="IJ37" s="6"/>
-      <c r="IK37" s="6"/>
-      <c r="IL37" s="6"/>
-      <c r="IM37" s="6"/>
-      <c r="IN37" s="6"/>
-      <c r="IO37" s="6"/>
-      <c r="IP37" s="6"/>
-    </row>
-    <row r="38" spans="1:250" s="7" customFormat="1" ht="15.75">
-      <c r="A38" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="72">
-        <v>41056</v>
-      </c>
-      <c r="E38" s="72">
-        <v>41061</v>
-      </c>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="73">
-        <v>6</v>
-      </c>
-      <c r="I38" s="74"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-      <c r="AA38" s="6"/>
-      <c r="AB38" s="6"/>
-      <c r="AC38" s="6"/>
-      <c r="AD38" s="6"/>
-      <c r="AE38" s="6"/>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="6"/>
-      <c r="AH38" s="6"/>
-      <c r="AI38" s="6"/>
-      <c r="AJ38" s="6"/>
-      <c r="AK38" s="6"/>
-      <c r="AL38" s="6"/>
-      <c r="AM38" s="6"/>
-      <c r="AN38" s="6"/>
-      <c r="AO38" s="6"/>
-      <c r="AP38" s="6"/>
-      <c r="AQ38" s="6"/>
-      <c r="AR38" s="6"/>
-      <c r="AS38" s="6"/>
-      <c r="AT38" s="6"/>
-      <c r="AU38" s="6"/>
-      <c r="AV38" s="6"/>
-      <c r="AW38" s="6"/>
-      <c r="AX38" s="6"/>
-      <c r="AY38" s="6"/>
-      <c r="AZ38" s="6"/>
-      <c r="BA38" s="6"/>
-      <c r="BB38" s="6"/>
-      <c r="BC38" s="6"/>
-      <c r="BD38" s="6"/>
-      <c r="BE38" s="6"/>
-      <c r="BF38" s="6"/>
-      <c r="BG38" s="6"/>
-      <c r="BH38" s="6"/>
-      <c r="BI38" s="6"/>
-      <c r="BJ38" s="6"/>
-      <c r="BK38" s="6"/>
-      <c r="BL38" s="6"/>
-      <c r="BM38" s="6"/>
-      <c r="BN38" s="6"/>
-      <c r="BO38" s="6"/>
-      <c r="BP38" s="6"/>
-      <c r="BQ38" s="6"/>
-      <c r="BR38" s="6"/>
-      <c r="BS38" s="6"/>
-      <c r="BT38" s="6"/>
-      <c r="BU38" s="6"/>
-      <c r="BV38" s="6"/>
-      <c r="BW38" s="6"/>
-      <c r="BX38" s="6"/>
-      <c r="BY38" s="6"/>
-      <c r="BZ38" s="6"/>
-      <c r="CA38" s="6"/>
-      <c r="CB38" s="6"/>
-      <c r="CC38" s="6"/>
-      <c r="CD38" s="6"/>
-      <c r="CE38" s="6"/>
-      <c r="CF38" s="6"/>
-      <c r="CG38" s="6"/>
-      <c r="CH38" s="6"/>
-      <c r="CI38" s="6"/>
-      <c r="CJ38" s="6"/>
-      <c r="CK38" s="6"/>
-      <c r="CL38" s="6"/>
-      <c r="CM38" s="6"/>
-      <c r="CN38" s="6"/>
-      <c r="CO38" s="6"/>
-      <c r="CP38" s="6"/>
-      <c r="CQ38" s="6"/>
-      <c r="CR38" s="6"/>
-      <c r="CS38" s="6"/>
-      <c r="CT38" s="6"/>
-      <c r="CU38" s="6"/>
-      <c r="CV38" s="6"/>
-      <c r="CW38" s="6"/>
-      <c r="CX38" s="6"/>
-      <c r="CY38" s="6"/>
-      <c r="CZ38" s="6"/>
-      <c r="DA38" s="6"/>
-      <c r="DB38" s="6"/>
-      <c r="DC38" s="6"/>
-      <c r="DD38" s="6"/>
-      <c r="DE38" s="6"/>
-      <c r="DF38" s="6"/>
-      <c r="DG38" s="6"/>
-      <c r="DH38" s="6"/>
-      <c r="DI38" s="6"/>
-      <c r="DJ38" s="6"/>
-      <c r="DK38" s="6"/>
-      <c r="DL38" s="6"/>
-      <c r="DM38" s="6"/>
-      <c r="DN38" s="6"/>
-      <c r="DO38" s="6"/>
-      <c r="DP38" s="6"/>
-      <c r="DQ38" s="6"/>
-      <c r="DR38" s="6"/>
-      <c r="DS38" s="6"/>
-      <c r="DT38" s="6"/>
-      <c r="DU38" s="6"/>
-      <c r="DV38" s="6"/>
-      <c r="DW38" s="6"/>
-      <c r="DX38" s="6"/>
-      <c r="DY38" s="6"/>
-      <c r="DZ38" s="6"/>
-      <c r="EA38" s="6"/>
-      <c r="EB38" s="6"/>
-      <c r="EC38" s="6"/>
-      <c r="ED38" s="6"/>
-      <c r="EE38" s="6"/>
-      <c r="EF38" s="6"/>
-      <c r="EG38" s="6"/>
-      <c r="EH38" s="6"/>
-      <c r="EI38" s="6"/>
-      <c r="EJ38" s="6"/>
-      <c r="EK38" s="6"/>
-      <c r="EL38" s="6"/>
-      <c r="EM38" s="6"/>
-      <c r="EN38" s="6"/>
-      <c r="EO38" s="6"/>
-      <c r="EP38" s="6"/>
-      <c r="EQ38" s="6"/>
-      <c r="ER38" s="6"/>
-      <c r="ES38" s="6"/>
-      <c r="ET38" s="6"/>
-      <c r="EU38" s="6"/>
-      <c r="EV38" s="6"/>
-      <c r="EW38" s="6"/>
-      <c r="EX38" s="6"/>
-      <c r="EY38" s="6"/>
-      <c r="EZ38" s="6"/>
-      <c r="FA38" s="6"/>
-      <c r="FB38" s="6"/>
-      <c r="FC38" s="6"/>
-      <c r="FD38" s="6"/>
-      <c r="FE38" s="6"/>
-      <c r="FF38" s="6"/>
-      <c r="FG38" s="6"/>
-      <c r="FH38" s="6"/>
-      <c r="FI38" s="6"/>
-      <c r="FJ38" s="6"/>
-      <c r="FK38" s="6"/>
-      <c r="FL38" s="6"/>
-      <c r="FM38" s="6"/>
-      <c r="FN38" s="6"/>
-      <c r="FO38" s="6"/>
-      <c r="FP38" s="6"/>
-      <c r="FQ38" s="6"/>
-      <c r="FR38" s="6"/>
-      <c r="FS38" s="6"/>
-      <c r="FT38" s="6"/>
-      <c r="FU38" s="6"/>
-      <c r="FV38" s="6"/>
-      <c r="FW38" s="6"/>
-      <c r="FX38" s="6"/>
-      <c r="FY38" s="6"/>
-      <c r="FZ38" s="6"/>
-      <c r="GA38" s="6"/>
-      <c r="GB38" s="6"/>
-      <c r="GC38" s="6"/>
-      <c r="GD38" s="6"/>
-      <c r="GE38" s="6"/>
-      <c r="GF38" s="6"/>
-      <c r="GG38" s="6"/>
-      <c r="GH38" s="6"/>
-      <c r="GI38" s="6"/>
-      <c r="GJ38" s="6"/>
-      <c r="GK38" s="6"/>
-      <c r="GL38" s="6"/>
-      <c r="GM38" s="6"/>
-      <c r="GN38" s="6"/>
-      <c r="GO38" s="6"/>
-      <c r="GP38" s="6"/>
-      <c r="GQ38" s="6"/>
-      <c r="GR38" s="6"/>
-      <c r="GS38" s="6"/>
-      <c r="GT38" s="6"/>
-      <c r="GU38" s="6"/>
-      <c r="GV38" s="6"/>
-      <c r="GW38" s="6"/>
-      <c r="GX38" s="6"/>
-      <c r="GY38" s="6"/>
-      <c r="GZ38" s="6"/>
-      <c r="HA38" s="6"/>
-      <c r="HB38" s="6"/>
-      <c r="HC38" s="6"/>
-      <c r="HD38" s="6"/>
-      <c r="HE38" s="6"/>
-      <c r="HF38" s="6"/>
-      <c r="HG38" s="6"/>
-      <c r="HH38" s="6"/>
-      <c r="HI38" s="6"/>
-      <c r="HJ38" s="6"/>
-      <c r="HK38" s="6"/>
-      <c r="HL38" s="6"/>
-      <c r="HM38" s="6"/>
-      <c r="HN38" s="6"/>
-      <c r="HO38" s="6"/>
-      <c r="HP38" s="6"/>
-      <c r="HQ38" s="6"/>
-      <c r="HR38" s="6"/>
-      <c r="HS38" s="6"/>
-      <c r="HT38" s="6"/>
-      <c r="HU38" s="6"/>
-      <c r="HV38" s="6"/>
-      <c r="HW38" s="6"/>
-      <c r="HX38" s="6"/>
-      <c r="HY38" s="6"/>
-      <c r="HZ38" s="6"/>
-      <c r="IA38" s="6"/>
-      <c r="IB38" s="6"/>
-      <c r="IC38" s="6"/>
-      <c r="ID38" s="6"/>
-      <c r="IE38" s="6"/>
-      <c r="IF38" s="6"/>
-      <c r="IG38" s="6"/>
-      <c r="IH38" s="6"/>
-      <c r="II38" s="6"/>
-      <c r="IJ38" s="6"/>
-      <c r="IK38" s="6"/>
-      <c r="IL38" s="6"/>
-      <c r="IM38" s="6"/>
-      <c r="IN38" s="6"/>
-      <c r="IO38" s="6"/>
-      <c r="IP38" s="6"/>
-    </row>
-    <row r="39" spans="1:250" s="7" customFormat="1" ht="12">
-      <c r="A39" s="84">
-        <v>1</v>
-      </c>
-      <c r="B39" s="75"/>
-      <c r="C39" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="18"/>
+    <row r="39" spans="1:250" s="7" customFormat="1">
+      <c r="A39" s="23"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="17"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
@@ -9247,35 +8589,536 @@
       <c r="IO39" s="6"/>
       <c r="IP39" s="6"/>
     </row>
+    <row r="40" spans="1:250" s="7" customFormat="1" ht="15.75">
+      <c r="A40" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="67">
+        <v>41056</v>
+      </c>
+      <c r="E40" s="67">
+        <v>41061</v>
+      </c>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="68">
+        <v>6</v>
+      </c>
+      <c r="I40" s="69"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="6"/>
+      <c r="AG40" s="6"/>
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="6"/>
+      <c r="AL40" s="6"/>
+      <c r="AM40" s="6"/>
+      <c r="AN40" s="6"/>
+      <c r="AO40" s="6"/>
+      <c r="AP40" s="6"/>
+      <c r="AQ40" s="6"/>
+      <c r="AR40" s="6"/>
+      <c r="AS40" s="6"/>
+      <c r="AT40" s="6"/>
+      <c r="AU40" s="6"/>
+      <c r="AV40" s="6"/>
+      <c r="AW40" s="6"/>
+      <c r="AX40" s="6"/>
+      <c r="AY40" s="6"/>
+      <c r="AZ40" s="6"/>
+      <c r="BA40" s="6"/>
+      <c r="BB40" s="6"/>
+      <c r="BC40" s="6"/>
+      <c r="BD40" s="6"/>
+      <c r="BE40" s="6"/>
+      <c r="BF40" s="6"/>
+      <c r="BG40" s="6"/>
+      <c r="BH40" s="6"/>
+      <c r="BI40" s="6"/>
+      <c r="BJ40" s="6"/>
+      <c r="BK40" s="6"/>
+      <c r="BL40" s="6"/>
+      <c r="BM40" s="6"/>
+      <c r="BN40" s="6"/>
+      <c r="BO40" s="6"/>
+      <c r="BP40" s="6"/>
+      <c r="BQ40" s="6"/>
+      <c r="BR40" s="6"/>
+      <c r="BS40" s="6"/>
+      <c r="BT40" s="6"/>
+      <c r="BU40" s="6"/>
+      <c r="BV40" s="6"/>
+      <c r="BW40" s="6"/>
+      <c r="BX40" s="6"/>
+      <c r="BY40" s="6"/>
+      <c r="BZ40" s="6"/>
+      <c r="CA40" s="6"/>
+      <c r="CB40" s="6"/>
+      <c r="CC40" s="6"/>
+      <c r="CD40" s="6"/>
+      <c r="CE40" s="6"/>
+      <c r="CF40" s="6"/>
+      <c r="CG40" s="6"/>
+      <c r="CH40" s="6"/>
+      <c r="CI40" s="6"/>
+      <c r="CJ40" s="6"/>
+      <c r="CK40" s="6"/>
+      <c r="CL40" s="6"/>
+      <c r="CM40" s="6"/>
+      <c r="CN40" s="6"/>
+      <c r="CO40" s="6"/>
+      <c r="CP40" s="6"/>
+      <c r="CQ40" s="6"/>
+      <c r="CR40" s="6"/>
+      <c r="CS40" s="6"/>
+      <c r="CT40" s="6"/>
+      <c r="CU40" s="6"/>
+      <c r="CV40" s="6"/>
+      <c r="CW40" s="6"/>
+      <c r="CX40" s="6"/>
+      <c r="CY40" s="6"/>
+      <c r="CZ40" s="6"/>
+      <c r="DA40" s="6"/>
+      <c r="DB40" s="6"/>
+      <c r="DC40" s="6"/>
+      <c r="DD40" s="6"/>
+      <c r="DE40" s="6"/>
+      <c r="DF40" s="6"/>
+      <c r="DG40" s="6"/>
+      <c r="DH40" s="6"/>
+      <c r="DI40" s="6"/>
+      <c r="DJ40" s="6"/>
+      <c r="DK40" s="6"/>
+      <c r="DL40" s="6"/>
+      <c r="DM40" s="6"/>
+      <c r="DN40" s="6"/>
+      <c r="DO40" s="6"/>
+      <c r="DP40" s="6"/>
+      <c r="DQ40" s="6"/>
+      <c r="DR40" s="6"/>
+      <c r="DS40" s="6"/>
+      <c r="DT40" s="6"/>
+      <c r="DU40" s="6"/>
+      <c r="DV40" s="6"/>
+      <c r="DW40" s="6"/>
+      <c r="DX40" s="6"/>
+      <c r="DY40" s="6"/>
+      <c r="DZ40" s="6"/>
+      <c r="EA40" s="6"/>
+      <c r="EB40" s="6"/>
+      <c r="EC40" s="6"/>
+      <c r="ED40" s="6"/>
+      <c r="EE40" s="6"/>
+      <c r="EF40" s="6"/>
+      <c r="EG40" s="6"/>
+      <c r="EH40" s="6"/>
+      <c r="EI40" s="6"/>
+      <c r="EJ40" s="6"/>
+      <c r="EK40" s="6"/>
+      <c r="EL40" s="6"/>
+      <c r="EM40" s="6"/>
+      <c r="EN40" s="6"/>
+      <c r="EO40" s="6"/>
+      <c r="EP40" s="6"/>
+      <c r="EQ40" s="6"/>
+      <c r="ER40" s="6"/>
+      <c r="ES40" s="6"/>
+      <c r="ET40" s="6"/>
+      <c r="EU40" s="6"/>
+      <c r="EV40" s="6"/>
+      <c r="EW40" s="6"/>
+      <c r="EX40" s="6"/>
+      <c r="EY40" s="6"/>
+      <c r="EZ40" s="6"/>
+      <c r="FA40" s="6"/>
+      <c r="FB40" s="6"/>
+      <c r="FC40" s="6"/>
+      <c r="FD40" s="6"/>
+      <c r="FE40" s="6"/>
+      <c r="FF40" s="6"/>
+      <c r="FG40" s="6"/>
+      <c r="FH40" s="6"/>
+      <c r="FI40" s="6"/>
+      <c r="FJ40" s="6"/>
+      <c r="FK40" s="6"/>
+      <c r="FL40" s="6"/>
+      <c r="FM40" s="6"/>
+      <c r="FN40" s="6"/>
+      <c r="FO40" s="6"/>
+      <c r="FP40" s="6"/>
+      <c r="FQ40" s="6"/>
+      <c r="FR40" s="6"/>
+      <c r="FS40" s="6"/>
+      <c r="FT40" s="6"/>
+      <c r="FU40" s="6"/>
+      <c r="FV40" s="6"/>
+      <c r="FW40" s="6"/>
+      <c r="FX40" s="6"/>
+      <c r="FY40" s="6"/>
+      <c r="FZ40" s="6"/>
+      <c r="GA40" s="6"/>
+      <c r="GB40" s="6"/>
+      <c r="GC40" s="6"/>
+      <c r="GD40" s="6"/>
+      <c r="GE40" s="6"/>
+      <c r="GF40" s="6"/>
+      <c r="GG40" s="6"/>
+      <c r="GH40" s="6"/>
+      <c r="GI40" s="6"/>
+      <c r="GJ40" s="6"/>
+      <c r="GK40" s="6"/>
+      <c r="GL40" s="6"/>
+      <c r="GM40" s="6"/>
+      <c r="GN40" s="6"/>
+      <c r="GO40" s="6"/>
+      <c r="GP40" s="6"/>
+      <c r="GQ40" s="6"/>
+      <c r="GR40" s="6"/>
+      <c r="GS40" s="6"/>
+      <c r="GT40" s="6"/>
+      <c r="GU40" s="6"/>
+      <c r="GV40" s="6"/>
+      <c r="GW40" s="6"/>
+      <c r="GX40" s="6"/>
+      <c r="GY40" s="6"/>
+      <c r="GZ40" s="6"/>
+      <c r="HA40" s="6"/>
+      <c r="HB40" s="6"/>
+      <c r="HC40" s="6"/>
+      <c r="HD40" s="6"/>
+      <c r="HE40" s="6"/>
+      <c r="HF40" s="6"/>
+      <c r="HG40" s="6"/>
+      <c r="HH40" s="6"/>
+      <c r="HI40" s="6"/>
+      <c r="HJ40" s="6"/>
+      <c r="HK40" s="6"/>
+      <c r="HL40" s="6"/>
+      <c r="HM40" s="6"/>
+      <c r="HN40" s="6"/>
+      <c r="HO40" s="6"/>
+      <c r="HP40" s="6"/>
+      <c r="HQ40" s="6"/>
+      <c r="HR40" s="6"/>
+      <c r="HS40" s="6"/>
+      <c r="HT40" s="6"/>
+      <c r="HU40" s="6"/>
+      <c r="HV40" s="6"/>
+      <c r="HW40" s="6"/>
+      <c r="HX40" s="6"/>
+      <c r="HY40" s="6"/>
+      <c r="HZ40" s="6"/>
+      <c r="IA40" s="6"/>
+      <c r="IB40" s="6"/>
+      <c r="IC40" s="6"/>
+      <c r="ID40" s="6"/>
+      <c r="IE40" s="6"/>
+      <c r="IF40" s="6"/>
+      <c r="IG40" s="6"/>
+      <c r="IH40" s="6"/>
+      <c r="II40" s="6"/>
+      <c r="IJ40" s="6"/>
+      <c r="IK40" s="6"/>
+      <c r="IL40" s="6"/>
+      <c r="IM40" s="6"/>
+      <c r="IN40" s="6"/>
+      <c r="IO40" s="6"/>
+      <c r="IP40" s="6"/>
+    </row>
+    <row r="41" spans="1:250" s="7" customFormat="1" ht="12">
+      <c r="A41" s="79">
+        <v>1</v>
+      </c>
+      <c r="B41" s="70"/>
+      <c r="C41" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="6"/>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="6"/>
+      <c r="AL41" s="6"/>
+      <c r="AM41" s="6"/>
+      <c r="AN41" s="6"/>
+      <c r="AO41" s="6"/>
+      <c r="AP41" s="6"/>
+      <c r="AQ41" s="6"/>
+      <c r="AR41" s="6"/>
+      <c r="AS41" s="6"/>
+      <c r="AT41" s="6"/>
+      <c r="AU41" s="6"/>
+      <c r="AV41" s="6"/>
+      <c r="AW41" s="6"/>
+      <c r="AX41" s="6"/>
+      <c r="AY41" s="6"/>
+      <c r="AZ41" s="6"/>
+      <c r="BA41" s="6"/>
+      <c r="BB41" s="6"/>
+      <c r="BC41" s="6"/>
+      <c r="BD41" s="6"/>
+      <c r="BE41" s="6"/>
+      <c r="BF41" s="6"/>
+      <c r="BG41" s="6"/>
+      <c r="BH41" s="6"/>
+      <c r="BI41" s="6"/>
+      <c r="BJ41" s="6"/>
+      <c r="BK41" s="6"/>
+      <c r="BL41" s="6"/>
+      <c r="BM41" s="6"/>
+      <c r="BN41" s="6"/>
+      <c r="BO41" s="6"/>
+      <c r="BP41" s="6"/>
+      <c r="BQ41" s="6"/>
+      <c r="BR41" s="6"/>
+      <c r="BS41" s="6"/>
+      <c r="BT41" s="6"/>
+      <c r="BU41" s="6"/>
+      <c r="BV41" s="6"/>
+      <c r="BW41" s="6"/>
+      <c r="BX41" s="6"/>
+      <c r="BY41" s="6"/>
+      <c r="BZ41" s="6"/>
+      <c r="CA41" s="6"/>
+      <c r="CB41" s="6"/>
+      <c r="CC41" s="6"/>
+      <c r="CD41" s="6"/>
+      <c r="CE41" s="6"/>
+      <c r="CF41" s="6"/>
+      <c r="CG41" s="6"/>
+      <c r="CH41" s="6"/>
+      <c r="CI41" s="6"/>
+      <c r="CJ41" s="6"/>
+      <c r="CK41" s="6"/>
+      <c r="CL41" s="6"/>
+      <c r="CM41" s="6"/>
+      <c r="CN41" s="6"/>
+      <c r="CO41" s="6"/>
+      <c r="CP41" s="6"/>
+      <c r="CQ41" s="6"/>
+      <c r="CR41" s="6"/>
+      <c r="CS41" s="6"/>
+      <c r="CT41" s="6"/>
+      <c r="CU41" s="6"/>
+      <c r="CV41" s="6"/>
+      <c r="CW41" s="6"/>
+      <c r="CX41" s="6"/>
+      <c r="CY41" s="6"/>
+      <c r="CZ41" s="6"/>
+      <c r="DA41" s="6"/>
+      <c r="DB41" s="6"/>
+      <c r="DC41" s="6"/>
+      <c r="DD41" s="6"/>
+      <c r="DE41" s="6"/>
+      <c r="DF41" s="6"/>
+      <c r="DG41" s="6"/>
+      <c r="DH41" s="6"/>
+      <c r="DI41" s="6"/>
+      <c r="DJ41" s="6"/>
+      <c r="DK41" s="6"/>
+      <c r="DL41" s="6"/>
+      <c r="DM41" s="6"/>
+      <c r="DN41" s="6"/>
+      <c r="DO41" s="6"/>
+      <c r="DP41" s="6"/>
+      <c r="DQ41" s="6"/>
+      <c r="DR41" s="6"/>
+      <c r="DS41" s="6"/>
+      <c r="DT41" s="6"/>
+      <c r="DU41" s="6"/>
+      <c r="DV41" s="6"/>
+      <c r="DW41" s="6"/>
+      <c r="DX41" s="6"/>
+      <c r="DY41" s="6"/>
+      <c r="DZ41" s="6"/>
+      <c r="EA41" s="6"/>
+      <c r="EB41" s="6"/>
+      <c r="EC41" s="6"/>
+      <c r="ED41" s="6"/>
+      <c r="EE41" s="6"/>
+      <c r="EF41" s="6"/>
+      <c r="EG41" s="6"/>
+      <c r="EH41" s="6"/>
+      <c r="EI41" s="6"/>
+      <c r="EJ41" s="6"/>
+      <c r="EK41" s="6"/>
+      <c r="EL41" s="6"/>
+      <c r="EM41" s="6"/>
+      <c r="EN41" s="6"/>
+      <c r="EO41" s="6"/>
+      <c r="EP41" s="6"/>
+      <c r="EQ41" s="6"/>
+      <c r="ER41" s="6"/>
+      <c r="ES41" s="6"/>
+      <c r="ET41" s="6"/>
+      <c r="EU41" s="6"/>
+      <c r="EV41" s="6"/>
+      <c r="EW41" s="6"/>
+      <c r="EX41" s="6"/>
+      <c r="EY41" s="6"/>
+      <c r="EZ41" s="6"/>
+      <c r="FA41" s="6"/>
+      <c r="FB41" s="6"/>
+      <c r="FC41" s="6"/>
+      <c r="FD41" s="6"/>
+      <c r="FE41" s="6"/>
+      <c r="FF41" s="6"/>
+      <c r="FG41" s="6"/>
+      <c r="FH41" s="6"/>
+      <c r="FI41" s="6"/>
+      <c r="FJ41" s="6"/>
+      <c r="FK41" s="6"/>
+      <c r="FL41" s="6"/>
+      <c r="FM41" s="6"/>
+      <c r="FN41" s="6"/>
+      <c r="FO41" s="6"/>
+      <c r="FP41" s="6"/>
+      <c r="FQ41" s="6"/>
+      <c r="FR41" s="6"/>
+      <c r="FS41" s="6"/>
+      <c r="FT41" s="6"/>
+      <c r="FU41" s="6"/>
+      <c r="FV41" s="6"/>
+      <c r="FW41" s="6"/>
+      <c r="FX41" s="6"/>
+      <c r="FY41" s="6"/>
+      <c r="FZ41" s="6"/>
+      <c r="GA41" s="6"/>
+      <c r="GB41" s="6"/>
+      <c r="GC41" s="6"/>
+      <c r="GD41" s="6"/>
+      <c r="GE41" s="6"/>
+      <c r="GF41" s="6"/>
+      <c r="GG41" s="6"/>
+      <c r="GH41" s="6"/>
+      <c r="GI41" s="6"/>
+      <c r="GJ41" s="6"/>
+      <c r="GK41" s="6"/>
+      <c r="GL41" s="6"/>
+      <c r="GM41" s="6"/>
+      <c r="GN41" s="6"/>
+      <c r="GO41" s="6"/>
+      <c r="GP41" s="6"/>
+      <c r="GQ41" s="6"/>
+      <c r="GR41" s="6"/>
+      <c r="GS41" s="6"/>
+      <c r="GT41" s="6"/>
+      <c r="GU41" s="6"/>
+      <c r="GV41" s="6"/>
+      <c r="GW41" s="6"/>
+      <c r="GX41" s="6"/>
+      <c r="GY41" s="6"/>
+      <c r="GZ41" s="6"/>
+      <c r="HA41" s="6"/>
+      <c r="HB41" s="6"/>
+      <c r="HC41" s="6"/>
+      <c r="HD41" s="6"/>
+      <c r="HE41" s="6"/>
+      <c r="HF41" s="6"/>
+      <c r="HG41" s="6"/>
+      <c r="HH41" s="6"/>
+      <c r="HI41" s="6"/>
+      <c r="HJ41" s="6"/>
+      <c r="HK41" s="6"/>
+      <c r="HL41" s="6"/>
+      <c r="HM41" s="6"/>
+      <c r="HN41" s="6"/>
+      <c r="HO41" s="6"/>
+      <c r="HP41" s="6"/>
+      <c r="HQ41" s="6"/>
+      <c r="HR41" s="6"/>
+      <c r="HS41" s="6"/>
+      <c r="HT41" s="6"/>
+      <c r="HU41" s="6"/>
+      <c r="HV41" s="6"/>
+      <c r="HW41" s="6"/>
+      <c r="HX41" s="6"/>
+      <c r="HY41" s="6"/>
+      <c r="HZ41" s="6"/>
+      <c r="IA41" s="6"/>
+      <c r="IB41" s="6"/>
+      <c r="IC41" s="6"/>
+      <c r="ID41" s="6"/>
+      <c r="IE41" s="6"/>
+      <c r="IF41" s="6"/>
+      <c r="IG41" s="6"/>
+      <c r="IH41" s="6"/>
+      <c r="II41" s="6"/>
+      <c r="IJ41" s="6"/>
+      <c r="IK41" s="6"/>
+      <c r="IL41" s="6"/>
+      <c r="IM41" s="6"/>
+      <c r="IN41" s="6"/>
+      <c r="IO41" s="6"/>
+      <c r="IP41" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="AJ8:AN8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="U8:Y8"/>
-    <mergeCell ref="Z8:AD8"/>
-    <mergeCell ref="AE8:AI8"/>
-    <mergeCell ref="BN8:BR8"/>
-    <mergeCell ref="HW8:IA8"/>
-    <mergeCell ref="IB8:IF8"/>
-    <mergeCell ref="IG8:IK8"/>
-    <mergeCell ref="IL8:IP8"/>
-    <mergeCell ref="AO8:AS8"/>
-    <mergeCell ref="AT8:AX8"/>
-    <mergeCell ref="AY8:BC8"/>
-    <mergeCell ref="BD8:BH8"/>
-    <mergeCell ref="BI8:BM8"/>
-    <mergeCell ref="DV8:DZ8"/>
-    <mergeCell ref="BS8:BW8"/>
-    <mergeCell ref="BX8:CB8"/>
-    <mergeCell ref="CC8:CG8"/>
-    <mergeCell ref="CH8:CL8"/>
-    <mergeCell ref="CM8:CQ8"/>
-    <mergeCell ref="CR8:CV8"/>
-    <mergeCell ref="CW8:DA8"/>
-    <mergeCell ref="DB8:DF8"/>
-    <mergeCell ref="DG8:DK8"/>
-    <mergeCell ref="DL8:DP8"/>
+    <mergeCell ref="HM8:HQ8"/>
+    <mergeCell ref="HR8:HV8"/>
+    <mergeCell ref="GI8:GM8"/>
+    <mergeCell ref="GN8:GR8"/>
+    <mergeCell ref="GS8:GW8"/>
+    <mergeCell ref="GX8:HB8"/>
+    <mergeCell ref="HC8:HG8"/>
+    <mergeCell ref="HH8:HL8"/>
     <mergeCell ref="DQ8:DU8"/>
     <mergeCell ref="GD8:GH8"/>
     <mergeCell ref="EA8:EE8"/>
@@ -9289,91 +9132,110 @@
     <mergeCell ref="FO8:FS8"/>
     <mergeCell ref="FT8:FX8"/>
     <mergeCell ref="FY8:GC8"/>
-    <mergeCell ref="HM8:HQ8"/>
-    <mergeCell ref="HR8:HV8"/>
-    <mergeCell ref="GI8:GM8"/>
-    <mergeCell ref="GN8:GR8"/>
-    <mergeCell ref="GS8:GW8"/>
-    <mergeCell ref="GX8:HB8"/>
-    <mergeCell ref="HC8:HG8"/>
-    <mergeCell ref="HH8:HL8"/>
+    <mergeCell ref="AO8:AS8"/>
+    <mergeCell ref="AT8:AX8"/>
+    <mergeCell ref="AY8:BC8"/>
+    <mergeCell ref="BD8:BH8"/>
+    <mergeCell ref="BI8:BM8"/>
+    <mergeCell ref="BN8:BR8"/>
+    <mergeCell ref="HW8:IA8"/>
+    <mergeCell ref="IB8:IF8"/>
+    <mergeCell ref="IG8:IK8"/>
+    <mergeCell ref="IL8:IP8"/>
+    <mergeCell ref="DV8:DZ8"/>
+    <mergeCell ref="BS8:BW8"/>
+    <mergeCell ref="BX8:CB8"/>
+    <mergeCell ref="CC8:CG8"/>
+    <mergeCell ref="CH8:CL8"/>
+    <mergeCell ref="CM8:CQ8"/>
+    <mergeCell ref="CR8:CV8"/>
+    <mergeCell ref="CW8:DA8"/>
+    <mergeCell ref="DB8:DF8"/>
+    <mergeCell ref="DG8:DK8"/>
+    <mergeCell ref="DL8:DP8"/>
+    <mergeCell ref="AJ8:AN8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="U8:Y8"/>
+    <mergeCell ref="Z8:AD8"/>
+    <mergeCell ref="AE8:AI8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="K9:IP9 K17:IP19 K29:IP29">
-    <cfRule type="expression" dxfId="41" priority="37" stopIfTrue="1">
+  <conditionalFormatting sqref="K9:IP9 K17:IP21 K31:IP31">
+    <cfRule type="expression" dxfId="20" priority="37" stopIfTrue="1">
       <formula>K$7=$C$5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="38" stopIfTrue="1">
       <formula>AND(K$7&gt;=$F9,K$7&lt;$F9+#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="39" stopIfTrue="1">
       <formula>AND(K$7&gt;=$F9,K$7&lt;=$F9+$H9-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:IP16 K20:IP36">
-    <cfRule type="expression" dxfId="38" priority="49" stopIfTrue="1">
+  <conditionalFormatting sqref="K10:IP16 K22:IP38">
+    <cfRule type="expression" dxfId="17" priority="49" stopIfTrue="1">
       <formula>K$7=$C$5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="50" stopIfTrue="1">
       <formula>AND(K$7&gt;=$F10,K$7&lt;$F10+#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="51" stopIfTrue="1">
       <formula>AND(K$7&gt;=$F10,K$7&lt;=$F10+$H10-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:IP27">
-    <cfRule type="expression" dxfId="35" priority="13" stopIfTrue="1">
+  <conditionalFormatting sqref="K28:IP29">
+    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
       <formula>K$7=$C$5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="14" stopIfTrue="1">
-      <formula>AND(K$7&gt;=$F26,K$7&lt;$F26+#REF!)</formula>
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+      <formula>AND(K$7&gt;=$F28,K$7&lt;$F28+#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="15" stopIfTrue="1">
-      <formula>AND(K$7&gt;=$F26,K$7&lt;=$F26+$H26-1)</formula>
+    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+      <formula>AND(K$7&gt;=$F28,K$7&lt;=$F28+$H28-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35:IP36">
-    <cfRule type="expression" dxfId="29" priority="10" stopIfTrue="1">
+  <conditionalFormatting sqref="K37:IP38">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>K$7=$C$5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="11" stopIfTrue="1">
-      <formula>AND(K$7&gt;=$F35,K$7&lt;$F35+#REF!)</formula>
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+      <formula>AND(K$7&gt;=$F37,K$7&lt;$F37+#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="12" stopIfTrue="1">
-      <formula>AND(K$7&gt;=$F35,K$7&lt;=$F35+$H35-1)</formula>
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+      <formula>AND(K$7&gt;=$F37,K$7&lt;=$F37+$H37-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:IP38">
-    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="K40:IP40">
+    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
       <formula>K$7=$C$5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
-      <formula>AND(K$7&gt;=$F38,K$7&lt;$F38+#REF!)</formula>
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+      <formula>AND(K$7&gt;=$F40,K$7&lt;$F40+#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
-      <formula>AND(K$7&gt;=$F38,K$7&lt;=$F38+$H38-1)</formula>
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+      <formula>AND(K$7&gt;=$F40,K$7&lt;=$F40+$H40-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:IP39">
-    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="K40:IP41">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>K$7=$C$5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
-      <formula>AND(K$7&gt;=$F38,K$7&lt;$F38+#REF!)</formula>
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>AND(K$7&gt;=$F40,K$7&lt;$F40+#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
-      <formula>AND(K$7&gt;=$F38,K$7&lt;=$F38+$H38-1)</formula>
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+      <formula>AND(K$7&gt;=$F40,K$7&lt;=$F40+$H40-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:IP37">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="K39:IP39">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>K$7=$C$5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
-      <formula>AND(K$7&gt;=$F37,K$7&lt;$F37+#REF!)</formula>
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>AND(K$7&gt;=$F39,K$7&lt;$F39+#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
-      <formula>AND(K$7&gt;=$F37,K$7&lt;=$F37+$H37-1)</formula>
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>AND(K$7&gt;=$F39,K$7&lt;=$F39+$H39-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -9384,7 +9246,7 @@
   <pageSetup scale="62" orientation="landscape" r:id="rId3"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A37" numberStoredAsText="1"/>
+    <ignoredError sqref="A39" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId4"/>
 </worksheet>

--- a/P2012001/3 项目管理/3-1 计划/开发计划.xlsx
+++ b/P2012001/3 项目管理/3-1 计划/开发计划.xlsx
@@ -10,7 +10,7 @@
     <sheet name="开发计划" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">开发计划!$A$3:$IP$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">开发计划!$A$2:$IP$41</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -1490,13 +1490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:IP41"/>
+  <dimension ref="A1:IP40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1533,1478 +1530,1746 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:250" ht="22.5">
-      <c r="A3" s="88" t="s">
+    <row r="2" spans="1:250" ht="22.5">
+      <c r="A2" s="88" t="s">
         <v>41</v>
       </c>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:250">
+      <c r="A3"/>
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:250">
-      <c r="A4"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="54">
+        <v>40994</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:250">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="54">
-        <v>40994</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="E5" s="8"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:250">
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="E6" s="8"/>
+    <row r="6" spans="1:250" s="74" customFormat="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="55">
+        <v>41000</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="55">
+        <v>41061</v>
+      </c>
+      <c r="F6" s="18"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="8"/>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f>(C6-WEEKDAY(C6)+2)+7*J6</f>
+        <v>41001</v>
+      </c>
+      <c r="L6" s="4">
+        <f>K6+1</f>
+        <v>41002</v>
+      </c>
+      <c r="M6" s="4">
+        <f>L6+1</f>
+        <v>41003</v>
+      </c>
+      <c r="N6" s="4">
+        <f>M6+1</f>
+        <v>41004</v>
+      </c>
+      <c r="O6" s="4">
+        <f>N6+1</f>
+        <v>41005</v>
+      </c>
+      <c r="P6" s="4">
+        <f>O6+3</f>
+        <v>41008</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>P6+1</f>
+        <v>41009</v>
+      </c>
+      <c r="R6" s="4">
+        <f>Q6+1</f>
+        <v>41010</v>
+      </c>
+      <c r="S6" s="4">
+        <f>R6+1</f>
+        <v>41011</v>
+      </c>
+      <c r="T6" s="4">
+        <f>S6+1</f>
+        <v>41012</v>
+      </c>
+      <c r="U6" s="4">
+        <f>T6+3</f>
+        <v>41015</v>
+      </c>
+      <c r="V6" s="4">
+        <f>U6+1</f>
+        <v>41016</v>
+      </c>
+      <c r="W6" s="4">
+        <f>V6+1</f>
+        <v>41017</v>
+      </c>
+      <c r="X6" s="4">
+        <f>W6+1</f>
+        <v>41018</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>X6+1</f>
+        <v>41019</v>
+      </c>
+      <c r="Z6" s="4">
+        <f>Y6+3</f>
+        <v>41022</v>
+      </c>
+      <c r="AA6" s="4">
+        <f>Z6+1</f>
+        <v>41023</v>
+      </c>
+      <c r="AB6" s="4">
+        <f>AA6+1</f>
+        <v>41024</v>
+      </c>
+      <c r="AC6" s="4">
+        <f>AB6+1</f>
+        <v>41025</v>
+      </c>
+      <c r="AD6" s="4">
+        <f>AC6+1</f>
+        <v>41026</v>
+      </c>
+      <c r="AE6" s="4">
+        <f>AD6+3</f>
+        <v>41029</v>
+      </c>
+      <c r="AF6" s="4">
+        <f>AE6+1</f>
+        <v>41030</v>
+      </c>
+      <c r="AG6" s="4">
+        <f>AF6+1</f>
+        <v>41031</v>
+      </c>
+      <c r="AH6" s="4">
+        <f>AG6+1</f>
+        <v>41032</v>
+      </c>
+      <c r="AI6" s="4">
+        <f>AH6+1</f>
+        <v>41033</v>
+      </c>
+      <c r="AJ6" s="4">
+        <f>AI6+3</f>
+        <v>41036</v>
+      </c>
+      <c r="AK6" s="4">
+        <f>AJ6+1</f>
+        <v>41037</v>
+      </c>
+      <c r="AL6" s="4">
+        <f>AK6+1</f>
+        <v>41038</v>
+      </c>
+      <c r="AM6" s="4">
+        <f>AL6+1</f>
+        <v>41039</v>
+      </c>
+      <c r="AN6" s="4">
+        <f>AM6+1</f>
+        <v>41040</v>
+      </c>
+      <c r="AO6" s="4">
+        <f>AN6+3</f>
+        <v>41043</v>
+      </c>
+      <c r="AP6" s="4">
+        <f>AO6+1</f>
+        <v>41044</v>
+      </c>
+      <c r="AQ6" s="4">
+        <f>AP6+1</f>
+        <v>41045</v>
+      </c>
+      <c r="AR6" s="4">
+        <f>AQ6+1</f>
+        <v>41046</v>
+      </c>
+      <c r="AS6" s="4">
+        <f>AR6+1</f>
+        <v>41047</v>
+      </c>
+      <c r="AT6" s="4">
+        <f>AS6+3</f>
+        <v>41050</v>
+      </c>
+      <c r="AU6" s="4">
+        <f>AT6+1</f>
+        <v>41051</v>
+      </c>
+      <c r="AV6" s="4">
+        <f>AU6+1</f>
+        <v>41052</v>
+      </c>
+      <c r="AW6" s="4">
+        <f>AV6+1</f>
+        <v>41053</v>
+      </c>
+      <c r="AX6" s="4">
+        <f>AW6+1</f>
+        <v>41054</v>
+      </c>
+      <c r="AY6" s="4">
+        <f>AX6+3</f>
+        <v>41057</v>
+      </c>
+      <c r="AZ6" s="4">
+        <f>AY6+1</f>
+        <v>41058</v>
+      </c>
+      <c r="BA6" s="4">
+        <f>AZ6+1</f>
+        <v>41059</v>
+      </c>
+      <c r="BB6" s="4">
+        <f>BA6+1</f>
+        <v>41060</v>
+      </c>
+      <c r="BC6" s="4">
+        <f>BB6+1</f>
+        <v>41061</v>
+      </c>
+      <c r="BD6" s="4">
+        <f>BC6+3</f>
+        <v>41064</v>
+      </c>
+      <c r="BE6" s="4">
+        <f>BD6+1</f>
+        <v>41065</v>
+      </c>
+      <c r="BF6" s="4">
+        <f>BE6+1</f>
+        <v>41066</v>
+      </c>
+      <c r="BG6" s="4">
+        <f>BF6+1</f>
+        <v>41067</v>
+      </c>
+      <c r="BH6" s="4">
+        <f>BG6+1</f>
+        <v>41068</v>
+      </c>
+      <c r="BI6" s="4">
+        <f>BH6+3</f>
+        <v>41071</v>
+      </c>
+      <c r="BJ6" s="4">
+        <f>BI6+1</f>
+        <v>41072</v>
+      </c>
+      <c r="BK6" s="4">
+        <f>BJ6+1</f>
+        <v>41073</v>
+      </c>
+      <c r="BL6" s="4">
+        <f>BK6+1</f>
+        <v>41074</v>
+      </c>
+      <c r="BM6" s="4">
+        <f>BL6+1</f>
+        <v>41075</v>
+      </c>
+      <c r="BN6" s="4">
+        <f>BM6+3</f>
+        <v>41078</v>
+      </c>
+      <c r="BO6" s="4">
+        <f>BN6+1</f>
+        <v>41079</v>
+      </c>
+      <c r="BP6" s="4">
+        <f>BO6+1</f>
+        <v>41080</v>
+      </c>
+      <c r="BQ6" s="4">
+        <f>BP6+1</f>
+        <v>41081</v>
+      </c>
+      <c r="BR6" s="4">
+        <f>BQ6+1</f>
+        <v>41082</v>
+      </c>
+      <c r="BS6" s="4">
+        <f>BR6+3</f>
+        <v>41085</v>
+      </c>
+      <c r="BT6" s="4">
+        <f>BS6+1</f>
+        <v>41086</v>
+      </c>
+      <c r="BU6" s="4">
+        <f>BT6+1</f>
+        <v>41087</v>
+      </c>
+      <c r="BV6" s="4">
+        <f>BU6+1</f>
+        <v>41088</v>
+      </c>
+      <c r="BW6" s="4">
+        <f>BV6+1</f>
+        <v>41089</v>
+      </c>
+      <c r="BX6" s="4">
+        <f>BW6+3</f>
+        <v>41092</v>
+      </c>
+      <c r="BY6" s="4">
+        <f>BX6+1</f>
+        <v>41093</v>
+      </c>
+      <c r="BZ6" s="4">
+        <f>BY6+1</f>
+        <v>41094</v>
+      </c>
+      <c r="CA6" s="4">
+        <f>BZ6+1</f>
+        <v>41095</v>
+      </c>
+      <c r="CB6" s="4">
+        <f>CA6+1</f>
+        <v>41096</v>
+      </c>
+      <c r="CC6" s="4">
+        <f>CB6+3</f>
+        <v>41099</v>
+      </c>
+      <c r="CD6" s="4">
+        <f>CC6+1</f>
+        <v>41100</v>
+      </c>
+      <c r="CE6" s="4">
+        <f>CD6+1</f>
+        <v>41101</v>
+      </c>
+      <c r="CF6" s="4">
+        <f>CE6+1</f>
+        <v>41102</v>
+      </c>
+      <c r="CG6" s="4">
+        <f>CF6+1</f>
+        <v>41103</v>
+      </c>
+      <c r="CH6" s="4">
+        <f>CG6+3</f>
+        <v>41106</v>
+      </c>
+      <c r="CI6" s="4">
+        <f>CH6+1</f>
+        <v>41107</v>
+      </c>
+      <c r="CJ6" s="4">
+        <f>CI6+1</f>
+        <v>41108</v>
+      </c>
+      <c r="CK6" s="4">
+        <f>CJ6+1</f>
+        <v>41109</v>
+      </c>
+      <c r="CL6" s="4">
+        <f>CK6+1</f>
+        <v>41110</v>
+      </c>
+      <c r="CM6" s="4">
+        <f>CL6+3</f>
+        <v>41113</v>
+      </c>
+      <c r="CN6" s="4">
+        <f>CM6+1</f>
+        <v>41114</v>
+      </c>
+      <c r="CO6" s="4">
+        <f>CN6+1</f>
+        <v>41115</v>
+      </c>
+      <c r="CP6" s="4">
+        <f>CO6+1</f>
+        <v>41116</v>
+      </c>
+      <c r="CQ6" s="4">
+        <f>CP6+1</f>
+        <v>41117</v>
+      </c>
+      <c r="CR6" s="4">
+        <f>CQ6+3</f>
+        <v>41120</v>
+      </c>
+      <c r="CS6" s="4">
+        <f>CR6+1</f>
+        <v>41121</v>
+      </c>
+      <c r="CT6" s="4">
+        <f>CS6+1</f>
+        <v>41122</v>
+      </c>
+      <c r="CU6" s="4">
+        <f>CT6+1</f>
+        <v>41123</v>
+      </c>
+      <c r="CV6" s="4">
+        <f>CU6+1</f>
+        <v>41124</v>
+      </c>
+      <c r="CW6" s="4">
+        <f>CV6+3</f>
+        <v>41127</v>
+      </c>
+      <c r="CX6" s="4">
+        <f>CW6+1</f>
+        <v>41128</v>
+      </c>
+      <c r="CY6" s="4">
+        <f>CX6+1</f>
+        <v>41129</v>
+      </c>
+      <c r="CZ6" s="4">
+        <f>CY6+1</f>
+        <v>41130</v>
+      </c>
+      <c r="DA6" s="4">
+        <f>CZ6+1</f>
+        <v>41131</v>
+      </c>
+      <c r="DB6" s="4">
+        <f>DA6+3</f>
+        <v>41134</v>
+      </c>
+      <c r="DC6" s="4">
+        <f>DB6+1</f>
+        <v>41135</v>
+      </c>
+      <c r="DD6" s="4">
+        <f>DC6+1</f>
+        <v>41136</v>
+      </c>
+      <c r="DE6" s="4">
+        <f>DD6+1</f>
+        <v>41137</v>
+      </c>
+      <c r="DF6" s="4">
+        <f>DE6+1</f>
+        <v>41138</v>
+      </c>
+      <c r="DG6" s="4">
+        <f>DF6+3</f>
+        <v>41141</v>
+      </c>
+      <c r="DH6" s="4">
+        <f>DG6+1</f>
+        <v>41142</v>
+      </c>
+      <c r="DI6" s="4">
+        <f>DH6+1</f>
+        <v>41143</v>
+      </c>
+      <c r="DJ6" s="4">
+        <f>DI6+1</f>
+        <v>41144</v>
+      </c>
+      <c r="DK6" s="4">
+        <f>DJ6+1</f>
+        <v>41145</v>
+      </c>
+      <c r="DL6" s="4">
+        <f>DK6+3</f>
+        <v>41148</v>
+      </c>
+      <c r="DM6" s="4">
+        <f>DL6+1</f>
+        <v>41149</v>
+      </c>
+      <c r="DN6" s="4">
+        <f>DM6+1</f>
+        <v>41150</v>
+      </c>
+      <c r="DO6" s="4">
+        <f>DN6+1</f>
+        <v>41151</v>
+      </c>
+      <c r="DP6" s="4">
+        <f>DO6+1</f>
+        <v>41152</v>
+      </c>
+      <c r="DQ6" s="4">
+        <f>DP6+3</f>
+        <v>41155</v>
+      </c>
+      <c r="DR6" s="4">
+        <f>DQ6+1</f>
+        <v>41156</v>
+      </c>
+      <c r="DS6" s="4">
+        <f>DR6+1</f>
+        <v>41157</v>
+      </c>
+      <c r="DT6" s="4">
+        <f>DS6+1</f>
+        <v>41158</v>
+      </c>
+      <c r="DU6" s="4">
+        <f>DT6+1</f>
+        <v>41159</v>
+      </c>
+      <c r="DV6" s="4">
+        <f>DU6+3</f>
+        <v>41162</v>
+      </c>
+      <c r="DW6" s="4">
+        <f>DV6+1</f>
+        <v>41163</v>
+      </c>
+      <c r="DX6" s="4">
+        <f>DW6+1</f>
+        <v>41164</v>
+      </c>
+      <c r="DY6" s="4">
+        <f>DX6+1</f>
+        <v>41165</v>
+      </c>
+      <c r="DZ6" s="4">
+        <f>DY6+1</f>
+        <v>41166</v>
+      </c>
+      <c r="EA6" s="4">
+        <f>DZ6+3</f>
+        <v>41169</v>
+      </c>
+      <c r="EB6" s="4">
+        <f>EA6+1</f>
+        <v>41170</v>
+      </c>
+      <c r="EC6" s="4">
+        <f>EB6+1</f>
+        <v>41171</v>
+      </c>
+      <c r="ED6" s="4">
+        <f>EC6+1</f>
+        <v>41172</v>
+      </c>
+      <c r="EE6" s="4">
+        <f>ED6+1</f>
+        <v>41173</v>
+      </c>
+      <c r="EF6" s="4">
+        <f>EE6+3</f>
+        <v>41176</v>
+      </c>
+      <c r="EG6" s="4">
+        <f>EF6+1</f>
+        <v>41177</v>
+      </c>
+      <c r="EH6" s="4">
+        <f>EG6+1</f>
+        <v>41178</v>
+      </c>
+      <c r="EI6" s="4">
+        <f>EH6+1</f>
+        <v>41179</v>
+      </c>
+      <c r="EJ6" s="4">
+        <f>EI6+1</f>
+        <v>41180</v>
+      </c>
+      <c r="EK6" s="4">
+        <f>EJ6+3</f>
+        <v>41183</v>
+      </c>
+      <c r="EL6" s="4">
+        <f>EK6+1</f>
+        <v>41184</v>
+      </c>
+      <c r="EM6" s="4">
+        <f>EL6+1</f>
+        <v>41185</v>
+      </c>
+      <c r="EN6" s="4">
+        <f>EM6+1</f>
+        <v>41186</v>
+      </c>
+      <c r="EO6" s="4">
+        <f>EN6+1</f>
+        <v>41187</v>
+      </c>
+      <c r="EP6" s="4">
+        <f>EO6+3</f>
+        <v>41190</v>
+      </c>
+      <c r="EQ6" s="4">
+        <f>EP6+1</f>
+        <v>41191</v>
+      </c>
+      <c r="ER6" s="4">
+        <f>EQ6+1</f>
+        <v>41192</v>
+      </c>
+      <c r="ES6" s="4">
+        <f>ER6+1</f>
+        <v>41193</v>
+      </c>
+      <c r="ET6" s="4">
+        <f>ES6+1</f>
+        <v>41194</v>
+      </c>
+      <c r="EU6" s="4">
+        <f>ET6+3</f>
+        <v>41197</v>
+      </c>
+      <c r="EV6" s="4">
+        <f>EU6+1</f>
+        <v>41198</v>
+      </c>
+      <c r="EW6" s="4">
+        <f>EV6+1</f>
+        <v>41199</v>
+      </c>
+      <c r="EX6" s="4">
+        <f>EW6+1</f>
+        <v>41200</v>
+      </c>
+      <c r="EY6" s="4">
+        <f>EX6+1</f>
+        <v>41201</v>
+      </c>
+      <c r="EZ6" s="4">
+        <f>EY6+3</f>
+        <v>41204</v>
+      </c>
+      <c r="FA6" s="4">
+        <f>EZ6+1</f>
+        <v>41205</v>
+      </c>
+      <c r="FB6" s="4">
+        <f>FA6+1</f>
+        <v>41206</v>
+      </c>
+      <c r="FC6" s="4">
+        <f>FB6+1</f>
+        <v>41207</v>
+      </c>
+      <c r="FD6" s="4">
+        <f>FC6+1</f>
+        <v>41208</v>
+      </c>
+      <c r="FE6" s="4">
+        <f>FD6+3</f>
+        <v>41211</v>
+      </c>
+      <c r="FF6" s="4">
+        <f>FE6+1</f>
+        <v>41212</v>
+      </c>
+      <c r="FG6" s="4">
+        <f>FF6+1</f>
+        <v>41213</v>
+      </c>
+      <c r="FH6" s="4">
+        <f>FG6+1</f>
+        <v>41214</v>
+      </c>
+      <c r="FI6" s="4">
+        <f>FH6+1</f>
+        <v>41215</v>
+      </c>
+      <c r="FJ6" s="4">
+        <f>FI6+3</f>
+        <v>41218</v>
+      </c>
+      <c r="FK6" s="4">
+        <f>FJ6+1</f>
+        <v>41219</v>
+      </c>
+      <c r="FL6" s="4">
+        <f>FK6+1</f>
+        <v>41220</v>
+      </c>
+      <c r="FM6" s="4">
+        <f>FL6+1</f>
+        <v>41221</v>
+      </c>
+      <c r="FN6" s="4">
+        <f>FM6+1</f>
+        <v>41222</v>
+      </c>
+      <c r="FO6" s="4">
+        <f>FN6+3</f>
+        <v>41225</v>
+      </c>
+      <c r="FP6" s="4">
+        <f>FO6+1</f>
+        <v>41226</v>
+      </c>
+      <c r="FQ6" s="4">
+        <f>FP6+1</f>
+        <v>41227</v>
+      </c>
+      <c r="FR6" s="4">
+        <f>FQ6+1</f>
+        <v>41228</v>
+      </c>
+      <c r="FS6" s="4">
+        <f>FR6+1</f>
+        <v>41229</v>
+      </c>
+      <c r="FT6" s="4">
+        <f>FS6+3</f>
+        <v>41232</v>
+      </c>
+      <c r="FU6" s="4">
+        <f>FT6+1</f>
+        <v>41233</v>
+      </c>
+      <c r="FV6" s="4">
+        <f>FU6+1</f>
+        <v>41234</v>
+      </c>
+      <c r="FW6" s="4">
+        <f>FV6+1</f>
+        <v>41235</v>
+      </c>
+      <c r="FX6" s="4">
+        <f>FW6+1</f>
+        <v>41236</v>
+      </c>
+      <c r="FY6" s="4">
+        <f>FX6+3</f>
+        <v>41239</v>
+      </c>
+      <c r="FZ6" s="4">
+        <f>FY6+1</f>
+        <v>41240</v>
+      </c>
+      <c r="GA6" s="4">
+        <f>FZ6+1</f>
+        <v>41241</v>
+      </c>
+      <c r="GB6" s="4">
+        <f>GA6+1</f>
+        <v>41242</v>
+      </c>
+      <c r="GC6" s="4">
+        <f>GB6+1</f>
+        <v>41243</v>
+      </c>
+      <c r="GD6" s="4">
+        <f>GC6+3</f>
+        <v>41246</v>
+      </c>
+      <c r="GE6" s="4">
+        <f>GD6+1</f>
+        <v>41247</v>
+      </c>
+      <c r="GF6" s="4">
+        <f>GE6+1</f>
+        <v>41248</v>
+      </c>
+      <c r="GG6" s="4">
+        <f>GF6+1</f>
+        <v>41249</v>
+      </c>
+      <c r="GH6" s="4">
+        <f>GG6+1</f>
+        <v>41250</v>
+      </c>
+      <c r="GI6" s="4">
+        <f>GH6+3</f>
+        <v>41253</v>
+      </c>
+      <c r="GJ6" s="4">
+        <f>GI6+1</f>
+        <v>41254</v>
+      </c>
+      <c r="GK6" s="4">
+        <f>GJ6+1</f>
+        <v>41255</v>
+      </c>
+      <c r="GL6" s="4">
+        <f>GK6+1</f>
+        <v>41256</v>
+      </c>
+      <c r="GM6" s="4">
+        <f>GL6+1</f>
+        <v>41257</v>
+      </c>
+      <c r="GN6" s="4">
+        <f>GM6+3</f>
+        <v>41260</v>
+      </c>
+      <c r="GO6" s="4">
+        <f>GN6+1</f>
+        <v>41261</v>
+      </c>
+      <c r="GP6" s="4">
+        <f>GO6+1</f>
+        <v>41262</v>
+      </c>
+      <c r="GQ6" s="4">
+        <f>GP6+1</f>
+        <v>41263</v>
+      </c>
+      <c r="GR6" s="4">
+        <f>GQ6+1</f>
+        <v>41264</v>
+      </c>
+      <c r="GS6" s="4">
+        <f>GR6+3</f>
+        <v>41267</v>
+      </c>
+      <c r="GT6" s="4">
+        <f>GS6+1</f>
+        <v>41268</v>
+      </c>
+      <c r="GU6" s="4">
+        <f>GT6+1</f>
+        <v>41269</v>
+      </c>
+      <c r="GV6" s="4">
+        <f>GU6+1</f>
+        <v>41270</v>
+      </c>
+      <c r="GW6" s="4">
+        <f>GV6+1</f>
+        <v>41271</v>
+      </c>
+      <c r="GX6" s="4">
+        <f>GW6+3</f>
+        <v>41274</v>
+      </c>
+      <c r="GY6" s="4">
+        <f>GX6+1</f>
+        <v>41275</v>
+      </c>
+      <c r="GZ6" s="4">
+        <f>GY6+1</f>
+        <v>41276</v>
+      </c>
+      <c r="HA6" s="4">
+        <f>GZ6+1</f>
+        <v>41277</v>
+      </c>
+      <c r="HB6" s="4">
+        <f>HA6+1</f>
+        <v>41278</v>
+      </c>
+      <c r="HC6" s="4">
+        <f>HB6+3</f>
+        <v>41281</v>
+      </c>
+      <c r="HD6" s="4">
+        <f>HC6+1</f>
+        <v>41282</v>
+      </c>
+      <c r="HE6" s="4">
+        <f>HD6+1</f>
+        <v>41283</v>
+      </c>
+      <c r="HF6" s="4">
+        <f>HE6+1</f>
+        <v>41284</v>
+      </c>
+      <c r="HG6" s="4">
+        <f>HF6+1</f>
+        <v>41285</v>
+      </c>
+      <c r="HH6" s="4">
+        <f>HG6+3</f>
+        <v>41288</v>
+      </c>
+      <c r="HI6" s="4">
+        <f>HH6+1</f>
+        <v>41289</v>
+      </c>
+      <c r="HJ6" s="4">
+        <f>HI6+1</f>
+        <v>41290</v>
+      </c>
+      <c r="HK6" s="4">
+        <f>HJ6+1</f>
+        <v>41291</v>
+      </c>
+      <c r="HL6" s="4">
+        <f>HK6+1</f>
+        <v>41292</v>
+      </c>
+      <c r="HM6" s="4">
+        <f>HL6+3</f>
+        <v>41295</v>
+      </c>
+      <c r="HN6" s="4">
+        <f>HM6+1</f>
+        <v>41296</v>
+      </c>
+      <c r="HO6" s="4">
+        <f>HN6+1</f>
+        <v>41297</v>
+      </c>
+      <c r="HP6" s="4">
+        <f>HO6+1</f>
+        <v>41298</v>
+      </c>
+      <c r="HQ6" s="4">
+        <f>HP6+1</f>
+        <v>41299</v>
+      </c>
+      <c r="HR6" s="4">
+        <f>HQ6+3</f>
+        <v>41302</v>
+      </c>
+      <c r="HS6" s="4">
+        <f>HR6+1</f>
+        <v>41303</v>
+      </c>
+      <c r="HT6" s="4">
+        <f>HS6+1</f>
+        <v>41304</v>
+      </c>
+      <c r="HU6" s="4">
+        <f>HT6+1</f>
+        <v>41305</v>
+      </c>
+      <c r="HV6" s="4">
+        <f>HU6+1</f>
+        <v>41306</v>
+      </c>
+      <c r="HW6" s="4">
+        <f>HV6+3</f>
+        <v>41309</v>
+      </c>
+      <c r="HX6" s="4">
+        <f>HW6+1</f>
+        <v>41310</v>
+      </c>
+      <c r="HY6" s="4">
+        <f>HX6+1</f>
+        <v>41311</v>
+      </c>
+      <c r="HZ6" s="4">
+        <f>HY6+1</f>
+        <v>41312</v>
+      </c>
+      <c r="IA6" s="4">
+        <f>HZ6+1</f>
+        <v>41313</v>
+      </c>
+      <c r="IB6" s="4">
+        <f>IA6+3</f>
+        <v>41316</v>
+      </c>
+      <c r="IC6" s="4">
+        <f>IB6+1</f>
+        <v>41317</v>
+      </c>
+      <c r="ID6" s="4">
+        <f>IC6+1</f>
+        <v>41318</v>
+      </c>
+      <c r="IE6" s="4">
+        <f>ID6+1</f>
+        <v>41319</v>
+      </c>
+      <c r="IF6" s="4">
+        <f>IE6+1</f>
+        <v>41320</v>
+      </c>
+      <c r="IG6" s="4">
+        <f>IF6+3</f>
+        <v>41323</v>
+      </c>
+      <c r="IH6" s="4">
+        <f>IG6+1</f>
+        <v>41324</v>
+      </c>
+      <c r="II6" s="4">
+        <f>IH6+1</f>
+        <v>41325</v>
+      </c>
+      <c r="IJ6" s="4">
+        <f>II6+1</f>
+        <v>41326</v>
+      </c>
+      <c r="IK6" s="4">
+        <f>IJ6+1</f>
+        <v>41327</v>
+      </c>
+      <c r="IL6" s="4">
+        <f>IK6+3</f>
+        <v>41330</v>
+      </c>
+      <c r="IM6" s="4">
+        <f>IL6+1</f>
+        <v>41331</v>
+      </c>
+      <c r="IN6" s="4">
+        <f>IM6+1</f>
+        <v>41332</v>
+      </c>
+      <c r="IO6" s="4">
+        <f>IN6+1</f>
+        <v>41333</v>
+      </c>
+      <c r="IP6" s="4">
+        <f>IO6+1</f>
+        <v>41334</v>
+      </c>
     </row>
-    <row r="7" spans="1:250" s="74" customFormat="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="55">
-        <v>41000</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="55">
-        <v>41061</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f>(C7-WEEKDAY(C7)+2)+7*J7</f>
+    <row r="7" spans="1:250" s="10" customFormat="1" ht="49.5" customHeight="1" thickBot="1">
+      <c r="A7" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="85">
+        <f>K6</f>
         <v>41001</v>
       </c>
-      <c r="L7" s="4">
-        <f>K7+1</f>
-        <v>41002</v>
-      </c>
-      <c r="M7" s="4">
-        <f>L7+1</f>
-        <v>41003</v>
-      </c>
-      <c r="N7" s="4">
-        <f>M7+1</f>
-        <v>41004</v>
-      </c>
-      <c r="O7" s="4">
-        <f>N7+1</f>
-        <v>41005</v>
-      </c>
-      <c r="P7" s="4">
-        <f>O7+3</f>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="82">
+        <f>P6</f>
         <v>41008</v>
       </c>
-      <c r="Q7" s="4">
-        <f>P7+1</f>
-        <v>41009</v>
-      </c>
-      <c r="R7" s="4">
-        <f>Q7+1</f>
-        <v>41010</v>
-      </c>
-      <c r="S7" s="4">
-        <f>R7+1</f>
-        <v>41011</v>
-      </c>
-      <c r="T7" s="4">
-        <f>S7+1</f>
-        <v>41012</v>
-      </c>
-      <c r="U7" s="4">
-        <f>T7+3</f>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="84"/>
+      <c r="U7" s="82">
+        <f>U6</f>
         <v>41015</v>
       </c>
-      <c r="V7" s="4">
-        <f>U7+1</f>
-        <v>41016</v>
-      </c>
-      <c r="W7" s="4">
-        <f>V7+1</f>
-        <v>41017</v>
-      </c>
-      <c r="X7" s="4">
-        <f>W7+1</f>
-        <v>41018</v>
-      </c>
-      <c r="Y7" s="4">
-        <f>X7+1</f>
-        <v>41019</v>
-      </c>
-      <c r="Z7" s="4">
-        <f>Y7+3</f>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="83"/>
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="82">
+        <f>Z6</f>
         <v>41022</v>
       </c>
-      <c r="AA7" s="4">
-        <f>Z7+1</f>
-        <v>41023</v>
-      </c>
-      <c r="AB7" s="4">
-        <f>AA7+1</f>
-        <v>41024</v>
-      </c>
-      <c r="AC7" s="4">
-        <f>AB7+1</f>
-        <v>41025</v>
-      </c>
-      <c r="AD7" s="4">
-        <f>AC7+1</f>
-        <v>41026</v>
-      </c>
-      <c r="AE7" s="4">
-        <f>AD7+3</f>
+      <c r="AA7" s="83"/>
+      <c r="AB7" s="83"/>
+      <c r="AC7" s="83"/>
+      <c r="AD7" s="84"/>
+      <c r="AE7" s="82">
+        <f>AE6</f>
         <v>41029</v>
       </c>
-      <c r="AF7" s="4">
-        <f>AE7+1</f>
-        <v>41030</v>
-      </c>
-      <c r="AG7" s="4">
-        <f>AF7+1</f>
+      <c r="AF7" s="83"/>
+      <c r="AG7" s="83"/>
+      <c r="AH7" s="83"/>
+      <c r="AI7" s="84"/>
+      <c r="AJ7" s="82">
+        <f>AJ6</f>
+        <v>41036</v>
+      </c>
+      <c r="AK7" s="83"/>
+      <c r="AL7" s="83"/>
+      <c r="AM7" s="83"/>
+      <c r="AN7" s="84"/>
+      <c r="AO7" s="82">
+        <f>AO6</f>
+        <v>41043</v>
+      </c>
+      <c r="AP7" s="83"/>
+      <c r="AQ7" s="83"/>
+      <c r="AR7" s="83"/>
+      <c r="AS7" s="84"/>
+      <c r="AT7" s="82">
+        <f>AT6</f>
+        <v>41050</v>
+      </c>
+      <c r="AU7" s="83"/>
+      <c r="AV7" s="83"/>
+      <c r="AW7" s="83"/>
+      <c r="AX7" s="84"/>
+      <c r="AY7" s="82">
+        <f>AY6</f>
+        <v>41057</v>
+      </c>
+      <c r="AZ7" s="83"/>
+      <c r="BA7" s="83"/>
+      <c r="BB7" s="83"/>
+      <c r="BC7" s="84"/>
+      <c r="BD7" s="82">
+        <f>BD6</f>
+        <v>41064</v>
+      </c>
+      <c r="BE7" s="83"/>
+      <c r="BF7" s="83"/>
+      <c r="BG7" s="83"/>
+      <c r="BH7" s="84"/>
+      <c r="BI7" s="82">
+        <f>BI6</f>
+        <v>41071</v>
+      </c>
+      <c r="BJ7" s="83"/>
+      <c r="BK7" s="83"/>
+      <c r="BL7" s="83"/>
+      <c r="BM7" s="84"/>
+      <c r="BN7" s="82">
+        <f>BN6</f>
+        <v>41078</v>
+      </c>
+      <c r="BO7" s="83"/>
+      <c r="BP7" s="83"/>
+      <c r="BQ7" s="83"/>
+      <c r="BR7" s="84"/>
+      <c r="BS7" s="82">
+        <f>BS6</f>
+        <v>41085</v>
+      </c>
+      <c r="BT7" s="83"/>
+      <c r="BU7" s="83"/>
+      <c r="BV7" s="83"/>
+      <c r="BW7" s="84"/>
+      <c r="BX7" s="82">
+        <f>BX6</f>
+        <v>41092</v>
+      </c>
+      <c r="BY7" s="83"/>
+      <c r="BZ7" s="83"/>
+      <c r="CA7" s="83"/>
+      <c r="CB7" s="84"/>
+      <c r="CC7" s="82">
+        <f>CC6</f>
+        <v>41099</v>
+      </c>
+      <c r="CD7" s="83"/>
+      <c r="CE7" s="83"/>
+      <c r="CF7" s="83"/>
+      <c r="CG7" s="84"/>
+      <c r="CH7" s="82">
+        <f>CH6</f>
+        <v>41106</v>
+      </c>
+      <c r="CI7" s="83"/>
+      <c r="CJ7" s="83"/>
+      <c r="CK7" s="83"/>
+      <c r="CL7" s="84"/>
+      <c r="CM7" s="82">
+        <f>CM6</f>
+        <v>41113</v>
+      </c>
+      <c r="CN7" s="83"/>
+      <c r="CO7" s="83"/>
+      <c r="CP7" s="83"/>
+      <c r="CQ7" s="84"/>
+      <c r="CR7" s="82">
+        <f>CR6</f>
+        <v>41120</v>
+      </c>
+      <c r="CS7" s="83"/>
+      <c r="CT7" s="83"/>
+      <c r="CU7" s="83"/>
+      <c r="CV7" s="84"/>
+      <c r="CW7" s="82">
+        <f>CW6</f>
+        <v>41127</v>
+      </c>
+      <c r="CX7" s="83"/>
+      <c r="CY7" s="83"/>
+      <c r="CZ7" s="83"/>
+      <c r="DA7" s="84"/>
+      <c r="DB7" s="82">
+        <f>DB6</f>
+        <v>41134</v>
+      </c>
+      <c r="DC7" s="83"/>
+      <c r="DD7" s="83"/>
+      <c r="DE7" s="83"/>
+      <c r="DF7" s="84"/>
+      <c r="DG7" s="82">
+        <f>DG6</f>
+        <v>41141</v>
+      </c>
+      <c r="DH7" s="83"/>
+      <c r="DI7" s="83"/>
+      <c r="DJ7" s="83"/>
+      <c r="DK7" s="84"/>
+      <c r="DL7" s="82">
+        <f>DL6</f>
+        <v>41148</v>
+      </c>
+      <c r="DM7" s="83"/>
+      <c r="DN7" s="83"/>
+      <c r="DO7" s="83"/>
+      <c r="DP7" s="84"/>
+      <c r="DQ7" s="82">
+        <f>DQ6</f>
+        <v>41155</v>
+      </c>
+      <c r="DR7" s="83"/>
+      <c r="DS7" s="83"/>
+      <c r="DT7" s="83"/>
+      <c r="DU7" s="84"/>
+      <c r="DV7" s="82">
+        <f>DV6</f>
+        <v>41162</v>
+      </c>
+      <c r="DW7" s="83"/>
+      <c r="DX7" s="83"/>
+      <c r="DY7" s="83"/>
+      <c r="DZ7" s="84"/>
+      <c r="EA7" s="82">
+        <f>EA6</f>
+        <v>41169</v>
+      </c>
+      <c r="EB7" s="83"/>
+      <c r="EC7" s="83"/>
+      <c r="ED7" s="83"/>
+      <c r="EE7" s="84"/>
+      <c r="EF7" s="82">
+        <f>EF6</f>
+        <v>41176</v>
+      </c>
+      <c r="EG7" s="83"/>
+      <c r="EH7" s="83"/>
+      <c r="EI7" s="83"/>
+      <c r="EJ7" s="84"/>
+      <c r="EK7" s="82">
+        <f>EK6</f>
+        <v>41183</v>
+      </c>
+      <c r="EL7" s="83"/>
+      <c r="EM7" s="83"/>
+      <c r="EN7" s="83"/>
+      <c r="EO7" s="84"/>
+      <c r="EP7" s="82">
+        <f>EP6</f>
+        <v>41190</v>
+      </c>
+      <c r="EQ7" s="83"/>
+      <c r="ER7" s="83"/>
+      <c r="ES7" s="83"/>
+      <c r="ET7" s="84"/>
+      <c r="EU7" s="82">
+        <f>EU6</f>
+        <v>41197</v>
+      </c>
+      <c r="EV7" s="83"/>
+      <c r="EW7" s="83"/>
+      <c r="EX7" s="83"/>
+      <c r="EY7" s="84"/>
+      <c r="EZ7" s="82">
+        <f>EZ6</f>
+        <v>41204</v>
+      </c>
+      <c r="FA7" s="83"/>
+      <c r="FB7" s="83"/>
+      <c r="FC7" s="83"/>
+      <c r="FD7" s="84"/>
+      <c r="FE7" s="82">
+        <f>FE6</f>
+        <v>41211</v>
+      </c>
+      <c r="FF7" s="83"/>
+      <c r="FG7" s="83"/>
+      <c r="FH7" s="83"/>
+      <c r="FI7" s="84"/>
+      <c r="FJ7" s="82">
+        <f>FJ6</f>
+        <v>41218</v>
+      </c>
+      <c r="FK7" s="83"/>
+      <c r="FL7" s="83"/>
+      <c r="FM7" s="83"/>
+      <c r="FN7" s="84"/>
+      <c r="FO7" s="82">
+        <f>FO6</f>
+        <v>41225</v>
+      </c>
+      <c r="FP7" s="83"/>
+      <c r="FQ7" s="83"/>
+      <c r="FR7" s="83"/>
+      <c r="FS7" s="84"/>
+      <c r="FT7" s="82">
+        <f>FT6</f>
+        <v>41232</v>
+      </c>
+      <c r="FU7" s="83"/>
+      <c r="FV7" s="83"/>
+      <c r="FW7" s="83"/>
+      <c r="FX7" s="84"/>
+      <c r="FY7" s="82">
+        <f>FY6</f>
+        <v>41239</v>
+      </c>
+      <c r="FZ7" s="83"/>
+      <c r="GA7" s="83"/>
+      <c r="GB7" s="83"/>
+      <c r="GC7" s="84"/>
+      <c r="GD7" s="82">
+        <f>GD6</f>
+        <v>41246</v>
+      </c>
+      <c r="GE7" s="83"/>
+      <c r="GF7" s="83"/>
+      <c r="GG7" s="83"/>
+      <c r="GH7" s="84"/>
+      <c r="GI7" s="82">
+        <f>GI6</f>
+        <v>41253</v>
+      </c>
+      <c r="GJ7" s="83"/>
+      <c r="GK7" s="83"/>
+      <c r="GL7" s="83"/>
+      <c r="GM7" s="84"/>
+      <c r="GN7" s="82">
+        <f>GN6</f>
+        <v>41260</v>
+      </c>
+      <c r="GO7" s="83"/>
+      <c r="GP7" s="83"/>
+      <c r="GQ7" s="83"/>
+      <c r="GR7" s="84"/>
+      <c r="GS7" s="82">
+        <f>GS6</f>
+        <v>41267</v>
+      </c>
+      <c r="GT7" s="83"/>
+      <c r="GU7" s="83"/>
+      <c r="GV7" s="83"/>
+      <c r="GW7" s="84"/>
+      <c r="GX7" s="82">
+        <f>GX6</f>
+        <v>41274</v>
+      </c>
+      <c r="GY7" s="83"/>
+      <c r="GZ7" s="83"/>
+      <c r="HA7" s="83"/>
+      <c r="HB7" s="84"/>
+      <c r="HC7" s="82">
+        <f>HC6</f>
+        <v>41281</v>
+      </c>
+      <c r="HD7" s="83"/>
+      <c r="HE7" s="83"/>
+      <c r="HF7" s="83"/>
+      <c r="HG7" s="84"/>
+      <c r="HH7" s="82">
+        <f>HH6</f>
+        <v>41288</v>
+      </c>
+      <c r="HI7" s="83"/>
+      <c r="HJ7" s="83"/>
+      <c r="HK7" s="83"/>
+      <c r="HL7" s="84"/>
+      <c r="HM7" s="82">
+        <f>HM6</f>
+        <v>41295</v>
+      </c>
+      <c r="HN7" s="83"/>
+      <c r="HO7" s="83"/>
+      <c r="HP7" s="83"/>
+      <c r="HQ7" s="84"/>
+      <c r="HR7" s="82">
+        <f>HR6</f>
+        <v>41302</v>
+      </c>
+      <c r="HS7" s="83"/>
+      <c r="HT7" s="83"/>
+      <c r="HU7" s="83"/>
+      <c r="HV7" s="84"/>
+      <c r="HW7" s="82">
+        <f>HW6</f>
+        <v>41309</v>
+      </c>
+      <c r="HX7" s="83"/>
+      <c r="HY7" s="83"/>
+      <c r="HZ7" s="83"/>
+      <c r="IA7" s="84"/>
+      <c r="IB7" s="82">
+        <f>IB6</f>
+        <v>41316</v>
+      </c>
+      <c r="IC7" s="83"/>
+      <c r="ID7" s="83"/>
+      <c r="IE7" s="83"/>
+      <c r="IF7" s="84"/>
+      <c r="IG7" s="82">
+        <f>IG6</f>
+        <v>41323</v>
+      </c>
+      <c r="IH7" s="83"/>
+      <c r="II7" s="83"/>
+      <c r="IJ7" s="83"/>
+      <c r="IK7" s="84"/>
+      <c r="IL7" s="82">
+        <f>IL6</f>
+        <v>41330</v>
+      </c>
+      <c r="IM7" s="83"/>
+      <c r="IN7" s="83"/>
+      <c r="IO7" s="83"/>
+      <c r="IP7" s="84"/>
+    </row>
+    <row r="8" spans="1:250" s="6" customFormat="1" ht="15.75">
+      <c r="A8" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="60">
+        <v>41001</v>
+      </c>
+      <c r="E8" s="60">
         <v>41031</v>
       </c>
-      <c r="AH7" s="4">
-        <f>AG7+1</f>
-        <v>41032</v>
-      </c>
-      <c r="AI7" s="4">
-        <f>AH7+1</f>
-        <v>41033</v>
-      </c>
-      <c r="AJ7" s="4">
-        <f>AI7+3</f>
-        <v>41036</v>
-      </c>
-      <c r="AK7" s="4">
-        <f>AJ7+1</f>
-        <v>41037</v>
-      </c>
-      <c r="AL7" s="4">
-        <f>AK7+1</f>
-        <v>41038</v>
-      </c>
-      <c r="AM7" s="4">
-        <f>AL7+1</f>
-        <v>41039</v>
-      </c>
-      <c r="AN7" s="4">
-        <f>AM7+1</f>
-        <v>41040</v>
-      </c>
-      <c r="AO7" s="4">
-        <f>AN7+3</f>
-        <v>41043</v>
-      </c>
-      <c r="AP7" s="4">
-        <f>AO7+1</f>
-        <v>41044</v>
-      </c>
-      <c r="AQ7" s="4">
-        <f>AP7+1</f>
-        <v>41045</v>
-      </c>
-      <c r="AR7" s="4">
-        <f>AQ7+1</f>
-        <v>41046</v>
-      </c>
-      <c r="AS7" s="4">
-        <f>AR7+1</f>
-        <v>41047</v>
-      </c>
-      <c r="AT7" s="4">
-        <f>AS7+3</f>
-        <v>41050</v>
-      </c>
-      <c r="AU7" s="4">
-        <f>AT7+1</f>
-        <v>41051</v>
-      </c>
-      <c r="AV7" s="4">
-        <f>AU7+1</f>
-        <v>41052</v>
-      </c>
-      <c r="AW7" s="4">
-        <f>AV7+1</f>
-        <v>41053</v>
-      </c>
-      <c r="AX7" s="4">
-        <f>AW7+1</f>
-        <v>41054</v>
-      </c>
-      <c r="AY7" s="4">
-        <f>AX7+3</f>
-        <v>41057</v>
-      </c>
-      <c r="AZ7" s="4">
-        <f>AY7+1</f>
-        <v>41058</v>
-      </c>
-      <c r="BA7" s="4">
-        <f>AZ7+1</f>
-        <v>41059</v>
-      </c>
-      <c r="BB7" s="4">
-        <f>BA7+1</f>
-        <v>41060</v>
-      </c>
-      <c r="BC7" s="4">
-        <f>BB7+1</f>
-        <v>41061</v>
-      </c>
-      <c r="BD7" s="4">
-        <f>BC7+3</f>
-        <v>41064</v>
-      </c>
-      <c r="BE7" s="4">
-        <f>BD7+1</f>
-        <v>41065</v>
-      </c>
-      <c r="BF7" s="4">
-        <f>BE7+1</f>
-        <v>41066</v>
-      </c>
-      <c r="BG7" s="4">
-        <f>BF7+1</f>
-        <v>41067</v>
-      </c>
-      <c r="BH7" s="4">
-        <f>BG7+1</f>
-        <v>41068</v>
-      </c>
-      <c r="BI7" s="4">
-        <f>BH7+3</f>
-        <v>41071</v>
-      </c>
-      <c r="BJ7" s="4">
-        <f>BI7+1</f>
-        <v>41072</v>
-      </c>
-      <c r="BK7" s="4">
-        <f>BJ7+1</f>
-        <v>41073</v>
-      </c>
-      <c r="BL7" s="4">
-        <f>BK7+1</f>
-        <v>41074</v>
-      </c>
-      <c r="BM7" s="4">
-        <f>BL7+1</f>
-        <v>41075</v>
-      </c>
-      <c r="BN7" s="4">
-        <f>BM7+3</f>
-        <v>41078</v>
-      </c>
-      <c r="BO7" s="4">
-        <f>BN7+1</f>
-        <v>41079</v>
-      </c>
-      <c r="BP7" s="4">
-        <f>BO7+1</f>
-        <v>41080</v>
-      </c>
-      <c r="BQ7" s="4">
-        <f>BP7+1</f>
-        <v>41081</v>
-      </c>
-      <c r="BR7" s="4">
-        <f>BQ7+1</f>
-        <v>41082</v>
-      </c>
-      <c r="BS7" s="4">
-        <f>BR7+3</f>
-        <v>41085</v>
-      </c>
-      <c r="BT7" s="4">
-        <f>BS7+1</f>
-        <v>41086</v>
-      </c>
-      <c r="BU7" s="4">
-        <f>BT7+1</f>
-        <v>41087</v>
-      </c>
-      <c r="BV7" s="4">
-        <f>BU7+1</f>
-        <v>41088</v>
-      </c>
-      <c r="BW7" s="4">
-        <f>BV7+1</f>
-        <v>41089</v>
-      </c>
-      <c r="BX7" s="4">
-        <f>BW7+3</f>
-        <v>41092</v>
-      </c>
-      <c r="BY7" s="4">
-        <f>BX7+1</f>
-        <v>41093</v>
-      </c>
-      <c r="BZ7" s="4">
-        <f>BY7+1</f>
-        <v>41094</v>
-      </c>
-      <c r="CA7" s="4">
-        <f>BZ7+1</f>
-        <v>41095</v>
-      </c>
-      <c r="CB7" s="4">
-        <f>CA7+1</f>
-        <v>41096</v>
-      </c>
-      <c r="CC7" s="4">
-        <f>CB7+3</f>
-        <v>41099</v>
-      </c>
-      <c r="CD7" s="4">
-        <f>CC7+1</f>
-        <v>41100</v>
-      </c>
-      <c r="CE7" s="4">
-        <f>CD7+1</f>
-        <v>41101</v>
-      </c>
-      <c r="CF7" s="4">
-        <f>CE7+1</f>
-        <v>41102</v>
-      </c>
-      <c r="CG7" s="4">
-        <f>CF7+1</f>
-        <v>41103</v>
-      </c>
-      <c r="CH7" s="4">
-        <f>CG7+3</f>
-        <v>41106</v>
-      </c>
-      <c r="CI7" s="4">
-        <f>CH7+1</f>
-        <v>41107</v>
-      </c>
-      <c r="CJ7" s="4">
-        <f>CI7+1</f>
-        <v>41108</v>
-      </c>
-      <c r="CK7" s="4">
-        <f>CJ7+1</f>
-        <v>41109</v>
-      </c>
-      <c r="CL7" s="4">
-        <f>CK7+1</f>
-        <v>41110</v>
-      </c>
-      <c r="CM7" s="4">
-        <f>CL7+3</f>
-        <v>41113</v>
-      </c>
-      <c r="CN7" s="4">
-        <f>CM7+1</f>
-        <v>41114</v>
-      </c>
-      <c r="CO7" s="4">
-        <f>CN7+1</f>
-        <v>41115</v>
-      </c>
-      <c r="CP7" s="4">
-        <f>CO7+1</f>
-        <v>41116</v>
-      </c>
-      <c r="CQ7" s="4">
-        <f>CP7+1</f>
-        <v>41117</v>
-      </c>
-      <c r="CR7" s="4">
-        <f>CQ7+3</f>
-        <v>41120</v>
-      </c>
-      <c r="CS7" s="4">
-        <f>CR7+1</f>
-        <v>41121</v>
-      </c>
-      <c r="CT7" s="4">
-        <f>CS7+1</f>
-        <v>41122</v>
-      </c>
-      <c r="CU7" s="4">
-        <f>CT7+1</f>
-        <v>41123</v>
-      </c>
-      <c r="CV7" s="4">
-        <f>CU7+1</f>
-        <v>41124</v>
-      </c>
-      <c r="CW7" s="4">
-        <f>CV7+3</f>
-        <v>41127</v>
-      </c>
-      <c r="CX7" s="4">
-        <f>CW7+1</f>
-        <v>41128</v>
-      </c>
-      <c r="CY7" s="4">
-        <f>CX7+1</f>
-        <v>41129</v>
-      </c>
-      <c r="CZ7" s="4">
-        <f>CY7+1</f>
-        <v>41130</v>
-      </c>
-      <c r="DA7" s="4">
-        <f>CZ7+1</f>
-        <v>41131</v>
-      </c>
-      <c r="DB7" s="4">
-        <f>DA7+3</f>
-        <v>41134</v>
-      </c>
-      <c r="DC7" s="4">
-        <f>DB7+1</f>
-        <v>41135</v>
-      </c>
-      <c r="DD7" s="4">
-        <f>DC7+1</f>
-        <v>41136</v>
-      </c>
-      <c r="DE7" s="4">
-        <f>DD7+1</f>
-        <v>41137</v>
-      </c>
-      <c r="DF7" s="4">
-        <f>DE7+1</f>
-        <v>41138</v>
-      </c>
-      <c r="DG7" s="4">
-        <f>DF7+3</f>
-        <v>41141</v>
-      </c>
-      <c r="DH7" s="4">
-        <f>DG7+1</f>
-        <v>41142</v>
-      </c>
-      <c r="DI7" s="4">
-        <f>DH7+1</f>
-        <v>41143</v>
-      </c>
-      <c r="DJ7" s="4">
-        <f>DI7+1</f>
-        <v>41144</v>
-      </c>
-      <c r="DK7" s="4">
-        <f>DJ7+1</f>
-        <v>41145</v>
-      </c>
-      <c r="DL7" s="4">
-        <f>DK7+3</f>
-        <v>41148</v>
-      </c>
-      <c r="DM7" s="4">
-        <f>DL7+1</f>
-        <v>41149</v>
-      </c>
-      <c r="DN7" s="4">
-        <f>DM7+1</f>
-        <v>41150</v>
-      </c>
-      <c r="DO7" s="4">
-        <f>DN7+1</f>
-        <v>41151</v>
-      </c>
-      <c r="DP7" s="4">
-        <f>DO7+1</f>
-        <v>41152</v>
-      </c>
-      <c r="DQ7" s="4">
-        <f>DP7+3</f>
-        <v>41155</v>
-      </c>
-      <c r="DR7" s="4">
-        <f>DQ7+1</f>
-        <v>41156</v>
-      </c>
-      <c r="DS7" s="4">
-        <f>DR7+1</f>
-        <v>41157</v>
-      </c>
-      <c r="DT7" s="4">
-        <f>DS7+1</f>
-        <v>41158</v>
-      </c>
-      <c r="DU7" s="4">
-        <f>DT7+1</f>
-        <v>41159</v>
-      </c>
-      <c r="DV7" s="4">
-        <f>DU7+3</f>
-        <v>41162</v>
-      </c>
-      <c r="DW7" s="4">
-        <f>DV7+1</f>
-        <v>41163</v>
-      </c>
-      <c r="DX7" s="4">
-        <f>DW7+1</f>
-        <v>41164</v>
-      </c>
-      <c r="DY7" s="4">
-        <f>DX7+1</f>
-        <v>41165</v>
-      </c>
-      <c r="DZ7" s="4">
-        <f>DY7+1</f>
-        <v>41166</v>
-      </c>
-      <c r="EA7" s="4">
-        <f>DZ7+3</f>
-        <v>41169</v>
-      </c>
-      <c r="EB7" s="4">
-        <f>EA7+1</f>
-        <v>41170</v>
-      </c>
-      <c r="EC7" s="4">
-        <f>EB7+1</f>
-        <v>41171</v>
-      </c>
-      <c r="ED7" s="4">
-        <f>EC7+1</f>
-        <v>41172</v>
-      </c>
-      <c r="EE7" s="4">
-        <f>ED7+1</f>
-        <v>41173</v>
-      </c>
-      <c r="EF7" s="4">
-        <f>EE7+3</f>
-        <v>41176</v>
-      </c>
-      <c r="EG7" s="4">
-        <f>EF7+1</f>
-        <v>41177</v>
-      </c>
-      <c r="EH7" s="4">
-        <f>EG7+1</f>
-        <v>41178</v>
-      </c>
-      <c r="EI7" s="4">
-        <f>EH7+1</f>
-        <v>41179</v>
-      </c>
-      <c r="EJ7" s="4">
-        <f>EI7+1</f>
-        <v>41180</v>
-      </c>
-      <c r="EK7" s="4">
-        <f>EJ7+3</f>
-        <v>41183</v>
-      </c>
-      <c r="EL7" s="4">
-        <f>EK7+1</f>
-        <v>41184</v>
-      </c>
-      <c r="EM7" s="4">
-        <f>EL7+1</f>
-        <v>41185</v>
-      </c>
-      <c r="EN7" s="4">
-        <f>EM7+1</f>
-        <v>41186</v>
-      </c>
-      <c r="EO7" s="4">
-        <f>EN7+1</f>
-        <v>41187</v>
-      </c>
-      <c r="EP7" s="4">
-        <f>EO7+3</f>
-        <v>41190</v>
-      </c>
-      <c r="EQ7" s="4">
-        <f>EP7+1</f>
-        <v>41191</v>
-      </c>
-      <c r="ER7" s="4">
-        <f>EQ7+1</f>
-        <v>41192</v>
-      </c>
-      <c r="ES7" s="4">
-        <f>ER7+1</f>
-        <v>41193</v>
-      </c>
-      <c r="ET7" s="4">
-        <f>ES7+1</f>
-        <v>41194</v>
-      </c>
-      <c r="EU7" s="4">
-        <f>ET7+3</f>
-        <v>41197</v>
-      </c>
-      <c r="EV7" s="4">
-        <f>EU7+1</f>
-        <v>41198</v>
-      </c>
-      <c r="EW7" s="4">
-        <f>EV7+1</f>
-        <v>41199</v>
-      </c>
-      <c r="EX7" s="4">
-        <f>EW7+1</f>
-        <v>41200</v>
-      </c>
-      <c r="EY7" s="4">
-        <f>EX7+1</f>
-        <v>41201</v>
-      </c>
-      <c r="EZ7" s="4">
-        <f>EY7+3</f>
-        <v>41204</v>
-      </c>
-      <c r="FA7" s="4">
-        <f>EZ7+1</f>
-        <v>41205</v>
-      </c>
-      <c r="FB7" s="4">
-        <f>FA7+1</f>
-        <v>41206</v>
-      </c>
-      <c r="FC7" s="4">
-        <f>FB7+1</f>
-        <v>41207</v>
-      </c>
-      <c r="FD7" s="4">
-        <f>FC7+1</f>
-        <v>41208</v>
-      </c>
-      <c r="FE7" s="4">
-        <f>FD7+3</f>
-        <v>41211</v>
-      </c>
-      <c r="FF7" s="4">
-        <f>FE7+1</f>
-        <v>41212</v>
-      </c>
-      <c r="FG7" s="4">
-        <f>FF7+1</f>
-        <v>41213</v>
-      </c>
-      <c r="FH7" s="4">
-        <f>FG7+1</f>
-        <v>41214</v>
-      </c>
-      <c r="FI7" s="4">
-        <f>FH7+1</f>
-        <v>41215</v>
-      </c>
-      <c r="FJ7" s="4">
-        <f>FI7+3</f>
-        <v>41218</v>
-      </c>
-      <c r="FK7" s="4">
-        <f>FJ7+1</f>
-        <v>41219</v>
-      </c>
-      <c r="FL7" s="4">
-        <f>FK7+1</f>
-        <v>41220</v>
-      </c>
-      <c r="FM7" s="4">
-        <f>FL7+1</f>
-        <v>41221</v>
-      </c>
-      <c r="FN7" s="4">
-        <f>FM7+1</f>
-        <v>41222</v>
-      </c>
-      <c r="FO7" s="4">
-        <f>FN7+3</f>
-        <v>41225</v>
-      </c>
-      <c r="FP7" s="4">
-        <f>FO7+1</f>
-        <v>41226</v>
-      </c>
-      <c r="FQ7" s="4">
-        <f>FP7+1</f>
-        <v>41227</v>
-      </c>
-      <c r="FR7" s="4">
-        <f>FQ7+1</f>
-        <v>41228</v>
-      </c>
-      <c r="FS7" s="4">
-        <f>FR7+1</f>
-        <v>41229</v>
-      </c>
-      <c r="FT7" s="4">
-        <f>FS7+3</f>
-        <v>41232</v>
-      </c>
-      <c r="FU7" s="4">
-        <f>FT7+1</f>
-        <v>41233</v>
-      </c>
-      <c r="FV7" s="4">
-        <f>FU7+1</f>
-        <v>41234</v>
-      </c>
-      <c r="FW7" s="4">
-        <f>FV7+1</f>
-        <v>41235</v>
-      </c>
-      <c r="FX7" s="4">
-        <f>FW7+1</f>
-        <v>41236</v>
-      </c>
-      <c r="FY7" s="4">
-        <f>FX7+3</f>
-        <v>41239</v>
-      </c>
-      <c r="FZ7" s="4">
-        <f>FY7+1</f>
-        <v>41240</v>
-      </c>
-      <c r="GA7" s="4">
-        <f>FZ7+1</f>
-        <v>41241</v>
-      </c>
-      <c r="GB7" s="4">
-        <f>GA7+1</f>
-        <v>41242</v>
-      </c>
-      <c r="GC7" s="4">
-        <f>GB7+1</f>
-        <v>41243</v>
-      </c>
-      <c r="GD7" s="4">
-        <f>GC7+3</f>
-        <v>41246</v>
-      </c>
-      <c r="GE7" s="4">
-        <f>GD7+1</f>
-        <v>41247</v>
-      </c>
-      <c r="GF7" s="4">
-        <f>GE7+1</f>
-        <v>41248</v>
-      </c>
-      <c r="GG7" s="4">
-        <f>GF7+1</f>
-        <v>41249</v>
-      </c>
-      <c r="GH7" s="4">
-        <f>GG7+1</f>
-        <v>41250</v>
-      </c>
-      <c r="GI7" s="4">
-        <f>GH7+3</f>
-        <v>41253</v>
-      </c>
-      <c r="GJ7" s="4">
-        <f>GI7+1</f>
-        <v>41254</v>
-      </c>
-      <c r="GK7" s="4">
-        <f>GJ7+1</f>
-        <v>41255</v>
-      </c>
-      <c r="GL7" s="4">
-        <f>GK7+1</f>
-        <v>41256</v>
-      </c>
-      <c r="GM7" s="4">
-        <f>GL7+1</f>
-        <v>41257</v>
-      </c>
-      <c r="GN7" s="4">
-        <f>GM7+3</f>
-        <v>41260</v>
-      </c>
-      <c r="GO7" s="4">
-        <f>GN7+1</f>
-        <v>41261</v>
-      </c>
-      <c r="GP7" s="4">
-        <f>GO7+1</f>
-        <v>41262</v>
-      </c>
-      <c r="GQ7" s="4">
-        <f>GP7+1</f>
-        <v>41263</v>
-      </c>
-      <c r="GR7" s="4">
-        <f>GQ7+1</f>
-        <v>41264</v>
-      </c>
-      <c r="GS7" s="4">
-        <f>GR7+3</f>
-        <v>41267</v>
-      </c>
-      <c r="GT7" s="4">
-        <f>GS7+1</f>
-        <v>41268</v>
-      </c>
-      <c r="GU7" s="4">
-        <f>GT7+1</f>
-        <v>41269</v>
-      </c>
-      <c r="GV7" s="4">
-        <f>GU7+1</f>
-        <v>41270</v>
-      </c>
-      <c r="GW7" s="4">
-        <f>GV7+1</f>
-        <v>41271</v>
-      </c>
-      <c r="GX7" s="4">
-        <f>GW7+3</f>
-        <v>41274</v>
-      </c>
-      <c r="GY7" s="4">
-        <f>GX7+1</f>
-        <v>41275</v>
-      </c>
-      <c r="GZ7" s="4">
-        <f>GY7+1</f>
-        <v>41276</v>
-      </c>
-      <c r="HA7" s="4">
-        <f>GZ7+1</f>
-        <v>41277</v>
-      </c>
-      <c r="HB7" s="4">
-        <f>HA7+1</f>
-        <v>41278</v>
-      </c>
-      <c r="HC7" s="4">
-        <f>HB7+3</f>
-        <v>41281</v>
-      </c>
-      <c r="HD7" s="4">
-        <f>HC7+1</f>
-        <v>41282</v>
-      </c>
-      <c r="HE7" s="4">
-        <f>HD7+1</f>
-        <v>41283</v>
-      </c>
-      <c r="HF7" s="4">
-        <f>HE7+1</f>
-        <v>41284</v>
-      </c>
-      <c r="HG7" s="4">
-        <f>HF7+1</f>
-        <v>41285</v>
-      </c>
-      <c r="HH7" s="4">
-        <f>HG7+3</f>
-        <v>41288</v>
-      </c>
-      <c r="HI7" s="4">
-        <f>HH7+1</f>
-        <v>41289</v>
-      </c>
-      <c r="HJ7" s="4">
-        <f>HI7+1</f>
-        <v>41290</v>
-      </c>
-      <c r="HK7" s="4">
-        <f>HJ7+1</f>
-        <v>41291</v>
-      </c>
-      <c r="HL7" s="4">
-        <f>HK7+1</f>
-        <v>41292</v>
-      </c>
-      <c r="HM7" s="4">
-        <f>HL7+3</f>
-        <v>41295</v>
-      </c>
-      <c r="HN7" s="4">
-        <f>HM7+1</f>
-        <v>41296</v>
-      </c>
-      <c r="HO7" s="4">
-        <f>HN7+1</f>
-        <v>41297</v>
-      </c>
-      <c r="HP7" s="4">
-        <f>HO7+1</f>
-        <v>41298</v>
-      </c>
-      <c r="HQ7" s="4">
-        <f>HP7+1</f>
-        <v>41299</v>
-      </c>
-      <c r="HR7" s="4">
-        <f>HQ7+3</f>
-        <v>41302</v>
-      </c>
-      <c r="HS7" s="4">
-        <f>HR7+1</f>
-        <v>41303</v>
-      </c>
-      <c r="HT7" s="4">
-        <f>HS7+1</f>
-        <v>41304</v>
-      </c>
-      <c r="HU7" s="4">
-        <f>HT7+1</f>
-        <v>41305</v>
-      </c>
-      <c r="HV7" s="4">
-        <f>HU7+1</f>
-        <v>41306</v>
-      </c>
-      <c r="HW7" s="4">
-        <f>HV7+3</f>
-        <v>41309</v>
-      </c>
-      <c r="HX7" s="4">
-        <f>HW7+1</f>
-        <v>41310</v>
-      </c>
-      <c r="HY7" s="4">
-        <f>HX7+1</f>
-        <v>41311</v>
-      </c>
-      <c r="HZ7" s="4">
-        <f>HY7+1</f>
-        <v>41312</v>
-      </c>
-      <c r="IA7" s="4">
-        <f>HZ7+1</f>
-        <v>41313</v>
-      </c>
-      <c r="IB7" s="4">
-        <f>IA7+3</f>
-        <v>41316</v>
-      </c>
-      <c r="IC7" s="4">
-        <f>IB7+1</f>
-        <v>41317</v>
-      </c>
-      <c r="ID7" s="4">
-        <f>IC7+1</f>
-        <v>41318</v>
-      </c>
-      <c r="IE7" s="4">
-        <f>ID7+1</f>
-        <v>41319</v>
-      </c>
-      <c r="IF7" s="4">
-        <f>IE7+1</f>
-        <v>41320</v>
-      </c>
-      <c r="IG7" s="4">
-        <f>IF7+3</f>
-        <v>41323</v>
-      </c>
-      <c r="IH7" s="4">
-        <f>IG7+1</f>
-        <v>41324</v>
-      </c>
-      <c r="II7" s="4">
-        <f>IH7+1</f>
-        <v>41325</v>
-      </c>
-      <c r="IJ7" s="4">
-        <f>II7+1</f>
-        <v>41326</v>
-      </c>
-      <c r="IK7" s="4">
-        <f>IJ7+1</f>
-        <v>41327</v>
-      </c>
-      <c r="IL7" s="4">
-        <f>IK7+3</f>
-        <v>41330</v>
-      </c>
-      <c r="IM7" s="4">
-        <f>IL7+1</f>
-        <v>41331</v>
-      </c>
-      <c r="IN7" s="4">
-        <f>IM7+1</f>
-        <v>41332</v>
-      </c>
-      <c r="IO7" s="4">
-        <f>IN7+1</f>
-        <v>41333</v>
-      </c>
-      <c r="IP7" s="4">
-        <f>IO7+1</f>
-        <v>41334</v>
-      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26">
+        <v>26</v>
+      </c>
+      <c r="I8" s="27"/>
+      <c r="J8" s="17"/>
     </row>
-    <row r="8" spans="1:250" s="10" customFormat="1" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A8" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="85">
-        <f>K7</f>
+    <row r="9" spans="1:250" s="7" customFormat="1">
+      <c r="A9" s="80">
+        <v>1</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="61">
         <v>41001</v>
       </c>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="82">
-        <f>P7</f>
-        <v>41008</v>
-      </c>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="84"/>
-      <c r="U8" s="82">
-        <f>U7</f>
-        <v>41015</v>
-      </c>
-      <c r="V8" s="83"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="83"/>
-      <c r="Y8" s="84"/>
-      <c r="Z8" s="82">
-        <f>Z7</f>
-        <v>41022</v>
-      </c>
-      <c r="AA8" s="83"/>
-      <c r="AB8" s="83"/>
-      <c r="AC8" s="83"/>
-      <c r="AD8" s="84"/>
-      <c r="AE8" s="82">
-        <f>AE7</f>
-        <v>41029</v>
-      </c>
-      <c r="AF8" s="83"/>
-      <c r="AG8" s="83"/>
-      <c r="AH8" s="83"/>
-      <c r="AI8" s="84"/>
-      <c r="AJ8" s="82">
-        <f>AJ7</f>
-        <v>41036</v>
-      </c>
-      <c r="AK8" s="83"/>
-      <c r="AL8" s="83"/>
-      <c r="AM8" s="83"/>
-      <c r="AN8" s="84"/>
-      <c r="AO8" s="82">
-        <f>AO7</f>
-        <v>41043</v>
-      </c>
-      <c r="AP8" s="83"/>
-      <c r="AQ8" s="83"/>
-      <c r="AR8" s="83"/>
-      <c r="AS8" s="84"/>
-      <c r="AT8" s="82">
-        <f>AT7</f>
-        <v>41050</v>
-      </c>
-      <c r="AU8" s="83"/>
-      <c r="AV8" s="83"/>
-      <c r="AW8" s="83"/>
-      <c r="AX8" s="84"/>
-      <c r="AY8" s="82">
-        <f>AY7</f>
-        <v>41057</v>
-      </c>
-      <c r="AZ8" s="83"/>
-      <c r="BA8" s="83"/>
-      <c r="BB8" s="83"/>
-      <c r="BC8" s="84"/>
-      <c r="BD8" s="82">
-        <f>BD7</f>
-        <v>41064</v>
-      </c>
-      <c r="BE8" s="83"/>
-      <c r="BF8" s="83"/>
-      <c r="BG8" s="83"/>
-      <c r="BH8" s="84"/>
-      <c r="BI8" s="82">
-        <f>BI7</f>
-        <v>41071</v>
-      </c>
-      <c r="BJ8" s="83"/>
-      <c r="BK8" s="83"/>
-      <c r="BL8" s="83"/>
-      <c r="BM8" s="84"/>
-      <c r="BN8" s="82">
-        <f>BN7</f>
-        <v>41078</v>
-      </c>
-      <c r="BO8" s="83"/>
-      <c r="BP8" s="83"/>
-      <c r="BQ8" s="83"/>
-      <c r="BR8" s="84"/>
-      <c r="BS8" s="82">
-        <f>BS7</f>
-        <v>41085</v>
-      </c>
-      <c r="BT8" s="83"/>
-      <c r="BU8" s="83"/>
-      <c r="BV8" s="83"/>
-      <c r="BW8" s="84"/>
-      <c r="BX8" s="82">
-        <f>BX7</f>
-        <v>41092</v>
-      </c>
-      <c r="BY8" s="83"/>
-      <c r="BZ8" s="83"/>
-      <c r="CA8" s="83"/>
-      <c r="CB8" s="84"/>
-      <c r="CC8" s="82">
-        <f>CC7</f>
-        <v>41099</v>
-      </c>
-      <c r="CD8" s="83"/>
-      <c r="CE8" s="83"/>
-      <c r="CF8" s="83"/>
-      <c r="CG8" s="84"/>
-      <c r="CH8" s="82">
-        <f>CH7</f>
-        <v>41106</v>
-      </c>
-      <c r="CI8" s="83"/>
-      <c r="CJ8" s="83"/>
-      <c r="CK8" s="83"/>
-      <c r="CL8" s="84"/>
-      <c r="CM8" s="82">
-        <f>CM7</f>
-        <v>41113</v>
-      </c>
-      <c r="CN8" s="83"/>
-      <c r="CO8" s="83"/>
-      <c r="CP8" s="83"/>
-      <c r="CQ8" s="84"/>
-      <c r="CR8" s="82">
-        <f>CR7</f>
-        <v>41120</v>
-      </c>
-      <c r="CS8" s="83"/>
-      <c r="CT8" s="83"/>
-      <c r="CU8" s="83"/>
-      <c r="CV8" s="84"/>
-      <c r="CW8" s="82">
-        <f>CW7</f>
-        <v>41127</v>
-      </c>
-      <c r="CX8" s="83"/>
-      <c r="CY8" s="83"/>
-      <c r="CZ8" s="83"/>
-      <c r="DA8" s="84"/>
-      <c r="DB8" s="82">
-        <f>DB7</f>
-        <v>41134</v>
-      </c>
-      <c r="DC8" s="83"/>
-      <c r="DD8" s="83"/>
-      <c r="DE8" s="83"/>
-      <c r="DF8" s="84"/>
-      <c r="DG8" s="82">
-        <f>DG7</f>
-        <v>41141</v>
-      </c>
-      <c r="DH8" s="83"/>
-      <c r="DI8" s="83"/>
-      <c r="DJ8" s="83"/>
-      <c r="DK8" s="84"/>
-      <c r="DL8" s="82">
-        <f>DL7</f>
-        <v>41148</v>
-      </c>
-      <c r="DM8" s="83"/>
-      <c r="DN8" s="83"/>
-      <c r="DO8" s="83"/>
-      <c r="DP8" s="84"/>
-      <c r="DQ8" s="82">
-        <f>DQ7</f>
-        <v>41155</v>
-      </c>
-      <c r="DR8" s="83"/>
-      <c r="DS8" s="83"/>
-      <c r="DT8" s="83"/>
-      <c r="DU8" s="84"/>
-      <c r="DV8" s="82">
-        <f>DV7</f>
-        <v>41162</v>
-      </c>
-      <c r="DW8" s="83"/>
-      <c r="DX8" s="83"/>
-      <c r="DY8" s="83"/>
-      <c r="DZ8" s="84"/>
-      <c r="EA8" s="82">
-        <f>EA7</f>
-        <v>41169</v>
-      </c>
-      <c r="EB8" s="83"/>
-      <c r="EC8" s="83"/>
-      <c r="ED8" s="83"/>
-      <c r="EE8" s="84"/>
-      <c r="EF8" s="82">
-        <f>EF7</f>
-        <v>41176</v>
-      </c>
-      <c r="EG8" s="83"/>
-      <c r="EH8" s="83"/>
-      <c r="EI8" s="83"/>
-      <c r="EJ8" s="84"/>
-      <c r="EK8" s="82">
-        <f>EK7</f>
-        <v>41183</v>
-      </c>
-      <c r="EL8" s="83"/>
-      <c r="EM8" s="83"/>
-      <c r="EN8" s="83"/>
-      <c r="EO8" s="84"/>
-      <c r="EP8" s="82">
-        <f>EP7</f>
-        <v>41190</v>
-      </c>
-      <c r="EQ8" s="83"/>
-      <c r="ER8" s="83"/>
-      <c r="ES8" s="83"/>
-      <c r="ET8" s="84"/>
-      <c r="EU8" s="82">
-        <f>EU7</f>
-        <v>41197</v>
-      </c>
-      <c r="EV8" s="83"/>
-      <c r="EW8" s="83"/>
-      <c r="EX8" s="83"/>
-      <c r="EY8" s="84"/>
-      <c r="EZ8" s="82">
-        <f>EZ7</f>
-        <v>41204</v>
-      </c>
-      <c r="FA8" s="83"/>
-      <c r="FB8" s="83"/>
-      <c r="FC8" s="83"/>
-      <c r="FD8" s="84"/>
-      <c r="FE8" s="82">
-        <f>FE7</f>
-        <v>41211</v>
-      </c>
-      <c r="FF8" s="83"/>
-      <c r="FG8" s="83"/>
-      <c r="FH8" s="83"/>
-      <c r="FI8" s="84"/>
-      <c r="FJ8" s="82">
-        <f>FJ7</f>
-        <v>41218</v>
-      </c>
-      <c r="FK8" s="83"/>
-      <c r="FL8" s="83"/>
-      <c r="FM8" s="83"/>
-      <c r="FN8" s="84"/>
-      <c r="FO8" s="82">
-        <f>FO7</f>
-        <v>41225</v>
-      </c>
-      <c r="FP8" s="83"/>
-      <c r="FQ8" s="83"/>
-      <c r="FR8" s="83"/>
-      <c r="FS8" s="84"/>
-      <c r="FT8" s="82">
-        <f>FT7</f>
-        <v>41232</v>
-      </c>
-      <c r="FU8" s="83"/>
-      <c r="FV8" s="83"/>
-      <c r="FW8" s="83"/>
-      <c r="FX8" s="84"/>
-      <c r="FY8" s="82">
-        <f>FY7</f>
-        <v>41239</v>
-      </c>
-      <c r="FZ8" s="83"/>
-      <c r="GA8" s="83"/>
-      <c r="GB8" s="83"/>
-      <c r="GC8" s="84"/>
-      <c r="GD8" s="82">
-        <f>GD7</f>
-        <v>41246</v>
-      </c>
-      <c r="GE8" s="83"/>
-      <c r="GF8" s="83"/>
-      <c r="GG8" s="83"/>
-      <c r="GH8" s="84"/>
-      <c r="GI8" s="82">
-        <f>GI7</f>
-        <v>41253</v>
-      </c>
-      <c r="GJ8" s="83"/>
-      <c r="GK8" s="83"/>
-      <c r="GL8" s="83"/>
-      <c r="GM8" s="84"/>
-      <c r="GN8" s="82">
-        <f>GN7</f>
-        <v>41260</v>
-      </c>
-      <c r="GO8" s="83"/>
-      <c r="GP8" s="83"/>
-      <c r="GQ8" s="83"/>
-      <c r="GR8" s="84"/>
-      <c r="GS8" s="82">
-        <f>GS7</f>
-        <v>41267</v>
-      </c>
-      <c r="GT8" s="83"/>
-      <c r="GU8" s="83"/>
-      <c r="GV8" s="83"/>
-      <c r="GW8" s="84"/>
-      <c r="GX8" s="82">
-        <f>GX7</f>
-        <v>41274</v>
-      </c>
-      <c r="GY8" s="83"/>
-      <c r="GZ8" s="83"/>
-      <c r="HA8" s="83"/>
-      <c r="HB8" s="84"/>
-      <c r="HC8" s="82">
-        <f>HC7</f>
-        <v>41281</v>
-      </c>
-      <c r="HD8" s="83"/>
-      <c r="HE8" s="83"/>
-      <c r="HF8" s="83"/>
-      <c r="HG8" s="84"/>
-      <c r="HH8" s="82">
-        <f>HH7</f>
-        <v>41288</v>
-      </c>
-      <c r="HI8" s="83"/>
-      <c r="HJ8" s="83"/>
-      <c r="HK8" s="83"/>
-      <c r="HL8" s="84"/>
-      <c r="HM8" s="82">
-        <f>HM7</f>
-        <v>41295</v>
-      </c>
-      <c r="HN8" s="83"/>
-      <c r="HO8" s="83"/>
-      <c r="HP8" s="83"/>
-      <c r="HQ8" s="84"/>
-      <c r="HR8" s="82">
-        <f>HR7</f>
-        <v>41302</v>
-      </c>
-      <c r="HS8" s="83"/>
-      <c r="HT8" s="83"/>
-      <c r="HU8" s="83"/>
-      <c r="HV8" s="84"/>
-      <c r="HW8" s="82">
-        <f>HW7</f>
-        <v>41309</v>
-      </c>
-      <c r="HX8" s="83"/>
-      <c r="HY8" s="83"/>
-      <c r="HZ8" s="83"/>
-      <c r="IA8" s="84"/>
-      <c r="IB8" s="82">
-        <f>IB7</f>
-        <v>41316</v>
-      </c>
-      <c r="IC8" s="83"/>
-      <c r="ID8" s="83"/>
-      <c r="IE8" s="83"/>
-      <c r="IF8" s="84"/>
-      <c r="IG8" s="82">
-        <f>IG7</f>
-        <v>41323</v>
-      </c>
-      <c r="IH8" s="83"/>
-      <c r="II8" s="83"/>
-      <c r="IJ8" s="83"/>
-      <c r="IK8" s="84"/>
-      <c r="IL8" s="82">
-        <f>IL7</f>
-        <v>41330</v>
-      </c>
-      <c r="IM8" s="83"/>
-      <c r="IN8" s="83"/>
-      <c r="IO8" s="83"/>
-      <c r="IP8" s="84"/>
-    </row>
-    <row r="9" spans="1:250" s="6" customFormat="1" ht="15.75">
-      <c r="A9" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="60">
-        <v>41001</v>
-      </c>
-      <c r="E9" s="60">
-        <v>41031</v>
+      <c r="E9" s="61">
+        <v>41014</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="26">
-        <v>26</v>
-      </c>
+      <c r="H9" s="26"/>
       <c r="I9" s="27"/>
       <c r="J9" s="17"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="6"/>
+      <c r="AT9" s="6"/>
+      <c r="AU9" s="6"/>
+      <c r="AV9" s="6"/>
+      <c r="AW9" s="6"/>
+      <c r="AX9" s="6"/>
+      <c r="AY9" s="6"/>
+      <c r="AZ9" s="6"/>
+      <c r="BA9" s="6"/>
+      <c r="BB9" s="6"/>
+      <c r="BC9" s="6"/>
+      <c r="BD9" s="6"/>
+      <c r="BE9" s="6"/>
+      <c r="BF9" s="6"/>
+      <c r="BG9" s="6"/>
+      <c r="BH9" s="6"/>
+      <c r="BI9" s="6"/>
+      <c r="BJ9" s="6"/>
+      <c r="BK9" s="6"/>
+      <c r="BL9" s="6"/>
+      <c r="BM9" s="6"/>
+      <c r="BN9" s="6"/>
+      <c r="BO9" s="6"/>
+      <c r="BP9" s="6"/>
+      <c r="BQ9" s="6"/>
+      <c r="BR9" s="6"/>
+      <c r="BS9" s="6"/>
+      <c r="BT9" s="6"/>
+      <c r="BU9" s="6"/>
+      <c r="BV9" s="6"/>
+      <c r="BW9" s="6"/>
+      <c r="BX9" s="6"/>
+      <c r="BY9" s="6"/>
+      <c r="BZ9" s="6"/>
+      <c r="CA9" s="6"/>
+      <c r="CB9" s="6"/>
+      <c r="CC9" s="6"/>
+      <c r="CD9" s="6"/>
+      <c r="CE9" s="6"/>
+      <c r="CF9" s="6"/>
+      <c r="CG9" s="6"/>
+      <c r="CH9" s="6"/>
+      <c r="CI9" s="6"/>
+      <c r="CJ9" s="6"/>
+      <c r="CK9" s="6"/>
+      <c r="CL9" s="6"/>
+      <c r="CM9" s="6"/>
+      <c r="CN9" s="6"/>
+      <c r="CO9" s="6"/>
+      <c r="CP9" s="6"/>
+      <c r="CQ9" s="6"/>
+      <c r="CR9" s="6"/>
+      <c r="CS9" s="6"/>
+      <c r="CT9" s="6"/>
+      <c r="CU9" s="6"/>
+      <c r="CV9" s="6"/>
+      <c r="CW9" s="6"/>
+      <c r="CX9" s="6"/>
+      <c r="CY9" s="6"/>
+      <c r="CZ9" s="6"/>
+      <c r="DA9" s="6"/>
+      <c r="DB9" s="6"/>
+      <c r="DC9" s="6"/>
+      <c r="DD9" s="6"/>
+      <c r="DE9" s="6"/>
+      <c r="DF9" s="6"/>
+      <c r="DG9" s="6"/>
+      <c r="DH9" s="6"/>
+      <c r="DI9" s="6"/>
+      <c r="DJ9" s="6"/>
+      <c r="DK9" s="6"/>
+      <c r="DL9" s="6"/>
+      <c r="DM9" s="6"/>
+      <c r="DN9" s="6"/>
+      <c r="DO9" s="6"/>
+      <c r="DP9" s="6"/>
+      <c r="DQ9" s="6"/>
+      <c r="DR9" s="6"/>
+      <c r="DS9" s="6"/>
+      <c r="DT9" s="6"/>
+      <c r="DU9" s="6"/>
+      <c r="DV9" s="6"/>
+      <c r="DW9" s="6"/>
+      <c r="DX9" s="6"/>
+      <c r="DY9" s="6"/>
+      <c r="DZ9" s="6"/>
+      <c r="EA9" s="6"/>
+      <c r="EB9" s="6"/>
+      <c r="EC9" s="6"/>
+      <c r="ED9" s="6"/>
+      <c r="EE9" s="6"/>
+      <c r="EF9" s="6"/>
+      <c r="EG9" s="6"/>
+      <c r="EH9" s="6"/>
+      <c r="EI9" s="6"/>
+      <c r="EJ9" s="6"/>
+      <c r="EK9" s="6"/>
+      <c r="EL9" s="6"/>
+      <c r="EM9" s="6"/>
+      <c r="EN9" s="6"/>
+      <c r="EO9" s="6"/>
+      <c r="EP9" s="6"/>
+      <c r="EQ9" s="6"/>
+      <c r="ER9" s="6"/>
+      <c r="ES9" s="6"/>
+      <c r="ET9" s="6"/>
+      <c r="EU9" s="6"/>
+      <c r="EV9" s="6"/>
+      <c r="EW9" s="6"/>
+      <c r="EX9" s="6"/>
+      <c r="EY9" s="6"/>
+      <c r="EZ9" s="6"/>
+      <c r="FA9" s="6"/>
+      <c r="FB9" s="6"/>
+      <c r="FC9" s="6"/>
+      <c r="FD9" s="6"/>
+      <c r="FE9" s="6"/>
+      <c r="FF9" s="6"/>
+      <c r="FG9" s="6"/>
+      <c r="FH9" s="6"/>
+      <c r="FI9" s="6"/>
+      <c r="FJ9" s="6"/>
+      <c r="FK9" s="6"/>
+      <c r="FL9" s="6"/>
+      <c r="FM9" s="6"/>
+      <c r="FN9" s="6"/>
+      <c r="FO9" s="6"/>
+      <c r="FP9" s="6"/>
+      <c r="FQ9" s="6"/>
+      <c r="FR9" s="6"/>
+      <c r="FS9" s="6"/>
+      <c r="FT9" s="6"/>
+      <c r="FU9" s="6"/>
+      <c r="FV9" s="6"/>
+      <c r="FW9" s="6"/>
+      <c r="FX9" s="6"/>
+      <c r="FY9" s="6"/>
+      <c r="FZ9" s="6"/>
+      <c r="GA9" s="6"/>
+      <c r="GB9" s="6"/>
+      <c r="GC9" s="6"/>
+      <c r="GD9" s="6"/>
+      <c r="GE9" s="6"/>
+      <c r="GF9" s="6"/>
+      <c r="GG9" s="6"/>
+      <c r="GH9" s="6"/>
+      <c r="GI9" s="6"/>
+      <c r="GJ9" s="6"/>
+      <c r="GK9" s="6"/>
+      <c r="GL9" s="6"/>
+      <c r="GM9" s="6"/>
+      <c r="GN9" s="6"/>
+      <c r="GO9" s="6"/>
+      <c r="GP9" s="6"/>
+      <c r="GQ9" s="6"/>
+      <c r="GR9" s="6"/>
+      <c r="GS9" s="6"/>
+      <c r="GT9" s="6"/>
+      <c r="GU9" s="6"/>
+      <c r="GV9" s="6"/>
+      <c r="GW9" s="6"/>
+      <c r="GX9" s="6"/>
+      <c r="GY9" s="6"/>
+      <c r="GZ9" s="6"/>
+      <c r="HA9" s="6"/>
+      <c r="HB9" s="6"/>
+      <c r="HC9" s="6"/>
+      <c r="HD9" s="6"/>
+      <c r="HE9" s="6"/>
+      <c r="HF9" s="6"/>
+      <c r="HG9" s="6"/>
+      <c r="HH9" s="6"/>
+      <c r="HI9" s="6"/>
+      <c r="HJ9" s="6"/>
+      <c r="HK9" s="6"/>
+      <c r="HL9" s="6"/>
+      <c r="HM9" s="6"/>
+      <c r="HN9" s="6"/>
+      <c r="HO9" s="6"/>
+      <c r="HP9" s="6"/>
+      <c r="HQ9" s="6"/>
+      <c r="HR9" s="6"/>
+      <c r="HS9" s="6"/>
+      <c r="HT9" s="6"/>
+      <c r="HU9" s="6"/>
+      <c r="HV9" s="6"/>
+      <c r="HW9" s="6"/>
+      <c r="HX9" s="6"/>
+      <c r="HY9" s="6"/>
+      <c r="HZ9" s="6"/>
+      <c r="IA9" s="6"/>
+      <c r="IB9" s="6"/>
+      <c r="IC9" s="6"/>
+      <c r="ID9" s="6"/>
+      <c r="IE9" s="6"/>
+      <c r="IF9" s="6"/>
+      <c r="IG9" s="6"/>
+      <c r="IH9" s="6"/>
+      <c r="II9" s="6"/>
+      <c r="IJ9" s="6"/>
+      <c r="IK9" s="6"/>
+      <c r="IL9" s="6"/>
+      <c r="IM9" s="6"/>
+      <c r="IN9" s="6"/>
+      <c r="IO9" s="6"/>
+      <c r="IP9" s="6"/>
     </row>
-    <row r="10" spans="1:250" s="7" customFormat="1">
-      <c r="A10" s="80">
+    <row r="10" spans="1:250" s="7" customFormat="1" ht="11.25">
+      <c r="A10" s="35">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="25">
+        <v>41001</v>
+      </c>
+      <c r="E10" s="25">
+        <v>41002</v>
+      </c>
+      <c r="F10" s="25">
+        <v>40994</v>
+      </c>
+      <c r="G10" s="25">
+        <v>40998</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27">
         <v>1</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="61">
-        <v>41001</v>
-      </c>
-      <c r="E10" s="61">
-        <v>41014</v>
-      </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27"/>
       <c r="J10" s="17"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -3249,30 +3514,24 @@
     </row>
     <row r="11" spans="1:250" s="7" customFormat="1" ht="11.25">
       <c r="A11" s="35">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="25">
-        <v>41001</v>
+        <v>41003</v>
       </c>
       <c r="E11" s="25">
-        <v>41002</v>
-      </c>
-      <c r="F11" s="25">
-        <v>40994</v>
-      </c>
-      <c r="G11" s="25">
-        <v>40998</v>
-      </c>
+        <v>41005</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="26"/>
-      <c r="I11" s="27">
-        <v>1</v>
-      </c>
+      <c r="I11" s="27"/>
       <c r="J11" s="17"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -3517,16 +3776,16 @@
     </row>
     <row r="12" spans="1:250" s="7" customFormat="1" ht="11.25">
       <c r="A12" s="35">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D12" s="25">
-        <v>41003</v>
+        <v>41001</v>
       </c>
       <c r="E12" s="25">
         <v>41005</v>
@@ -3779,19 +4038,19 @@
     </row>
     <row r="13" spans="1:250" s="7" customFormat="1" ht="11.25">
       <c r="A13" s="35">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="25">
-        <v>41001</v>
+        <v>41006</v>
       </c>
       <c r="E13" s="25">
-        <v>41005</v>
+        <v>41012</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
@@ -4041,19 +4300,19 @@
     </row>
     <row r="14" spans="1:250" s="7" customFormat="1" ht="11.25">
       <c r="A14" s="35">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="56" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="25">
-        <v>41006</v>
+        <v>41013</v>
       </c>
       <c r="E14" s="25">
-        <v>41012</v>
+        <v>41013</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
@@ -4303,19 +4562,19 @@
     </row>
     <row r="15" spans="1:250" s="7" customFormat="1" ht="11.25">
       <c r="A15" s="35">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="56" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="25">
-        <v>41013</v>
+        <v>41014</v>
       </c>
       <c r="E15" s="25">
-        <v>41013</v>
+        <v>41014</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
@@ -4563,369 +4822,365 @@
       <c r="IO15" s="6"/>
       <c r="IP15" s="6"/>
     </row>
-    <row r="16" spans="1:250" s="7" customFormat="1" ht="11.25">
-      <c r="A16" s="35">
-        <v>1.6</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>13</v>
+    <row r="16" spans="1:250" s="6" customFormat="1">
+      <c r="A16" s="80">
+        <v>2</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>6</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="25">
-        <v>41014</v>
-      </c>
-      <c r="E16" s="25">
-        <v>41014</v>
+        <v>19</v>
+      </c>
+      <c r="D16" s="61">
+        <v>41015</v>
+      </c>
+      <c r="E16" s="61">
+        <v>41025</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="26"/>
       <c r="I16" s="27"/>
       <c r="J16" s="17"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="6"/>
-      <c r="AJ16" s="6"/>
-      <c r="AK16" s="6"/>
-      <c r="AL16" s="6"/>
-      <c r="AM16" s="6"/>
-      <c r="AN16" s="6"/>
-      <c r="AO16" s="6"/>
-      <c r="AP16" s="6"/>
-      <c r="AQ16" s="6"/>
-      <c r="AR16" s="6"/>
-      <c r="AS16" s="6"/>
-      <c r="AT16" s="6"/>
-      <c r="AU16" s="6"/>
-      <c r="AV16" s="6"/>
-      <c r="AW16" s="6"/>
-      <c r="AX16" s="6"/>
-      <c r="AY16" s="6"/>
-      <c r="AZ16" s="6"/>
-      <c r="BA16" s="6"/>
-      <c r="BB16" s="6"/>
-      <c r="BC16" s="6"/>
-      <c r="BD16" s="6"/>
-      <c r="BE16" s="6"/>
-      <c r="BF16" s="6"/>
-      <c r="BG16" s="6"/>
-      <c r="BH16" s="6"/>
-      <c r="BI16" s="6"/>
-      <c r="BJ16" s="6"/>
-      <c r="BK16" s="6"/>
-      <c r="BL16" s="6"/>
-      <c r="BM16" s="6"/>
-      <c r="BN16" s="6"/>
-      <c r="BO16" s="6"/>
-      <c r="BP16" s="6"/>
-      <c r="BQ16" s="6"/>
-      <c r="BR16" s="6"/>
-      <c r="BS16" s="6"/>
-      <c r="BT16" s="6"/>
-      <c r="BU16" s="6"/>
-      <c r="BV16" s="6"/>
-      <c r="BW16" s="6"/>
-      <c r="BX16" s="6"/>
-      <c r="BY16" s="6"/>
-      <c r="BZ16" s="6"/>
-      <c r="CA16" s="6"/>
-      <c r="CB16" s="6"/>
-      <c r="CC16" s="6"/>
-      <c r="CD16" s="6"/>
-      <c r="CE16" s="6"/>
-      <c r="CF16" s="6"/>
-      <c r="CG16" s="6"/>
-      <c r="CH16" s="6"/>
-      <c r="CI16" s="6"/>
-      <c r="CJ16" s="6"/>
-      <c r="CK16" s="6"/>
-      <c r="CL16" s="6"/>
-      <c r="CM16" s="6"/>
-      <c r="CN16" s="6"/>
-      <c r="CO16" s="6"/>
-      <c r="CP16" s="6"/>
-      <c r="CQ16" s="6"/>
-      <c r="CR16" s="6"/>
-      <c r="CS16" s="6"/>
-      <c r="CT16" s="6"/>
-      <c r="CU16" s="6"/>
-      <c r="CV16" s="6"/>
-      <c r="CW16" s="6"/>
-      <c r="CX16" s="6"/>
-      <c r="CY16" s="6"/>
-      <c r="CZ16" s="6"/>
-      <c r="DA16" s="6"/>
-      <c r="DB16" s="6"/>
-      <c r="DC16" s="6"/>
-      <c r="DD16" s="6"/>
-      <c r="DE16" s="6"/>
-      <c r="DF16" s="6"/>
-      <c r="DG16" s="6"/>
-      <c r="DH16" s="6"/>
-      <c r="DI16" s="6"/>
-      <c r="DJ16" s="6"/>
-      <c r="DK16" s="6"/>
-      <c r="DL16" s="6"/>
-      <c r="DM16" s="6"/>
-      <c r="DN16" s="6"/>
-      <c r="DO16" s="6"/>
-      <c r="DP16" s="6"/>
-      <c r="DQ16" s="6"/>
-      <c r="DR16" s="6"/>
-      <c r="DS16" s="6"/>
-      <c r="DT16" s="6"/>
-      <c r="DU16" s="6"/>
-      <c r="DV16" s="6"/>
-      <c r="DW16" s="6"/>
-      <c r="DX16" s="6"/>
-      <c r="DY16" s="6"/>
-      <c r="DZ16" s="6"/>
-      <c r="EA16" s="6"/>
-      <c r="EB16" s="6"/>
-      <c r="EC16" s="6"/>
-      <c r="ED16" s="6"/>
-      <c r="EE16" s="6"/>
-      <c r="EF16" s="6"/>
-      <c r="EG16" s="6"/>
-      <c r="EH16" s="6"/>
-      <c r="EI16" s="6"/>
-      <c r="EJ16" s="6"/>
-      <c r="EK16" s="6"/>
-      <c r="EL16" s="6"/>
-      <c r="EM16" s="6"/>
-      <c r="EN16" s="6"/>
-      <c r="EO16" s="6"/>
-      <c r="EP16" s="6"/>
-      <c r="EQ16" s="6"/>
-      <c r="ER16" s="6"/>
-      <c r="ES16" s="6"/>
-      <c r="ET16" s="6"/>
-      <c r="EU16" s="6"/>
-      <c r="EV16" s="6"/>
-      <c r="EW16" s="6"/>
-      <c r="EX16" s="6"/>
-      <c r="EY16" s="6"/>
-      <c r="EZ16" s="6"/>
-      <c r="FA16" s="6"/>
-      <c r="FB16" s="6"/>
-      <c r="FC16" s="6"/>
-      <c r="FD16" s="6"/>
-      <c r="FE16" s="6"/>
-      <c r="FF16" s="6"/>
-      <c r="FG16" s="6"/>
-      <c r="FH16" s="6"/>
-      <c r="FI16" s="6"/>
-      <c r="FJ16" s="6"/>
-      <c r="FK16" s="6"/>
-      <c r="FL16" s="6"/>
-      <c r="FM16" s="6"/>
-      <c r="FN16" s="6"/>
-      <c r="FO16" s="6"/>
-      <c r="FP16" s="6"/>
-      <c r="FQ16" s="6"/>
-      <c r="FR16" s="6"/>
-      <c r="FS16" s="6"/>
-      <c r="FT16" s="6"/>
-      <c r="FU16" s="6"/>
-      <c r="FV16" s="6"/>
-      <c r="FW16" s="6"/>
-      <c r="FX16" s="6"/>
-      <c r="FY16" s="6"/>
-      <c r="FZ16" s="6"/>
-      <c r="GA16" s="6"/>
-      <c r="GB16" s="6"/>
-      <c r="GC16" s="6"/>
-      <c r="GD16" s="6"/>
-      <c r="GE16" s="6"/>
-      <c r="GF16" s="6"/>
-      <c r="GG16" s="6"/>
-      <c r="GH16" s="6"/>
-      <c r="GI16" s="6"/>
-      <c r="GJ16" s="6"/>
-      <c r="GK16" s="6"/>
-      <c r="GL16" s="6"/>
-      <c r="GM16" s="6"/>
-      <c r="GN16" s="6"/>
-      <c r="GO16" s="6"/>
-      <c r="GP16" s="6"/>
-      <c r="GQ16" s="6"/>
-      <c r="GR16" s="6"/>
-      <c r="GS16" s="6"/>
-      <c r="GT16" s="6"/>
-      <c r="GU16" s="6"/>
-      <c r="GV16" s="6"/>
-      <c r="GW16" s="6"/>
-      <c r="GX16" s="6"/>
-      <c r="GY16" s="6"/>
-      <c r="GZ16" s="6"/>
-      <c r="HA16" s="6"/>
-      <c r="HB16" s="6"/>
-      <c r="HC16" s="6"/>
-      <c r="HD16" s="6"/>
-      <c r="HE16" s="6"/>
-      <c r="HF16" s="6"/>
-      <c r="HG16" s="6"/>
-      <c r="HH16" s="6"/>
-      <c r="HI16" s="6"/>
-      <c r="HJ16" s="6"/>
-      <c r="HK16" s="6"/>
-      <c r="HL16" s="6"/>
-      <c r="HM16" s="6"/>
-      <c r="HN16" s="6"/>
-      <c r="HO16" s="6"/>
-      <c r="HP16" s="6"/>
-      <c r="HQ16" s="6"/>
-      <c r="HR16" s="6"/>
-      <c r="HS16" s="6"/>
-      <c r="HT16" s="6"/>
-      <c r="HU16" s="6"/>
-      <c r="HV16" s="6"/>
-      <c r="HW16" s="6"/>
-      <c r="HX16" s="6"/>
-      <c r="HY16" s="6"/>
-      <c r="HZ16" s="6"/>
-      <c r="IA16" s="6"/>
-      <c r="IB16" s="6"/>
-      <c r="IC16" s="6"/>
-      <c r="ID16" s="6"/>
-      <c r="IE16" s="6"/>
-      <c r="IF16" s="6"/>
-      <c r="IG16" s="6"/>
-      <c r="IH16" s="6"/>
-      <c r="II16" s="6"/>
-      <c r="IJ16" s="6"/>
-      <c r="IK16" s="6"/>
-      <c r="IL16" s="6"/>
-      <c r="IM16" s="6"/>
-      <c r="IN16" s="6"/>
-      <c r="IO16" s="6"/>
-      <c r="IP16" s="6"/>
     </row>
     <row r="17" spans="1:250" s="6" customFormat="1">
-      <c r="A17" s="80">
-        <v>2</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="61">
-        <v>41015</v>
-      </c>
-      <c r="E17" s="61">
-        <v>41025</v>
-      </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:250" s="6" customFormat="1">
-      <c r="A18" s="86"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22"/>
+      <c r="A18" s="80">
+        <v>3</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="61">
+        <v>41026</v>
+      </c>
+      <c r="E18" s="61">
+        <v>41031</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:250" s="6" customFormat="1">
-      <c r="A19" s="80">
-        <v>3</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="61">
-        <v>41026</v>
-      </c>
-      <c r="E19" s="61">
-        <v>41031</v>
-      </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22"/>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" spans="1:250" s="6" customFormat="1">
-      <c r="A20" s="86"/>
+    <row r="20" spans="1:250" s="6" customFormat="1" ht="12">
+      <c r="A20" s="36"/>
       <c r="B20" s="37"/>
       <c r="C20" s="58"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="21"/>
       <c r="I20" s="22"/>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="1:250" s="6" customFormat="1" ht="12">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="22"/>
+    <row r="21" spans="1:250" s="7" customFormat="1" ht="15.75">
+      <c r="A21" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="62">
+        <v>41032</v>
+      </c>
+      <c r="E21" s="62">
+        <v>41046</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="41">
+        <v>15</v>
+      </c>
+      <c r="I21" s="42"/>
       <c r="J21" s="17"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="6"/>
+      <c r="AP21" s="6"/>
+      <c r="AQ21" s="6"/>
+      <c r="AR21" s="6"/>
+      <c r="AS21" s="6"/>
+      <c r="AT21" s="6"/>
+      <c r="AU21" s="6"/>
+      <c r="AV21" s="6"/>
+      <c r="AW21" s="6"/>
+      <c r="AX21" s="6"/>
+      <c r="AY21" s="6"/>
+      <c r="AZ21" s="6"/>
+      <c r="BA21" s="6"/>
+      <c r="BB21" s="6"/>
+      <c r="BC21" s="6"/>
+      <c r="BD21" s="6"/>
+      <c r="BE21" s="6"/>
+      <c r="BF21" s="6"/>
+      <c r="BG21" s="6"/>
+      <c r="BH21" s="6"/>
+      <c r="BI21" s="6"/>
+      <c r="BJ21" s="6"/>
+      <c r="BK21" s="6"/>
+      <c r="BL21" s="6"/>
+      <c r="BM21" s="6"/>
+      <c r="BN21" s="6"/>
+      <c r="BO21" s="6"/>
+      <c r="BP21" s="6"/>
+      <c r="BQ21" s="6"/>
+      <c r="BR21" s="6"/>
+      <c r="BS21" s="6"/>
+      <c r="BT21" s="6"/>
+      <c r="BU21" s="6"/>
+      <c r="BV21" s="6"/>
+      <c r="BW21" s="6"/>
+      <c r="BX21" s="6"/>
+      <c r="BY21" s="6"/>
+      <c r="BZ21" s="6"/>
+      <c r="CA21" s="6"/>
+      <c r="CB21" s="6"/>
+      <c r="CC21" s="6"/>
+      <c r="CD21" s="6"/>
+      <c r="CE21" s="6"/>
+      <c r="CF21" s="6"/>
+      <c r="CG21" s="6"/>
+      <c r="CH21" s="6"/>
+      <c r="CI21" s="6"/>
+      <c r="CJ21" s="6"/>
+      <c r="CK21" s="6"/>
+      <c r="CL21" s="6"/>
+      <c r="CM21" s="6"/>
+      <c r="CN21" s="6"/>
+      <c r="CO21" s="6"/>
+      <c r="CP21" s="6"/>
+      <c r="CQ21" s="6"/>
+      <c r="CR21" s="6"/>
+      <c r="CS21" s="6"/>
+      <c r="CT21" s="6"/>
+      <c r="CU21" s="6"/>
+      <c r="CV21" s="6"/>
+      <c r="CW21" s="6"/>
+      <c r="CX21" s="6"/>
+      <c r="CY21" s="6"/>
+      <c r="CZ21" s="6"/>
+      <c r="DA21" s="6"/>
+      <c r="DB21" s="6"/>
+      <c r="DC21" s="6"/>
+      <c r="DD21" s="6"/>
+      <c r="DE21" s="6"/>
+      <c r="DF21" s="6"/>
+      <c r="DG21" s="6"/>
+      <c r="DH21" s="6"/>
+      <c r="DI21" s="6"/>
+      <c r="DJ21" s="6"/>
+      <c r="DK21" s="6"/>
+      <c r="DL21" s="6"/>
+      <c r="DM21" s="6"/>
+      <c r="DN21" s="6"/>
+      <c r="DO21" s="6"/>
+      <c r="DP21" s="6"/>
+      <c r="DQ21" s="6"/>
+      <c r="DR21" s="6"/>
+      <c r="DS21" s="6"/>
+      <c r="DT21" s="6"/>
+      <c r="DU21" s="6"/>
+      <c r="DV21" s="6"/>
+      <c r="DW21" s="6"/>
+      <c r="DX21" s="6"/>
+      <c r="DY21" s="6"/>
+      <c r="DZ21" s="6"/>
+      <c r="EA21" s="6"/>
+      <c r="EB21" s="6"/>
+      <c r="EC21" s="6"/>
+      <c r="ED21" s="6"/>
+      <c r="EE21" s="6"/>
+      <c r="EF21" s="6"/>
+      <c r="EG21" s="6"/>
+      <c r="EH21" s="6"/>
+      <c r="EI21" s="6"/>
+      <c r="EJ21" s="6"/>
+      <c r="EK21" s="6"/>
+      <c r="EL21" s="6"/>
+      <c r="EM21" s="6"/>
+      <c r="EN21" s="6"/>
+      <c r="EO21" s="6"/>
+      <c r="EP21" s="6"/>
+      <c r="EQ21" s="6"/>
+      <c r="ER21" s="6"/>
+      <c r="ES21" s="6"/>
+      <c r="ET21" s="6"/>
+      <c r="EU21" s="6"/>
+      <c r="EV21" s="6"/>
+      <c r="EW21" s="6"/>
+      <c r="EX21" s="6"/>
+      <c r="EY21" s="6"/>
+      <c r="EZ21" s="6"/>
+      <c r="FA21" s="6"/>
+      <c r="FB21" s="6"/>
+      <c r="FC21" s="6"/>
+      <c r="FD21" s="6"/>
+      <c r="FE21" s="6"/>
+      <c r="FF21" s="6"/>
+      <c r="FG21" s="6"/>
+      <c r="FH21" s="6"/>
+      <c r="FI21" s="6"/>
+      <c r="FJ21" s="6"/>
+      <c r="FK21" s="6"/>
+      <c r="FL21" s="6"/>
+      <c r="FM21" s="6"/>
+      <c r="FN21" s="6"/>
+      <c r="FO21" s="6"/>
+      <c r="FP21" s="6"/>
+      <c r="FQ21" s="6"/>
+      <c r="FR21" s="6"/>
+      <c r="FS21" s="6"/>
+      <c r="FT21" s="6"/>
+      <c r="FU21" s="6"/>
+      <c r="FV21" s="6"/>
+      <c r="FW21" s="6"/>
+      <c r="FX21" s="6"/>
+      <c r="FY21" s="6"/>
+      <c r="FZ21" s="6"/>
+      <c r="GA21" s="6"/>
+      <c r="GB21" s="6"/>
+      <c r="GC21" s="6"/>
+      <c r="GD21" s="6"/>
+      <c r="GE21" s="6"/>
+      <c r="GF21" s="6"/>
+      <c r="GG21" s="6"/>
+      <c r="GH21" s="6"/>
+      <c r="GI21" s="6"/>
+      <c r="GJ21" s="6"/>
+      <c r="GK21" s="6"/>
+      <c r="GL21" s="6"/>
+      <c r="GM21" s="6"/>
+      <c r="GN21" s="6"/>
+      <c r="GO21" s="6"/>
+      <c r="GP21" s="6"/>
+      <c r="GQ21" s="6"/>
+      <c r="GR21" s="6"/>
+      <c r="GS21" s="6"/>
+      <c r="GT21" s="6"/>
+      <c r="GU21" s="6"/>
+      <c r="GV21" s="6"/>
+      <c r="GW21" s="6"/>
+      <c r="GX21" s="6"/>
+      <c r="GY21" s="6"/>
+      <c r="GZ21" s="6"/>
+      <c r="HA21" s="6"/>
+      <c r="HB21" s="6"/>
+      <c r="HC21" s="6"/>
+      <c r="HD21" s="6"/>
+      <c r="HE21" s="6"/>
+      <c r="HF21" s="6"/>
+      <c r="HG21" s="6"/>
+      <c r="HH21" s="6"/>
+      <c r="HI21" s="6"/>
+      <c r="HJ21" s="6"/>
+      <c r="HK21" s="6"/>
+      <c r="HL21" s="6"/>
+      <c r="HM21" s="6"/>
+      <c r="HN21" s="6"/>
+      <c r="HO21" s="6"/>
+      <c r="HP21" s="6"/>
+      <c r="HQ21" s="6"/>
+      <c r="HR21" s="6"/>
+      <c r="HS21" s="6"/>
+      <c r="HT21" s="6"/>
+      <c r="HU21" s="6"/>
+      <c r="HV21" s="6"/>
+      <c r="HW21" s="6"/>
+      <c r="HX21" s="6"/>
+      <c r="HY21" s="6"/>
+      <c r="HZ21" s="6"/>
+      <c r="IA21" s="6"/>
+      <c r="IB21" s="6"/>
+      <c r="IC21" s="6"/>
+      <c r="ID21" s="6"/>
+      <c r="IE21" s="6"/>
+      <c r="IF21" s="6"/>
+      <c r="IG21" s="6"/>
+      <c r="IH21" s="6"/>
+      <c r="II21" s="6"/>
+      <c r="IJ21" s="6"/>
+      <c r="IK21" s="6"/>
+      <c r="IL21" s="6"/>
+      <c r="IM21" s="6"/>
+      <c r="IN21" s="6"/>
+      <c r="IO21" s="6"/>
+      <c r="IP21" s="6"/>
     </row>
-    <row r="22" spans="1:250" s="7" customFormat="1" ht="15.75">
-      <c r="A22" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="62">
-        <v>41032</v>
-      </c>
-      <c r="E22" s="62">
-        <v>41046</v>
-      </c>
+    <row r="22" spans="1:250" s="7" customFormat="1" ht="12">
+      <c r="A22" s="76">
+        <v>1</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
-      <c r="H22" s="41">
-        <v>15</v>
-      </c>
+      <c r="H22" s="41"/>
       <c r="I22" s="42"/>
       <c r="J22" s="17"/>
       <c r="K22" s="6"/>
@@ -5169,15 +5424,15 @@
       <c r="IO22" s="6"/>
       <c r="IP22" s="6"/>
     </row>
-    <row r="23" spans="1:250" s="7" customFormat="1" ht="12">
-      <c r="A23" s="76">
-        <v>1</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>7</v>
+    <row r="23" spans="1:250" s="7" customFormat="1" ht="11.25">
+      <c r="A23" s="75">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -5429,10 +5684,10 @@
     </row>
     <row r="24" spans="1:250" s="7" customFormat="1" ht="11.25">
       <c r="A24" s="75">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" s="57" t="s">
         <v>20</v>
@@ -5687,10 +5942,10 @@
     </row>
     <row r="25" spans="1:250" s="7" customFormat="1" ht="11.25">
       <c r="A25" s="75">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>20</v>
@@ -5945,10 +6200,10 @@
     </row>
     <row r="26" spans="1:250" s="7" customFormat="1" ht="11.25">
       <c r="A26" s="75">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C26" s="57" t="s">
         <v>20</v>
@@ -6201,15 +6456,15 @@
       <c r="IO26" s="6"/>
       <c r="IP26" s="6"/>
     </row>
-    <row r="27" spans="1:250" s="7" customFormat="1" ht="11.25">
-      <c r="A27" s="75">
-        <v>1.6</v>
-      </c>
-      <c r="B27" s="44" t="s">
-        <v>13</v>
+    <row r="27" spans="1:250" s="6" customFormat="1" ht="12">
+      <c r="A27" s="76">
+        <v>2</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>6</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" s="40"/>
       <c r="E27" s="40"/>
@@ -6218,253 +6473,13 @@
       <c r="H27" s="41"/>
       <c r="I27" s="42"/>
       <c r="J27" s="17"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="6"/>
-      <c r="AD27" s="6"/>
-      <c r="AE27" s="6"/>
-      <c r="AF27" s="6"/>
-      <c r="AG27" s="6"/>
-      <c r="AH27" s="6"/>
-      <c r="AI27" s="6"/>
-      <c r="AJ27" s="6"/>
-      <c r="AK27" s="6"/>
-      <c r="AL27" s="6"/>
-      <c r="AM27" s="6"/>
-      <c r="AN27" s="6"/>
-      <c r="AO27" s="6"/>
-      <c r="AP27" s="6"/>
-      <c r="AQ27" s="6"/>
-      <c r="AR27" s="6"/>
-      <c r="AS27" s="6"/>
-      <c r="AT27" s="6"/>
-      <c r="AU27" s="6"/>
-      <c r="AV27" s="6"/>
-      <c r="AW27" s="6"/>
-      <c r="AX27" s="6"/>
-      <c r="AY27" s="6"/>
-      <c r="AZ27" s="6"/>
-      <c r="BA27" s="6"/>
-      <c r="BB27" s="6"/>
-      <c r="BC27" s="6"/>
-      <c r="BD27" s="6"/>
-      <c r="BE27" s="6"/>
-      <c r="BF27" s="6"/>
-      <c r="BG27" s="6"/>
-      <c r="BH27" s="6"/>
-      <c r="BI27" s="6"/>
-      <c r="BJ27" s="6"/>
-      <c r="BK27" s="6"/>
-      <c r="BL27" s="6"/>
-      <c r="BM27" s="6"/>
-      <c r="BN27" s="6"/>
-      <c r="BO27" s="6"/>
-      <c r="BP27" s="6"/>
-      <c r="BQ27" s="6"/>
-      <c r="BR27" s="6"/>
-      <c r="BS27" s="6"/>
-      <c r="BT27" s="6"/>
-      <c r="BU27" s="6"/>
-      <c r="BV27" s="6"/>
-      <c r="BW27" s="6"/>
-      <c r="BX27" s="6"/>
-      <c r="BY27" s="6"/>
-      <c r="BZ27" s="6"/>
-      <c r="CA27" s="6"/>
-      <c r="CB27" s="6"/>
-      <c r="CC27" s="6"/>
-      <c r="CD27" s="6"/>
-      <c r="CE27" s="6"/>
-      <c r="CF27" s="6"/>
-      <c r="CG27" s="6"/>
-      <c r="CH27" s="6"/>
-      <c r="CI27" s="6"/>
-      <c r="CJ27" s="6"/>
-      <c r="CK27" s="6"/>
-      <c r="CL27" s="6"/>
-      <c r="CM27" s="6"/>
-      <c r="CN27" s="6"/>
-      <c r="CO27" s="6"/>
-      <c r="CP27" s="6"/>
-      <c r="CQ27" s="6"/>
-      <c r="CR27" s="6"/>
-      <c r="CS27" s="6"/>
-      <c r="CT27" s="6"/>
-      <c r="CU27" s="6"/>
-      <c r="CV27" s="6"/>
-      <c r="CW27" s="6"/>
-      <c r="CX27" s="6"/>
-      <c r="CY27" s="6"/>
-      <c r="CZ27" s="6"/>
-      <c r="DA27" s="6"/>
-      <c r="DB27" s="6"/>
-      <c r="DC27" s="6"/>
-      <c r="DD27" s="6"/>
-      <c r="DE27" s="6"/>
-      <c r="DF27" s="6"/>
-      <c r="DG27" s="6"/>
-      <c r="DH27" s="6"/>
-      <c r="DI27" s="6"/>
-      <c r="DJ27" s="6"/>
-      <c r="DK27" s="6"/>
-      <c r="DL27" s="6"/>
-      <c r="DM27" s="6"/>
-      <c r="DN27" s="6"/>
-      <c r="DO27" s="6"/>
-      <c r="DP27" s="6"/>
-      <c r="DQ27" s="6"/>
-      <c r="DR27" s="6"/>
-      <c r="DS27" s="6"/>
-      <c r="DT27" s="6"/>
-      <c r="DU27" s="6"/>
-      <c r="DV27" s="6"/>
-      <c r="DW27" s="6"/>
-      <c r="DX27" s="6"/>
-      <c r="DY27" s="6"/>
-      <c r="DZ27" s="6"/>
-      <c r="EA27" s="6"/>
-      <c r="EB27" s="6"/>
-      <c r="EC27" s="6"/>
-      <c r="ED27" s="6"/>
-      <c r="EE27" s="6"/>
-      <c r="EF27" s="6"/>
-      <c r="EG27" s="6"/>
-      <c r="EH27" s="6"/>
-      <c r="EI27" s="6"/>
-      <c r="EJ27" s="6"/>
-      <c r="EK27" s="6"/>
-      <c r="EL27" s="6"/>
-      <c r="EM27" s="6"/>
-      <c r="EN27" s="6"/>
-      <c r="EO27" s="6"/>
-      <c r="EP27" s="6"/>
-      <c r="EQ27" s="6"/>
-      <c r="ER27" s="6"/>
-      <c r="ES27" s="6"/>
-      <c r="ET27" s="6"/>
-      <c r="EU27" s="6"/>
-      <c r="EV27" s="6"/>
-      <c r="EW27" s="6"/>
-      <c r="EX27" s="6"/>
-      <c r="EY27" s="6"/>
-      <c r="EZ27" s="6"/>
-      <c r="FA27" s="6"/>
-      <c r="FB27" s="6"/>
-      <c r="FC27" s="6"/>
-      <c r="FD27" s="6"/>
-      <c r="FE27" s="6"/>
-      <c r="FF27" s="6"/>
-      <c r="FG27" s="6"/>
-      <c r="FH27" s="6"/>
-      <c r="FI27" s="6"/>
-      <c r="FJ27" s="6"/>
-      <c r="FK27" s="6"/>
-      <c r="FL27" s="6"/>
-      <c r="FM27" s="6"/>
-      <c r="FN27" s="6"/>
-      <c r="FO27" s="6"/>
-      <c r="FP27" s="6"/>
-      <c r="FQ27" s="6"/>
-      <c r="FR27" s="6"/>
-      <c r="FS27" s="6"/>
-      <c r="FT27" s="6"/>
-      <c r="FU27" s="6"/>
-      <c r="FV27" s="6"/>
-      <c r="FW27" s="6"/>
-      <c r="FX27" s="6"/>
-      <c r="FY27" s="6"/>
-      <c r="FZ27" s="6"/>
-      <c r="GA27" s="6"/>
-      <c r="GB27" s="6"/>
-      <c r="GC27" s="6"/>
-      <c r="GD27" s="6"/>
-      <c r="GE27" s="6"/>
-      <c r="GF27" s="6"/>
-      <c r="GG27" s="6"/>
-      <c r="GH27" s="6"/>
-      <c r="GI27" s="6"/>
-      <c r="GJ27" s="6"/>
-      <c r="GK27" s="6"/>
-      <c r="GL27" s="6"/>
-      <c r="GM27" s="6"/>
-      <c r="GN27" s="6"/>
-      <c r="GO27" s="6"/>
-      <c r="GP27" s="6"/>
-      <c r="GQ27" s="6"/>
-      <c r="GR27" s="6"/>
-      <c r="GS27" s="6"/>
-      <c r="GT27" s="6"/>
-      <c r="GU27" s="6"/>
-      <c r="GV27" s="6"/>
-      <c r="GW27" s="6"/>
-      <c r="GX27" s="6"/>
-      <c r="GY27" s="6"/>
-      <c r="GZ27" s="6"/>
-      <c r="HA27" s="6"/>
-      <c r="HB27" s="6"/>
-      <c r="HC27" s="6"/>
-      <c r="HD27" s="6"/>
-      <c r="HE27" s="6"/>
-      <c r="HF27" s="6"/>
-      <c r="HG27" s="6"/>
-      <c r="HH27" s="6"/>
-      <c r="HI27" s="6"/>
-      <c r="HJ27" s="6"/>
-      <c r="HK27" s="6"/>
-      <c r="HL27" s="6"/>
-      <c r="HM27" s="6"/>
-      <c r="HN27" s="6"/>
-      <c r="HO27" s="6"/>
-      <c r="HP27" s="6"/>
-      <c r="HQ27" s="6"/>
-      <c r="HR27" s="6"/>
-      <c r="HS27" s="6"/>
-      <c r="HT27" s="6"/>
-      <c r="HU27" s="6"/>
-      <c r="HV27" s="6"/>
-      <c r="HW27" s="6"/>
-      <c r="HX27" s="6"/>
-      <c r="HY27" s="6"/>
-      <c r="HZ27" s="6"/>
-      <c r="IA27" s="6"/>
-      <c r="IB27" s="6"/>
-      <c r="IC27" s="6"/>
-      <c r="ID27" s="6"/>
-      <c r="IE27" s="6"/>
-      <c r="IF27" s="6"/>
-      <c r="IG27" s="6"/>
-      <c r="IH27" s="6"/>
-      <c r="II27" s="6"/>
-      <c r="IJ27" s="6"/>
-      <c r="IK27" s="6"/>
-      <c r="IL27" s="6"/>
-      <c r="IM27" s="6"/>
-      <c r="IN27" s="6"/>
-      <c r="IO27" s="6"/>
-      <c r="IP27" s="6"/>
     </row>
     <row r="28" spans="1:250" s="6" customFormat="1" ht="12">
       <c r="A28" s="76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="57" t="s">
         <v>19</v>
@@ -6477,34 +6492,280 @@
       <c r="I28" s="42"/>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="1:250" s="6" customFormat="1" ht="12">
-      <c r="A29" s="76">
-        <v>3</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="42"/>
+    <row r="29" spans="1:250" s="7" customFormat="1">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="22"/>
       <c r="J29" s="17"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6"/>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="6"/>
+      <c r="AP29" s="6"/>
+      <c r="AQ29" s="6"/>
+      <c r="AR29" s="6"/>
+      <c r="AS29" s="6"/>
+      <c r="AT29" s="6"/>
+      <c r="AU29" s="6"/>
+      <c r="AV29" s="6"/>
+      <c r="AW29" s="6"/>
+      <c r="AX29" s="6"/>
+      <c r="AY29" s="6"/>
+      <c r="AZ29" s="6"/>
+      <c r="BA29" s="6"/>
+      <c r="BB29" s="6"/>
+      <c r="BC29" s="6"/>
+      <c r="BD29" s="6"/>
+      <c r="BE29" s="6"/>
+      <c r="BF29" s="6"/>
+      <c r="BG29" s="6"/>
+      <c r="BH29" s="6"/>
+      <c r="BI29" s="6"/>
+      <c r="BJ29" s="6"/>
+      <c r="BK29" s="6"/>
+      <c r="BL29" s="6"/>
+      <c r="BM29" s="6"/>
+      <c r="BN29" s="6"/>
+      <c r="BO29" s="6"/>
+      <c r="BP29" s="6"/>
+      <c r="BQ29" s="6"/>
+      <c r="BR29" s="6"/>
+      <c r="BS29" s="6"/>
+      <c r="BT29" s="6"/>
+      <c r="BU29" s="6"/>
+      <c r="BV29" s="6"/>
+      <c r="BW29" s="6"/>
+      <c r="BX29" s="6"/>
+      <c r="BY29" s="6"/>
+      <c r="BZ29" s="6"/>
+      <c r="CA29" s="6"/>
+      <c r="CB29" s="6"/>
+      <c r="CC29" s="6"/>
+      <c r="CD29" s="6"/>
+      <c r="CE29" s="6"/>
+      <c r="CF29" s="6"/>
+      <c r="CG29" s="6"/>
+      <c r="CH29" s="6"/>
+      <c r="CI29" s="6"/>
+      <c r="CJ29" s="6"/>
+      <c r="CK29" s="6"/>
+      <c r="CL29" s="6"/>
+      <c r="CM29" s="6"/>
+      <c r="CN29" s="6"/>
+      <c r="CO29" s="6"/>
+      <c r="CP29" s="6"/>
+      <c r="CQ29" s="6"/>
+      <c r="CR29" s="6"/>
+      <c r="CS29" s="6"/>
+      <c r="CT29" s="6"/>
+      <c r="CU29" s="6"/>
+      <c r="CV29" s="6"/>
+      <c r="CW29" s="6"/>
+      <c r="CX29" s="6"/>
+      <c r="CY29" s="6"/>
+      <c r="CZ29" s="6"/>
+      <c r="DA29" s="6"/>
+      <c r="DB29" s="6"/>
+      <c r="DC29" s="6"/>
+      <c r="DD29" s="6"/>
+      <c r="DE29" s="6"/>
+      <c r="DF29" s="6"/>
+      <c r="DG29" s="6"/>
+      <c r="DH29" s="6"/>
+      <c r="DI29" s="6"/>
+      <c r="DJ29" s="6"/>
+      <c r="DK29" s="6"/>
+      <c r="DL29" s="6"/>
+      <c r="DM29" s="6"/>
+      <c r="DN29" s="6"/>
+      <c r="DO29" s="6"/>
+      <c r="DP29" s="6"/>
+      <c r="DQ29" s="6"/>
+      <c r="DR29" s="6"/>
+      <c r="DS29" s="6"/>
+      <c r="DT29" s="6"/>
+      <c r="DU29" s="6"/>
+      <c r="DV29" s="6"/>
+      <c r="DW29" s="6"/>
+      <c r="DX29" s="6"/>
+      <c r="DY29" s="6"/>
+      <c r="DZ29" s="6"/>
+      <c r="EA29" s="6"/>
+      <c r="EB29" s="6"/>
+      <c r="EC29" s="6"/>
+      <c r="ED29" s="6"/>
+      <c r="EE29" s="6"/>
+      <c r="EF29" s="6"/>
+      <c r="EG29" s="6"/>
+      <c r="EH29" s="6"/>
+      <c r="EI29" s="6"/>
+      <c r="EJ29" s="6"/>
+      <c r="EK29" s="6"/>
+      <c r="EL29" s="6"/>
+      <c r="EM29" s="6"/>
+      <c r="EN29" s="6"/>
+      <c r="EO29" s="6"/>
+      <c r="EP29" s="6"/>
+      <c r="EQ29" s="6"/>
+      <c r="ER29" s="6"/>
+      <c r="ES29" s="6"/>
+      <c r="ET29" s="6"/>
+      <c r="EU29" s="6"/>
+      <c r="EV29" s="6"/>
+      <c r="EW29" s="6"/>
+      <c r="EX29" s="6"/>
+      <c r="EY29" s="6"/>
+      <c r="EZ29" s="6"/>
+      <c r="FA29" s="6"/>
+      <c r="FB29" s="6"/>
+      <c r="FC29" s="6"/>
+      <c r="FD29" s="6"/>
+      <c r="FE29" s="6"/>
+      <c r="FF29" s="6"/>
+      <c r="FG29" s="6"/>
+      <c r="FH29" s="6"/>
+      <c r="FI29" s="6"/>
+      <c r="FJ29" s="6"/>
+      <c r="FK29" s="6"/>
+      <c r="FL29" s="6"/>
+      <c r="FM29" s="6"/>
+      <c r="FN29" s="6"/>
+      <c r="FO29" s="6"/>
+      <c r="FP29" s="6"/>
+      <c r="FQ29" s="6"/>
+      <c r="FR29" s="6"/>
+      <c r="FS29" s="6"/>
+      <c r="FT29" s="6"/>
+      <c r="FU29" s="6"/>
+      <c r="FV29" s="6"/>
+      <c r="FW29" s="6"/>
+      <c r="FX29" s="6"/>
+      <c r="FY29" s="6"/>
+      <c r="FZ29" s="6"/>
+      <c r="GA29" s="6"/>
+      <c r="GB29" s="6"/>
+      <c r="GC29" s="6"/>
+      <c r="GD29" s="6"/>
+      <c r="GE29" s="6"/>
+      <c r="GF29" s="6"/>
+      <c r="GG29" s="6"/>
+      <c r="GH29" s="6"/>
+      <c r="GI29" s="6"/>
+      <c r="GJ29" s="6"/>
+      <c r="GK29" s="6"/>
+      <c r="GL29" s="6"/>
+      <c r="GM29" s="6"/>
+      <c r="GN29" s="6"/>
+      <c r="GO29" s="6"/>
+      <c r="GP29" s="6"/>
+      <c r="GQ29" s="6"/>
+      <c r="GR29" s="6"/>
+      <c r="GS29" s="6"/>
+      <c r="GT29" s="6"/>
+      <c r="GU29" s="6"/>
+      <c r="GV29" s="6"/>
+      <c r="GW29" s="6"/>
+      <c r="GX29" s="6"/>
+      <c r="GY29" s="6"/>
+      <c r="GZ29" s="6"/>
+      <c r="HA29" s="6"/>
+      <c r="HB29" s="6"/>
+      <c r="HC29" s="6"/>
+      <c r="HD29" s="6"/>
+      <c r="HE29" s="6"/>
+      <c r="HF29" s="6"/>
+      <c r="HG29" s="6"/>
+      <c r="HH29" s="6"/>
+      <c r="HI29" s="6"/>
+      <c r="HJ29" s="6"/>
+      <c r="HK29" s="6"/>
+      <c r="HL29" s="6"/>
+      <c r="HM29" s="6"/>
+      <c r="HN29" s="6"/>
+      <c r="HO29" s="6"/>
+      <c r="HP29" s="6"/>
+      <c r="HQ29" s="6"/>
+      <c r="HR29" s="6"/>
+      <c r="HS29" s="6"/>
+      <c r="HT29" s="6"/>
+      <c r="HU29" s="6"/>
+      <c r="HV29" s="6"/>
+      <c r="HW29" s="6"/>
+      <c r="HX29" s="6"/>
+      <c r="HY29" s="6"/>
+      <c r="HZ29" s="6"/>
+      <c r="IA29" s="6"/>
+      <c r="IB29" s="6"/>
+      <c r="IC29" s="6"/>
+      <c r="ID29" s="6"/>
+      <c r="IE29" s="6"/>
+      <c r="IF29" s="6"/>
+      <c r="IG29" s="6"/>
+      <c r="IH29" s="6"/>
+      <c r="II29" s="6"/>
+      <c r="IJ29" s="6"/>
+      <c r="IK29" s="6"/>
+      <c r="IL29" s="6"/>
+      <c r="IM29" s="6"/>
+      <c r="IN29" s="6"/>
+      <c r="IO29" s="6"/>
+      <c r="IP29" s="6"/>
     </row>
-    <row r="30" spans="1:250" s="7" customFormat="1">
-      <c r="A30" s="23"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="22"/>
+    <row r="30" spans="1:250" s="7" customFormat="1" ht="15.75">
+      <c r="A30" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="63">
+        <v>41047</v>
+      </c>
+      <c r="E30" s="63">
+        <v>41055</v>
+      </c>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="48">
+        <v>9</v>
+      </c>
+      <c r="I30" s="49"/>
       <c r="J30" s="17"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -6747,27 +7008,21 @@
       <c r="IO30" s="6"/>
       <c r="IP30" s="6"/>
     </row>
-    <row r="31" spans="1:250" s="7" customFormat="1" ht="15.75">
-      <c r="A31" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="63">
-        <v>41047</v>
-      </c>
-      <c r="E31" s="63">
-        <v>41055</v>
-      </c>
+    <row r="31" spans="1:250" s="7" customFormat="1" ht="12">
+      <c r="A31" s="77">
+        <v>1</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
       <c r="F31" s="47"/>
       <c r="G31" s="47"/>
-      <c r="H31" s="48">
-        <v>9</v>
-      </c>
+      <c r="H31" s="48"/>
       <c r="I31" s="49"/>
       <c r="J31" s="17"/>
       <c r="K31" s="6"/>
@@ -7011,15 +7266,15 @@
       <c r="IO31" s="6"/>
       <c r="IP31" s="6"/>
     </row>
-    <row r="32" spans="1:250" s="7" customFormat="1" ht="12">
-      <c r="A32" s="77">
-        <v>1</v>
-      </c>
-      <c r="B32" s="50" t="s">
-        <v>7</v>
+    <row r="32" spans="1:250" s="7" customFormat="1" ht="11.25">
+      <c r="A32" s="78">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>8</v>
       </c>
       <c r="C32" s="64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D32" s="47"/>
       <c r="E32" s="47"/>
@@ -7271,10 +7526,10 @@
     </row>
     <row r="33" spans="1:250" s="7" customFormat="1" ht="11.25">
       <c r="A33" s="78">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="B33" s="51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" s="64" t="s">
         <v>20</v>
@@ -7529,10 +7784,10 @@
     </row>
     <row r="34" spans="1:250" s="7" customFormat="1" ht="11.25">
       <c r="A34" s="78">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="B34" s="51" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C34" s="64" t="s">
         <v>20</v>
@@ -7787,10 +8042,10 @@
     </row>
     <row r="35" spans="1:250" s="7" customFormat="1" ht="11.25">
       <c r="A35" s="78">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="B35" s="51" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C35" s="64" t="s">
         <v>20</v>
@@ -8043,15 +8298,15 @@
       <c r="IO35" s="6"/>
       <c r="IP35" s="6"/>
     </row>
-    <row r="36" spans="1:250" s="7" customFormat="1" ht="11.25">
-      <c r="A36" s="78">
-        <v>1.6</v>
-      </c>
-      <c r="B36" s="51" t="s">
-        <v>13</v>
+    <row r="36" spans="1:250" s="6" customFormat="1" ht="12">
+      <c r="A36" s="77">
+        <v>2</v>
+      </c>
+      <c r="B36" s="50" t="s">
+        <v>6</v>
       </c>
       <c r="C36" s="64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" s="47"/>
       <c r="E36" s="47"/>
@@ -8060,253 +8315,13 @@
       <c r="H36" s="48"/>
       <c r="I36" s="49"/>
       <c r="J36" s="17"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="6"/>
-      <c r="AE36" s="6"/>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
-      <c r="AH36" s="6"/>
-      <c r="AI36" s="6"/>
-      <c r="AJ36" s="6"/>
-      <c r="AK36" s="6"/>
-      <c r="AL36" s="6"/>
-      <c r="AM36" s="6"/>
-      <c r="AN36" s="6"/>
-      <c r="AO36" s="6"/>
-      <c r="AP36" s="6"/>
-      <c r="AQ36" s="6"/>
-      <c r="AR36" s="6"/>
-      <c r="AS36" s="6"/>
-      <c r="AT36" s="6"/>
-      <c r="AU36" s="6"/>
-      <c r="AV36" s="6"/>
-      <c r="AW36" s="6"/>
-      <c r="AX36" s="6"/>
-      <c r="AY36" s="6"/>
-      <c r="AZ36" s="6"/>
-      <c r="BA36" s="6"/>
-      <c r="BB36" s="6"/>
-      <c r="BC36" s="6"/>
-      <c r="BD36" s="6"/>
-      <c r="BE36" s="6"/>
-      <c r="BF36" s="6"/>
-      <c r="BG36" s="6"/>
-      <c r="BH36" s="6"/>
-      <c r="BI36" s="6"/>
-      <c r="BJ36" s="6"/>
-      <c r="BK36" s="6"/>
-      <c r="BL36" s="6"/>
-      <c r="BM36" s="6"/>
-      <c r="BN36" s="6"/>
-      <c r="BO36" s="6"/>
-      <c r="BP36" s="6"/>
-      <c r="BQ36" s="6"/>
-      <c r="BR36" s="6"/>
-      <c r="BS36" s="6"/>
-      <c r="BT36" s="6"/>
-      <c r="BU36" s="6"/>
-      <c r="BV36" s="6"/>
-      <c r="BW36" s="6"/>
-      <c r="BX36" s="6"/>
-      <c r="BY36" s="6"/>
-      <c r="BZ36" s="6"/>
-      <c r="CA36" s="6"/>
-      <c r="CB36" s="6"/>
-      <c r="CC36" s="6"/>
-      <c r="CD36" s="6"/>
-      <c r="CE36" s="6"/>
-      <c r="CF36" s="6"/>
-      <c r="CG36" s="6"/>
-      <c r="CH36" s="6"/>
-      <c r="CI36" s="6"/>
-      <c r="CJ36" s="6"/>
-      <c r="CK36" s="6"/>
-      <c r="CL36" s="6"/>
-      <c r="CM36" s="6"/>
-      <c r="CN36" s="6"/>
-      <c r="CO36" s="6"/>
-      <c r="CP36" s="6"/>
-      <c r="CQ36" s="6"/>
-      <c r="CR36" s="6"/>
-      <c r="CS36" s="6"/>
-      <c r="CT36" s="6"/>
-      <c r="CU36" s="6"/>
-      <c r="CV36" s="6"/>
-      <c r="CW36" s="6"/>
-      <c r="CX36" s="6"/>
-      <c r="CY36" s="6"/>
-      <c r="CZ36" s="6"/>
-      <c r="DA36" s="6"/>
-      <c r="DB36" s="6"/>
-      <c r="DC36" s="6"/>
-      <c r="DD36" s="6"/>
-      <c r="DE36" s="6"/>
-      <c r="DF36" s="6"/>
-      <c r="DG36" s="6"/>
-      <c r="DH36" s="6"/>
-      <c r="DI36" s="6"/>
-      <c r="DJ36" s="6"/>
-      <c r="DK36" s="6"/>
-      <c r="DL36" s="6"/>
-      <c r="DM36" s="6"/>
-      <c r="DN36" s="6"/>
-      <c r="DO36" s="6"/>
-      <c r="DP36" s="6"/>
-      <c r="DQ36" s="6"/>
-      <c r="DR36" s="6"/>
-      <c r="DS36" s="6"/>
-      <c r="DT36" s="6"/>
-      <c r="DU36" s="6"/>
-      <c r="DV36" s="6"/>
-      <c r="DW36" s="6"/>
-      <c r="DX36" s="6"/>
-      <c r="DY36" s="6"/>
-      <c r="DZ36" s="6"/>
-      <c r="EA36" s="6"/>
-      <c r="EB36" s="6"/>
-      <c r="EC36" s="6"/>
-      <c r="ED36" s="6"/>
-      <c r="EE36" s="6"/>
-      <c r="EF36" s="6"/>
-      <c r="EG36" s="6"/>
-      <c r="EH36" s="6"/>
-      <c r="EI36" s="6"/>
-      <c r="EJ36" s="6"/>
-      <c r="EK36" s="6"/>
-      <c r="EL36" s="6"/>
-      <c r="EM36" s="6"/>
-      <c r="EN36" s="6"/>
-      <c r="EO36" s="6"/>
-      <c r="EP36" s="6"/>
-      <c r="EQ36" s="6"/>
-      <c r="ER36" s="6"/>
-      <c r="ES36" s="6"/>
-      <c r="ET36" s="6"/>
-      <c r="EU36" s="6"/>
-      <c r="EV36" s="6"/>
-      <c r="EW36" s="6"/>
-      <c r="EX36" s="6"/>
-      <c r="EY36" s="6"/>
-      <c r="EZ36" s="6"/>
-      <c r="FA36" s="6"/>
-      <c r="FB36" s="6"/>
-      <c r="FC36" s="6"/>
-      <c r="FD36" s="6"/>
-      <c r="FE36" s="6"/>
-      <c r="FF36" s="6"/>
-      <c r="FG36" s="6"/>
-      <c r="FH36" s="6"/>
-      <c r="FI36" s="6"/>
-      <c r="FJ36" s="6"/>
-      <c r="FK36" s="6"/>
-      <c r="FL36" s="6"/>
-      <c r="FM36" s="6"/>
-      <c r="FN36" s="6"/>
-      <c r="FO36" s="6"/>
-      <c r="FP36" s="6"/>
-      <c r="FQ36" s="6"/>
-      <c r="FR36" s="6"/>
-      <c r="FS36" s="6"/>
-      <c r="FT36" s="6"/>
-      <c r="FU36" s="6"/>
-      <c r="FV36" s="6"/>
-      <c r="FW36" s="6"/>
-      <c r="FX36" s="6"/>
-      <c r="FY36" s="6"/>
-      <c r="FZ36" s="6"/>
-      <c r="GA36" s="6"/>
-      <c r="GB36" s="6"/>
-      <c r="GC36" s="6"/>
-      <c r="GD36" s="6"/>
-      <c r="GE36" s="6"/>
-      <c r="GF36" s="6"/>
-      <c r="GG36" s="6"/>
-      <c r="GH36" s="6"/>
-      <c r="GI36" s="6"/>
-      <c r="GJ36" s="6"/>
-      <c r="GK36" s="6"/>
-      <c r="GL36" s="6"/>
-      <c r="GM36" s="6"/>
-      <c r="GN36" s="6"/>
-      <c r="GO36" s="6"/>
-      <c r="GP36" s="6"/>
-      <c r="GQ36" s="6"/>
-      <c r="GR36" s="6"/>
-      <c r="GS36" s="6"/>
-      <c r="GT36" s="6"/>
-      <c r="GU36" s="6"/>
-      <c r="GV36" s="6"/>
-      <c r="GW36" s="6"/>
-      <c r="GX36" s="6"/>
-      <c r="GY36" s="6"/>
-      <c r="GZ36" s="6"/>
-      <c r="HA36" s="6"/>
-      <c r="HB36" s="6"/>
-      <c r="HC36" s="6"/>
-      <c r="HD36" s="6"/>
-      <c r="HE36" s="6"/>
-      <c r="HF36" s="6"/>
-      <c r="HG36" s="6"/>
-      <c r="HH36" s="6"/>
-      <c r="HI36" s="6"/>
-      <c r="HJ36" s="6"/>
-      <c r="HK36" s="6"/>
-      <c r="HL36" s="6"/>
-      <c r="HM36" s="6"/>
-      <c r="HN36" s="6"/>
-      <c r="HO36" s="6"/>
-      <c r="HP36" s="6"/>
-      <c r="HQ36" s="6"/>
-      <c r="HR36" s="6"/>
-      <c r="HS36" s="6"/>
-      <c r="HT36" s="6"/>
-      <c r="HU36" s="6"/>
-      <c r="HV36" s="6"/>
-      <c r="HW36" s="6"/>
-      <c r="HX36" s="6"/>
-      <c r="HY36" s="6"/>
-      <c r="HZ36" s="6"/>
-      <c r="IA36" s="6"/>
-      <c r="IB36" s="6"/>
-      <c r="IC36" s="6"/>
-      <c r="ID36" s="6"/>
-      <c r="IE36" s="6"/>
-      <c r="IF36" s="6"/>
-      <c r="IG36" s="6"/>
-      <c r="IH36" s="6"/>
-      <c r="II36" s="6"/>
-      <c r="IJ36" s="6"/>
-      <c r="IK36" s="6"/>
-      <c r="IL36" s="6"/>
-      <c r="IM36" s="6"/>
-      <c r="IN36" s="6"/>
-      <c r="IO36" s="6"/>
-      <c r="IP36" s="6"/>
     </row>
     <row r="37" spans="1:250" s="6" customFormat="1" ht="12">
       <c r="A37" s="77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B37" s="50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" s="64" t="s">
         <v>19</v>
@@ -8319,34 +8334,280 @@
       <c r="I37" s="49"/>
       <c r="J37" s="17"/>
     </row>
-    <row r="38" spans="1:250" s="6" customFormat="1" ht="12">
-      <c r="A38" s="77">
-        <v>3</v>
-      </c>
-      <c r="B38" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="49"/>
+    <row r="38" spans="1:250" s="7" customFormat="1">
+      <c r="A38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="22"/>
       <c r="J38" s="17"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="6"/>
+      <c r="AH38" s="6"/>
+      <c r="AI38" s="6"/>
+      <c r="AJ38" s="6"/>
+      <c r="AK38" s="6"/>
+      <c r="AL38" s="6"/>
+      <c r="AM38" s="6"/>
+      <c r="AN38" s="6"/>
+      <c r="AO38" s="6"/>
+      <c r="AP38" s="6"/>
+      <c r="AQ38" s="6"/>
+      <c r="AR38" s="6"/>
+      <c r="AS38" s="6"/>
+      <c r="AT38" s="6"/>
+      <c r="AU38" s="6"/>
+      <c r="AV38" s="6"/>
+      <c r="AW38" s="6"/>
+      <c r="AX38" s="6"/>
+      <c r="AY38" s="6"/>
+      <c r="AZ38" s="6"/>
+      <c r="BA38" s="6"/>
+      <c r="BB38" s="6"/>
+      <c r="BC38" s="6"/>
+      <c r="BD38" s="6"/>
+      <c r="BE38" s="6"/>
+      <c r="BF38" s="6"/>
+      <c r="BG38" s="6"/>
+      <c r="BH38" s="6"/>
+      <c r="BI38" s="6"/>
+      <c r="BJ38" s="6"/>
+      <c r="BK38" s="6"/>
+      <c r="BL38" s="6"/>
+      <c r="BM38" s="6"/>
+      <c r="BN38" s="6"/>
+      <c r="BO38" s="6"/>
+      <c r="BP38" s="6"/>
+      <c r="BQ38" s="6"/>
+      <c r="BR38" s="6"/>
+      <c r="BS38" s="6"/>
+      <c r="BT38" s="6"/>
+      <c r="BU38" s="6"/>
+      <c r="BV38" s="6"/>
+      <c r="BW38" s="6"/>
+      <c r="BX38" s="6"/>
+      <c r="BY38" s="6"/>
+      <c r="BZ38" s="6"/>
+      <c r="CA38" s="6"/>
+      <c r="CB38" s="6"/>
+      <c r="CC38" s="6"/>
+      <c r="CD38" s="6"/>
+      <c r="CE38" s="6"/>
+      <c r="CF38" s="6"/>
+      <c r="CG38" s="6"/>
+      <c r="CH38" s="6"/>
+      <c r="CI38" s="6"/>
+      <c r="CJ38" s="6"/>
+      <c r="CK38" s="6"/>
+      <c r="CL38" s="6"/>
+      <c r="CM38" s="6"/>
+      <c r="CN38" s="6"/>
+      <c r="CO38" s="6"/>
+      <c r="CP38" s="6"/>
+      <c r="CQ38" s="6"/>
+      <c r="CR38" s="6"/>
+      <c r="CS38" s="6"/>
+      <c r="CT38" s="6"/>
+      <c r="CU38" s="6"/>
+      <c r="CV38" s="6"/>
+      <c r="CW38" s="6"/>
+      <c r="CX38" s="6"/>
+      <c r="CY38" s="6"/>
+      <c r="CZ38" s="6"/>
+      <c r="DA38" s="6"/>
+      <c r="DB38" s="6"/>
+      <c r="DC38" s="6"/>
+      <c r="DD38" s="6"/>
+      <c r="DE38" s="6"/>
+      <c r="DF38" s="6"/>
+      <c r="DG38" s="6"/>
+      <c r="DH38" s="6"/>
+      <c r="DI38" s="6"/>
+      <c r="DJ38" s="6"/>
+      <c r="DK38" s="6"/>
+      <c r="DL38" s="6"/>
+      <c r="DM38" s="6"/>
+      <c r="DN38" s="6"/>
+      <c r="DO38" s="6"/>
+      <c r="DP38" s="6"/>
+      <c r="DQ38" s="6"/>
+      <c r="DR38" s="6"/>
+      <c r="DS38" s="6"/>
+      <c r="DT38" s="6"/>
+      <c r="DU38" s="6"/>
+      <c r="DV38" s="6"/>
+      <c r="DW38" s="6"/>
+      <c r="DX38" s="6"/>
+      <c r="DY38" s="6"/>
+      <c r="DZ38" s="6"/>
+      <c r="EA38" s="6"/>
+      <c r="EB38" s="6"/>
+      <c r="EC38" s="6"/>
+      <c r="ED38" s="6"/>
+      <c r="EE38" s="6"/>
+      <c r="EF38" s="6"/>
+      <c r="EG38" s="6"/>
+      <c r="EH38" s="6"/>
+      <c r="EI38" s="6"/>
+      <c r="EJ38" s="6"/>
+      <c r="EK38" s="6"/>
+      <c r="EL38" s="6"/>
+      <c r="EM38" s="6"/>
+      <c r="EN38" s="6"/>
+      <c r="EO38" s="6"/>
+      <c r="EP38" s="6"/>
+      <c r="EQ38" s="6"/>
+      <c r="ER38" s="6"/>
+      <c r="ES38" s="6"/>
+      <c r="ET38" s="6"/>
+      <c r="EU38" s="6"/>
+      <c r="EV38" s="6"/>
+      <c r="EW38" s="6"/>
+      <c r="EX38" s="6"/>
+      <c r="EY38" s="6"/>
+      <c r="EZ38" s="6"/>
+      <c r="FA38" s="6"/>
+      <c r="FB38" s="6"/>
+      <c r="FC38" s="6"/>
+      <c r="FD38" s="6"/>
+      <c r="FE38" s="6"/>
+      <c r="FF38" s="6"/>
+      <c r="FG38" s="6"/>
+      <c r="FH38" s="6"/>
+      <c r="FI38" s="6"/>
+      <c r="FJ38" s="6"/>
+      <c r="FK38" s="6"/>
+      <c r="FL38" s="6"/>
+      <c r="FM38" s="6"/>
+      <c r="FN38" s="6"/>
+      <c r="FO38" s="6"/>
+      <c r="FP38" s="6"/>
+      <c r="FQ38" s="6"/>
+      <c r="FR38" s="6"/>
+      <c r="FS38" s="6"/>
+      <c r="FT38" s="6"/>
+      <c r="FU38" s="6"/>
+      <c r="FV38" s="6"/>
+      <c r="FW38" s="6"/>
+      <c r="FX38" s="6"/>
+      <c r="FY38" s="6"/>
+      <c r="FZ38" s="6"/>
+      <c r="GA38" s="6"/>
+      <c r="GB38" s="6"/>
+      <c r="GC38" s="6"/>
+      <c r="GD38" s="6"/>
+      <c r="GE38" s="6"/>
+      <c r="GF38" s="6"/>
+      <c r="GG38" s="6"/>
+      <c r="GH38" s="6"/>
+      <c r="GI38" s="6"/>
+      <c r="GJ38" s="6"/>
+      <c r="GK38" s="6"/>
+      <c r="GL38" s="6"/>
+      <c r="GM38" s="6"/>
+      <c r="GN38" s="6"/>
+      <c r="GO38" s="6"/>
+      <c r="GP38" s="6"/>
+      <c r="GQ38" s="6"/>
+      <c r="GR38" s="6"/>
+      <c r="GS38" s="6"/>
+      <c r="GT38" s="6"/>
+      <c r="GU38" s="6"/>
+      <c r="GV38" s="6"/>
+      <c r="GW38" s="6"/>
+      <c r="GX38" s="6"/>
+      <c r="GY38" s="6"/>
+      <c r="GZ38" s="6"/>
+      <c r="HA38" s="6"/>
+      <c r="HB38" s="6"/>
+      <c r="HC38" s="6"/>
+      <c r="HD38" s="6"/>
+      <c r="HE38" s="6"/>
+      <c r="HF38" s="6"/>
+      <c r="HG38" s="6"/>
+      <c r="HH38" s="6"/>
+      <c r="HI38" s="6"/>
+      <c r="HJ38" s="6"/>
+      <c r="HK38" s="6"/>
+      <c r="HL38" s="6"/>
+      <c r="HM38" s="6"/>
+      <c r="HN38" s="6"/>
+      <c r="HO38" s="6"/>
+      <c r="HP38" s="6"/>
+      <c r="HQ38" s="6"/>
+      <c r="HR38" s="6"/>
+      <c r="HS38" s="6"/>
+      <c r="HT38" s="6"/>
+      <c r="HU38" s="6"/>
+      <c r="HV38" s="6"/>
+      <c r="HW38" s="6"/>
+      <c r="HX38" s="6"/>
+      <c r="HY38" s="6"/>
+      <c r="HZ38" s="6"/>
+      <c r="IA38" s="6"/>
+      <c r="IB38" s="6"/>
+      <c r="IC38" s="6"/>
+      <c r="ID38" s="6"/>
+      <c r="IE38" s="6"/>
+      <c r="IF38" s="6"/>
+      <c r="IG38" s="6"/>
+      <c r="IH38" s="6"/>
+      <c r="II38" s="6"/>
+      <c r="IJ38" s="6"/>
+      <c r="IK38" s="6"/>
+      <c r="IL38" s="6"/>
+      <c r="IM38" s="6"/>
+      <c r="IN38" s="6"/>
+      <c r="IO38" s="6"/>
+      <c r="IP38" s="6"/>
     </row>
-    <row r="39" spans="1:250" s="7" customFormat="1">
-      <c r="A39" s="23"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="22"/>
+    <row r="39" spans="1:250" s="7" customFormat="1" ht="15.75">
+      <c r="A39" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="67">
+        <v>41056</v>
+      </c>
+      <c r="E39" s="67">
+        <v>41061</v>
+      </c>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="68">
+        <v>6</v>
+      </c>
+      <c r="I39" s="69"/>
       <c r="J39" s="17"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
@@ -8589,27 +8850,19 @@
       <c r="IO39" s="6"/>
       <c r="IP39" s="6"/>
     </row>
-    <row r="40" spans="1:250" s="7" customFormat="1" ht="15.75">
-      <c r="A40" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="67">
-        <v>41056</v>
-      </c>
-      <c r="E40" s="67">
-        <v>41061</v>
-      </c>
+    <row r="40" spans="1:250" s="7" customFormat="1" ht="12">
+      <c r="A40" s="79">
+        <v>1</v>
+      </c>
+      <c r="B40" s="70"/>
+      <c r="C40" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
       <c r="F40" s="34"/>
       <c r="G40" s="34"/>
-      <c r="H40" s="68">
-        <v>6</v>
-      </c>
+      <c r="H40" s="68"/>
       <c r="I40" s="69"/>
       <c r="J40" s="17"/>
       <c r="K40" s="6"/>
@@ -8853,400 +9106,144 @@
       <c r="IO40" s="6"/>
       <c r="IP40" s="6"/>
     </row>
-    <row r="41" spans="1:250" s="7" customFormat="1" ht="12">
-      <c r="A41" s="79">
-        <v>1</v>
-      </c>
-      <c r="B41" s="70"/>
-      <c r="C41" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
-      <c r="AA41" s="6"/>
-      <c r="AB41" s="6"/>
-      <c r="AC41" s="6"/>
-      <c r="AD41" s="6"/>
-      <c r="AE41" s="6"/>
-      <c r="AF41" s="6"/>
-      <c r="AG41" s="6"/>
-      <c r="AH41" s="6"/>
-      <c r="AI41" s="6"/>
-      <c r="AJ41" s="6"/>
-      <c r="AK41" s="6"/>
-      <c r="AL41" s="6"/>
-      <c r="AM41" s="6"/>
-      <c r="AN41" s="6"/>
-      <c r="AO41" s="6"/>
-      <c r="AP41" s="6"/>
-      <c r="AQ41" s="6"/>
-      <c r="AR41" s="6"/>
-      <c r="AS41" s="6"/>
-      <c r="AT41" s="6"/>
-      <c r="AU41" s="6"/>
-      <c r="AV41" s="6"/>
-      <c r="AW41" s="6"/>
-      <c r="AX41" s="6"/>
-      <c r="AY41" s="6"/>
-      <c r="AZ41" s="6"/>
-      <c r="BA41" s="6"/>
-      <c r="BB41" s="6"/>
-      <c r="BC41" s="6"/>
-      <c r="BD41" s="6"/>
-      <c r="BE41" s="6"/>
-      <c r="BF41" s="6"/>
-      <c r="BG41" s="6"/>
-      <c r="BH41" s="6"/>
-      <c r="BI41" s="6"/>
-      <c r="BJ41" s="6"/>
-      <c r="BK41" s="6"/>
-      <c r="BL41" s="6"/>
-      <c r="BM41" s="6"/>
-      <c r="BN41" s="6"/>
-      <c r="BO41" s="6"/>
-      <c r="BP41" s="6"/>
-      <c r="BQ41" s="6"/>
-      <c r="BR41" s="6"/>
-      <c r="BS41" s="6"/>
-      <c r="BT41" s="6"/>
-      <c r="BU41" s="6"/>
-      <c r="BV41" s="6"/>
-      <c r="BW41" s="6"/>
-      <c r="BX41" s="6"/>
-      <c r="BY41" s="6"/>
-      <c r="BZ41" s="6"/>
-      <c r="CA41" s="6"/>
-      <c r="CB41" s="6"/>
-      <c r="CC41" s="6"/>
-      <c r="CD41" s="6"/>
-      <c r="CE41" s="6"/>
-      <c r="CF41" s="6"/>
-      <c r="CG41" s="6"/>
-      <c r="CH41" s="6"/>
-      <c r="CI41" s="6"/>
-      <c r="CJ41" s="6"/>
-      <c r="CK41" s="6"/>
-      <c r="CL41" s="6"/>
-      <c r="CM41" s="6"/>
-      <c r="CN41" s="6"/>
-      <c r="CO41" s="6"/>
-      <c r="CP41" s="6"/>
-      <c r="CQ41" s="6"/>
-      <c r="CR41" s="6"/>
-      <c r="CS41" s="6"/>
-      <c r="CT41" s="6"/>
-      <c r="CU41" s="6"/>
-      <c r="CV41" s="6"/>
-      <c r="CW41" s="6"/>
-      <c r="CX41" s="6"/>
-      <c r="CY41" s="6"/>
-      <c r="CZ41" s="6"/>
-      <c r="DA41" s="6"/>
-      <c r="DB41" s="6"/>
-      <c r="DC41" s="6"/>
-      <c r="DD41" s="6"/>
-      <c r="DE41" s="6"/>
-      <c r="DF41" s="6"/>
-      <c r="DG41" s="6"/>
-      <c r="DH41" s="6"/>
-      <c r="DI41" s="6"/>
-      <c r="DJ41" s="6"/>
-      <c r="DK41" s="6"/>
-      <c r="DL41" s="6"/>
-      <c r="DM41" s="6"/>
-      <c r="DN41" s="6"/>
-      <c r="DO41" s="6"/>
-      <c r="DP41" s="6"/>
-      <c r="DQ41" s="6"/>
-      <c r="DR41" s="6"/>
-      <c r="DS41" s="6"/>
-      <c r="DT41" s="6"/>
-      <c r="DU41" s="6"/>
-      <c r="DV41" s="6"/>
-      <c r="DW41" s="6"/>
-      <c r="DX41" s="6"/>
-      <c r="DY41" s="6"/>
-      <c r="DZ41" s="6"/>
-      <c r="EA41" s="6"/>
-      <c r="EB41" s="6"/>
-      <c r="EC41" s="6"/>
-      <c r="ED41" s="6"/>
-      <c r="EE41" s="6"/>
-      <c r="EF41" s="6"/>
-      <c r="EG41" s="6"/>
-      <c r="EH41" s="6"/>
-      <c r="EI41" s="6"/>
-      <c r="EJ41" s="6"/>
-      <c r="EK41" s="6"/>
-      <c r="EL41" s="6"/>
-      <c r="EM41" s="6"/>
-      <c r="EN41" s="6"/>
-      <c r="EO41" s="6"/>
-      <c r="EP41" s="6"/>
-      <c r="EQ41" s="6"/>
-      <c r="ER41" s="6"/>
-      <c r="ES41" s="6"/>
-      <c r="ET41" s="6"/>
-      <c r="EU41" s="6"/>
-      <c r="EV41" s="6"/>
-      <c r="EW41" s="6"/>
-      <c r="EX41" s="6"/>
-      <c r="EY41" s="6"/>
-      <c r="EZ41" s="6"/>
-      <c r="FA41" s="6"/>
-      <c r="FB41" s="6"/>
-      <c r="FC41" s="6"/>
-      <c r="FD41" s="6"/>
-      <c r="FE41" s="6"/>
-      <c r="FF41" s="6"/>
-      <c r="FG41" s="6"/>
-      <c r="FH41" s="6"/>
-      <c r="FI41" s="6"/>
-      <c r="FJ41" s="6"/>
-      <c r="FK41" s="6"/>
-      <c r="FL41" s="6"/>
-      <c r="FM41" s="6"/>
-      <c r="FN41" s="6"/>
-      <c r="FO41" s="6"/>
-      <c r="FP41" s="6"/>
-      <c r="FQ41" s="6"/>
-      <c r="FR41" s="6"/>
-      <c r="FS41" s="6"/>
-      <c r="FT41" s="6"/>
-      <c r="FU41" s="6"/>
-      <c r="FV41" s="6"/>
-      <c r="FW41" s="6"/>
-      <c r="FX41" s="6"/>
-      <c r="FY41" s="6"/>
-      <c r="FZ41" s="6"/>
-      <c r="GA41" s="6"/>
-      <c r="GB41" s="6"/>
-      <c r="GC41" s="6"/>
-      <c r="GD41" s="6"/>
-      <c r="GE41" s="6"/>
-      <c r="GF41" s="6"/>
-      <c r="GG41" s="6"/>
-      <c r="GH41" s="6"/>
-      <c r="GI41" s="6"/>
-      <c r="GJ41" s="6"/>
-      <c r="GK41" s="6"/>
-      <c r="GL41" s="6"/>
-      <c r="GM41" s="6"/>
-      <c r="GN41" s="6"/>
-      <c r="GO41" s="6"/>
-      <c r="GP41" s="6"/>
-      <c r="GQ41" s="6"/>
-      <c r="GR41" s="6"/>
-      <c r="GS41" s="6"/>
-      <c r="GT41" s="6"/>
-      <c r="GU41" s="6"/>
-      <c r="GV41" s="6"/>
-      <c r="GW41" s="6"/>
-      <c r="GX41" s="6"/>
-      <c r="GY41" s="6"/>
-      <c r="GZ41" s="6"/>
-      <c r="HA41" s="6"/>
-      <c r="HB41" s="6"/>
-      <c r="HC41" s="6"/>
-      <c r="HD41" s="6"/>
-      <c r="HE41" s="6"/>
-      <c r="HF41" s="6"/>
-      <c r="HG41" s="6"/>
-      <c r="HH41" s="6"/>
-      <c r="HI41" s="6"/>
-      <c r="HJ41" s="6"/>
-      <c r="HK41" s="6"/>
-      <c r="HL41" s="6"/>
-      <c r="HM41" s="6"/>
-      <c r="HN41" s="6"/>
-      <c r="HO41" s="6"/>
-      <c r="HP41" s="6"/>
-      <c r="HQ41" s="6"/>
-      <c r="HR41" s="6"/>
-      <c r="HS41" s="6"/>
-      <c r="HT41" s="6"/>
-      <c r="HU41" s="6"/>
-      <c r="HV41" s="6"/>
-      <c r="HW41" s="6"/>
-      <c r="HX41" s="6"/>
-      <c r="HY41" s="6"/>
-      <c r="HZ41" s="6"/>
-      <c r="IA41" s="6"/>
-      <c r="IB41" s="6"/>
-      <c r="IC41" s="6"/>
-      <c r="ID41" s="6"/>
-      <c r="IE41" s="6"/>
-      <c r="IF41" s="6"/>
-      <c r="IG41" s="6"/>
-      <c r="IH41" s="6"/>
-      <c r="II41" s="6"/>
-      <c r="IJ41" s="6"/>
-      <c r="IK41" s="6"/>
-      <c r="IL41" s="6"/>
-      <c r="IM41" s="6"/>
-      <c r="IN41" s="6"/>
-      <c r="IO41" s="6"/>
-      <c r="IP41" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="HM8:HQ8"/>
-    <mergeCell ref="HR8:HV8"/>
-    <mergeCell ref="GI8:GM8"/>
-    <mergeCell ref="GN8:GR8"/>
-    <mergeCell ref="GS8:GW8"/>
-    <mergeCell ref="GX8:HB8"/>
-    <mergeCell ref="HC8:HG8"/>
-    <mergeCell ref="HH8:HL8"/>
-    <mergeCell ref="DQ8:DU8"/>
-    <mergeCell ref="GD8:GH8"/>
-    <mergeCell ref="EA8:EE8"/>
-    <mergeCell ref="EF8:EJ8"/>
-    <mergeCell ref="EK8:EO8"/>
-    <mergeCell ref="EP8:ET8"/>
-    <mergeCell ref="EU8:EY8"/>
-    <mergeCell ref="EZ8:FD8"/>
-    <mergeCell ref="FE8:FI8"/>
-    <mergeCell ref="FJ8:FN8"/>
-    <mergeCell ref="FO8:FS8"/>
-    <mergeCell ref="FT8:FX8"/>
-    <mergeCell ref="FY8:GC8"/>
-    <mergeCell ref="AO8:AS8"/>
-    <mergeCell ref="AT8:AX8"/>
-    <mergeCell ref="AY8:BC8"/>
-    <mergeCell ref="BD8:BH8"/>
-    <mergeCell ref="BI8:BM8"/>
-    <mergeCell ref="BN8:BR8"/>
-    <mergeCell ref="HW8:IA8"/>
-    <mergeCell ref="IB8:IF8"/>
-    <mergeCell ref="IG8:IK8"/>
-    <mergeCell ref="IL8:IP8"/>
-    <mergeCell ref="DV8:DZ8"/>
-    <mergeCell ref="BS8:BW8"/>
-    <mergeCell ref="BX8:CB8"/>
-    <mergeCell ref="CC8:CG8"/>
-    <mergeCell ref="CH8:CL8"/>
-    <mergeCell ref="CM8:CQ8"/>
-    <mergeCell ref="CR8:CV8"/>
-    <mergeCell ref="CW8:DA8"/>
-    <mergeCell ref="DB8:DF8"/>
-    <mergeCell ref="DG8:DK8"/>
-    <mergeCell ref="DL8:DP8"/>
-    <mergeCell ref="AJ8:AN8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="U8:Y8"/>
-    <mergeCell ref="Z8:AD8"/>
-    <mergeCell ref="AE8:AI8"/>
+    <mergeCell ref="HM7:HQ7"/>
+    <mergeCell ref="HR7:HV7"/>
+    <mergeCell ref="GI7:GM7"/>
+    <mergeCell ref="GN7:GR7"/>
+    <mergeCell ref="GS7:GW7"/>
+    <mergeCell ref="GX7:HB7"/>
+    <mergeCell ref="HC7:HG7"/>
+    <mergeCell ref="HH7:HL7"/>
+    <mergeCell ref="DQ7:DU7"/>
+    <mergeCell ref="GD7:GH7"/>
+    <mergeCell ref="EA7:EE7"/>
+    <mergeCell ref="EF7:EJ7"/>
+    <mergeCell ref="EK7:EO7"/>
+    <mergeCell ref="EP7:ET7"/>
+    <mergeCell ref="EU7:EY7"/>
+    <mergeCell ref="EZ7:FD7"/>
+    <mergeCell ref="FE7:FI7"/>
+    <mergeCell ref="FJ7:FN7"/>
+    <mergeCell ref="FO7:FS7"/>
+    <mergeCell ref="FT7:FX7"/>
+    <mergeCell ref="FY7:GC7"/>
+    <mergeCell ref="AO7:AS7"/>
+    <mergeCell ref="AT7:AX7"/>
+    <mergeCell ref="AY7:BC7"/>
+    <mergeCell ref="BD7:BH7"/>
+    <mergeCell ref="BI7:BM7"/>
+    <mergeCell ref="BN7:BR7"/>
+    <mergeCell ref="HW7:IA7"/>
+    <mergeCell ref="IB7:IF7"/>
+    <mergeCell ref="IG7:IK7"/>
+    <mergeCell ref="IL7:IP7"/>
+    <mergeCell ref="DV7:DZ7"/>
+    <mergeCell ref="BS7:BW7"/>
+    <mergeCell ref="BX7:CB7"/>
+    <mergeCell ref="CC7:CG7"/>
+    <mergeCell ref="CH7:CL7"/>
+    <mergeCell ref="CM7:CQ7"/>
+    <mergeCell ref="CR7:CV7"/>
+    <mergeCell ref="CW7:DA7"/>
+    <mergeCell ref="DB7:DF7"/>
+    <mergeCell ref="DG7:DK7"/>
+    <mergeCell ref="DL7:DP7"/>
+    <mergeCell ref="AJ7:AN7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="Z7:AD7"/>
+    <mergeCell ref="AE7:AI7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="K9:IP9 K17:IP21 K31:IP31">
+  <conditionalFormatting sqref="K8:IP8 K16:IP20 K30:IP30">
     <cfRule type="expression" dxfId="20" priority="37" stopIfTrue="1">
-      <formula>K$7=$C$5</formula>
+      <formula>K$6=$C$4</formula>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="38" stopIfTrue="1">
-      <formula>AND(K$7&gt;=$F9,K$7&lt;$F9+#REF!)</formula>
+      <formula>AND(K$6&gt;=$F8,K$6&lt;$F8+#REF!)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="39" stopIfTrue="1">
-      <formula>AND(K$7&gt;=$F9,K$7&lt;=$F9+$H9-1)</formula>
+      <formula>AND(K$6&gt;=$F8,K$6&lt;=$F8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:IP16 K22:IP38">
+  <conditionalFormatting sqref="K9:IP15 K21:IP37">
     <cfRule type="expression" dxfId="17" priority="49" stopIfTrue="1">
-      <formula>K$7=$C$5</formula>
+      <formula>K$6=$C$4</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="50" stopIfTrue="1">
-      <formula>AND(K$7&gt;=$F10,K$7&lt;$F10+#REF!)</formula>
+      <formula>AND(K$6&gt;=$F9,K$6&lt;$F9+#REF!)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="15" priority="51" stopIfTrue="1">
-      <formula>AND(K$7&gt;=$F10,K$7&lt;=$F10+$H10-1)</formula>
+      <formula>AND(K$6&gt;=$F9,K$6&lt;=$F9+$H9-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:IP29">
+  <conditionalFormatting sqref="K27:IP28">
     <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
-      <formula>K$7=$C$5</formula>
+      <formula>K$6=$C$4</formula>
     </cfRule>
     <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
-      <formula>AND(K$7&gt;=$F28,K$7&lt;$F28+#REF!)</formula>
+      <formula>AND(K$6&gt;=$F27,K$6&lt;$F27+#REF!)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
-      <formula>AND(K$7&gt;=$F28,K$7&lt;=$F28+$H28-1)</formula>
+      <formula>AND(K$6&gt;=$F27,K$6&lt;=$F27+$H27-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:IP38">
+  <conditionalFormatting sqref="K36:IP37">
     <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
-      <formula>K$7=$C$5</formula>
+      <formula>K$6=$C$4</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
-      <formula>AND(K$7&gt;=$F37,K$7&lt;$F37+#REF!)</formula>
+      <formula>AND(K$6&gt;=$F36,K$6&lt;$F36+#REF!)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
-      <formula>AND(K$7&gt;=$F37,K$7&lt;=$F37+$H37-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K40:IP40">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
-      <formula>K$7=$C$5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
-      <formula>AND(K$7&gt;=$F40,K$7&lt;$F40+#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
-      <formula>AND(K$7&gt;=$F40,K$7&lt;=$F40+$H40-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K40:IP41">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
-      <formula>K$7=$C$5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>AND(K$7&gt;=$F40,K$7&lt;$F40+#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
-      <formula>AND(K$7&gt;=$F40,K$7&lt;=$F40+$H40-1)</formula>
+      <formula>AND(K$6&gt;=$F36,K$6&lt;=$F36+$H36-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:IP39">
+    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+      <formula>K$6=$C$4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+      <formula>AND(K$6&gt;=$F39,K$6&lt;$F39+#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+      <formula>AND(K$6&gt;=$F39,K$6&lt;=$F39+$H39-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:IP40">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+      <formula>K$6=$C$4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>AND(K$6&gt;=$F39,K$6&lt;$F39+#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+      <formula>AND(K$6&gt;=$F39,K$6&lt;=$F39+$H39-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38:IP38">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
-      <formula>K$7=$C$5</formula>
+      <formula>K$6=$C$4</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>AND(K$7&gt;=$F39,K$7&lt;$F39+#REF!)</formula>
+      <formula>AND(K$6&gt;=$F38,K$6&lt;$F38+#REF!)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>AND(K$7&gt;=$F39,K$7&lt;=$F39+$H39-1)</formula>
+      <formula>AND(K$6&gt;=$F38,K$6&lt;=$F38+$H38-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="I1" r:id="rId1" display="terms of use"/>
     <hyperlink ref="A1" r:id="rId2" tooltip="Link to Vertex42.com"/>
   </hyperlinks>
-  <pageMargins left="0.5" right="0.5" top="0.5" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="62" orientation="landscape" r:id="rId3"/>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.51181102362204722" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup orientation="landscape" r:id="rId3"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A39" numberStoredAsText="1"/>
+    <ignoredError sqref="A38" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId4"/>
 </worksheet>

--- a/P2012001/3 项目管理/3-1 计划/开发计划.xlsx
+++ b/P2012001/3 项目管理/3-1 计划/开发计划.xlsx
@@ -570,7 +570,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -616,6 +616,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,7 +709,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -924,6 +930,13 @@
     <xf numFmtId="49" fontId="20" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -936,13 +949,21 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
@@ -1493,7 +1514,7 @@
   <dimension ref="A1:IP40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1531,7 +1552,7 @@
       </c>
     </row>
     <row r="2" spans="1:250" ht="22.5">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="84" t="s">
         <v>41</v>
       </c>
       <c r="I2" s="8"/>
@@ -2573,390 +2594,390 @@
         <v>35</v>
       </c>
       <c r="J7" s="16"/>
-      <c r="K7" s="85">
+      <c r="K7" s="88">
         <f>K6</f>
         <v>41001</v>
       </c>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="82">
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="85">
         <f>P6</f>
         <v>41008</v>
       </c>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="83"/>
-      <c r="T7" s="84"/>
-      <c r="U7" s="82">
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="85">
         <f>U6</f>
         <v>41015</v>
       </c>
-      <c r="V7" s="83"/>
-      <c r="W7" s="83"/>
-      <c r="X7" s="83"/>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="82">
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="87"/>
+      <c r="Z7" s="85">
         <f>Z6</f>
         <v>41022</v>
       </c>
-      <c r="AA7" s="83"/>
-      <c r="AB7" s="83"/>
-      <c r="AC7" s="83"/>
-      <c r="AD7" s="84"/>
-      <c r="AE7" s="82">
+      <c r="AA7" s="86"/>
+      <c r="AB7" s="86"/>
+      <c r="AC7" s="86"/>
+      <c r="AD7" s="87"/>
+      <c r="AE7" s="85">
         <f>AE6</f>
         <v>41029</v>
       </c>
-      <c r="AF7" s="83"/>
-      <c r="AG7" s="83"/>
-      <c r="AH7" s="83"/>
-      <c r="AI7" s="84"/>
-      <c r="AJ7" s="82">
+      <c r="AF7" s="86"/>
+      <c r="AG7" s="86"/>
+      <c r="AH7" s="86"/>
+      <c r="AI7" s="87"/>
+      <c r="AJ7" s="85">
         <f>AJ6</f>
         <v>41036</v>
       </c>
-      <c r="AK7" s="83"/>
-      <c r="AL7" s="83"/>
-      <c r="AM7" s="83"/>
-      <c r="AN7" s="84"/>
-      <c r="AO7" s="82">
+      <c r="AK7" s="86"/>
+      <c r="AL7" s="86"/>
+      <c r="AM7" s="86"/>
+      <c r="AN7" s="87"/>
+      <c r="AO7" s="85">
         <f>AO6</f>
         <v>41043</v>
       </c>
-      <c r="AP7" s="83"/>
-      <c r="AQ7" s="83"/>
-      <c r="AR7" s="83"/>
-      <c r="AS7" s="84"/>
-      <c r="AT7" s="82">
+      <c r="AP7" s="86"/>
+      <c r="AQ7" s="86"/>
+      <c r="AR7" s="86"/>
+      <c r="AS7" s="87"/>
+      <c r="AT7" s="85">
         <f>AT6</f>
         <v>41050</v>
       </c>
-      <c r="AU7" s="83"/>
-      <c r="AV7" s="83"/>
-      <c r="AW7" s="83"/>
-      <c r="AX7" s="84"/>
-      <c r="AY7" s="82">
+      <c r="AU7" s="86"/>
+      <c r="AV7" s="86"/>
+      <c r="AW7" s="86"/>
+      <c r="AX7" s="87"/>
+      <c r="AY7" s="85">
         <f>AY6</f>
         <v>41057</v>
       </c>
-      <c r="AZ7" s="83"/>
-      <c r="BA7" s="83"/>
-      <c r="BB7" s="83"/>
-      <c r="BC7" s="84"/>
-      <c r="BD7" s="82">
+      <c r="AZ7" s="86"/>
+      <c r="BA7" s="86"/>
+      <c r="BB7" s="86"/>
+      <c r="BC7" s="87"/>
+      <c r="BD7" s="85">
         <f>BD6</f>
         <v>41064</v>
       </c>
-      <c r="BE7" s="83"/>
-      <c r="BF7" s="83"/>
-      <c r="BG7" s="83"/>
-      <c r="BH7" s="84"/>
-      <c r="BI7" s="82">
+      <c r="BE7" s="86"/>
+      <c r="BF7" s="86"/>
+      <c r="BG7" s="86"/>
+      <c r="BH7" s="87"/>
+      <c r="BI7" s="85">
         <f>BI6</f>
         <v>41071</v>
       </c>
-      <c r="BJ7" s="83"/>
-      <c r="BK7" s="83"/>
-      <c r="BL7" s="83"/>
-      <c r="BM7" s="84"/>
-      <c r="BN7" s="82">
+      <c r="BJ7" s="86"/>
+      <c r="BK7" s="86"/>
+      <c r="BL7" s="86"/>
+      <c r="BM7" s="87"/>
+      <c r="BN7" s="85">
         <f>BN6</f>
         <v>41078</v>
       </c>
-      <c r="BO7" s="83"/>
-      <c r="BP7" s="83"/>
-      <c r="BQ7" s="83"/>
-      <c r="BR7" s="84"/>
-      <c r="BS7" s="82">
+      <c r="BO7" s="86"/>
+      <c r="BP7" s="86"/>
+      <c r="BQ7" s="86"/>
+      <c r="BR7" s="87"/>
+      <c r="BS7" s="85">
         <f>BS6</f>
         <v>41085</v>
       </c>
-      <c r="BT7" s="83"/>
-      <c r="BU7" s="83"/>
-      <c r="BV7" s="83"/>
-      <c r="BW7" s="84"/>
-      <c r="BX7" s="82">
+      <c r="BT7" s="86"/>
+      <c r="BU7" s="86"/>
+      <c r="BV7" s="86"/>
+      <c r="BW7" s="87"/>
+      <c r="BX7" s="85">
         <f>BX6</f>
         <v>41092</v>
       </c>
-      <c r="BY7" s="83"/>
-      <c r="BZ7" s="83"/>
-      <c r="CA7" s="83"/>
-      <c r="CB7" s="84"/>
-      <c r="CC7" s="82">
+      <c r="BY7" s="86"/>
+      <c r="BZ7" s="86"/>
+      <c r="CA7" s="86"/>
+      <c r="CB7" s="87"/>
+      <c r="CC7" s="85">
         <f>CC6</f>
         <v>41099</v>
       </c>
-      <c r="CD7" s="83"/>
-      <c r="CE7" s="83"/>
-      <c r="CF7" s="83"/>
-      <c r="CG7" s="84"/>
-      <c r="CH7" s="82">
+      <c r="CD7" s="86"/>
+      <c r="CE7" s="86"/>
+      <c r="CF7" s="86"/>
+      <c r="CG7" s="87"/>
+      <c r="CH7" s="85">
         <f>CH6</f>
         <v>41106</v>
       </c>
-      <c r="CI7" s="83"/>
-      <c r="CJ7" s="83"/>
-      <c r="CK7" s="83"/>
-      <c r="CL7" s="84"/>
-      <c r="CM7" s="82">
+      <c r="CI7" s="86"/>
+      <c r="CJ7" s="86"/>
+      <c r="CK7" s="86"/>
+      <c r="CL7" s="87"/>
+      <c r="CM7" s="85">
         <f>CM6</f>
         <v>41113</v>
       </c>
-      <c r="CN7" s="83"/>
-      <c r="CO7" s="83"/>
-      <c r="CP7" s="83"/>
-      <c r="CQ7" s="84"/>
-      <c r="CR7" s="82">
+      <c r="CN7" s="86"/>
+      <c r="CO7" s="86"/>
+      <c r="CP7" s="86"/>
+      <c r="CQ7" s="87"/>
+      <c r="CR7" s="85">
         <f>CR6</f>
         <v>41120</v>
       </c>
-      <c r="CS7" s="83"/>
-      <c r="CT7" s="83"/>
-      <c r="CU7" s="83"/>
-      <c r="CV7" s="84"/>
-      <c r="CW7" s="82">
+      <c r="CS7" s="86"/>
+      <c r="CT7" s="86"/>
+      <c r="CU7" s="86"/>
+      <c r="CV7" s="87"/>
+      <c r="CW7" s="85">
         <f>CW6</f>
         <v>41127</v>
       </c>
-      <c r="CX7" s="83"/>
-      <c r="CY7" s="83"/>
-      <c r="CZ7" s="83"/>
-      <c r="DA7" s="84"/>
-      <c r="DB7" s="82">
+      <c r="CX7" s="86"/>
+      <c r="CY7" s="86"/>
+      <c r="CZ7" s="86"/>
+      <c r="DA7" s="87"/>
+      <c r="DB7" s="85">
         <f>DB6</f>
         <v>41134</v>
       </c>
-      <c r="DC7" s="83"/>
-      <c r="DD7" s="83"/>
-      <c r="DE7" s="83"/>
-      <c r="DF7" s="84"/>
-      <c r="DG7" s="82">
+      <c r="DC7" s="86"/>
+      <c r="DD7" s="86"/>
+      <c r="DE7" s="86"/>
+      <c r="DF7" s="87"/>
+      <c r="DG7" s="85">
         <f>DG6</f>
         <v>41141</v>
       </c>
-      <c r="DH7" s="83"/>
-      <c r="DI7" s="83"/>
-      <c r="DJ7" s="83"/>
-      <c r="DK7" s="84"/>
-      <c r="DL7" s="82">
+      <c r="DH7" s="86"/>
+      <c r="DI7" s="86"/>
+      <c r="DJ7" s="86"/>
+      <c r="DK7" s="87"/>
+      <c r="DL7" s="85">
         <f>DL6</f>
         <v>41148</v>
       </c>
-      <c r="DM7" s="83"/>
-      <c r="DN7" s="83"/>
-      <c r="DO7" s="83"/>
-      <c r="DP7" s="84"/>
-      <c r="DQ7" s="82">
+      <c r="DM7" s="86"/>
+      <c r="DN7" s="86"/>
+      <c r="DO7" s="86"/>
+      <c r="DP7" s="87"/>
+      <c r="DQ7" s="85">
         <f>DQ6</f>
         <v>41155</v>
       </c>
-      <c r="DR7" s="83"/>
-      <c r="DS7" s="83"/>
-      <c r="DT7" s="83"/>
-      <c r="DU7" s="84"/>
-      <c r="DV7" s="82">
+      <c r="DR7" s="86"/>
+      <c r="DS7" s="86"/>
+      <c r="DT7" s="86"/>
+      <c r="DU7" s="87"/>
+      <c r="DV7" s="85">
         <f>DV6</f>
         <v>41162</v>
       </c>
-      <c r="DW7" s="83"/>
-      <c r="DX7" s="83"/>
-      <c r="DY7" s="83"/>
-      <c r="DZ7" s="84"/>
-      <c r="EA7" s="82">
+      <c r="DW7" s="86"/>
+      <c r="DX7" s="86"/>
+      <c r="DY7" s="86"/>
+      <c r="DZ7" s="87"/>
+      <c r="EA7" s="85">
         <f>EA6</f>
         <v>41169</v>
       </c>
-      <c r="EB7" s="83"/>
-      <c r="EC7" s="83"/>
-      <c r="ED7" s="83"/>
-      <c r="EE7" s="84"/>
-      <c r="EF7" s="82">
+      <c r="EB7" s="86"/>
+      <c r="EC7" s="86"/>
+      <c r="ED7" s="86"/>
+      <c r="EE7" s="87"/>
+      <c r="EF7" s="85">
         <f>EF6</f>
         <v>41176</v>
       </c>
-      <c r="EG7" s="83"/>
-      <c r="EH7" s="83"/>
-      <c r="EI7" s="83"/>
-      <c r="EJ7" s="84"/>
-      <c r="EK7" s="82">
+      <c r="EG7" s="86"/>
+      <c r="EH7" s="86"/>
+      <c r="EI7" s="86"/>
+      <c r="EJ7" s="87"/>
+      <c r="EK7" s="85">
         <f>EK6</f>
         <v>41183</v>
       </c>
-      <c r="EL7" s="83"/>
-      <c r="EM7" s="83"/>
-      <c r="EN7" s="83"/>
-      <c r="EO7" s="84"/>
-      <c r="EP7" s="82">
+      <c r="EL7" s="86"/>
+      <c r="EM7" s="86"/>
+      <c r="EN7" s="86"/>
+      <c r="EO7" s="87"/>
+      <c r="EP7" s="85">
         <f>EP6</f>
         <v>41190</v>
       </c>
-      <c r="EQ7" s="83"/>
-      <c r="ER7" s="83"/>
-      <c r="ES7" s="83"/>
-      <c r="ET7" s="84"/>
-      <c r="EU7" s="82">
+      <c r="EQ7" s="86"/>
+      <c r="ER7" s="86"/>
+      <c r="ES7" s="86"/>
+      <c r="ET7" s="87"/>
+      <c r="EU7" s="85">
         <f>EU6</f>
         <v>41197</v>
       </c>
-      <c r="EV7" s="83"/>
-      <c r="EW7" s="83"/>
-      <c r="EX7" s="83"/>
-      <c r="EY7" s="84"/>
-      <c r="EZ7" s="82">
+      <c r="EV7" s="86"/>
+      <c r="EW7" s="86"/>
+      <c r="EX7" s="86"/>
+      <c r="EY7" s="87"/>
+      <c r="EZ7" s="85">
         <f>EZ6</f>
         <v>41204</v>
       </c>
-      <c r="FA7" s="83"/>
-      <c r="FB7" s="83"/>
-      <c r="FC7" s="83"/>
-      <c r="FD7" s="84"/>
-      <c r="FE7" s="82">
+      <c r="FA7" s="86"/>
+      <c r="FB7" s="86"/>
+      <c r="FC7" s="86"/>
+      <c r="FD7" s="87"/>
+      <c r="FE7" s="85">
         <f>FE6</f>
         <v>41211</v>
       </c>
-      <c r="FF7" s="83"/>
-      <c r="FG7" s="83"/>
-      <c r="FH7" s="83"/>
-      <c r="FI7" s="84"/>
-      <c r="FJ7" s="82">
+      <c r="FF7" s="86"/>
+      <c r="FG7" s="86"/>
+      <c r="FH7" s="86"/>
+      <c r="FI7" s="87"/>
+      <c r="FJ7" s="85">
         <f>FJ6</f>
         <v>41218</v>
       </c>
-      <c r="FK7" s="83"/>
-      <c r="FL7" s="83"/>
-      <c r="FM7" s="83"/>
-      <c r="FN7" s="84"/>
-      <c r="FO7" s="82">
+      <c r="FK7" s="86"/>
+      <c r="FL7" s="86"/>
+      <c r="FM7" s="86"/>
+      <c r="FN7" s="87"/>
+      <c r="FO7" s="85">
         <f>FO6</f>
         <v>41225</v>
       </c>
-      <c r="FP7" s="83"/>
-      <c r="FQ7" s="83"/>
-      <c r="FR7" s="83"/>
-      <c r="FS7" s="84"/>
-      <c r="FT7" s="82">
+      <c r="FP7" s="86"/>
+      <c r="FQ7" s="86"/>
+      <c r="FR7" s="86"/>
+      <c r="FS7" s="87"/>
+      <c r="FT7" s="85">
         <f>FT6</f>
         <v>41232</v>
       </c>
-      <c r="FU7" s="83"/>
-      <c r="FV7" s="83"/>
-      <c r="FW7" s="83"/>
-      <c r="FX7" s="84"/>
-      <c r="FY7" s="82">
+      <c r="FU7" s="86"/>
+      <c r="FV7" s="86"/>
+      <c r="FW7" s="86"/>
+      <c r="FX7" s="87"/>
+      <c r="FY7" s="85">
         <f>FY6</f>
         <v>41239</v>
       </c>
-      <c r="FZ7" s="83"/>
-      <c r="GA7" s="83"/>
-      <c r="GB7" s="83"/>
-      <c r="GC7" s="84"/>
-      <c r="GD7" s="82">
+      <c r="FZ7" s="86"/>
+      <c r="GA7" s="86"/>
+      <c r="GB7" s="86"/>
+      <c r="GC7" s="87"/>
+      <c r="GD7" s="85">
         <f>GD6</f>
         <v>41246</v>
       </c>
-      <c r="GE7" s="83"/>
-      <c r="GF7" s="83"/>
-      <c r="GG7" s="83"/>
-      <c r="GH7" s="84"/>
-      <c r="GI7" s="82">
+      <c r="GE7" s="86"/>
+      <c r="GF7" s="86"/>
+      <c r="GG7" s="86"/>
+      <c r="GH7" s="87"/>
+      <c r="GI7" s="85">
         <f>GI6</f>
         <v>41253</v>
       </c>
-      <c r="GJ7" s="83"/>
-      <c r="GK7" s="83"/>
-      <c r="GL7" s="83"/>
-      <c r="GM7" s="84"/>
-      <c r="GN7" s="82">
+      <c r="GJ7" s="86"/>
+      <c r="GK7" s="86"/>
+      <c r="GL7" s="86"/>
+      <c r="GM7" s="87"/>
+      <c r="GN7" s="85">
         <f>GN6</f>
         <v>41260</v>
       </c>
-      <c r="GO7" s="83"/>
-      <c r="GP7" s="83"/>
-      <c r="GQ7" s="83"/>
-      <c r="GR7" s="84"/>
-      <c r="GS7" s="82">
+      <c r="GO7" s="86"/>
+      <c r="GP7" s="86"/>
+      <c r="GQ7" s="86"/>
+      <c r="GR7" s="87"/>
+      <c r="GS7" s="85">
         <f>GS6</f>
         <v>41267</v>
       </c>
-      <c r="GT7" s="83"/>
-      <c r="GU7" s="83"/>
-      <c r="GV7" s="83"/>
-      <c r="GW7" s="84"/>
-      <c r="GX7" s="82">
+      <c r="GT7" s="86"/>
+      <c r="GU7" s="86"/>
+      <c r="GV7" s="86"/>
+      <c r="GW7" s="87"/>
+      <c r="GX7" s="85">
         <f>GX6</f>
         <v>41274</v>
       </c>
-      <c r="GY7" s="83"/>
-      <c r="GZ7" s="83"/>
-      <c r="HA7" s="83"/>
-      <c r="HB7" s="84"/>
-      <c r="HC7" s="82">
+      <c r="GY7" s="86"/>
+      <c r="GZ7" s="86"/>
+      <c r="HA7" s="86"/>
+      <c r="HB7" s="87"/>
+      <c r="HC7" s="85">
         <f>HC6</f>
         <v>41281</v>
       </c>
-      <c r="HD7" s="83"/>
-      <c r="HE7" s="83"/>
-      <c r="HF7" s="83"/>
-      <c r="HG7" s="84"/>
-      <c r="HH7" s="82">
+      <c r="HD7" s="86"/>
+      <c r="HE7" s="86"/>
+      <c r="HF7" s="86"/>
+      <c r="HG7" s="87"/>
+      <c r="HH7" s="85">
         <f>HH6</f>
         <v>41288</v>
       </c>
-      <c r="HI7" s="83"/>
-      <c r="HJ7" s="83"/>
-      <c r="HK7" s="83"/>
-      <c r="HL7" s="84"/>
-      <c r="HM7" s="82">
+      <c r="HI7" s="86"/>
+      <c r="HJ7" s="86"/>
+      <c r="HK7" s="86"/>
+      <c r="HL7" s="87"/>
+      <c r="HM7" s="85">
         <f>HM6</f>
         <v>41295</v>
       </c>
-      <c r="HN7" s="83"/>
-      <c r="HO7" s="83"/>
-      <c r="HP7" s="83"/>
-      <c r="HQ7" s="84"/>
-      <c r="HR7" s="82">
+      <c r="HN7" s="86"/>
+      <c r="HO7" s="86"/>
+      <c r="HP7" s="86"/>
+      <c r="HQ7" s="87"/>
+      <c r="HR7" s="85">
         <f>HR6</f>
         <v>41302</v>
       </c>
-      <c r="HS7" s="83"/>
-      <c r="HT7" s="83"/>
-      <c r="HU7" s="83"/>
-      <c r="HV7" s="84"/>
-      <c r="HW7" s="82">
+      <c r="HS7" s="86"/>
+      <c r="HT7" s="86"/>
+      <c r="HU7" s="86"/>
+      <c r="HV7" s="87"/>
+      <c r="HW7" s="85">
         <f>HW6</f>
         <v>41309</v>
       </c>
-      <c r="HX7" s="83"/>
-      <c r="HY7" s="83"/>
-      <c r="HZ7" s="83"/>
-      <c r="IA7" s="84"/>
-      <c r="IB7" s="82">
+      <c r="HX7" s="86"/>
+      <c r="HY7" s="86"/>
+      <c r="HZ7" s="86"/>
+      <c r="IA7" s="87"/>
+      <c r="IB7" s="85">
         <f>IB6</f>
         <v>41316</v>
       </c>
-      <c r="IC7" s="83"/>
-      <c r="ID7" s="83"/>
-      <c r="IE7" s="83"/>
-      <c r="IF7" s="84"/>
-      <c r="IG7" s="82">
+      <c r="IC7" s="86"/>
+      <c r="ID7" s="86"/>
+      <c r="IE7" s="86"/>
+      <c r="IF7" s="87"/>
+      <c r="IG7" s="85">
         <f>IG6</f>
         <v>41323</v>
       </c>
-      <c r="IH7" s="83"/>
-      <c r="II7" s="83"/>
-      <c r="IJ7" s="83"/>
-      <c r="IK7" s="84"/>
-      <c r="IL7" s="82">
+      <c r="IH7" s="86"/>
+      <c r="II7" s="86"/>
+      <c r="IJ7" s="86"/>
+      <c r="IK7" s="87"/>
+      <c r="IL7" s="85">
         <f>IL6</f>
         <v>41330</v>
       </c>
-      <c r="IM7" s="83"/>
-      <c r="IN7" s="83"/>
-      <c r="IO7" s="83"/>
-      <c r="IP7" s="84"/>
+      <c r="IM7" s="86"/>
+      <c r="IN7" s="86"/>
+      <c r="IO7" s="86"/>
+      <c r="IP7" s="87"/>
     </row>
     <row r="8" spans="1:250" s="6" customFormat="1" ht="15.75">
       <c r="A8" s="81" t="s">
@@ -3248,26 +3269,26 @@
       <c r="A10" s="35">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="91">
         <v>41001</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="91">
         <v>41002</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="91">
         <v>40994</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="91">
         <v>40998</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27">
+      <c r="H10" s="92"/>
+      <c r="I10" s="93">
         <v>1</v>
       </c>
       <c r="J10" s="17"/>
@@ -4845,11 +4866,11 @@
       <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:250" s="6" customFormat="1">
-      <c r="A17" s="86"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="37"/>
       <c r="C17" s="58"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="21"/>
@@ -4879,11 +4900,11 @@
       <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:250" s="6" customFormat="1">
-      <c r="A19" s="86"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="37"/>
       <c r="C19" s="58"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
       <c r="H19" s="21"/>
@@ -9108,32 +9129,12 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="HM7:HQ7"/>
-    <mergeCell ref="HR7:HV7"/>
-    <mergeCell ref="GI7:GM7"/>
-    <mergeCell ref="GN7:GR7"/>
-    <mergeCell ref="GS7:GW7"/>
-    <mergeCell ref="GX7:HB7"/>
-    <mergeCell ref="HC7:HG7"/>
-    <mergeCell ref="HH7:HL7"/>
-    <mergeCell ref="DQ7:DU7"/>
-    <mergeCell ref="GD7:GH7"/>
-    <mergeCell ref="EA7:EE7"/>
-    <mergeCell ref="EF7:EJ7"/>
-    <mergeCell ref="EK7:EO7"/>
-    <mergeCell ref="EP7:ET7"/>
-    <mergeCell ref="EU7:EY7"/>
-    <mergeCell ref="EZ7:FD7"/>
-    <mergeCell ref="FE7:FI7"/>
-    <mergeCell ref="FJ7:FN7"/>
-    <mergeCell ref="FO7:FS7"/>
-    <mergeCell ref="FT7:FX7"/>
-    <mergeCell ref="FY7:GC7"/>
-    <mergeCell ref="AO7:AS7"/>
-    <mergeCell ref="AT7:AX7"/>
-    <mergeCell ref="AY7:BC7"/>
-    <mergeCell ref="BD7:BH7"/>
-    <mergeCell ref="BI7:BM7"/>
+    <mergeCell ref="AJ7:AN7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="Z7:AD7"/>
+    <mergeCell ref="AE7:AI7"/>
     <mergeCell ref="BN7:BR7"/>
     <mergeCell ref="HW7:IA7"/>
     <mergeCell ref="IB7:IF7"/>
@@ -9150,12 +9151,32 @@
     <mergeCell ref="DB7:DF7"/>
     <mergeCell ref="DG7:DK7"/>
     <mergeCell ref="DL7:DP7"/>
-    <mergeCell ref="AJ7:AN7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="Z7:AD7"/>
-    <mergeCell ref="AE7:AI7"/>
+    <mergeCell ref="AO7:AS7"/>
+    <mergeCell ref="AT7:AX7"/>
+    <mergeCell ref="AY7:BC7"/>
+    <mergeCell ref="BD7:BH7"/>
+    <mergeCell ref="BI7:BM7"/>
+    <mergeCell ref="DQ7:DU7"/>
+    <mergeCell ref="GD7:GH7"/>
+    <mergeCell ref="EA7:EE7"/>
+    <mergeCell ref="EF7:EJ7"/>
+    <mergeCell ref="EK7:EO7"/>
+    <mergeCell ref="EP7:ET7"/>
+    <mergeCell ref="EU7:EY7"/>
+    <mergeCell ref="EZ7:FD7"/>
+    <mergeCell ref="FE7:FI7"/>
+    <mergeCell ref="FJ7:FN7"/>
+    <mergeCell ref="FO7:FS7"/>
+    <mergeCell ref="FT7:FX7"/>
+    <mergeCell ref="FY7:GC7"/>
+    <mergeCell ref="HM7:HQ7"/>
+    <mergeCell ref="HR7:HV7"/>
+    <mergeCell ref="GI7:GM7"/>
+    <mergeCell ref="GN7:GR7"/>
+    <mergeCell ref="GS7:GW7"/>
+    <mergeCell ref="GX7:HB7"/>
+    <mergeCell ref="HC7:HG7"/>
+    <mergeCell ref="HH7:HL7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="K8:IP8 K16:IP20 K30:IP30">

--- a/P2012001/3 项目管理/3-1 计划/开发计划.xlsx
+++ b/P2012001/3 项目管理/3-1 计划/开发计划.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="13275" windowHeight="10230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="开发计划" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">开发计划!$A$2:$IP$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">开发计划!$A$2:$IP$38</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -110,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>Excel Gantt Chart</t>
   </si>
@@ -370,10 +375,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>第一次迭代</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>Adler</t>
     </r>
@@ -407,15 +408,21 @@
     <t>灵感分享网站开发计划</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>第一次迭代</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    概要设计</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="m\ /\ d\ /\ yy"/>
+    <numFmt numFmtId="164" formatCode="m\ /\ d\ /\ yy"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -569,6 +576,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -639,7 +653,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,16 +670,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,7 +690,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,7 +699,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,18 +710,19 @@
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -937,18 +952,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -964,39 +967,26 @@
     <xf numFmtId="9" fontId="3" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="超级链接" xfId="1" builtinId="8"/>
+    <cellStyle name="随超级链接" xfId="3" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="23"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -1052,58 +1042,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor indexed="63"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="40"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="63"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="40"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor indexed="23"/>
         </patternFill>
       </fill>
@@ -1112,32 +1050,6 @@
       <fill>
         <patternFill>
           <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="63"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="40"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1224,6 +1136,56 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$J$6" horiz="1" max="100" page="4" val="0"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>94</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6145" name="Scroll Bar 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6145"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1510,28 +1472,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IP40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IP37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
-    <col min="11" max="226" width="0.42578125" customWidth="1"/>
-    <col min="227" max="250" width="0.42578125" style="3" customWidth="1"/>
-    <col min="251" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="4.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" customWidth="1"/>
+    <col min="11" max="226" width="0.5" customWidth="1"/>
+    <col min="227" max="250" width="0.5" style="3" customWidth="1"/>
+    <col min="251" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:250" customFormat="1" ht="18" hidden="1">
@@ -1551,9 +1513,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:250" ht="22.5">
+    <row r="2" spans="1:250" ht="21">
       <c r="A2" s="84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="8"/>
     </row>
@@ -1561,7 +1523,7 @@
       <c r="A3"/>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:250">
+    <row r="4" spans="1:250" ht="13">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1583,7 +1545,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:250" s="74" customFormat="1">
+    <row r="6" spans="1:250" s="74" customFormat="1" ht="13">
       <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
         <v>24</v>
@@ -2594,397 +2556,397 @@
         <v>35</v>
       </c>
       <c r="J7" s="16"/>
-      <c r="K7" s="88">
+      <c r="K7" s="93">
         <f>K6</f>
         <v>41001</v>
       </c>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="85">
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="90">
         <f>P6</f>
         <v>41008</v>
       </c>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="85">
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="90">
         <f>U6</f>
         <v>41015</v>
       </c>
-      <c r="V7" s="86"/>
-      <c r="W7" s="86"/>
-      <c r="X7" s="86"/>
-      <c r="Y7" s="87"/>
-      <c r="Z7" s="85">
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="92"/>
+      <c r="Z7" s="90">
         <f>Z6</f>
         <v>41022</v>
       </c>
-      <c r="AA7" s="86"/>
-      <c r="AB7" s="86"/>
-      <c r="AC7" s="86"/>
-      <c r="AD7" s="87"/>
-      <c r="AE7" s="85">
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="92"/>
+      <c r="AE7" s="90">
         <f>AE6</f>
         <v>41029</v>
       </c>
-      <c r="AF7" s="86"/>
-      <c r="AG7" s="86"/>
-      <c r="AH7" s="86"/>
-      <c r="AI7" s="87"/>
-      <c r="AJ7" s="85">
+      <c r="AF7" s="91"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="91"/>
+      <c r="AI7" s="92"/>
+      <c r="AJ7" s="90">
         <f>AJ6</f>
         <v>41036</v>
       </c>
-      <c r="AK7" s="86"/>
-      <c r="AL7" s="86"/>
-      <c r="AM7" s="86"/>
-      <c r="AN7" s="87"/>
-      <c r="AO7" s="85">
+      <c r="AK7" s="91"/>
+      <c r="AL7" s="91"/>
+      <c r="AM7" s="91"/>
+      <c r="AN7" s="92"/>
+      <c r="AO7" s="90">
         <f>AO6</f>
         <v>41043</v>
       </c>
-      <c r="AP7" s="86"/>
-      <c r="AQ7" s="86"/>
-      <c r="AR7" s="86"/>
-      <c r="AS7" s="87"/>
-      <c r="AT7" s="85">
+      <c r="AP7" s="91"/>
+      <c r="AQ7" s="91"/>
+      <c r="AR7" s="91"/>
+      <c r="AS7" s="92"/>
+      <c r="AT7" s="90">
         <f>AT6</f>
         <v>41050</v>
       </c>
-      <c r="AU7" s="86"/>
-      <c r="AV7" s="86"/>
-      <c r="AW7" s="86"/>
-      <c r="AX7" s="87"/>
-      <c r="AY7" s="85">
+      <c r="AU7" s="91"/>
+      <c r="AV7" s="91"/>
+      <c r="AW7" s="91"/>
+      <c r="AX7" s="92"/>
+      <c r="AY7" s="90">
         <f>AY6</f>
         <v>41057</v>
       </c>
-      <c r="AZ7" s="86"/>
-      <c r="BA7" s="86"/>
-      <c r="BB7" s="86"/>
-      <c r="BC7" s="87"/>
-      <c r="BD7" s="85">
+      <c r="AZ7" s="91"/>
+      <c r="BA7" s="91"/>
+      <c r="BB7" s="91"/>
+      <c r="BC7" s="92"/>
+      <c r="BD7" s="90">
         <f>BD6</f>
         <v>41064</v>
       </c>
-      <c r="BE7" s="86"/>
-      <c r="BF7" s="86"/>
-      <c r="BG7" s="86"/>
-      <c r="BH7" s="87"/>
-      <c r="BI7" s="85">
+      <c r="BE7" s="91"/>
+      <c r="BF7" s="91"/>
+      <c r="BG7" s="91"/>
+      <c r="BH7" s="92"/>
+      <c r="BI7" s="90">
         <f>BI6</f>
         <v>41071</v>
       </c>
-      <c r="BJ7" s="86"/>
-      <c r="BK7" s="86"/>
-      <c r="BL7" s="86"/>
-      <c r="BM7" s="87"/>
-      <c r="BN7" s="85">
+      <c r="BJ7" s="91"/>
+      <c r="BK7" s="91"/>
+      <c r="BL7" s="91"/>
+      <c r="BM7" s="92"/>
+      <c r="BN7" s="90">
         <f>BN6</f>
         <v>41078</v>
       </c>
-      <c r="BO7" s="86"/>
-      <c r="BP7" s="86"/>
-      <c r="BQ7" s="86"/>
-      <c r="BR7" s="87"/>
-      <c r="BS7" s="85">
+      <c r="BO7" s="91"/>
+      <c r="BP7" s="91"/>
+      <c r="BQ7" s="91"/>
+      <c r="BR7" s="92"/>
+      <c r="BS7" s="90">
         <f>BS6</f>
         <v>41085</v>
       </c>
-      <c r="BT7" s="86"/>
-      <c r="BU7" s="86"/>
-      <c r="BV7" s="86"/>
-      <c r="BW7" s="87"/>
-      <c r="BX7" s="85">
+      <c r="BT7" s="91"/>
+      <c r="BU7" s="91"/>
+      <c r="BV7" s="91"/>
+      <c r="BW7" s="92"/>
+      <c r="BX7" s="90">
         <f>BX6</f>
         <v>41092</v>
       </c>
-      <c r="BY7" s="86"/>
-      <c r="BZ7" s="86"/>
-      <c r="CA7" s="86"/>
-      <c r="CB7" s="87"/>
-      <c r="CC7" s="85">
+      <c r="BY7" s="91"/>
+      <c r="BZ7" s="91"/>
+      <c r="CA7" s="91"/>
+      <c r="CB7" s="92"/>
+      <c r="CC7" s="90">
         <f>CC6</f>
         <v>41099</v>
       </c>
-      <c r="CD7" s="86"/>
-      <c r="CE7" s="86"/>
-      <c r="CF7" s="86"/>
-      <c r="CG7" s="87"/>
-      <c r="CH7" s="85">
+      <c r="CD7" s="91"/>
+      <c r="CE7" s="91"/>
+      <c r="CF7" s="91"/>
+      <c r="CG7" s="92"/>
+      <c r="CH7" s="90">
         <f>CH6</f>
         <v>41106</v>
       </c>
-      <c r="CI7" s="86"/>
-      <c r="CJ7" s="86"/>
-      <c r="CK7" s="86"/>
-      <c r="CL7" s="87"/>
-      <c r="CM7" s="85">
+      <c r="CI7" s="91"/>
+      <c r="CJ7" s="91"/>
+      <c r="CK7" s="91"/>
+      <c r="CL7" s="92"/>
+      <c r="CM7" s="90">
         <f>CM6</f>
         <v>41113</v>
       </c>
-      <c r="CN7" s="86"/>
-      <c r="CO7" s="86"/>
-      <c r="CP7" s="86"/>
-      <c r="CQ7" s="87"/>
-      <c r="CR7" s="85">
+      <c r="CN7" s="91"/>
+      <c r="CO7" s="91"/>
+      <c r="CP7" s="91"/>
+      <c r="CQ7" s="92"/>
+      <c r="CR7" s="90">
         <f>CR6</f>
         <v>41120</v>
       </c>
-      <c r="CS7" s="86"/>
-      <c r="CT7" s="86"/>
-      <c r="CU7" s="86"/>
-      <c r="CV7" s="87"/>
-      <c r="CW7" s="85">
+      <c r="CS7" s="91"/>
+      <c r="CT7" s="91"/>
+      <c r="CU7" s="91"/>
+      <c r="CV7" s="92"/>
+      <c r="CW7" s="90">
         <f>CW6</f>
         <v>41127</v>
       </c>
-      <c r="CX7" s="86"/>
-      <c r="CY7" s="86"/>
-      <c r="CZ7" s="86"/>
-      <c r="DA7" s="87"/>
-      <c r="DB7" s="85">
+      <c r="CX7" s="91"/>
+      <c r="CY7" s="91"/>
+      <c r="CZ7" s="91"/>
+      <c r="DA7" s="92"/>
+      <c r="DB7" s="90">
         <f>DB6</f>
         <v>41134</v>
       </c>
-      <c r="DC7" s="86"/>
-      <c r="DD7" s="86"/>
-      <c r="DE7" s="86"/>
-      <c r="DF7" s="87"/>
-      <c r="DG7" s="85">
+      <c r="DC7" s="91"/>
+      <c r="DD7" s="91"/>
+      <c r="DE7" s="91"/>
+      <c r="DF7" s="92"/>
+      <c r="DG7" s="90">
         <f>DG6</f>
         <v>41141</v>
       </c>
-      <c r="DH7" s="86"/>
-      <c r="DI7" s="86"/>
-      <c r="DJ7" s="86"/>
-      <c r="DK7" s="87"/>
-      <c r="DL7" s="85">
+      <c r="DH7" s="91"/>
+      <c r="DI7" s="91"/>
+      <c r="DJ7" s="91"/>
+      <c r="DK7" s="92"/>
+      <c r="DL7" s="90">
         <f>DL6</f>
         <v>41148</v>
       </c>
-      <c r="DM7" s="86"/>
-      <c r="DN7" s="86"/>
-      <c r="DO7" s="86"/>
-      <c r="DP7" s="87"/>
-      <c r="DQ7" s="85">
+      <c r="DM7" s="91"/>
+      <c r="DN7" s="91"/>
+      <c r="DO7" s="91"/>
+      <c r="DP7" s="92"/>
+      <c r="DQ7" s="90">
         <f>DQ6</f>
         <v>41155</v>
       </c>
-      <c r="DR7" s="86"/>
-      <c r="DS7" s="86"/>
-      <c r="DT7" s="86"/>
-      <c r="DU7" s="87"/>
-      <c r="DV7" s="85">
+      <c r="DR7" s="91"/>
+      <c r="DS7" s="91"/>
+      <c r="DT7" s="91"/>
+      <c r="DU7" s="92"/>
+      <c r="DV7" s="90">
         <f>DV6</f>
         <v>41162</v>
       </c>
-      <c r="DW7" s="86"/>
-      <c r="DX7" s="86"/>
-      <c r="DY7" s="86"/>
-      <c r="DZ7" s="87"/>
-      <c r="EA7" s="85">
+      <c r="DW7" s="91"/>
+      <c r="DX7" s="91"/>
+      <c r="DY7" s="91"/>
+      <c r="DZ7" s="92"/>
+      <c r="EA7" s="90">
         <f>EA6</f>
         <v>41169</v>
       </c>
-      <c r="EB7" s="86"/>
-      <c r="EC7" s="86"/>
-      <c r="ED7" s="86"/>
-      <c r="EE7" s="87"/>
-      <c r="EF7" s="85">
+      <c r="EB7" s="91"/>
+      <c r="EC7" s="91"/>
+      <c r="ED7" s="91"/>
+      <c r="EE7" s="92"/>
+      <c r="EF7" s="90">
         <f>EF6</f>
         <v>41176</v>
       </c>
-      <c r="EG7" s="86"/>
-      <c r="EH7" s="86"/>
-      <c r="EI7" s="86"/>
-      <c r="EJ7" s="87"/>
-      <c r="EK7" s="85">
+      <c r="EG7" s="91"/>
+      <c r="EH7" s="91"/>
+      <c r="EI7" s="91"/>
+      <c r="EJ7" s="92"/>
+      <c r="EK7" s="90">
         <f>EK6</f>
         <v>41183</v>
       </c>
-      <c r="EL7" s="86"/>
-      <c r="EM7" s="86"/>
-      <c r="EN7" s="86"/>
-      <c r="EO7" s="87"/>
-      <c r="EP7" s="85">
+      <c r="EL7" s="91"/>
+      <c r="EM7" s="91"/>
+      <c r="EN7" s="91"/>
+      <c r="EO7" s="92"/>
+      <c r="EP7" s="90">
         <f>EP6</f>
         <v>41190</v>
       </c>
-      <c r="EQ7" s="86"/>
-      <c r="ER7" s="86"/>
-      <c r="ES7" s="86"/>
-      <c r="ET7" s="87"/>
-      <c r="EU7" s="85">
+      <c r="EQ7" s="91"/>
+      <c r="ER7" s="91"/>
+      <c r="ES7" s="91"/>
+      <c r="ET7" s="92"/>
+      <c r="EU7" s="90">
         <f>EU6</f>
         <v>41197</v>
       </c>
-      <c r="EV7" s="86"/>
-      <c r="EW7" s="86"/>
-      <c r="EX7" s="86"/>
-      <c r="EY7" s="87"/>
-      <c r="EZ7" s="85">
+      <c r="EV7" s="91"/>
+      <c r="EW7" s="91"/>
+      <c r="EX7" s="91"/>
+      <c r="EY7" s="92"/>
+      <c r="EZ7" s="90">
         <f>EZ6</f>
         <v>41204</v>
       </c>
-      <c r="FA7" s="86"/>
-      <c r="FB7" s="86"/>
-      <c r="FC7" s="86"/>
-      <c r="FD7" s="87"/>
-      <c r="FE7" s="85">
+      <c r="FA7" s="91"/>
+      <c r="FB7" s="91"/>
+      <c r="FC7" s="91"/>
+      <c r="FD7" s="92"/>
+      <c r="FE7" s="90">
         <f>FE6</f>
         <v>41211</v>
       </c>
-      <c r="FF7" s="86"/>
-      <c r="FG7" s="86"/>
-      <c r="FH7" s="86"/>
-      <c r="FI7" s="87"/>
-      <c r="FJ7" s="85">
+      <c r="FF7" s="91"/>
+      <c r="FG7" s="91"/>
+      <c r="FH7" s="91"/>
+      <c r="FI7" s="92"/>
+      <c r="FJ7" s="90">
         <f>FJ6</f>
         <v>41218</v>
       </c>
-      <c r="FK7" s="86"/>
-      <c r="FL7" s="86"/>
-      <c r="FM7" s="86"/>
-      <c r="FN7" s="87"/>
-      <c r="FO7" s="85">
+      <c r="FK7" s="91"/>
+      <c r="FL7" s="91"/>
+      <c r="FM7" s="91"/>
+      <c r="FN7" s="92"/>
+      <c r="FO7" s="90">
         <f>FO6</f>
         <v>41225</v>
       </c>
-      <c r="FP7" s="86"/>
-      <c r="FQ7" s="86"/>
-      <c r="FR7" s="86"/>
-      <c r="FS7" s="87"/>
-      <c r="FT7" s="85">
+      <c r="FP7" s="91"/>
+      <c r="FQ7" s="91"/>
+      <c r="FR7" s="91"/>
+      <c r="FS7" s="92"/>
+      <c r="FT7" s="90">
         <f>FT6</f>
         <v>41232</v>
       </c>
-      <c r="FU7" s="86"/>
-      <c r="FV7" s="86"/>
-      <c r="FW7" s="86"/>
-      <c r="FX7" s="87"/>
-      <c r="FY7" s="85">
+      <c r="FU7" s="91"/>
+      <c r="FV7" s="91"/>
+      <c r="FW7" s="91"/>
+      <c r="FX7" s="92"/>
+      <c r="FY7" s="90">
         <f>FY6</f>
         <v>41239</v>
       </c>
-      <c r="FZ7" s="86"/>
-      <c r="GA7" s="86"/>
-      <c r="GB7" s="86"/>
-      <c r="GC7" s="87"/>
-      <c r="GD7" s="85">
+      <c r="FZ7" s="91"/>
+      <c r="GA7" s="91"/>
+      <c r="GB7" s="91"/>
+      <c r="GC7" s="92"/>
+      <c r="GD7" s="90">
         <f>GD6</f>
         <v>41246</v>
       </c>
-      <c r="GE7" s="86"/>
-      <c r="GF7" s="86"/>
-      <c r="GG7" s="86"/>
-      <c r="GH7" s="87"/>
-      <c r="GI7" s="85">
+      <c r="GE7" s="91"/>
+      <c r="GF7" s="91"/>
+      <c r="GG7" s="91"/>
+      <c r="GH7" s="92"/>
+      <c r="GI7" s="90">
         <f>GI6</f>
         <v>41253</v>
       </c>
-      <c r="GJ7" s="86"/>
-      <c r="GK7" s="86"/>
-      <c r="GL7" s="86"/>
-      <c r="GM7" s="87"/>
-      <c r="GN7" s="85">
+      <c r="GJ7" s="91"/>
+      <c r="GK7" s="91"/>
+      <c r="GL7" s="91"/>
+      <c r="GM7" s="92"/>
+      <c r="GN7" s="90">
         <f>GN6</f>
         <v>41260</v>
       </c>
-      <c r="GO7" s="86"/>
-      <c r="GP7" s="86"/>
-      <c r="GQ7" s="86"/>
-      <c r="GR7" s="87"/>
-      <c r="GS7" s="85">
+      <c r="GO7" s="91"/>
+      <c r="GP7" s="91"/>
+      <c r="GQ7" s="91"/>
+      <c r="GR7" s="92"/>
+      <c r="GS7" s="90">
         <f>GS6</f>
         <v>41267</v>
       </c>
-      <c r="GT7" s="86"/>
-      <c r="GU7" s="86"/>
-      <c r="GV7" s="86"/>
-      <c r="GW7" s="87"/>
-      <c r="GX7" s="85">
+      <c r="GT7" s="91"/>
+      <c r="GU7" s="91"/>
+      <c r="GV7" s="91"/>
+      <c r="GW7" s="92"/>
+      <c r="GX7" s="90">
         <f>GX6</f>
         <v>41274</v>
       </c>
-      <c r="GY7" s="86"/>
-      <c r="GZ7" s="86"/>
-      <c r="HA7" s="86"/>
-      <c r="HB7" s="87"/>
-      <c r="HC7" s="85">
+      <c r="GY7" s="91"/>
+      <c r="GZ7" s="91"/>
+      <c r="HA7" s="91"/>
+      <c r="HB7" s="92"/>
+      <c r="HC7" s="90">
         <f>HC6</f>
         <v>41281</v>
       </c>
-      <c r="HD7" s="86"/>
-      <c r="HE7" s="86"/>
-      <c r="HF7" s="86"/>
-      <c r="HG7" s="87"/>
-      <c r="HH7" s="85">
+      <c r="HD7" s="91"/>
+      <c r="HE7" s="91"/>
+      <c r="HF7" s="91"/>
+      <c r="HG7" s="92"/>
+      <c r="HH7" s="90">
         <f>HH6</f>
         <v>41288</v>
       </c>
-      <c r="HI7" s="86"/>
-      <c r="HJ7" s="86"/>
-      <c r="HK7" s="86"/>
-      <c r="HL7" s="87"/>
-      <c r="HM7" s="85">
+      <c r="HI7" s="91"/>
+      <c r="HJ7" s="91"/>
+      <c r="HK7" s="91"/>
+      <c r="HL7" s="92"/>
+      <c r="HM7" s="90">
         <f>HM6</f>
         <v>41295</v>
       </c>
-      <c r="HN7" s="86"/>
-      <c r="HO7" s="86"/>
-      <c r="HP7" s="86"/>
-      <c r="HQ7" s="87"/>
-      <c r="HR7" s="85">
+      <c r="HN7" s="91"/>
+      <c r="HO7" s="91"/>
+      <c r="HP7" s="91"/>
+      <c r="HQ7" s="92"/>
+      <c r="HR7" s="90">
         <f>HR6</f>
         <v>41302</v>
       </c>
-      <c r="HS7" s="86"/>
-      <c r="HT7" s="86"/>
-      <c r="HU7" s="86"/>
-      <c r="HV7" s="87"/>
-      <c r="HW7" s="85">
+      <c r="HS7" s="91"/>
+      <c r="HT7" s="91"/>
+      <c r="HU7" s="91"/>
+      <c r="HV7" s="92"/>
+      <c r="HW7" s="90">
         <f>HW6</f>
         <v>41309</v>
       </c>
-      <c r="HX7" s="86"/>
-      <c r="HY7" s="86"/>
-      <c r="HZ7" s="86"/>
-      <c r="IA7" s="87"/>
-      <c r="IB7" s="85">
+      <c r="HX7" s="91"/>
+      <c r="HY7" s="91"/>
+      <c r="HZ7" s="91"/>
+      <c r="IA7" s="92"/>
+      <c r="IB7" s="90">
         <f>IB6</f>
         <v>41316</v>
       </c>
-      <c r="IC7" s="86"/>
-      <c r="ID7" s="86"/>
-      <c r="IE7" s="86"/>
-      <c r="IF7" s="87"/>
-      <c r="IG7" s="85">
+      <c r="IC7" s="91"/>
+      <c r="ID7" s="91"/>
+      <c r="IE7" s="91"/>
+      <c r="IF7" s="92"/>
+      <c r="IG7" s="90">
         <f>IG6</f>
         <v>41323</v>
       </c>
-      <c r="IH7" s="86"/>
-      <c r="II7" s="86"/>
-      <c r="IJ7" s="86"/>
-      <c r="IK7" s="87"/>
-      <c r="IL7" s="85">
+      <c r="IH7" s="91"/>
+      <c r="II7" s="91"/>
+      <c r="IJ7" s="91"/>
+      <c r="IK7" s="92"/>
+      <c r="IL7" s="90">
         <f>IL6</f>
         <v>41330</v>
       </c>
-      <c r="IM7" s="86"/>
-      <c r="IN7" s="86"/>
-      <c r="IO7" s="86"/>
-      <c r="IP7" s="87"/>
+      <c r="IM7" s="91"/>
+      <c r="IN7" s="91"/>
+      <c r="IO7" s="91"/>
+      <c r="IP7" s="92"/>
     </row>
-    <row r="8" spans="1:250" s="6" customFormat="1" ht="15.75">
+    <row r="8" spans="1:250" s="6" customFormat="1" ht="15">
       <c r="A8" s="81" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C8" s="56" t="s">
         <v>26</v>
@@ -2993,7 +2955,7 @@
         <v>41001</v>
       </c>
       <c r="E8" s="60">
-        <v>41031</v>
+        <v>41036</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -3003,7 +2965,7 @@
       <c r="I8" s="27"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:250" s="7" customFormat="1">
+    <row r="9" spans="1:250" s="7" customFormat="1" ht="13">
       <c r="A9" s="80">
         <v>1</v>
       </c>
@@ -3017,7 +2979,7 @@
         <v>41001</v>
       </c>
       <c r="E9" s="61">
-        <v>41014</v>
+        <v>41036</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -3265,30 +3227,30 @@
       <c r="IO9" s="6"/>
       <c r="IP9" s="6"/>
     </row>
-    <row r="10" spans="1:250" s="7" customFormat="1" ht="11.25">
+    <row r="10" spans="1:250" s="7" customFormat="1" ht="11">
       <c r="A10" s="35">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="90" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="91">
+      <c r="C10" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="87">
         <v>41001</v>
       </c>
-      <c r="E10" s="91">
+      <c r="E10" s="87">
         <v>41002</v>
       </c>
-      <c r="F10" s="91">
+      <c r="F10" s="87">
         <v>40994</v>
       </c>
-      <c r="G10" s="91">
+      <c r="G10" s="87">
         <v>40998</v>
       </c>
-      <c r="H10" s="92"/>
-      <c r="I10" s="93">
+      <c r="H10" s="88"/>
+      <c r="I10" s="89">
         <v>1</v>
       </c>
       <c r="J10" s="17"/>
@@ -3533,26 +3495,28 @@
       <c r="IO10" s="6"/>
       <c r="IP10" s="6"/>
     </row>
-    <row r="11" spans="1:250" s="7" customFormat="1" ht="11.25">
+    <row r="11" spans="1:250" s="7" customFormat="1" ht="11">
       <c r="A11" s="35">
         <v>1.2</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D11" s="25">
-        <v>41003</v>
+        <v>41001</v>
       </c>
       <c r="E11" s="25">
-        <v>41005</v>
+        <v>41021</v>
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="26"/>
-      <c r="I11" s="27"/>
+      <c r="I11" s="27">
+        <v>0.3</v>
+      </c>
       <c r="J11" s="17"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -3795,21 +3759,21 @@
       <c r="IO11" s="6"/>
       <c r="IP11" s="6"/>
     </row>
-    <row r="12" spans="1:250" s="7" customFormat="1" ht="11.25">
+    <row r="12" spans="1:250" s="7" customFormat="1" ht="11">
       <c r="A12" s="35">
         <v>1.3</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" s="25">
-        <v>41001</v>
+        <v>41014</v>
       </c>
       <c r="E12" s="25">
-        <v>41005</v>
+        <v>41036</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
@@ -4057,22 +4021,18 @@
       <c r="IO12" s="6"/>
       <c r="IP12" s="6"/>
     </row>
-    <row r="13" spans="1:250" s="7" customFormat="1" ht="11.25">
+    <row r="13" spans="1:250" s="7" customFormat="1" ht="11">
       <c r="A13" s="35">
         <v>1.4</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="25">
-        <v>41006</v>
-      </c>
-      <c r="E13" s="25">
-        <v>41012</v>
-      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="26"/>
@@ -4319,22 +4279,18 @@
       <c r="IO13" s="6"/>
       <c r="IP13" s="6"/>
     </row>
-    <row r="14" spans="1:250" s="7" customFormat="1" ht="11.25">
+    <row r="14" spans="1:250" s="7" customFormat="1" ht="11">
       <c r="A14" s="35">
         <v>1.5</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="25">
-        <v>41013</v>
-      </c>
-      <c r="E14" s="25">
-        <v>41013</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="26"/>
@@ -4581,7 +4537,7 @@
       <c r="IO14" s="6"/>
       <c r="IP14" s="6"/>
     </row>
-    <row r="15" spans="1:250" s="7" customFormat="1" ht="11.25">
+    <row r="15" spans="1:250" s="7" customFormat="1" ht="11">
       <c r="A15" s="35">
         <v>1.6</v>
       </c>
@@ -4591,12 +4547,8 @@
       <c r="C15" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="25">
-        <v>41014</v>
-      </c>
-      <c r="E15" s="25">
-        <v>41014</v>
-      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="26"/>
@@ -4843,107 +4795,825 @@
       <c r="IO15" s="6"/>
       <c r="IP15" s="6"/>
     </row>
-    <row r="16" spans="1:250" s="6" customFormat="1">
-      <c r="A16" s="80">
-        <v>2</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="61">
-        <v>41015</v>
-      </c>
-      <c r="E16" s="61">
-        <v>41025</v>
-      </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27"/>
+    <row r="16" spans="1:250" s="6" customFormat="1" ht="13">
+      <c r="A16" s="82"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="1:250" s="6" customFormat="1">
-      <c r="A17" s="82"/>
+    <row r="17" spans="1:250" s="6" customFormat="1" ht="13">
+      <c r="A17" s="36"/>
       <c r="B17" s="37"/>
       <c r="C17" s="58"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="21"/>
       <c r="I17" s="22"/>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="1:250" s="6" customFormat="1">
-      <c r="A18" s="80">
-        <v>3</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="56" t="s">
+    <row r="18" spans="1:250" s="7" customFormat="1" ht="15">
+      <c r="A18" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="62">
+        <v>41037</v>
+      </c>
+      <c r="E18" s="62">
+        <v>41046</v>
+      </c>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41">
+        <v>15</v>
+      </c>
+      <c r="I18" s="42"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="6"/>
+      <c r="AV18" s="6"/>
+      <c r="AW18" s="6"/>
+      <c r="AX18" s="6"/>
+      <c r="AY18" s="6"/>
+      <c r="AZ18" s="6"/>
+      <c r="BA18" s="6"/>
+      <c r="BB18" s="6"/>
+      <c r="BC18" s="6"/>
+      <c r="BD18" s="6"/>
+      <c r="BE18" s="6"/>
+      <c r="BF18" s="6"/>
+      <c r="BG18" s="6"/>
+      <c r="BH18" s="6"/>
+      <c r="BI18" s="6"/>
+      <c r="BJ18" s="6"/>
+      <c r="BK18" s="6"/>
+      <c r="BL18" s="6"/>
+      <c r="BM18" s="6"/>
+      <c r="BN18" s="6"/>
+      <c r="BO18" s="6"/>
+      <c r="BP18" s="6"/>
+      <c r="BQ18" s="6"/>
+      <c r="BR18" s="6"/>
+      <c r="BS18" s="6"/>
+      <c r="BT18" s="6"/>
+      <c r="BU18" s="6"/>
+      <c r="BV18" s="6"/>
+      <c r="BW18" s="6"/>
+      <c r="BX18" s="6"/>
+      <c r="BY18" s="6"/>
+      <c r="BZ18" s="6"/>
+      <c r="CA18" s="6"/>
+      <c r="CB18" s="6"/>
+      <c r="CC18" s="6"/>
+      <c r="CD18" s="6"/>
+      <c r="CE18" s="6"/>
+      <c r="CF18" s="6"/>
+      <c r="CG18" s="6"/>
+      <c r="CH18" s="6"/>
+      <c r="CI18" s="6"/>
+      <c r="CJ18" s="6"/>
+      <c r="CK18" s="6"/>
+      <c r="CL18" s="6"/>
+      <c r="CM18" s="6"/>
+      <c r="CN18" s="6"/>
+      <c r="CO18" s="6"/>
+      <c r="CP18" s="6"/>
+      <c r="CQ18" s="6"/>
+      <c r="CR18" s="6"/>
+      <c r="CS18" s="6"/>
+      <c r="CT18" s="6"/>
+      <c r="CU18" s="6"/>
+      <c r="CV18" s="6"/>
+      <c r="CW18" s="6"/>
+      <c r="CX18" s="6"/>
+      <c r="CY18" s="6"/>
+      <c r="CZ18" s="6"/>
+      <c r="DA18" s="6"/>
+      <c r="DB18" s="6"/>
+      <c r="DC18" s="6"/>
+      <c r="DD18" s="6"/>
+      <c r="DE18" s="6"/>
+      <c r="DF18" s="6"/>
+      <c r="DG18" s="6"/>
+      <c r="DH18" s="6"/>
+      <c r="DI18" s="6"/>
+      <c r="DJ18" s="6"/>
+      <c r="DK18" s="6"/>
+      <c r="DL18" s="6"/>
+      <c r="DM18" s="6"/>
+      <c r="DN18" s="6"/>
+      <c r="DO18" s="6"/>
+      <c r="DP18" s="6"/>
+      <c r="DQ18" s="6"/>
+      <c r="DR18" s="6"/>
+      <c r="DS18" s="6"/>
+      <c r="DT18" s="6"/>
+      <c r="DU18" s="6"/>
+      <c r="DV18" s="6"/>
+      <c r="DW18" s="6"/>
+      <c r="DX18" s="6"/>
+      <c r="DY18" s="6"/>
+      <c r="DZ18" s="6"/>
+      <c r="EA18" s="6"/>
+      <c r="EB18" s="6"/>
+      <c r="EC18" s="6"/>
+      <c r="ED18" s="6"/>
+      <c r="EE18" s="6"/>
+      <c r="EF18" s="6"/>
+      <c r="EG18" s="6"/>
+      <c r="EH18" s="6"/>
+      <c r="EI18" s="6"/>
+      <c r="EJ18" s="6"/>
+      <c r="EK18" s="6"/>
+      <c r="EL18" s="6"/>
+      <c r="EM18" s="6"/>
+      <c r="EN18" s="6"/>
+      <c r="EO18" s="6"/>
+      <c r="EP18" s="6"/>
+      <c r="EQ18" s="6"/>
+      <c r="ER18" s="6"/>
+      <c r="ES18" s="6"/>
+      <c r="ET18" s="6"/>
+      <c r="EU18" s="6"/>
+      <c r="EV18" s="6"/>
+      <c r="EW18" s="6"/>
+      <c r="EX18" s="6"/>
+      <c r="EY18" s="6"/>
+      <c r="EZ18" s="6"/>
+      <c r="FA18" s="6"/>
+      <c r="FB18" s="6"/>
+      <c r="FC18" s="6"/>
+      <c r="FD18" s="6"/>
+      <c r="FE18" s="6"/>
+      <c r="FF18" s="6"/>
+      <c r="FG18" s="6"/>
+      <c r="FH18" s="6"/>
+      <c r="FI18" s="6"/>
+      <c r="FJ18" s="6"/>
+      <c r="FK18" s="6"/>
+      <c r="FL18" s="6"/>
+      <c r="FM18" s="6"/>
+      <c r="FN18" s="6"/>
+      <c r="FO18" s="6"/>
+      <c r="FP18" s="6"/>
+      <c r="FQ18" s="6"/>
+      <c r="FR18" s="6"/>
+      <c r="FS18" s="6"/>
+      <c r="FT18" s="6"/>
+      <c r="FU18" s="6"/>
+      <c r="FV18" s="6"/>
+      <c r="FW18" s="6"/>
+      <c r="FX18" s="6"/>
+      <c r="FY18" s="6"/>
+      <c r="FZ18" s="6"/>
+      <c r="GA18" s="6"/>
+      <c r="GB18" s="6"/>
+      <c r="GC18" s="6"/>
+      <c r="GD18" s="6"/>
+      <c r="GE18" s="6"/>
+      <c r="GF18" s="6"/>
+      <c r="GG18" s="6"/>
+      <c r="GH18" s="6"/>
+      <c r="GI18" s="6"/>
+      <c r="GJ18" s="6"/>
+      <c r="GK18" s="6"/>
+      <c r="GL18" s="6"/>
+      <c r="GM18" s="6"/>
+      <c r="GN18" s="6"/>
+      <c r="GO18" s="6"/>
+      <c r="GP18" s="6"/>
+      <c r="GQ18" s="6"/>
+      <c r="GR18" s="6"/>
+      <c r="GS18" s="6"/>
+      <c r="GT18" s="6"/>
+      <c r="GU18" s="6"/>
+      <c r="GV18" s="6"/>
+      <c r="GW18" s="6"/>
+      <c r="GX18" s="6"/>
+      <c r="GY18" s="6"/>
+      <c r="GZ18" s="6"/>
+      <c r="HA18" s="6"/>
+      <c r="HB18" s="6"/>
+      <c r="HC18" s="6"/>
+      <c r="HD18" s="6"/>
+      <c r="HE18" s="6"/>
+      <c r="HF18" s="6"/>
+      <c r="HG18" s="6"/>
+      <c r="HH18" s="6"/>
+      <c r="HI18" s="6"/>
+      <c r="HJ18" s="6"/>
+      <c r="HK18" s="6"/>
+      <c r="HL18" s="6"/>
+      <c r="HM18" s="6"/>
+      <c r="HN18" s="6"/>
+      <c r="HO18" s="6"/>
+      <c r="HP18" s="6"/>
+      <c r="HQ18" s="6"/>
+      <c r="HR18" s="6"/>
+      <c r="HS18" s="6"/>
+      <c r="HT18" s="6"/>
+      <c r="HU18" s="6"/>
+      <c r="HV18" s="6"/>
+      <c r="HW18" s="6"/>
+      <c r="HX18" s="6"/>
+      <c r="HY18" s="6"/>
+      <c r="HZ18" s="6"/>
+      <c r="IA18" s="6"/>
+      <c r="IB18" s="6"/>
+      <c r="IC18" s="6"/>
+      <c r="ID18" s="6"/>
+      <c r="IE18" s="6"/>
+      <c r="IF18" s="6"/>
+      <c r="IG18" s="6"/>
+      <c r="IH18" s="6"/>
+      <c r="II18" s="6"/>
+      <c r="IJ18" s="6"/>
+      <c r="IK18" s="6"/>
+      <c r="IL18" s="6"/>
+      <c r="IM18" s="6"/>
+      <c r="IN18" s="6"/>
+      <c r="IO18" s="6"/>
+      <c r="IP18" s="6"/>
+    </row>
+    <row r="19" spans="1:250" s="7" customFormat="1" ht="13">
+      <c r="A19" s="76">
+        <v>1</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="61">
-        <v>41026</v>
-      </c>
-      <c r="E18" s="61">
-        <v>41031</v>
-      </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="17"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="6"/>
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="6"/>
+      <c r="AR19" s="6"/>
+      <c r="AS19" s="6"/>
+      <c r="AT19" s="6"/>
+      <c r="AU19" s="6"/>
+      <c r="AV19" s="6"/>
+      <c r="AW19" s="6"/>
+      <c r="AX19" s="6"/>
+      <c r="AY19" s="6"/>
+      <c r="AZ19" s="6"/>
+      <c r="BA19" s="6"/>
+      <c r="BB19" s="6"/>
+      <c r="BC19" s="6"/>
+      <c r="BD19" s="6"/>
+      <c r="BE19" s="6"/>
+      <c r="BF19" s="6"/>
+      <c r="BG19" s="6"/>
+      <c r="BH19" s="6"/>
+      <c r="BI19" s="6"/>
+      <c r="BJ19" s="6"/>
+      <c r="BK19" s="6"/>
+      <c r="BL19" s="6"/>
+      <c r="BM19" s="6"/>
+      <c r="BN19" s="6"/>
+      <c r="BO19" s="6"/>
+      <c r="BP19" s="6"/>
+      <c r="BQ19" s="6"/>
+      <c r="BR19" s="6"/>
+      <c r="BS19" s="6"/>
+      <c r="BT19" s="6"/>
+      <c r="BU19" s="6"/>
+      <c r="BV19" s="6"/>
+      <c r="BW19" s="6"/>
+      <c r="BX19" s="6"/>
+      <c r="BY19" s="6"/>
+      <c r="BZ19" s="6"/>
+      <c r="CA19" s="6"/>
+      <c r="CB19" s="6"/>
+      <c r="CC19" s="6"/>
+      <c r="CD19" s="6"/>
+      <c r="CE19" s="6"/>
+      <c r="CF19" s="6"/>
+      <c r="CG19" s="6"/>
+      <c r="CH19" s="6"/>
+      <c r="CI19" s="6"/>
+      <c r="CJ19" s="6"/>
+      <c r="CK19" s="6"/>
+      <c r="CL19" s="6"/>
+      <c r="CM19" s="6"/>
+      <c r="CN19" s="6"/>
+      <c r="CO19" s="6"/>
+      <c r="CP19" s="6"/>
+      <c r="CQ19" s="6"/>
+      <c r="CR19" s="6"/>
+      <c r="CS19" s="6"/>
+      <c r="CT19" s="6"/>
+      <c r="CU19" s="6"/>
+      <c r="CV19" s="6"/>
+      <c r="CW19" s="6"/>
+      <c r="CX19" s="6"/>
+      <c r="CY19" s="6"/>
+      <c r="CZ19" s="6"/>
+      <c r="DA19" s="6"/>
+      <c r="DB19" s="6"/>
+      <c r="DC19" s="6"/>
+      <c r="DD19" s="6"/>
+      <c r="DE19" s="6"/>
+      <c r="DF19" s="6"/>
+      <c r="DG19" s="6"/>
+      <c r="DH19" s="6"/>
+      <c r="DI19" s="6"/>
+      <c r="DJ19" s="6"/>
+      <c r="DK19" s="6"/>
+      <c r="DL19" s="6"/>
+      <c r="DM19" s="6"/>
+      <c r="DN19" s="6"/>
+      <c r="DO19" s="6"/>
+      <c r="DP19" s="6"/>
+      <c r="DQ19" s="6"/>
+      <c r="DR19" s="6"/>
+      <c r="DS19" s="6"/>
+      <c r="DT19" s="6"/>
+      <c r="DU19" s="6"/>
+      <c r="DV19" s="6"/>
+      <c r="DW19" s="6"/>
+      <c r="DX19" s="6"/>
+      <c r="DY19" s="6"/>
+      <c r="DZ19" s="6"/>
+      <c r="EA19" s="6"/>
+      <c r="EB19" s="6"/>
+      <c r="EC19" s="6"/>
+      <c r="ED19" s="6"/>
+      <c r="EE19" s="6"/>
+      <c r="EF19" s="6"/>
+      <c r="EG19" s="6"/>
+      <c r="EH19" s="6"/>
+      <c r="EI19" s="6"/>
+      <c r="EJ19" s="6"/>
+      <c r="EK19" s="6"/>
+      <c r="EL19" s="6"/>
+      <c r="EM19" s="6"/>
+      <c r="EN19" s="6"/>
+      <c r="EO19" s="6"/>
+      <c r="EP19" s="6"/>
+      <c r="EQ19" s="6"/>
+      <c r="ER19" s="6"/>
+      <c r="ES19" s="6"/>
+      <c r="ET19" s="6"/>
+      <c r="EU19" s="6"/>
+      <c r="EV19" s="6"/>
+      <c r="EW19" s="6"/>
+      <c r="EX19" s="6"/>
+      <c r="EY19" s="6"/>
+      <c r="EZ19" s="6"/>
+      <c r="FA19" s="6"/>
+      <c r="FB19" s="6"/>
+      <c r="FC19" s="6"/>
+      <c r="FD19" s="6"/>
+      <c r="FE19" s="6"/>
+      <c r="FF19" s="6"/>
+      <c r="FG19" s="6"/>
+      <c r="FH19" s="6"/>
+      <c r="FI19" s="6"/>
+      <c r="FJ19" s="6"/>
+      <c r="FK19" s="6"/>
+      <c r="FL19" s="6"/>
+      <c r="FM19" s="6"/>
+      <c r="FN19" s="6"/>
+      <c r="FO19" s="6"/>
+      <c r="FP19" s="6"/>
+      <c r="FQ19" s="6"/>
+      <c r="FR19" s="6"/>
+      <c r="FS19" s="6"/>
+      <c r="FT19" s="6"/>
+      <c r="FU19" s="6"/>
+      <c r="FV19" s="6"/>
+      <c r="FW19" s="6"/>
+      <c r="FX19" s="6"/>
+      <c r="FY19" s="6"/>
+      <c r="FZ19" s="6"/>
+      <c r="GA19" s="6"/>
+      <c r="GB19" s="6"/>
+      <c r="GC19" s="6"/>
+      <c r="GD19" s="6"/>
+      <c r="GE19" s="6"/>
+      <c r="GF19" s="6"/>
+      <c r="GG19" s="6"/>
+      <c r="GH19" s="6"/>
+      <c r="GI19" s="6"/>
+      <c r="GJ19" s="6"/>
+      <c r="GK19" s="6"/>
+      <c r="GL19" s="6"/>
+      <c r="GM19" s="6"/>
+      <c r="GN19" s="6"/>
+      <c r="GO19" s="6"/>
+      <c r="GP19" s="6"/>
+      <c r="GQ19" s="6"/>
+      <c r="GR19" s="6"/>
+      <c r="GS19" s="6"/>
+      <c r="GT19" s="6"/>
+      <c r="GU19" s="6"/>
+      <c r="GV19" s="6"/>
+      <c r="GW19" s="6"/>
+      <c r="GX19" s="6"/>
+      <c r="GY19" s="6"/>
+      <c r="GZ19" s="6"/>
+      <c r="HA19" s="6"/>
+      <c r="HB19" s="6"/>
+      <c r="HC19" s="6"/>
+      <c r="HD19" s="6"/>
+      <c r="HE19" s="6"/>
+      <c r="HF19" s="6"/>
+      <c r="HG19" s="6"/>
+      <c r="HH19" s="6"/>
+      <c r="HI19" s="6"/>
+      <c r="HJ19" s="6"/>
+      <c r="HK19" s="6"/>
+      <c r="HL19" s="6"/>
+      <c r="HM19" s="6"/>
+      <c r="HN19" s="6"/>
+      <c r="HO19" s="6"/>
+      <c r="HP19" s="6"/>
+      <c r="HQ19" s="6"/>
+      <c r="HR19" s="6"/>
+      <c r="HS19" s="6"/>
+      <c r="HT19" s="6"/>
+      <c r="HU19" s="6"/>
+      <c r="HV19" s="6"/>
+      <c r="HW19" s="6"/>
+      <c r="HX19" s="6"/>
+      <c r="HY19" s="6"/>
+      <c r="HZ19" s="6"/>
+      <c r="IA19" s="6"/>
+      <c r="IB19" s="6"/>
+      <c r="IC19" s="6"/>
+      <c r="ID19" s="6"/>
+      <c r="IE19" s="6"/>
+      <c r="IF19" s="6"/>
+      <c r="IG19" s="6"/>
+      <c r="IH19" s="6"/>
+      <c r="II19" s="6"/>
+      <c r="IJ19" s="6"/>
+      <c r="IK19" s="6"/>
+      <c r="IL19" s="6"/>
+      <c r="IM19" s="6"/>
+      <c r="IN19" s="6"/>
+      <c r="IO19" s="6"/>
+      <c r="IP19" s="6"/>
     </row>
-    <row r="19" spans="1:250" s="6" customFormat="1">
-      <c r="A19" s="82"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="17"/>
+    <row r="20" spans="1:250" s="7" customFormat="1" ht="11">
+      <c r="A20" s="75">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="6"/>
+      <c r="AP20" s="6"/>
+      <c r="AQ20" s="6"/>
+      <c r="AR20" s="6"/>
+      <c r="AS20" s="6"/>
+      <c r="AT20" s="6"/>
+      <c r="AU20" s="6"/>
+      <c r="AV20" s="6"/>
+      <c r="AW20" s="6"/>
+      <c r="AX20" s="6"/>
+      <c r="AY20" s="6"/>
+      <c r="AZ20" s="6"/>
+      <c r="BA20" s="6"/>
+      <c r="BB20" s="6"/>
+      <c r="BC20" s="6"/>
+      <c r="BD20" s="6"/>
+      <c r="BE20" s="6"/>
+      <c r="BF20" s="6"/>
+      <c r="BG20" s="6"/>
+      <c r="BH20" s="6"/>
+      <c r="BI20" s="6"/>
+      <c r="BJ20" s="6"/>
+      <c r="BK20" s="6"/>
+      <c r="BL20" s="6"/>
+      <c r="BM20" s="6"/>
+      <c r="BN20" s="6"/>
+      <c r="BO20" s="6"/>
+      <c r="BP20" s="6"/>
+      <c r="BQ20" s="6"/>
+      <c r="BR20" s="6"/>
+      <c r="BS20" s="6"/>
+      <c r="BT20" s="6"/>
+      <c r="BU20" s="6"/>
+      <c r="BV20" s="6"/>
+      <c r="BW20" s="6"/>
+      <c r="BX20" s="6"/>
+      <c r="BY20" s="6"/>
+      <c r="BZ20" s="6"/>
+      <c r="CA20" s="6"/>
+      <c r="CB20" s="6"/>
+      <c r="CC20" s="6"/>
+      <c r="CD20" s="6"/>
+      <c r="CE20" s="6"/>
+      <c r="CF20" s="6"/>
+      <c r="CG20" s="6"/>
+      <c r="CH20" s="6"/>
+      <c r="CI20" s="6"/>
+      <c r="CJ20" s="6"/>
+      <c r="CK20" s="6"/>
+      <c r="CL20" s="6"/>
+      <c r="CM20" s="6"/>
+      <c r="CN20" s="6"/>
+      <c r="CO20" s="6"/>
+      <c r="CP20" s="6"/>
+      <c r="CQ20" s="6"/>
+      <c r="CR20" s="6"/>
+      <c r="CS20" s="6"/>
+      <c r="CT20" s="6"/>
+      <c r="CU20" s="6"/>
+      <c r="CV20" s="6"/>
+      <c r="CW20" s="6"/>
+      <c r="CX20" s="6"/>
+      <c r="CY20" s="6"/>
+      <c r="CZ20" s="6"/>
+      <c r="DA20" s="6"/>
+      <c r="DB20" s="6"/>
+      <c r="DC20" s="6"/>
+      <c r="DD20" s="6"/>
+      <c r="DE20" s="6"/>
+      <c r="DF20" s="6"/>
+      <c r="DG20" s="6"/>
+      <c r="DH20" s="6"/>
+      <c r="DI20" s="6"/>
+      <c r="DJ20" s="6"/>
+      <c r="DK20" s="6"/>
+      <c r="DL20" s="6"/>
+      <c r="DM20" s="6"/>
+      <c r="DN20" s="6"/>
+      <c r="DO20" s="6"/>
+      <c r="DP20" s="6"/>
+      <c r="DQ20" s="6"/>
+      <c r="DR20" s="6"/>
+      <c r="DS20" s="6"/>
+      <c r="DT20" s="6"/>
+      <c r="DU20" s="6"/>
+      <c r="DV20" s="6"/>
+      <c r="DW20" s="6"/>
+      <c r="DX20" s="6"/>
+      <c r="DY20" s="6"/>
+      <c r="DZ20" s="6"/>
+      <c r="EA20" s="6"/>
+      <c r="EB20" s="6"/>
+      <c r="EC20" s="6"/>
+      <c r="ED20" s="6"/>
+      <c r="EE20" s="6"/>
+      <c r="EF20" s="6"/>
+      <c r="EG20" s="6"/>
+      <c r="EH20" s="6"/>
+      <c r="EI20" s="6"/>
+      <c r="EJ20" s="6"/>
+      <c r="EK20" s="6"/>
+      <c r="EL20" s="6"/>
+      <c r="EM20" s="6"/>
+      <c r="EN20" s="6"/>
+      <c r="EO20" s="6"/>
+      <c r="EP20" s="6"/>
+      <c r="EQ20" s="6"/>
+      <c r="ER20" s="6"/>
+      <c r="ES20" s="6"/>
+      <c r="ET20" s="6"/>
+      <c r="EU20" s="6"/>
+      <c r="EV20" s="6"/>
+      <c r="EW20" s="6"/>
+      <c r="EX20" s="6"/>
+      <c r="EY20" s="6"/>
+      <c r="EZ20" s="6"/>
+      <c r="FA20" s="6"/>
+      <c r="FB20" s="6"/>
+      <c r="FC20" s="6"/>
+      <c r="FD20" s="6"/>
+      <c r="FE20" s="6"/>
+      <c r="FF20" s="6"/>
+      <c r="FG20" s="6"/>
+      <c r="FH20" s="6"/>
+      <c r="FI20" s="6"/>
+      <c r="FJ20" s="6"/>
+      <c r="FK20" s="6"/>
+      <c r="FL20" s="6"/>
+      <c r="FM20" s="6"/>
+      <c r="FN20" s="6"/>
+      <c r="FO20" s="6"/>
+      <c r="FP20" s="6"/>
+      <c r="FQ20" s="6"/>
+      <c r="FR20" s="6"/>
+      <c r="FS20" s="6"/>
+      <c r="FT20" s="6"/>
+      <c r="FU20" s="6"/>
+      <c r="FV20" s="6"/>
+      <c r="FW20" s="6"/>
+      <c r="FX20" s="6"/>
+      <c r="FY20" s="6"/>
+      <c r="FZ20" s="6"/>
+      <c r="GA20" s="6"/>
+      <c r="GB20" s="6"/>
+      <c r="GC20" s="6"/>
+      <c r="GD20" s="6"/>
+      <c r="GE20" s="6"/>
+      <c r="GF20" s="6"/>
+      <c r="GG20" s="6"/>
+      <c r="GH20" s="6"/>
+      <c r="GI20" s="6"/>
+      <c r="GJ20" s="6"/>
+      <c r="GK20" s="6"/>
+      <c r="GL20" s="6"/>
+      <c r="GM20" s="6"/>
+      <c r="GN20" s="6"/>
+      <c r="GO20" s="6"/>
+      <c r="GP20" s="6"/>
+      <c r="GQ20" s="6"/>
+      <c r="GR20" s="6"/>
+      <c r="GS20" s="6"/>
+      <c r="GT20" s="6"/>
+      <c r="GU20" s="6"/>
+      <c r="GV20" s="6"/>
+      <c r="GW20" s="6"/>
+      <c r="GX20" s="6"/>
+      <c r="GY20" s="6"/>
+      <c r="GZ20" s="6"/>
+      <c r="HA20" s="6"/>
+      <c r="HB20" s="6"/>
+      <c r="HC20" s="6"/>
+      <c r="HD20" s="6"/>
+      <c r="HE20" s="6"/>
+      <c r="HF20" s="6"/>
+      <c r="HG20" s="6"/>
+      <c r="HH20" s="6"/>
+      <c r="HI20" s="6"/>
+      <c r="HJ20" s="6"/>
+      <c r="HK20" s="6"/>
+      <c r="HL20" s="6"/>
+      <c r="HM20" s="6"/>
+      <c r="HN20" s="6"/>
+      <c r="HO20" s="6"/>
+      <c r="HP20" s="6"/>
+      <c r="HQ20" s="6"/>
+      <c r="HR20" s="6"/>
+      <c r="HS20" s="6"/>
+      <c r="HT20" s="6"/>
+      <c r="HU20" s="6"/>
+      <c r="HV20" s="6"/>
+      <c r="HW20" s="6"/>
+      <c r="HX20" s="6"/>
+      <c r="HY20" s="6"/>
+      <c r="HZ20" s="6"/>
+      <c r="IA20" s="6"/>
+      <c r="IB20" s="6"/>
+      <c r="IC20" s="6"/>
+      <c r="ID20" s="6"/>
+      <c r="IE20" s="6"/>
+      <c r="IF20" s="6"/>
+      <c r="IG20" s="6"/>
+      <c r="IH20" s="6"/>
+      <c r="II20" s="6"/>
+      <c r="IJ20" s="6"/>
+      <c r="IK20" s="6"/>
+      <c r="IL20" s="6"/>
+      <c r="IM20" s="6"/>
+      <c r="IN20" s="6"/>
+      <c r="IO20" s="6"/>
+      <c r="IP20" s="6"/>
     </row>
-    <row r="20" spans="1:250" s="6" customFormat="1" ht="12">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="17"/>
-    </row>
-    <row r="21" spans="1:250" s="7" customFormat="1" ht="15.75">
-      <c r="A21" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="62">
-        <v>41032</v>
-      </c>
-      <c r="E21" s="62">
-        <v>41046</v>
-      </c>
+    <row r="21" spans="1:250" s="7" customFormat="1" ht="11">
+      <c r="A21" s="75">
+        <v>1.2</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
-      <c r="H21" s="41">
-        <v>15</v>
-      </c>
+      <c r="H21" s="41"/>
       <c r="I21" s="42"/>
       <c r="J21" s="17"/>
       <c r="K21" s="6"/>
@@ -5187,15 +5857,15 @@
       <c r="IO21" s="6"/>
       <c r="IP21" s="6"/>
     </row>
-    <row r="22" spans="1:250" s="7" customFormat="1" ht="12">
-      <c r="A22" s="76">
-        <v>1</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>7</v>
+    <row r="22" spans="1:250" s="7" customFormat="1" ht="11">
+      <c r="A22" s="75">
+        <v>1.4</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>11</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -5445,12 +6115,12 @@
       <c r="IO22" s="6"/>
       <c r="IP22" s="6"/>
     </row>
-    <row r="23" spans="1:250" s="7" customFormat="1" ht="11.25">
+    <row r="23" spans="1:250" s="7" customFormat="1" ht="11">
       <c r="A23" s="75">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C23" s="57" t="s">
         <v>20</v>
@@ -5703,15 +6373,15 @@
       <c r="IO23" s="6"/>
       <c r="IP23" s="6"/>
     </row>
-    <row r="24" spans="1:250" s="7" customFormat="1" ht="11.25">
-      <c r="A24" s="75">
-        <v>1.2</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>9</v>
+    <row r="24" spans="1:250" s="6" customFormat="1" ht="13">
+      <c r="A24" s="76">
+        <v>2</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>6</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -5720,256 +6390,16 @@
       <c r="H24" s="41"/>
       <c r="I24" s="42"/>
       <c r="J24" s="17"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="6"/>
-      <c r="AH24" s="6"/>
-      <c r="AI24" s="6"/>
-      <c r="AJ24" s="6"/>
-      <c r="AK24" s="6"/>
-      <c r="AL24" s="6"/>
-      <c r="AM24" s="6"/>
-      <c r="AN24" s="6"/>
-      <c r="AO24" s="6"/>
-      <c r="AP24" s="6"/>
-      <c r="AQ24" s="6"/>
-      <c r="AR24" s="6"/>
-      <c r="AS24" s="6"/>
-      <c r="AT24" s="6"/>
-      <c r="AU24" s="6"/>
-      <c r="AV24" s="6"/>
-      <c r="AW24" s="6"/>
-      <c r="AX24" s="6"/>
-      <c r="AY24" s="6"/>
-      <c r="AZ24" s="6"/>
-      <c r="BA24" s="6"/>
-      <c r="BB24" s="6"/>
-      <c r="BC24" s="6"/>
-      <c r="BD24" s="6"/>
-      <c r="BE24" s="6"/>
-      <c r="BF24" s="6"/>
-      <c r="BG24" s="6"/>
-      <c r="BH24" s="6"/>
-      <c r="BI24" s="6"/>
-      <c r="BJ24" s="6"/>
-      <c r="BK24" s="6"/>
-      <c r="BL24" s="6"/>
-      <c r="BM24" s="6"/>
-      <c r="BN24" s="6"/>
-      <c r="BO24" s="6"/>
-      <c r="BP24" s="6"/>
-      <c r="BQ24" s="6"/>
-      <c r="BR24" s="6"/>
-      <c r="BS24" s="6"/>
-      <c r="BT24" s="6"/>
-      <c r="BU24" s="6"/>
-      <c r="BV24" s="6"/>
-      <c r="BW24" s="6"/>
-      <c r="BX24" s="6"/>
-      <c r="BY24" s="6"/>
-      <c r="BZ24" s="6"/>
-      <c r="CA24" s="6"/>
-      <c r="CB24" s="6"/>
-      <c r="CC24" s="6"/>
-      <c r="CD24" s="6"/>
-      <c r="CE24" s="6"/>
-      <c r="CF24" s="6"/>
-      <c r="CG24" s="6"/>
-      <c r="CH24" s="6"/>
-      <c r="CI24" s="6"/>
-      <c r="CJ24" s="6"/>
-      <c r="CK24" s="6"/>
-      <c r="CL24" s="6"/>
-      <c r="CM24" s="6"/>
-      <c r="CN24" s="6"/>
-      <c r="CO24" s="6"/>
-      <c r="CP24" s="6"/>
-      <c r="CQ24" s="6"/>
-      <c r="CR24" s="6"/>
-      <c r="CS24" s="6"/>
-      <c r="CT24" s="6"/>
-      <c r="CU24" s="6"/>
-      <c r="CV24" s="6"/>
-      <c r="CW24" s="6"/>
-      <c r="CX24" s="6"/>
-      <c r="CY24" s="6"/>
-      <c r="CZ24" s="6"/>
-      <c r="DA24" s="6"/>
-      <c r="DB24" s="6"/>
-      <c r="DC24" s="6"/>
-      <c r="DD24" s="6"/>
-      <c r="DE24" s="6"/>
-      <c r="DF24" s="6"/>
-      <c r="DG24" s="6"/>
-      <c r="DH24" s="6"/>
-      <c r="DI24" s="6"/>
-      <c r="DJ24" s="6"/>
-      <c r="DK24" s="6"/>
-      <c r="DL24" s="6"/>
-      <c r="DM24" s="6"/>
-      <c r="DN24" s="6"/>
-      <c r="DO24" s="6"/>
-      <c r="DP24" s="6"/>
-      <c r="DQ24" s="6"/>
-      <c r="DR24" s="6"/>
-      <c r="DS24" s="6"/>
-      <c r="DT24" s="6"/>
-      <c r="DU24" s="6"/>
-      <c r="DV24" s="6"/>
-      <c r="DW24" s="6"/>
-      <c r="DX24" s="6"/>
-      <c r="DY24" s="6"/>
-      <c r="DZ24" s="6"/>
-      <c r="EA24" s="6"/>
-      <c r="EB24" s="6"/>
-      <c r="EC24" s="6"/>
-      <c r="ED24" s="6"/>
-      <c r="EE24" s="6"/>
-      <c r="EF24" s="6"/>
-      <c r="EG24" s="6"/>
-      <c r="EH24" s="6"/>
-      <c r="EI24" s="6"/>
-      <c r="EJ24" s="6"/>
-      <c r="EK24" s="6"/>
-      <c r="EL24" s="6"/>
-      <c r="EM24" s="6"/>
-      <c r="EN24" s="6"/>
-      <c r="EO24" s="6"/>
-      <c r="EP24" s="6"/>
-      <c r="EQ24" s="6"/>
-      <c r="ER24" s="6"/>
-      <c r="ES24" s="6"/>
-      <c r="ET24" s="6"/>
-      <c r="EU24" s="6"/>
-      <c r="EV24" s="6"/>
-      <c r="EW24" s="6"/>
-      <c r="EX24" s="6"/>
-      <c r="EY24" s="6"/>
-      <c r="EZ24" s="6"/>
-      <c r="FA24" s="6"/>
-      <c r="FB24" s="6"/>
-      <c r="FC24" s="6"/>
-      <c r="FD24" s="6"/>
-      <c r="FE24" s="6"/>
-      <c r="FF24" s="6"/>
-      <c r="FG24" s="6"/>
-      <c r="FH24" s="6"/>
-      <c r="FI24" s="6"/>
-      <c r="FJ24" s="6"/>
-      <c r="FK24" s="6"/>
-      <c r="FL24" s="6"/>
-      <c r="FM24" s="6"/>
-      <c r="FN24" s="6"/>
-      <c r="FO24" s="6"/>
-      <c r="FP24" s="6"/>
-      <c r="FQ24" s="6"/>
-      <c r="FR24" s="6"/>
-      <c r="FS24" s="6"/>
-      <c r="FT24" s="6"/>
-      <c r="FU24" s="6"/>
-      <c r="FV24" s="6"/>
-      <c r="FW24" s="6"/>
-      <c r="FX24" s="6"/>
-      <c r="FY24" s="6"/>
-      <c r="FZ24" s="6"/>
-      <c r="GA24" s="6"/>
-      <c r="GB24" s="6"/>
-      <c r="GC24" s="6"/>
-      <c r="GD24" s="6"/>
-      <c r="GE24" s="6"/>
-      <c r="GF24" s="6"/>
-      <c r="GG24" s="6"/>
-      <c r="GH24" s="6"/>
-      <c r="GI24" s="6"/>
-      <c r="GJ24" s="6"/>
-      <c r="GK24" s="6"/>
-      <c r="GL24" s="6"/>
-      <c r="GM24" s="6"/>
-      <c r="GN24" s="6"/>
-      <c r="GO24" s="6"/>
-      <c r="GP24" s="6"/>
-      <c r="GQ24" s="6"/>
-      <c r="GR24" s="6"/>
-      <c r="GS24" s="6"/>
-      <c r="GT24" s="6"/>
-      <c r="GU24" s="6"/>
-      <c r="GV24" s="6"/>
-      <c r="GW24" s="6"/>
-      <c r="GX24" s="6"/>
-      <c r="GY24" s="6"/>
-      <c r="GZ24" s="6"/>
-      <c r="HA24" s="6"/>
-      <c r="HB24" s="6"/>
-      <c r="HC24" s="6"/>
-      <c r="HD24" s="6"/>
-      <c r="HE24" s="6"/>
-      <c r="HF24" s="6"/>
-      <c r="HG24" s="6"/>
-      <c r="HH24" s="6"/>
-      <c r="HI24" s="6"/>
-      <c r="HJ24" s="6"/>
-      <c r="HK24" s="6"/>
-      <c r="HL24" s="6"/>
-      <c r="HM24" s="6"/>
-      <c r="HN24" s="6"/>
-      <c r="HO24" s="6"/>
-      <c r="HP24" s="6"/>
-      <c r="HQ24" s="6"/>
-      <c r="HR24" s="6"/>
-      <c r="HS24" s="6"/>
-      <c r="HT24" s="6"/>
-      <c r="HU24" s="6"/>
-      <c r="HV24" s="6"/>
-      <c r="HW24" s="6"/>
-      <c r="HX24" s="6"/>
-      <c r="HY24" s="6"/>
-      <c r="HZ24" s="6"/>
-      <c r="IA24" s="6"/>
-      <c r="IB24" s="6"/>
-      <c r="IC24" s="6"/>
-      <c r="ID24" s="6"/>
-      <c r="IE24" s="6"/>
-      <c r="IF24" s="6"/>
-      <c r="IG24" s="6"/>
-      <c r="IH24" s="6"/>
-      <c r="II24" s="6"/>
-      <c r="IJ24" s="6"/>
-      <c r="IK24" s="6"/>
-      <c r="IL24" s="6"/>
-      <c r="IM24" s="6"/>
-      <c r="IN24" s="6"/>
-      <c r="IO24" s="6"/>
-      <c r="IP24" s="6"/>
     </row>
-    <row r="25" spans="1:250" s="7" customFormat="1" ht="11.25">
-      <c r="A25" s="75">
-        <v>1.4</v>
-      </c>
-      <c r="B25" s="44" t="s">
-        <v>11</v>
+    <row r="25" spans="1:250" s="6" customFormat="1" ht="13">
+      <c r="A25" s="76">
+        <v>3</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>5</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="40"/>
       <c r="E25" s="40"/>
@@ -5978,263 +6408,17 @@
       <c r="H25" s="41"/>
       <c r="I25" s="42"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="6"/>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="6"/>
-      <c r="AH25" s="6"/>
-      <c r="AI25" s="6"/>
-      <c r="AJ25" s="6"/>
-      <c r="AK25" s="6"/>
-      <c r="AL25" s="6"/>
-      <c r="AM25" s="6"/>
-      <c r="AN25" s="6"/>
-      <c r="AO25" s="6"/>
-      <c r="AP25" s="6"/>
-      <c r="AQ25" s="6"/>
-      <c r="AR25" s="6"/>
-      <c r="AS25" s="6"/>
-      <c r="AT25" s="6"/>
-      <c r="AU25" s="6"/>
-      <c r="AV25" s="6"/>
-      <c r="AW25" s="6"/>
-      <c r="AX25" s="6"/>
-      <c r="AY25" s="6"/>
-      <c r="AZ25" s="6"/>
-      <c r="BA25" s="6"/>
-      <c r="BB25" s="6"/>
-      <c r="BC25" s="6"/>
-      <c r="BD25" s="6"/>
-      <c r="BE25" s="6"/>
-      <c r="BF25" s="6"/>
-      <c r="BG25" s="6"/>
-      <c r="BH25" s="6"/>
-      <c r="BI25" s="6"/>
-      <c r="BJ25" s="6"/>
-      <c r="BK25" s="6"/>
-      <c r="BL25" s="6"/>
-      <c r="BM25" s="6"/>
-      <c r="BN25" s="6"/>
-      <c r="BO25" s="6"/>
-      <c r="BP25" s="6"/>
-      <c r="BQ25" s="6"/>
-      <c r="BR25" s="6"/>
-      <c r="BS25" s="6"/>
-      <c r="BT25" s="6"/>
-      <c r="BU25" s="6"/>
-      <c r="BV25" s="6"/>
-      <c r="BW25" s="6"/>
-      <c r="BX25" s="6"/>
-      <c r="BY25" s="6"/>
-      <c r="BZ25" s="6"/>
-      <c r="CA25" s="6"/>
-      <c r="CB25" s="6"/>
-      <c r="CC25" s="6"/>
-      <c r="CD25" s="6"/>
-      <c r="CE25" s="6"/>
-      <c r="CF25" s="6"/>
-      <c r="CG25" s="6"/>
-      <c r="CH25" s="6"/>
-      <c r="CI25" s="6"/>
-      <c r="CJ25" s="6"/>
-      <c r="CK25" s="6"/>
-      <c r="CL25" s="6"/>
-      <c r="CM25" s="6"/>
-      <c r="CN25" s="6"/>
-      <c r="CO25" s="6"/>
-      <c r="CP25" s="6"/>
-      <c r="CQ25" s="6"/>
-      <c r="CR25" s="6"/>
-      <c r="CS25" s="6"/>
-      <c r="CT25" s="6"/>
-      <c r="CU25" s="6"/>
-      <c r="CV25" s="6"/>
-      <c r="CW25" s="6"/>
-      <c r="CX25" s="6"/>
-      <c r="CY25" s="6"/>
-      <c r="CZ25" s="6"/>
-      <c r="DA25" s="6"/>
-      <c r="DB25" s="6"/>
-      <c r="DC25" s="6"/>
-      <c r="DD25" s="6"/>
-      <c r="DE25" s="6"/>
-      <c r="DF25" s="6"/>
-      <c r="DG25" s="6"/>
-      <c r="DH25" s="6"/>
-      <c r="DI25" s="6"/>
-      <c r="DJ25" s="6"/>
-      <c r="DK25" s="6"/>
-      <c r="DL25" s="6"/>
-      <c r="DM25" s="6"/>
-      <c r="DN25" s="6"/>
-      <c r="DO25" s="6"/>
-      <c r="DP25" s="6"/>
-      <c r="DQ25" s="6"/>
-      <c r="DR25" s="6"/>
-      <c r="DS25" s="6"/>
-      <c r="DT25" s="6"/>
-      <c r="DU25" s="6"/>
-      <c r="DV25" s="6"/>
-      <c r="DW25" s="6"/>
-      <c r="DX25" s="6"/>
-      <c r="DY25" s="6"/>
-      <c r="DZ25" s="6"/>
-      <c r="EA25" s="6"/>
-      <c r="EB25" s="6"/>
-      <c r="EC25" s="6"/>
-      <c r="ED25" s="6"/>
-      <c r="EE25" s="6"/>
-      <c r="EF25" s="6"/>
-      <c r="EG25" s="6"/>
-      <c r="EH25" s="6"/>
-      <c r="EI25" s="6"/>
-      <c r="EJ25" s="6"/>
-      <c r="EK25" s="6"/>
-      <c r="EL25" s="6"/>
-      <c r="EM25" s="6"/>
-      <c r="EN25" s="6"/>
-      <c r="EO25" s="6"/>
-      <c r="EP25" s="6"/>
-      <c r="EQ25" s="6"/>
-      <c r="ER25" s="6"/>
-      <c r="ES25" s="6"/>
-      <c r="ET25" s="6"/>
-      <c r="EU25" s="6"/>
-      <c r="EV25" s="6"/>
-      <c r="EW25" s="6"/>
-      <c r="EX25" s="6"/>
-      <c r="EY25" s="6"/>
-      <c r="EZ25" s="6"/>
-      <c r="FA25" s="6"/>
-      <c r="FB25" s="6"/>
-      <c r="FC25" s="6"/>
-      <c r="FD25" s="6"/>
-      <c r="FE25" s="6"/>
-      <c r="FF25" s="6"/>
-      <c r="FG25" s="6"/>
-      <c r="FH25" s="6"/>
-      <c r="FI25" s="6"/>
-      <c r="FJ25" s="6"/>
-      <c r="FK25" s="6"/>
-      <c r="FL25" s="6"/>
-      <c r="FM25" s="6"/>
-      <c r="FN25" s="6"/>
-      <c r="FO25" s="6"/>
-      <c r="FP25" s="6"/>
-      <c r="FQ25" s="6"/>
-      <c r="FR25" s="6"/>
-      <c r="FS25" s="6"/>
-      <c r="FT25" s="6"/>
-      <c r="FU25" s="6"/>
-      <c r="FV25" s="6"/>
-      <c r="FW25" s="6"/>
-      <c r="FX25" s="6"/>
-      <c r="FY25" s="6"/>
-      <c r="FZ25" s="6"/>
-      <c r="GA25" s="6"/>
-      <c r="GB25" s="6"/>
-      <c r="GC25" s="6"/>
-      <c r="GD25" s="6"/>
-      <c r="GE25" s="6"/>
-      <c r="GF25" s="6"/>
-      <c r="GG25" s="6"/>
-      <c r="GH25" s="6"/>
-      <c r="GI25" s="6"/>
-      <c r="GJ25" s="6"/>
-      <c r="GK25" s="6"/>
-      <c r="GL25" s="6"/>
-      <c r="GM25" s="6"/>
-      <c r="GN25" s="6"/>
-      <c r="GO25" s="6"/>
-      <c r="GP25" s="6"/>
-      <c r="GQ25" s="6"/>
-      <c r="GR25" s="6"/>
-      <c r="GS25" s="6"/>
-      <c r="GT25" s="6"/>
-      <c r="GU25" s="6"/>
-      <c r="GV25" s="6"/>
-      <c r="GW25" s="6"/>
-      <c r="GX25" s="6"/>
-      <c r="GY25" s="6"/>
-      <c r="GZ25" s="6"/>
-      <c r="HA25" s="6"/>
-      <c r="HB25" s="6"/>
-      <c r="HC25" s="6"/>
-      <c r="HD25" s="6"/>
-      <c r="HE25" s="6"/>
-      <c r="HF25" s="6"/>
-      <c r="HG25" s="6"/>
-      <c r="HH25" s="6"/>
-      <c r="HI25" s="6"/>
-      <c r="HJ25" s="6"/>
-      <c r="HK25" s="6"/>
-      <c r="HL25" s="6"/>
-      <c r="HM25" s="6"/>
-      <c r="HN25" s="6"/>
-      <c r="HO25" s="6"/>
-      <c r="HP25" s="6"/>
-      <c r="HQ25" s="6"/>
-      <c r="HR25" s="6"/>
-      <c r="HS25" s="6"/>
-      <c r="HT25" s="6"/>
-      <c r="HU25" s="6"/>
-      <c r="HV25" s="6"/>
-      <c r="HW25" s="6"/>
-      <c r="HX25" s="6"/>
-      <c r="HY25" s="6"/>
-      <c r="HZ25" s="6"/>
-      <c r="IA25" s="6"/>
-      <c r="IB25" s="6"/>
-      <c r="IC25" s="6"/>
-      <c r="ID25" s="6"/>
-      <c r="IE25" s="6"/>
-      <c r="IF25" s="6"/>
-      <c r="IG25" s="6"/>
-      <c r="IH25" s="6"/>
-      <c r="II25" s="6"/>
-      <c r="IJ25" s="6"/>
-      <c r="IK25" s="6"/>
-      <c r="IL25" s="6"/>
-      <c r="IM25" s="6"/>
-      <c r="IN25" s="6"/>
-      <c r="IO25" s="6"/>
-      <c r="IP25" s="6"/>
     </row>
-    <row r="26" spans="1:250" s="7" customFormat="1" ht="11.25">
-      <c r="A26" s="75">
-        <v>1.6</v>
-      </c>
-      <c r="B26" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="42"/>
+    <row r="26" spans="1:250" s="7" customFormat="1" ht="10">
+      <c r="A26" s="23"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
       <c r="J26" s="17"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
@@ -6477,52 +6661,544 @@
       <c r="IO26" s="6"/>
       <c r="IP26" s="6"/>
     </row>
-    <row r="27" spans="1:250" s="6" customFormat="1" ht="12">
-      <c r="A27" s="76">
-        <v>2</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="57" t="s">
+    <row r="27" spans="1:250" s="7" customFormat="1" ht="15">
+      <c r="A27" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="63">
+        <v>41047</v>
+      </c>
+      <c r="E27" s="63">
+        <v>41055</v>
+      </c>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="48">
+        <v>9</v>
+      </c>
+      <c r="I27" s="49"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6"/>
+      <c r="AN27" s="6"/>
+      <c r="AO27" s="6"/>
+      <c r="AP27" s="6"/>
+      <c r="AQ27" s="6"/>
+      <c r="AR27" s="6"/>
+      <c r="AS27" s="6"/>
+      <c r="AT27" s="6"/>
+      <c r="AU27" s="6"/>
+      <c r="AV27" s="6"/>
+      <c r="AW27" s="6"/>
+      <c r="AX27" s="6"/>
+      <c r="AY27" s="6"/>
+      <c r="AZ27" s="6"/>
+      <c r="BA27" s="6"/>
+      <c r="BB27" s="6"/>
+      <c r="BC27" s="6"/>
+      <c r="BD27" s="6"/>
+      <c r="BE27" s="6"/>
+      <c r="BF27" s="6"/>
+      <c r="BG27" s="6"/>
+      <c r="BH27" s="6"/>
+      <c r="BI27" s="6"/>
+      <c r="BJ27" s="6"/>
+      <c r="BK27" s="6"/>
+      <c r="BL27" s="6"/>
+      <c r="BM27" s="6"/>
+      <c r="BN27" s="6"/>
+      <c r="BO27" s="6"/>
+      <c r="BP27" s="6"/>
+      <c r="BQ27" s="6"/>
+      <c r="BR27" s="6"/>
+      <c r="BS27" s="6"/>
+      <c r="BT27" s="6"/>
+      <c r="BU27" s="6"/>
+      <c r="BV27" s="6"/>
+      <c r="BW27" s="6"/>
+      <c r="BX27" s="6"/>
+      <c r="BY27" s="6"/>
+      <c r="BZ27" s="6"/>
+      <c r="CA27" s="6"/>
+      <c r="CB27" s="6"/>
+      <c r="CC27" s="6"/>
+      <c r="CD27" s="6"/>
+      <c r="CE27" s="6"/>
+      <c r="CF27" s="6"/>
+      <c r="CG27" s="6"/>
+      <c r="CH27" s="6"/>
+      <c r="CI27" s="6"/>
+      <c r="CJ27" s="6"/>
+      <c r="CK27" s="6"/>
+      <c r="CL27" s="6"/>
+      <c r="CM27" s="6"/>
+      <c r="CN27" s="6"/>
+      <c r="CO27" s="6"/>
+      <c r="CP27" s="6"/>
+      <c r="CQ27" s="6"/>
+      <c r="CR27" s="6"/>
+      <c r="CS27" s="6"/>
+      <c r="CT27" s="6"/>
+      <c r="CU27" s="6"/>
+      <c r="CV27" s="6"/>
+      <c r="CW27" s="6"/>
+      <c r="CX27" s="6"/>
+      <c r="CY27" s="6"/>
+      <c r="CZ27" s="6"/>
+      <c r="DA27" s="6"/>
+      <c r="DB27" s="6"/>
+      <c r="DC27" s="6"/>
+      <c r="DD27" s="6"/>
+      <c r="DE27" s="6"/>
+      <c r="DF27" s="6"/>
+      <c r="DG27" s="6"/>
+      <c r="DH27" s="6"/>
+      <c r="DI27" s="6"/>
+      <c r="DJ27" s="6"/>
+      <c r="DK27" s="6"/>
+      <c r="DL27" s="6"/>
+      <c r="DM27" s="6"/>
+      <c r="DN27" s="6"/>
+      <c r="DO27" s="6"/>
+      <c r="DP27" s="6"/>
+      <c r="DQ27" s="6"/>
+      <c r="DR27" s="6"/>
+      <c r="DS27" s="6"/>
+      <c r="DT27" s="6"/>
+      <c r="DU27" s="6"/>
+      <c r="DV27" s="6"/>
+      <c r="DW27" s="6"/>
+      <c r="DX27" s="6"/>
+      <c r="DY27" s="6"/>
+      <c r="DZ27" s="6"/>
+      <c r="EA27" s="6"/>
+      <c r="EB27" s="6"/>
+      <c r="EC27" s="6"/>
+      <c r="ED27" s="6"/>
+      <c r="EE27" s="6"/>
+      <c r="EF27" s="6"/>
+      <c r="EG27" s="6"/>
+      <c r="EH27" s="6"/>
+      <c r="EI27" s="6"/>
+      <c r="EJ27" s="6"/>
+      <c r="EK27" s="6"/>
+      <c r="EL27" s="6"/>
+      <c r="EM27" s="6"/>
+      <c r="EN27" s="6"/>
+      <c r="EO27" s="6"/>
+      <c r="EP27" s="6"/>
+      <c r="EQ27" s="6"/>
+      <c r="ER27" s="6"/>
+      <c r="ES27" s="6"/>
+      <c r="ET27" s="6"/>
+      <c r="EU27" s="6"/>
+      <c r="EV27" s="6"/>
+      <c r="EW27" s="6"/>
+      <c r="EX27" s="6"/>
+      <c r="EY27" s="6"/>
+      <c r="EZ27" s="6"/>
+      <c r="FA27" s="6"/>
+      <c r="FB27" s="6"/>
+      <c r="FC27" s="6"/>
+      <c r="FD27" s="6"/>
+      <c r="FE27" s="6"/>
+      <c r="FF27" s="6"/>
+      <c r="FG27" s="6"/>
+      <c r="FH27" s="6"/>
+      <c r="FI27" s="6"/>
+      <c r="FJ27" s="6"/>
+      <c r="FK27" s="6"/>
+      <c r="FL27" s="6"/>
+      <c r="FM27" s="6"/>
+      <c r="FN27" s="6"/>
+      <c r="FO27" s="6"/>
+      <c r="FP27" s="6"/>
+      <c r="FQ27" s="6"/>
+      <c r="FR27" s="6"/>
+      <c r="FS27" s="6"/>
+      <c r="FT27" s="6"/>
+      <c r="FU27" s="6"/>
+      <c r="FV27" s="6"/>
+      <c r="FW27" s="6"/>
+      <c r="FX27" s="6"/>
+      <c r="FY27" s="6"/>
+      <c r="FZ27" s="6"/>
+      <c r="GA27" s="6"/>
+      <c r="GB27" s="6"/>
+      <c r="GC27" s="6"/>
+      <c r="GD27" s="6"/>
+      <c r="GE27" s="6"/>
+      <c r="GF27" s="6"/>
+      <c r="GG27" s="6"/>
+      <c r="GH27" s="6"/>
+      <c r="GI27" s="6"/>
+      <c r="GJ27" s="6"/>
+      <c r="GK27" s="6"/>
+      <c r="GL27" s="6"/>
+      <c r="GM27" s="6"/>
+      <c r="GN27" s="6"/>
+      <c r="GO27" s="6"/>
+      <c r="GP27" s="6"/>
+      <c r="GQ27" s="6"/>
+      <c r="GR27" s="6"/>
+      <c r="GS27" s="6"/>
+      <c r="GT27" s="6"/>
+      <c r="GU27" s="6"/>
+      <c r="GV27" s="6"/>
+      <c r="GW27" s="6"/>
+      <c r="GX27" s="6"/>
+      <c r="GY27" s="6"/>
+      <c r="GZ27" s="6"/>
+      <c r="HA27" s="6"/>
+      <c r="HB27" s="6"/>
+      <c r="HC27" s="6"/>
+      <c r="HD27" s="6"/>
+      <c r="HE27" s="6"/>
+      <c r="HF27" s="6"/>
+      <c r="HG27" s="6"/>
+      <c r="HH27" s="6"/>
+      <c r="HI27" s="6"/>
+      <c r="HJ27" s="6"/>
+      <c r="HK27" s="6"/>
+      <c r="HL27" s="6"/>
+      <c r="HM27" s="6"/>
+      <c r="HN27" s="6"/>
+      <c r="HO27" s="6"/>
+      <c r="HP27" s="6"/>
+      <c r="HQ27" s="6"/>
+      <c r="HR27" s="6"/>
+      <c r="HS27" s="6"/>
+      <c r="HT27" s="6"/>
+      <c r="HU27" s="6"/>
+      <c r="HV27" s="6"/>
+      <c r="HW27" s="6"/>
+      <c r="HX27" s="6"/>
+      <c r="HY27" s="6"/>
+      <c r="HZ27" s="6"/>
+      <c r="IA27" s="6"/>
+      <c r="IB27" s="6"/>
+      <c r="IC27" s="6"/>
+      <c r="ID27" s="6"/>
+      <c r="IE27" s="6"/>
+      <c r="IF27" s="6"/>
+      <c r="IG27" s="6"/>
+      <c r="IH27" s="6"/>
+      <c r="II27" s="6"/>
+      <c r="IJ27" s="6"/>
+      <c r="IK27" s="6"/>
+      <c r="IL27" s="6"/>
+      <c r="IM27" s="6"/>
+      <c r="IN27" s="6"/>
+      <c r="IO27" s="6"/>
+      <c r="IP27" s="6"/>
+    </row>
+    <row r="28" spans="1:250" s="7" customFormat="1" ht="13">
+      <c r="A28" s="77">
+        <v>1</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="17"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6"/>
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="6"/>
+      <c r="AP28" s="6"/>
+      <c r="AQ28" s="6"/>
+      <c r="AR28" s="6"/>
+      <c r="AS28" s="6"/>
+      <c r="AT28" s="6"/>
+      <c r="AU28" s="6"/>
+      <c r="AV28" s="6"/>
+      <c r="AW28" s="6"/>
+      <c r="AX28" s="6"/>
+      <c r="AY28" s="6"/>
+      <c r="AZ28" s="6"/>
+      <c r="BA28" s="6"/>
+      <c r="BB28" s="6"/>
+      <c r="BC28" s="6"/>
+      <c r="BD28" s="6"/>
+      <c r="BE28" s="6"/>
+      <c r="BF28" s="6"/>
+      <c r="BG28" s="6"/>
+      <c r="BH28" s="6"/>
+      <c r="BI28" s="6"/>
+      <c r="BJ28" s="6"/>
+      <c r="BK28" s="6"/>
+      <c r="BL28" s="6"/>
+      <c r="BM28" s="6"/>
+      <c r="BN28" s="6"/>
+      <c r="BO28" s="6"/>
+      <c r="BP28" s="6"/>
+      <c r="BQ28" s="6"/>
+      <c r="BR28" s="6"/>
+      <c r="BS28" s="6"/>
+      <c r="BT28" s="6"/>
+      <c r="BU28" s="6"/>
+      <c r="BV28" s="6"/>
+      <c r="BW28" s="6"/>
+      <c r="BX28" s="6"/>
+      <c r="BY28" s="6"/>
+      <c r="BZ28" s="6"/>
+      <c r="CA28" s="6"/>
+      <c r="CB28" s="6"/>
+      <c r="CC28" s="6"/>
+      <c r="CD28" s="6"/>
+      <c r="CE28" s="6"/>
+      <c r="CF28" s="6"/>
+      <c r="CG28" s="6"/>
+      <c r="CH28" s="6"/>
+      <c r="CI28" s="6"/>
+      <c r="CJ28" s="6"/>
+      <c r="CK28" s="6"/>
+      <c r="CL28" s="6"/>
+      <c r="CM28" s="6"/>
+      <c r="CN28" s="6"/>
+      <c r="CO28" s="6"/>
+      <c r="CP28" s="6"/>
+      <c r="CQ28" s="6"/>
+      <c r="CR28" s="6"/>
+      <c r="CS28" s="6"/>
+      <c r="CT28" s="6"/>
+      <c r="CU28" s="6"/>
+      <c r="CV28" s="6"/>
+      <c r="CW28" s="6"/>
+      <c r="CX28" s="6"/>
+      <c r="CY28" s="6"/>
+      <c r="CZ28" s="6"/>
+      <c r="DA28" s="6"/>
+      <c r="DB28" s="6"/>
+      <c r="DC28" s="6"/>
+      <c r="DD28" s="6"/>
+      <c r="DE28" s="6"/>
+      <c r="DF28" s="6"/>
+      <c r="DG28" s="6"/>
+      <c r="DH28" s="6"/>
+      <c r="DI28" s="6"/>
+      <c r="DJ28" s="6"/>
+      <c r="DK28" s="6"/>
+      <c r="DL28" s="6"/>
+      <c r="DM28" s="6"/>
+      <c r="DN28" s="6"/>
+      <c r="DO28" s="6"/>
+      <c r="DP28" s="6"/>
+      <c r="DQ28" s="6"/>
+      <c r="DR28" s="6"/>
+      <c r="DS28" s="6"/>
+      <c r="DT28" s="6"/>
+      <c r="DU28" s="6"/>
+      <c r="DV28" s="6"/>
+      <c r="DW28" s="6"/>
+      <c r="DX28" s="6"/>
+      <c r="DY28" s="6"/>
+      <c r="DZ28" s="6"/>
+      <c r="EA28" s="6"/>
+      <c r="EB28" s="6"/>
+      <c r="EC28" s="6"/>
+      <c r="ED28" s="6"/>
+      <c r="EE28" s="6"/>
+      <c r="EF28" s="6"/>
+      <c r="EG28" s="6"/>
+      <c r="EH28" s="6"/>
+      <c r="EI28" s="6"/>
+      <c r="EJ28" s="6"/>
+      <c r="EK28" s="6"/>
+      <c r="EL28" s="6"/>
+      <c r="EM28" s="6"/>
+      <c r="EN28" s="6"/>
+      <c r="EO28" s="6"/>
+      <c r="EP28" s="6"/>
+      <c r="EQ28" s="6"/>
+      <c r="ER28" s="6"/>
+      <c r="ES28" s="6"/>
+      <c r="ET28" s="6"/>
+      <c r="EU28" s="6"/>
+      <c r="EV28" s="6"/>
+      <c r="EW28" s="6"/>
+      <c r="EX28" s="6"/>
+      <c r="EY28" s="6"/>
+      <c r="EZ28" s="6"/>
+      <c r="FA28" s="6"/>
+      <c r="FB28" s="6"/>
+      <c r="FC28" s="6"/>
+      <c r="FD28" s="6"/>
+      <c r="FE28" s="6"/>
+      <c r="FF28" s="6"/>
+      <c r="FG28" s="6"/>
+      <c r="FH28" s="6"/>
+      <c r="FI28" s="6"/>
+      <c r="FJ28" s="6"/>
+      <c r="FK28" s="6"/>
+      <c r="FL28" s="6"/>
+      <c r="FM28" s="6"/>
+      <c r="FN28" s="6"/>
+      <c r="FO28" s="6"/>
+      <c r="FP28" s="6"/>
+      <c r="FQ28" s="6"/>
+      <c r="FR28" s="6"/>
+      <c r="FS28" s="6"/>
+      <c r="FT28" s="6"/>
+      <c r="FU28" s="6"/>
+      <c r="FV28" s="6"/>
+      <c r="FW28" s="6"/>
+      <c r="FX28" s="6"/>
+      <c r="FY28" s="6"/>
+      <c r="FZ28" s="6"/>
+      <c r="GA28" s="6"/>
+      <c r="GB28" s="6"/>
+      <c r="GC28" s="6"/>
+      <c r="GD28" s="6"/>
+      <c r="GE28" s="6"/>
+      <c r="GF28" s="6"/>
+      <c r="GG28" s="6"/>
+      <c r="GH28" s="6"/>
+      <c r="GI28" s="6"/>
+      <c r="GJ28" s="6"/>
+      <c r="GK28" s="6"/>
+      <c r="GL28" s="6"/>
+      <c r="GM28" s="6"/>
+      <c r="GN28" s="6"/>
+      <c r="GO28" s="6"/>
+      <c r="GP28" s="6"/>
+      <c r="GQ28" s="6"/>
+      <c r="GR28" s="6"/>
+      <c r="GS28" s="6"/>
+      <c r="GT28" s="6"/>
+      <c r="GU28" s="6"/>
+      <c r="GV28" s="6"/>
+      <c r="GW28" s="6"/>
+      <c r="GX28" s="6"/>
+      <c r="GY28" s="6"/>
+      <c r="GZ28" s="6"/>
+      <c r="HA28" s="6"/>
+      <c r="HB28" s="6"/>
+      <c r="HC28" s="6"/>
+      <c r="HD28" s="6"/>
+      <c r="HE28" s="6"/>
+      <c r="HF28" s="6"/>
+      <c r="HG28" s="6"/>
+      <c r="HH28" s="6"/>
+      <c r="HI28" s="6"/>
+      <c r="HJ28" s="6"/>
+      <c r="HK28" s="6"/>
+      <c r="HL28" s="6"/>
+      <c r="HM28" s="6"/>
+      <c r="HN28" s="6"/>
+      <c r="HO28" s="6"/>
+      <c r="HP28" s="6"/>
+      <c r="HQ28" s="6"/>
+      <c r="HR28" s="6"/>
+      <c r="HS28" s="6"/>
+      <c r="HT28" s="6"/>
+      <c r="HU28" s="6"/>
+      <c r="HV28" s="6"/>
+      <c r="HW28" s="6"/>
+      <c r="HX28" s="6"/>
+      <c r="HY28" s="6"/>
+      <c r="HZ28" s="6"/>
+      <c r="IA28" s="6"/>
+      <c r="IB28" s="6"/>
+      <c r="IC28" s="6"/>
+      <c r="ID28" s="6"/>
+      <c r="IE28" s="6"/>
+      <c r="IF28" s="6"/>
+      <c r="IG28" s="6"/>
+      <c r="IH28" s="6"/>
+      <c r="II28" s="6"/>
+      <c r="IJ28" s="6"/>
+      <c r="IK28" s="6"/>
+      <c r="IL28" s="6"/>
+      <c r="IM28" s="6"/>
+      <c r="IN28" s="6"/>
+      <c r="IO28" s="6"/>
+      <c r="IP28" s="6"/>
     </row>
-    <row r="28" spans="1:250" s="6" customFormat="1" ht="12">
-      <c r="A28" s="76">
-        <v>3</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="17"/>
-    </row>
-    <row r="29" spans="1:250" s="7" customFormat="1">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="22"/>
+    <row r="29" spans="1:250" s="7" customFormat="1" ht="11">
+      <c r="A29" s="78">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="49"/>
       <c r="J29" s="17"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -6765,27 +7441,21 @@
       <c r="IO29" s="6"/>
       <c r="IP29" s="6"/>
     </row>
-    <row r="30" spans="1:250" s="7" customFormat="1" ht="15.75">
-      <c r="A30" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="63">
-        <v>41047</v>
-      </c>
-      <c r="E30" s="63">
-        <v>41055</v>
-      </c>
+    <row r="30" spans="1:250" s="7" customFormat="1" ht="11">
+      <c r="A30" s="78">
+        <v>1.2</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
       <c r="F30" s="47"/>
       <c r="G30" s="47"/>
-      <c r="H30" s="48">
-        <v>9</v>
-      </c>
+      <c r="H30" s="48"/>
       <c r="I30" s="49"/>
       <c r="J30" s="17"/>
       <c r="K30" s="6"/>
@@ -7029,15 +7699,15 @@
       <c r="IO30" s="6"/>
       <c r="IP30" s="6"/>
     </row>
-    <row r="31" spans="1:250" s="7" customFormat="1" ht="12">
-      <c r="A31" s="77">
-        <v>1</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>7</v>
+    <row r="31" spans="1:250" s="7" customFormat="1" ht="11">
+      <c r="A31" s="78">
+        <v>1.4</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>11</v>
       </c>
       <c r="C31" s="64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D31" s="47"/>
       <c r="E31" s="47"/>
@@ -7287,12 +7957,12 @@
       <c r="IO31" s="6"/>
       <c r="IP31" s="6"/>
     </row>
-    <row r="32" spans="1:250" s="7" customFormat="1" ht="11.25">
+    <row r="32" spans="1:250" s="7" customFormat="1" ht="11">
       <c r="A32" s="78">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="B32" s="51" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C32" s="64" t="s">
         <v>20</v>
@@ -7545,15 +8215,15 @@
       <c r="IO32" s="6"/>
       <c r="IP32" s="6"/>
     </row>
-    <row r="33" spans="1:250" s="7" customFormat="1" ht="11.25">
-      <c r="A33" s="78">
-        <v>1.2</v>
-      </c>
-      <c r="B33" s="51" t="s">
-        <v>9</v>
+    <row r="33" spans="1:250" s="6" customFormat="1" ht="13">
+      <c r="A33" s="77">
+        <v>2</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>6</v>
       </c>
       <c r="C33" s="64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D33" s="47"/>
       <c r="E33" s="47"/>
@@ -7562,256 +8232,16 @@
       <c r="H33" s="48"/>
       <c r="I33" s="49"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="6"/>
-      <c r="AE33" s="6"/>
-      <c r="AF33" s="6"/>
-      <c r="AG33" s="6"/>
-      <c r="AH33" s="6"/>
-      <c r="AI33" s="6"/>
-      <c r="AJ33" s="6"/>
-      <c r="AK33" s="6"/>
-      <c r="AL33" s="6"/>
-      <c r="AM33" s="6"/>
-      <c r="AN33" s="6"/>
-      <c r="AO33" s="6"/>
-      <c r="AP33" s="6"/>
-      <c r="AQ33" s="6"/>
-      <c r="AR33" s="6"/>
-      <c r="AS33" s="6"/>
-      <c r="AT33" s="6"/>
-      <c r="AU33" s="6"/>
-      <c r="AV33" s="6"/>
-      <c r="AW33" s="6"/>
-      <c r="AX33" s="6"/>
-      <c r="AY33" s="6"/>
-      <c r="AZ33" s="6"/>
-      <c r="BA33" s="6"/>
-      <c r="BB33" s="6"/>
-      <c r="BC33" s="6"/>
-      <c r="BD33" s="6"/>
-      <c r="BE33" s="6"/>
-      <c r="BF33" s="6"/>
-      <c r="BG33" s="6"/>
-      <c r="BH33" s="6"/>
-      <c r="BI33" s="6"/>
-      <c r="BJ33" s="6"/>
-      <c r="BK33" s="6"/>
-      <c r="BL33" s="6"/>
-      <c r="BM33" s="6"/>
-      <c r="BN33" s="6"/>
-      <c r="BO33" s="6"/>
-      <c r="BP33" s="6"/>
-      <c r="BQ33" s="6"/>
-      <c r="BR33" s="6"/>
-      <c r="BS33" s="6"/>
-      <c r="BT33" s="6"/>
-      <c r="BU33" s="6"/>
-      <c r="BV33" s="6"/>
-      <c r="BW33" s="6"/>
-      <c r="BX33" s="6"/>
-      <c r="BY33" s="6"/>
-      <c r="BZ33" s="6"/>
-      <c r="CA33" s="6"/>
-      <c r="CB33" s="6"/>
-      <c r="CC33" s="6"/>
-      <c r="CD33" s="6"/>
-      <c r="CE33" s="6"/>
-      <c r="CF33" s="6"/>
-      <c r="CG33" s="6"/>
-      <c r="CH33" s="6"/>
-      <c r="CI33" s="6"/>
-      <c r="CJ33" s="6"/>
-      <c r="CK33" s="6"/>
-      <c r="CL33" s="6"/>
-      <c r="CM33" s="6"/>
-      <c r="CN33" s="6"/>
-      <c r="CO33" s="6"/>
-      <c r="CP33" s="6"/>
-      <c r="CQ33" s="6"/>
-      <c r="CR33" s="6"/>
-      <c r="CS33" s="6"/>
-      <c r="CT33" s="6"/>
-      <c r="CU33" s="6"/>
-      <c r="CV33" s="6"/>
-      <c r="CW33" s="6"/>
-      <c r="CX33" s="6"/>
-      <c r="CY33" s="6"/>
-      <c r="CZ33" s="6"/>
-      <c r="DA33" s="6"/>
-      <c r="DB33" s="6"/>
-      <c r="DC33" s="6"/>
-      <c r="DD33" s="6"/>
-      <c r="DE33" s="6"/>
-      <c r="DF33" s="6"/>
-      <c r="DG33" s="6"/>
-      <c r="DH33" s="6"/>
-      <c r="DI33" s="6"/>
-      <c r="DJ33" s="6"/>
-      <c r="DK33" s="6"/>
-      <c r="DL33" s="6"/>
-      <c r="DM33" s="6"/>
-      <c r="DN33" s="6"/>
-      <c r="DO33" s="6"/>
-      <c r="DP33" s="6"/>
-      <c r="DQ33" s="6"/>
-      <c r="DR33" s="6"/>
-      <c r="DS33" s="6"/>
-      <c r="DT33" s="6"/>
-      <c r="DU33" s="6"/>
-      <c r="DV33" s="6"/>
-      <c r="DW33" s="6"/>
-      <c r="DX33" s="6"/>
-      <c r="DY33" s="6"/>
-      <c r="DZ33" s="6"/>
-      <c r="EA33" s="6"/>
-      <c r="EB33" s="6"/>
-      <c r="EC33" s="6"/>
-      <c r="ED33" s="6"/>
-      <c r="EE33" s="6"/>
-      <c r="EF33" s="6"/>
-      <c r="EG33" s="6"/>
-      <c r="EH33" s="6"/>
-      <c r="EI33" s="6"/>
-      <c r="EJ33" s="6"/>
-      <c r="EK33" s="6"/>
-      <c r="EL33" s="6"/>
-      <c r="EM33" s="6"/>
-      <c r="EN33" s="6"/>
-      <c r="EO33" s="6"/>
-      <c r="EP33" s="6"/>
-      <c r="EQ33" s="6"/>
-      <c r="ER33" s="6"/>
-      <c r="ES33" s="6"/>
-      <c r="ET33" s="6"/>
-      <c r="EU33" s="6"/>
-      <c r="EV33" s="6"/>
-      <c r="EW33" s="6"/>
-      <c r="EX33" s="6"/>
-      <c r="EY33" s="6"/>
-      <c r="EZ33" s="6"/>
-      <c r="FA33" s="6"/>
-      <c r="FB33" s="6"/>
-      <c r="FC33" s="6"/>
-      <c r="FD33" s="6"/>
-      <c r="FE33" s="6"/>
-      <c r="FF33" s="6"/>
-      <c r="FG33" s="6"/>
-      <c r="FH33" s="6"/>
-      <c r="FI33" s="6"/>
-      <c r="FJ33" s="6"/>
-      <c r="FK33" s="6"/>
-      <c r="FL33" s="6"/>
-      <c r="FM33" s="6"/>
-      <c r="FN33" s="6"/>
-      <c r="FO33" s="6"/>
-      <c r="FP33" s="6"/>
-      <c r="FQ33" s="6"/>
-      <c r="FR33" s="6"/>
-      <c r="FS33" s="6"/>
-      <c r="FT33" s="6"/>
-      <c r="FU33" s="6"/>
-      <c r="FV33" s="6"/>
-      <c r="FW33" s="6"/>
-      <c r="FX33" s="6"/>
-      <c r="FY33" s="6"/>
-      <c r="FZ33" s="6"/>
-      <c r="GA33" s="6"/>
-      <c r="GB33" s="6"/>
-      <c r="GC33" s="6"/>
-      <c r="GD33" s="6"/>
-      <c r="GE33" s="6"/>
-      <c r="GF33" s="6"/>
-      <c r="GG33" s="6"/>
-      <c r="GH33" s="6"/>
-      <c r="GI33" s="6"/>
-      <c r="GJ33" s="6"/>
-      <c r="GK33" s="6"/>
-      <c r="GL33" s="6"/>
-      <c r="GM33" s="6"/>
-      <c r="GN33" s="6"/>
-      <c r="GO33" s="6"/>
-      <c r="GP33" s="6"/>
-      <c r="GQ33" s="6"/>
-      <c r="GR33" s="6"/>
-      <c r="GS33" s="6"/>
-      <c r="GT33" s="6"/>
-      <c r="GU33" s="6"/>
-      <c r="GV33" s="6"/>
-      <c r="GW33" s="6"/>
-      <c r="GX33" s="6"/>
-      <c r="GY33" s="6"/>
-      <c r="GZ33" s="6"/>
-      <c r="HA33" s="6"/>
-      <c r="HB33" s="6"/>
-      <c r="HC33" s="6"/>
-      <c r="HD33" s="6"/>
-      <c r="HE33" s="6"/>
-      <c r="HF33" s="6"/>
-      <c r="HG33" s="6"/>
-      <c r="HH33" s="6"/>
-      <c r="HI33" s="6"/>
-      <c r="HJ33" s="6"/>
-      <c r="HK33" s="6"/>
-      <c r="HL33" s="6"/>
-      <c r="HM33" s="6"/>
-      <c r="HN33" s="6"/>
-      <c r="HO33" s="6"/>
-      <c r="HP33" s="6"/>
-      <c r="HQ33" s="6"/>
-      <c r="HR33" s="6"/>
-      <c r="HS33" s="6"/>
-      <c r="HT33" s="6"/>
-      <c r="HU33" s="6"/>
-      <c r="HV33" s="6"/>
-      <c r="HW33" s="6"/>
-      <c r="HX33" s="6"/>
-      <c r="HY33" s="6"/>
-      <c r="HZ33" s="6"/>
-      <c r="IA33" s="6"/>
-      <c r="IB33" s="6"/>
-      <c r="IC33" s="6"/>
-      <c r="ID33" s="6"/>
-      <c r="IE33" s="6"/>
-      <c r="IF33" s="6"/>
-      <c r="IG33" s="6"/>
-      <c r="IH33" s="6"/>
-      <c r="II33" s="6"/>
-      <c r="IJ33" s="6"/>
-      <c r="IK33" s="6"/>
-      <c r="IL33" s="6"/>
-      <c r="IM33" s="6"/>
-      <c r="IN33" s="6"/>
-      <c r="IO33" s="6"/>
-      <c r="IP33" s="6"/>
     </row>
-    <row r="34" spans="1:250" s="7" customFormat="1" ht="11.25">
-      <c r="A34" s="78">
-        <v>1.4</v>
-      </c>
-      <c r="B34" s="51" t="s">
-        <v>11</v>
+    <row r="34" spans="1:250" s="6" customFormat="1" ht="13">
+      <c r="A34" s="77">
+        <v>3</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>5</v>
       </c>
       <c r="C34" s="64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" s="47"/>
       <c r="E34" s="47"/>
@@ -7820,263 +8250,17 @@
       <c r="H34" s="48"/>
       <c r="I34" s="49"/>
       <c r="J34" s="17"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="6"/>
-      <c r="AB34" s="6"/>
-      <c r="AC34" s="6"/>
-      <c r="AD34" s="6"/>
-      <c r="AE34" s="6"/>
-      <c r="AF34" s="6"/>
-      <c r="AG34" s="6"/>
-      <c r="AH34" s="6"/>
-      <c r="AI34" s="6"/>
-      <c r="AJ34" s="6"/>
-      <c r="AK34" s="6"/>
-      <c r="AL34" s="6"/>
-      <c r="AM34" s="6"/>
-      <c r="AN34" s="6"/>
-      <c r="AO34" s="6"/>
-      <c r="AP34" s="6"/>
-      <c r="AQ34" s="6"/>
-      <c r="AR34" s="6"/>
-      <c r="AS34" s="6"/>
-      <c r="AT34" s="6"/>
-      <c r="AU34" s="6"/>
-      <c r="AV34" s="6"/>
-      <c r="AW34" s="6"/>
-      <c r="AX34" s="6"/>
-      <c r="AY34" s="6"/>
-      <c r="AZ34" s="6"/>
-      <c r="BA34" s="6"/>
-      <c r="BB34" s="6"/>
-      <c r="BC34" s="6"/>
-      <c r="BD34" s="6"/>
-      <c r="BE34" s="6"/>
-      <c r="BF34" s="6"/>
-      <c r="BG34" s="6"/>
-      <c r="BH34" s="6"/>
-      <c r="BI34" s="6"/>
-      <c r="BJ34" s="6"/>
-      <c r="BK34" s="6"/>
-      <c r="BL34" s="6"/>
-      <c r="BM34" s="6"/>
-      <c r="BN34" s="6"/>
-      <c r="BO34" s="6"/>
-      <c r="BP34" s="6"/>
-      <c r="BQ34" s="6"/>
-      <c r="BR34" s="6"/>
-      <c r="BS34" s="6"/>
-      <c r="BT34" s="6"/>
-      <c r="BU34" s="6"/>
-      <c r="BV34" s="6"/>
-      <c r="BW34" s="6"/>
-      <c r="BX34" s="6"/>
-      <c r="BY34" s="6"/>
-      <c r="BZ34" s="6"/>
-      <c r="CA34" s="6"/>
-      <c r="CB34" s="6"/>
-      <c r="CC34" s="6"/>
-      <c r="CD34" s="6"/>
-      <c r="CE34" s="6"/>
-      <c r="CF34" s="6"/>
-      <c r="CG34" s="6"/>
-      <c r="CH34" s="6"/>
-      <c r="CI34" s="6"/>
-      <c r="CJ34" s="6"/>
-      <c r="CK34" s="6"/>
-      <c r="CL34" s="6"/>
-      <c r="CM34" s="6"/>
-      <c r="CN34" s="6"/>
-      <c r="CO34" s="6"/>
-      <c r="CP34" s="6"/>
-      <c r="CQ34" s="6"/>
-      <c r="CR34" s="6"/>
-      <c r="CS34" s="6"/>
-      <c r="CT34" s="6"/>
-      <c r="CU34" s="6"/>
-      <c r="CV34" s="6"/>
-      <c r="CW34" s="6"/>
-      <c r="CX34" s="6"/>
-      <c r="CY34" s="6"/>
-      <c r="CZ34" s="6"/>
-      <c r="DA34" s="6"/>
-      <c r="DB34" s="6"/>
-      <c r="DC34" s="6"/>
-      <c r="DD34" s="6"/>
-      <c r="DE34" s="6"/>
-      <c r="DF34" s="6"/>
-      <c r="DG34" s="6"/>
-      <c r="DH34" s="6"/>
-      <c r="DI34" s="6"/>
-      <c r="DJ34" s="6"/>
-      <c r="DK34" s="6"/>
-      <c r="DL34" s="6"/>
-      <c r="DM34" s="6"/>
-      <c r="DN34" s="6"/>
-      <c r="DO34" s="6"/>
-      <c r="DP34" s="6"/>
-      <c r="DQ34" s="6"/>
-      <c r="DR34" s="6"/>
-      <c r="DS34" s="6"/>
-      <c r="DT34" s="6"/>
-      <c r="DU34" s="6"/>
-      <c r="DV34" s="6"/>
-      <c r="DW34" s="6"/>
-      <c r="DX34" s="6"/>
-      <c r="DY34" s="6"/>
-      <c r="DZ34" s="6"/>
-      <c r="EA34" s="6"/>
-      <c r="EB34" s="6"/>
-      <c r="EC34" s="6"/>
-      <c r="ED34" s="6"/>
-      <c r="EE34" s="6"/>
-      <c r="EF34" s="6"/>
-      <c r="EG34" s="6"/>
-      <c r="EH34" s="6"/>
-      <c r="EI34" s="6"/>
-      <c r="EJ34" s="6"/>
-      <c r="EK34" s="6"/>
-      <c r="EL34" s="6"/>
-      <c r="EM34" s="6"/>
-      <c r="EN34" s="6"/>
-      <c r="EO34" s="6"/>
-      <c r="EP34" s="6"/>
-      <c r="EQ34" s="6"/>
-      <c r="ER34" s="6"/>
-      <c r="ES34" s="6"/>
-      <c r="ET34" s="6"/>
-      <c r="EU34" s="6"/>
-      <c r="EV34" s="6"/>
-      <c r="EW34" s="6"/>
-      <c r="EX34" s="6"/>
-      <c r="EY34" s="6"/>
-      <c r="EZ34" s="6"/>
-      <c r="FA34" s="6"/>
-      <c r="FB34" s="6"/>
-      <c r="FC34" s="6"/>
-      <c r="FD34" s="6"/>
-      <c r="FE34" s="6"/>
-      <c r="FF34" s="6"/>
-      <c r="FG34" s="6"/>
-      <c r="FH34" s="6"/>
-      <c r="FI34" s="6"/>
-      <c r="FJ34" s="6"/>
-      <c r="FK34" s="6"/>
-      <c r="FL34" s="6"/>
-      <c r="FM34" s="6"/>
-      <c r="FN34" s="6"/>
-      <c r="FO34" s="6"/>
-      <c r="FP34" s="6"/>
-      <c r="FQ34" s="6"/>
-      <c r="FR34" s="6"/>
-      <c r="FS34" s="6"/>
-      <c r="FT34" s="6"/>
-      <c r="FU34" s="6"/>
-      <c r="FV34" s="6"/>
-      <c r="FW34" s="6"/>
-      <c r="FX34" s="6"/>
-      <c r="FY34" s="6"/>
-      <c r="FZ34" s="6"/>
-      <c r="GA34" s="6"/>
-      <c r="GB34" s="6"/>
-      <c r="GC34" s="6"/>
-      <c r="GD34" s="6"/>
-      <c r="GE34" s="6"/>
-      <c r="GF34" s="6"/>
-      <c r="GG34" s="6"/>
-      <c r="GH34" s="6"/>
-      <c r="GI34" s="6"/>
-      <c r="GJ34" s="6"/>
-      <c r="GK34" s="6"/>
-      <c r="GL34" s="6"/>
-      <c r="GM34" s="6"/>
-      <c r="GN34" s="6"/>
-      <c r="GO34" s="6"/>
-      <c r="GP34" s="6"/>
-      <c r="GQ34" s="6"/>
-      <c r="GR34" s="6"/>
-      <c r="GS34" s="6"/>
-      <c r="GT34" s="6"/>
-      <c r="GU34" s="6"/>
-      <c r="GV34" s="6"/>
-      <c r="GW34" s="6"/>
-      <c r="GX34" s="6"/>
-      <c r="GY34" s="6"/>
-      <c r="GZ34" s="6"/>
-      <c r="HA34" s="6"/>
-      <c r="HB34" s="6"/>
-      <c r="HC34" s="6"/>
-      <c r="HD34" s="6"/>
-      <c r="HE34" s="6"/>
-      <c r="HF34" s="6"/>
-      <c r="HG34" s="6"/>
-      <c r="HH34" s="6"/>
-      <c r="HI34" s="6"/>
-      <c r="HJ34" s="6"/>
-      <c r="HK34" s="6"/>
-      <c r="HL34" s="6"/>
-      <c r="HM34" s="6"/>
-      <c r="HN34" s="6"/>
-      <c r="HO34" s="6"/>
-      <c r="HP34" s="6"/>
-      <c r="HQ34" s="6"/>
-      <c r="HR34" s="6"/>
-      <c r="HS34" s="6"/>
-      <c r="HT34" s="6"/>
-      <c r="HU34" s="6"/>
-      <c r="HV34" s="6"/>
-      <c r="HW34" s="6"/>
-      <c r="HX34" s="6"/>
-      <c r="HY34" s="6"/>
-      <c r="HZ34" s="6"/>
-      <c r="IA34" s="6"/>
-      <c r="IB34" s="6"/>
-      <c r="IC34" s="6"/>
-      <c r="ID34" s="6"/>
-      <c r="IE34" s="6"/>
-      <c r="IF34" s="6"/>
-      <c r="IG34" s="6"/>
-      <c r="IH34" s="6"/>
-      <c r="II34" s="6"/>
-      <c r="IJ34" s="6"/>
-      <c r="IK34" s="6"/>
-      <c r="IL34" s="6"/>
-      <c r="IM34" s="6"/>
-      <c r="IN34" s="6"/>
-      <c r="IO34" s="6"/>
-      <c r="IP34" s="6"/>
     </row>
-    <row r="35" spans="1:250" s="7" customFormat="1" ht="11.25">
-      <c r="A35" s="78">
-        <v>1.6</v>
-      </c>
-      <c r="B35" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="49"/>
+    <row r="35" spans="1:250" s="7" customFormat="1" ht="10">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="22"/>
       <c r="J35" s="17"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
@@ -8319,822 +8503,554 @@
       <c r="IO35" s="6"/>
       <c r="IP35" s="6"/>
     </row>
-    <row r="36" spans="1:250" s="6" customFormat="1" ht="12">
-      <c r="A36" s="77">
-        <v>2</v>
-      </c>
-      <c r="B36" s="50" t="s">
+    <row r="36" spans="1:250" s="7" customFormat="1" ht="15">
+      <c r="A36" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="67">
+        <v>41056</v>
+      </c>
+      <c r="E36" s="67">
+        <v>41061</v>
+      </c>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="68">
         <v>6</v>
       </c>
-      <c r="C36" s="64" t="s">
+      <c r="I36" s="69"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="6"/>
+      <c r="AN36" s="6"/>
+      <c r="AO36" s="6"/>
+      <c r="AP36" s="6"/>
+      <c r="AQ36" s="6"/>
+      <c r="AR36" s="6"/>
+      <c r="AS36" s="6"/>
+      <c r="AT36" s="6"/>
+      <c r="AU36" s="6"/>
+      <c r="AV36" s="6"/>
+      <c r="AW36" s="6"/>
+      <c r="AX36" s="6"/>
+      <c r="AY36" s="6"/>
+      <c r="AZ36" s="6"/>
+      <c r="BA36" s="6"/>
+      <c r="BB36" s="6"/>
+      <c r="BC36" s="6"/>
+      <c r="BD36" s="6"/>
+      <c r="BE36" s="6"/>
+      <c r="BF36" s="6"/>
+      <c r="BG36" s="6"/>
+      <c r="BH36" s="6"/>
+      <c r="BI36" s="6"/>
+      <c r="BJ36" s="6"/>
+      <c r="BK36" s="6"/>
+      <c r="BL36" s="6"/>
+      <c r="BM36" s="6"/>
+      <c r="BN36" s="6"/>
+      <c r="BO36" s="6"/>
+      <c r="BP36" s="6"/>
+      <c r="BQ36" s="6"/>
+      <c r="BR36" s="6"/>
+      <c r="BS36" s="6"/>
+      <c r="BT36" s="6"/>
+      <c r="BU36" s="6"/>
+      <c r="BV36" s="6"/>
+      <c r="BW36" s="6"/>
+      <c r="BX36" s="6"/>
+      <c r="BY36" s="6"/>
+      <c r="BZ36" s="6"/>
+      <c r="CA36" s="6"/>
+      <c r="CB36" s="6"/>
+      <c r="CC36" s="6"/>
+      <c r="CD36" s="6"/>
+      <c r="CE36" s="6"/>
+      <c r="CF36" s="6"/>
+      <c r="CG36" s="6"/>
+      <c r="CH36" s="6"/>
+      <c r="CI36" s="6"/>
+      <c r="CJ36" s="6"/>
+      <c r="CK36" s="6"/>
+      <c r="CL36" s="6"/>
+      <c r="CM36" s="6"/>
+      <c r="CN36" s="6"/>
+      <c r="CO36" s="6"/>
+      <c r="CP36" s="6"/>
+      <c r="CQ36" s="6"/>
+      <c r="CR36" s="6"/>
+      <c r="CS36" s="6"/>
+      <c r="CT36" s="6"/>
+      <c r="CU36" s="6"/>
+      <c r="CV36" s="6"/>
+      <c r="CW36" s="6"/>
+      <c r="CX36" s="6"/>
+      <c r="CY36" s="6"/>
+      <c r="CZ36" s="6"/>
+      <c r="DA36" s="6"/>
+      <c r="DB36" s="6"/>
+      <c r="DC36" s="6"/>
+      <c r="DD36" s="6"/>
+      <c r="DE36" s="6"/>
+      <c r="DF36" s="6"/>
+      <c r="DG36" s="6"/>
+      <c r="DH36" s="6"/>
+      <c r="DI36" s="6"/>
+      <c r="DJ36" s="6"/>
+      <c r="DK36" s="6"/>
+      <c r="DL36" s="6"/>
+      <c r="DM36" s="6"/>
+      <c r="DN36" s="6"/>
+      <c r="DO36" s="6"/>
+      <c r="DP36" s="6"/>
+      <c r="DQ36" s="6"/>
+      <c r="DR36" s="6"/>
+      <c r="DS36" s="6"/>
+      <c r="DT36" s="6"/>
+      <c r="DU36" s="6"/>
+      <c r="DV36" s="6"/>
+      <c r="DW36" s="6"/>
+      <c r="DX36" s="6"/>
+      <c r="DY36" s="6"/>
+      <c r="DZ36" s="6"/>
+      <c r="EA36" s="6"/>
+      <c r="EB36" s="6"/>
+      <c r="EC36" s="6"/>
+      <c r="ED36" s="6"/>
+      <c r="EE36" s="6"/>
+      <c r="EF36" s="6"/>
+      <c r="EG36" s="6"/>
+      <c r="EH36" s="6"/>
+      <c r="EI36" s="6"/>
+      <c r="EJ36" s="6"/>
+      <c r="EK36" s="6"/>
+      <c r="EL36" s="6"/>
+      <c r="EM36" s="6"/>
+      <c r="EN36" s="6"/>
+      <c r="EO36" s="6"/>
+      <c r="EP36" s="6"/>
+      <c r="EQ36" s="6"/>
+      <c r="ER36" s="6"/>
+      <c r="ES36" s="6"/>
+      <c r="ET36" s="6"/>
+      <c r="EU36" s="6"/>
+      <c r="EV36" s="6"/>
+      <c r="EW36" s="6"/>
+      <c r="EX36" s="6"/>
+      <c r="EY36" s="6"/>
+      <c r="EZ36" s="6"/>
+      <c r="FA36" s="6"/>
+      <c r="FB36" s="6"/>
+      <c r="FC36" s="6"/>
+      <c r="FD36" s="6"/>
+      <c r="FE36" s="6"/>
+      <c r="FF36" s="6"/>
+      <c r="FG36" s="6"/>
+      <c r="FH36" s="6"/>
+      <c r="FI36" s="6"/>
+      <c r="FJ36" s="6"/>
+      <c r="FK36" s="6"/>
+      <c r="FL36" s="6"/>
+      <c r="FM36" s="6"/>
+      <c r="FN36" s="6"/>
+      <c r="FO36" s="6"/>
+      <c r="FP36" s="6"/>
+      <c r="FQ36" s="6"/>
+      <c r="FR36" s="6"/>
+      <c r="FS36" s="6"/>
+      <c r="FT36" s="6"/>
+      <c r="FU36" s="6"/>
+      <c r="FV36" s="6"/>
+      <c r="FW36" s="6"/>
+      <c r="FX36" s="6"/>
+      <c r="FY36" s="6"/>
+      <c r="FZ36" s="6"/>
+      <c r="GA36" s="6"/>
+      <c r="GB36" s="6"/>
+      <c r="GC36" s="6"/>
+      <c r="GD36" s="6"/>
+      <c r="GE36" s="6"/>
+      <c r="GF36" s="6"/>
+      <c r="GG36" s="6"/>
+      <c r="GH36" s="6"/>
+      <c r="GI36" s="6"/>
+      <c r="GJ36" s="6"/>
+      <c r="GK36" s="6"/>
+      <c r="GL36" s="6"/>
+      <c r="GM36" s="6"/>
+      <c r="GN36" s="6"/>
+      <c r="GO36" s="6"/>
+      <c r="GP36" s="6"/>
+      <c r="GQ36" s="6"/>
+      <c r="GR36" s="6"/>
+      <c r="GS36" s="6"/>
+      <c r="GT36" s="6"/>
+      <c r="GU36" s="6"/>
+      <c r="GV36" s="6"/>
+      <c r="GW36" s="6"/>
+      <c r="GX36" s="6"/>
+      <c r="GY36" s="6"/>
+      <c r="GZ36" s="6"/>
+      <c r="HA36" s="6"/>
+      <c r="HB36" s="6"/>
+      <c r="HC36" s="6"/>
+      <c r="HD36" s="6"/>
+      <c r="HE36" s="6"/>
+      <c r="HF36" s="6"/>
+      <c r="HG36" s="6"/>
+      <c r="HH36" s="6"/>
+      <c r="HI36" s="6"/>
+      <c r="HJ36" s="6"/>
+      <c r="HK36" s="6"/>
+      <c r="HL36" s="6"/>
+      <c r="HM36" s="6"/>
+      <c r="HN36" s="6"/>
+      <c r="HO36" s="6"/>
+      <c r="HP36" s="6"/>
+      <c r="HQ36" s="6"/>
+      <c r="HR36" s="6"/>
+      <c r="HS36" s="6"/>
+      <c r="HT36" s="6"/>
+      <c r="HU36" s="6"/>
+      <c r="HV36" s="6"/>
+      <c r="HW36" s="6"/>
+      <c r="HX36" s="6"/>
+      <c r="HY36" s="6"/>
+      <c r="HZ36" s="6"/>
+      <c r="IA36" s="6"/>
+      <c r="IB36" s="6"/>
+      <c r="IC36" s="6"/>
+      <c r="ID36" s="6"/>
+      <c r="IE36" s="6"/>
+      <c r="IF36" s="6"/>
+      <c r="IG36" s="6"/>
+      <c r="IH36" s="6"/>
+      <c r="II36" s="6"/>
+      <c r="IJ36" s="6"/>
+      <c r="IK36" s="6"/>
+      <c r="IL36" s="6"/>
+      <c r="IM36" s="6"/>
+      <c r="IN36" s="6"/>
+      <c r="IO36" s="6"/>
+      <c r="IP36" s="6"/>
+    </row>
+    <row r="37" spans="1:250" s="7" customFormat="1" ht="13">
+      <c r="A37" s="79">
+        <v>1</v>
+      </c>
+      <c r="B37" s="70"/>
+      <c r="C37" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="17"/>
-    </row>
-    <row r="37" spans="1:250" s="6" customFormat="1" ht="12">
-      <c r="A37" s="77">
-        <v>3</v>
-      </c>
-      <c r="B37" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="49"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="69"/>
       <c r="J37" s="17"/>
-    </row>
-    <row r="38" spans="1:250" s="7" customFormat="1">
-      <c r="A38" s="23"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-      <c r="AA38" s="6"/>
-      <c r="AB38" s="6"/>
-      <c r="AC38" s="6"/>
-      <c r="AD38" s="6"/>
-      <c r="AE38" s="6"/>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="6"/>
-      <c r="AH38" s="6"/>
-      <c r="AI38" s="6"/>
-      <c r="AJ38" s="6"/>
-      <c r="AK38" s="6"/>
-      <c r="AL38" s="6"/>
-      <c r="AM38" s="6"/>
-      <c r="AN38" s="6"/>
-      <c r="AO38" s="6"/>
-      <c r="AP38" s="6"/>
-      <c r="AQ38" s="6"/>
-      <c r="AR38" s="6"/>
-      <c r="AS38" s="6"/>
-      <c r="AT38" s="6"/>
-      <c r="AU38" s="6"/>
-      <c r="AV38" s="6"/>
-      <c r="AW38" s="6"/>
-      <c r="AX38" s="6"/>
-      <c r="AY38" s="6"/>
-      <c r="AZ38" s="6"/>
-      <c r="BA38" s="6"/>
-      <c r="BB38" s="6"/>
-      <c r="BC38" s="6"/>
-      <c r="BD38" s="6"/>
-      <c r="BE38" s="6"/>
-      <c r="BF38" s="6"/>
-      <c r="BG38" s="6"/>
-      <c r="BH38" s="6"/>
-      <c r="BI38" s="6"/>
-      <c r="BJ38" s="6"/>
-      <c r="BK38" s="6"/>
-      <c r="BL38" s="6"/>
-      <c r="BM38" s="6"/>
-      <c r="BN38" s="6"/>
-      <c r="BO38" s="6"/>
-      <c r="BP38" s="6"/>
-      <c r="BQ38" s="6"/>
-      <c r="BR38" s="6"/>
-      <c r="BS38" s="6"/>
-      <c r="BT38" s="6"/>
-      <c r="BU38" s="6"/>
-      <c r="BV38" s="6"/>
-      <c r="BW38" s="6"/>
-      <c r="BX38" s="6"/>
-      <c r="BY38" s="6"/>
-      <c r="BZ38" s="6"/>
-      <c r="CA38" s="6"/>
-      <c r="CB38" s="6"/>
-      <c r="CC38" s="6"/>
-      <c r="CD38" s="6"/>
-      <c r="CE38" s="6"/>
-      <c r="CF38" s="6"/>
-      <c r="CG38" s="6"/>
-      <c r="CH38" s="6"/>
-      <c r="CI38" s="6"/>
-      <c r="CJ38" s="6"/>
-      <c r="CK38" s="6"/>
-      <c r="CL38" s="6"/>
-      <c r="CM38" s="6"/>
-      <c r="CN38" s="6"/>
-      <c r="CO38" s="6"/>
-      <c r="CP38" s="6"/>
-      <c r="CQ38" s="6"/>
-      <c r="CR38" s="6"/>
-      <c r="CS38" s="6"/>
-      <c r="CT38" s="6"/>
-      <c r="CU38" s="6"/>
-      <c r="CV38" s="6"/>
-      <c r="CW38" s="6"/>
-      <c r="CX38" s="6"/>
-      <c r="CY38" s="6"/>
-      <c r="CZ38" s="6"/>
-      <c r="DA38" s="6"/>
-      <c r="DB38" s="6"/>
-      <c r="DC38" s="6"/>
-      <c r="DD38" s="6"/>
-      <c r="DE38" s="6"/>
-      <c r="DF38" s="6"/>
-      <c r="DG38" s="6"/>
-      <c r="DH38" s="6"/>
-      <c r="DI38" s="6"/>
-      <c r="DJ38" s="6"/>
-      <c r="DK38" s="6"/>
-      <c r="DL38" s="6"/>
-      <c r="DM38" s="6"/>
-      <c r="DN38" s="6"/>
-      <c r="DO38" s="6"/>
-      <c r="DP38" s="6"/>
-      <c r="DQ38" s="6"/>
-      <c r="DR38" s="6"/>
-      <c r="DS38" s="6"/>
-      <c r="DT38" s="6"/>
-      <c r="DU38" s="6"/>
-      <c r="DV38" s="6"/>
-      <c r="DW38" s="6"/>
-      <c r="DX38" s="6"/>
-      <c r="DY38" s="6"/>
-      <c r="DZ38" s="6"/>
-      <c r="EA38" s="6"/>
-      <c r="EB38" s="6"/>
-      <c r="EC38" s="6"/>
-      <c r="ED38" s="6"/>
-      <c r="EE38" s="6"/>
-      <c r="EF38" s="6"/>
-      <c r="EG38" s="6"/>
-      <c r="EH38" s="6"/>
-      <c r="EI38" s="6"/>
-      <c r="EJ38" s="6"/>
-      <c r="EK38" s="6"/>
-      <c r="EL38" s="6"/>
-      <c r="EM38" s="6"/>
-      <c r="EN38" s="6"/>
-      <c r="EO38" s="6"/>
-      <c r="EP38" s="6"/>
-      <c r="EQ38" s="6"/>
-      <c r="ER38" s="6"/>
-      <c r="ES38" s="6"/>
-      <c r="ET38" s="6"/>
-      <c r="EU38" s="6"/>
-      <c r="EV38" s="6"/>
-      <c r="EW38" s="6"/>
-      <c r="EX38" s="6"/>
-      <c r="EY38" s="6"/>
-      <c r="EZ38" s="6"/>
-      <c r="FA38" s="6"/>
-      <c r="FB38" s="6"/>
-      <c r="FC38" s="6"/>
-      <c r="FD38" s="6"/>
-      <c r="FE38" s="6"/>
-      <c r="FF38" s="6"/>
-      <c r="FG38" s="6"/>
-      <c r="FH38" s="6"/>
-      <c r="FI38" s="6"/>
-      <c r="FJ38" s="6"/>
-      <c r="FK38" s="6"/>
-      <c r="FL38" s="6"/>
-      <c r="FM38" s="6"/>
-      <c r="FN38" s="6"/>
-      <c r="FO38" s="6"/>
-      <c r="FP38" s="6"/>
-      <c r="FQ38" s="6"/>
-      <c r="FR38" s="6"/>
-      <c r="FS38" s="6"/>
-      <c r="FT38" s="6"/>
-      <c r="FU38" s="6"/>
-      <c r="FV38" s="6"/>
-      <c r="FW38" s="6"/>
-      <c r="FX38" s="6"/>
-      <c r="FY38" s="6"/>
-      <c r="FZ38" s="6"/>
-      <c r="GA38" s="6"/>
-      <c r="GB38" s="6"/>
-      <c r="GC38" s="6"/>
-      <c r="GD38" s="6"/>
-      <c r="GE38" s="6"/>
-      <c r="GF38" s="6"/>
-      <c r="GG38" s="6"/>
-      <c r="GH38" s="6"/>
-      <c r="GI38" s="6"/>
-      <c r="GJ38" s="6"/>
-      <c r="GK38" s="6"/>
-      <c r="GL38" s="6"/>
-      <c r="GM38" s="6"/>
-      <c r="GN38" s="6"/>
-      <c r="GO38" s="6"/>
-      <c r="GP38" s="6"/>
-      <c r="GQ38" s="6"/>
-      <c r="GR38" s="6"/>
-      <c r="GS38" s="6"/>
-      <c r="GT38" s="6"/>
-      <c r="GU38" s="6"/>
-      <c r="GV38" s="6"/>
-      <c r="GW38" s="6"/>
-      <c r="GX38" s="6"/>
-      <c r="GY38" s="6"/>
-      <c r="GZ38" s="6"/>
-      <c r="HA38" s="6"/>
-      <c r="HB38" s="6"/>
-      <c r="HC38" s="6"/>
-      <c r="HD38" s="6"/>
-      <c r="HE38" s="6"/>
-      <c r="HF38" s="6"/>
-      <c r="HG38" s="6"/>
-      <c r="HH38" s="6"/>
-      <c r="HI38" s="6"/>
-      <c r="HJ38" s="6"/>
-      <c r="HK38" s="6"/>
-      <c r="HL38" s="6"/>
-      <c r="HM38" s="6"/>
-      <c r="HN38" s="6"/>
-      <c r="HO38" s="6"/>
-      <c r="HP38" s="6"/>
-      <c r="HQ38" s="6"/>
-      <c r="HR38" s="6"/>
-      <c r="HS38" s="6"/>
-      <c r="HT38" s="6"/>
-      <c r="HU38" s="6"/>
-      <c r="HV38" s="6"/>
-      <c r="HW38" s="6"/>
-      <c r="HX38" s="6"/>
-      <c r="HY38" s="6"/>
-      <c r="HZ38" s="6"/>
-      <c r="IA38" s="6"/>
-      <c r="IB38" s="6"/>
-      <c r="IC38" s="6"/>
-      <c r="ID38" s="6"/>
-      <c r="IE38" s="6"/>
-      <c r="IF38" s="6"/>
-      <c r="IG38" s="6"/>
-      <c r="IH38" s="6"/>
-      <c r="II38" s="6"/>
-      <c r="IJ38" s="6"/>
-      <c r="IK38" s="6"/>
-      <c r="IL38" s="6"/>
-      <c r="IM38" s="6"/>
-      <c r="IN38" s="6"/>
-      <c r="IO38" s="6"/>
-      <c r="IP38" s="6"/>
-    </row>
-    <row r="39" spans="1:250" s="7" customFormat="1" ht="15.75">
-      <c r="A39" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="67">
-        <v>41056</v>
-      </c>
-      <c r="E39" s="67">
-        <v>41061</v>
-      </c>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="68">
-        <v>6</v>
-      </c>
-      <c r="I39" s="69"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
-      <c r="AA39" s="6"/>
-      <c r="AB39" s="6"/>
-      <c r="AC39" s="6"/>
-      <c r="AD39" s="6"/>
-      <c r="AE39" s="6"/>
-      <c r="AF39" s="6"/>
-      <c r="AG39" s="6"/>
-      <c r="AH39" s="6"/>
-      <c r="AI39" s="6"/>
-      <c r="AJ39" s="6"/>
-      <c r="AK39" s="6"/>
-      <c r="AL39" s="6"/>
-      <c r="AM39" s="6"/>
-      <c r="AN39" s="6"/>
-      <c r="AO39" s="6"/>
-      <c r="AP39" s="6"/>
-      <c r="AQ39" s="6"/>
-      <c r="AR39" s="6"/>
-      <c r="AS39" s="6"/>
-      <c r="AT39" s="6"/>
-      <c r="AU39" s="6"/>
-      <c r="AV39" s="6"/>
-      <c r="AW39" s="6"/>
-      <c r="AX39" s="6"/>
-      <c r="AY39" s="6"/>
-      <c r="AZ39" s="6"/>
-      <c r="BA39" s="6"/>
-      <c r="BB39" s="6"/>
-      <c r="BC39" s="6"/>
-      <c r="BD39" s="6"/>
-      <c r="BE39" s="6"/>
-      <c r="BF39" s="6"/>
-      <c r="BG39" s="6"/>
-      <c r="BH39" s="6"/>
-      <c r="BI39" s="6"/>
-      <c r="BJ39" s="6"/>
-      <c r="BK39" s="6"/>
-      <c r="BL39" s="6"/>
-      <c r="BM39" s="6"/>
-      <c r="BN39" s="6"/>
-      <c r="BO39" s="6"/>
-      <c r="BP39" s="6"/>
-      <c r="BQ39" s="6"/>
-      <c r="BR39" s="6"/>
-      <c r="BS39" s="6"/>
-      <c r="BT39" s="6"/>
-      <c r="BU39" s="6"/>
-      <c r="BV39" s="6"/>
-      <c r="BW39" s="6"/>
-      <c r="BX39" s="6"/>
-      <c r="BY39" s="6"/>
-      <c r="BZ39" s="6"/>
-      <c r="CA39" s="6"/>
-      <c r="CB39" s="6"/>
-      <c r="CC39" s="6"/>
-      <c r="CD39" s="6"/>
-      <c r="CE39" s="6"/>
-      <c r="CF39" s="6"/>
-      <c r="CG39" s="6"/>
-      <c r="CH39" s="6"/>
-      <c r="CI39" s="6"/>
-      <c r="CJ39" s="6"/>
-      <c r="CK39" s="6"/>
-      <c r="CL39" s="6"/>
-      <c r="CM39" s="6"/>
-      <c r="CN39" s="6"/>
-      <c r="CO39" s="6"/>
-      <c r="CP39" s="6"/>
-      <c r="CQ39" s="6"/>
-      <c r="CR39" s="6"/>
-      <c r="CS39" s="6"/>
-      <c r="CT39" s="6"/>
-      <c r="CU39" s="6"/>
-      <c r="CV39" s="6"/>
-      <c r="CW39" s="6"/>
-      <c r="CX39" s="6"/>
-      <c r="CY39" s="6"/>
-      <c r="CZ39" s="6"/>
-      <c r="DA39" s="6"/>
-      <c r="DB39" s="6"/>
-      <c r="DC39" s="6"/>
-      <c r="DD39" s="6"/>
-      <c r="DE39" s="6"/>
-      <c r="DF39" s="6"/>
-      <c r="DG39" s="6"/>
-      <c r="DH39" s="6"/>
-      <c r="DI39" s="6"/>
-      <c r="DJ39" s="6"/>
-      <c r="DK39" s="6"/>
-      <c r="DL39" s="6"/>
-      <c r="DM39" s="6"/>
-      <c r="DN39" s="6"/>
-      <c r="DO39" s="6"/>
-      <c r="DP39" s="6"/>
-      <c r="DQ39" s="6"/>
-      <c r="DR39" s="6"/>
-      <c r="DS39" s="6"/>
-      <c r="DT39" s="6"/>
-      <c r="DU39" s="6"/>
-      <c r="DV39" s="6"/>
-      <c r="DW39" s="6"/>
-      <c r="DX39" s="6"/>
-      <c r="DY39" s="6"/>
-      <c r="DZ39" s="6"/>
-      <c r="EA39" s="6"/>
-      <c r="EB39" s="6"/>
-      <c r="EC39" s="6"/>
-      <c r="ED39" s="6"/>
-      <c r="EE39" s="6"/>
-      <c r="EF39" s="6"/>
-      <c r="EG39" s="6"/>
-      <c r="EH39" s="6"/>
-      <c r="EI39" s="6"/>
-      <c r="EJ39" s="6"/>
-      <c r="EK39" s="6"/>
-      <c r="EL39" s="6"/>
-      <c r="EM39" s="6"/>
-      <c r="EN39" s="6"/>
-      <c r="EO39" s="6"/>
-      <c r="EP39" s="6"/>
-      <c r="EQ39" s="6"/>
-      <c r="ER39" s="6"/>
-      <c r="ES39" s="6"/>
-      <c r="ET39" s="6"/>
-      <c r="EU39" s="6"/>
-      <c r="EV39" s="6"/>
-      <c r="EW39" s="6"/>
-      <c r="EX39" s="6"/>
-      <c r="EY39" s="6"/>
-      <c r="EZ39" s="6"/>
-      <c r="FA39" s="6"/>
-      <c r="FB39" s="6"/>
-      <c r="FC39" s="6"/>
-      <c r="FD39" s="6"/>
-      <c r="FE39" s="6"/>
-      <c r="FF39" s="6"/>
-      <c r="FG39" s="6"/>
-      <c r="FH39" s="6"/>
-      <c r="FI39" s="6"/>
-      <c r="FJ39" s="6"/>
-      <c r="FK39" s="6"/>
-      <c r="FL39" s="6"/>
-      <c r="FM39" s="6"/>
-      <c r="FN39" s="6"/>
-      <c r="FO39" s="6"/>
-      <c r="FP39" s="6"/>
-      <c r="FQ39" s="6"/>
-      <c r="FR39" s="6"/>
-      <c r="FS39" s="6"/>
-      <c r="FT39" s="6"/>
-      <c r="FU39" s="6"/>
-      <c r="FV39" s="6"/>
-      <c r="FW39" s="6"/>
-      <c r="FX39" s="6"/>
-      <c r="FY39" s="6"/>
-      <c r="FZ39" s="6"/>
-      <c r="GA39" s="6"/>
-      <c r="GB39" s="6"/>
-      <c r="GC39" s="6"/>
-      <c r="GD39" s="6"/>
-      <c r="GE39" s="6"/>
-      <c r="GF39" s="6"/>
-      <c r="GG39" s="6"/>
-      <c r="GH39" s="6"/>
-      <c r="GI39" s="6"/>
-      <c r="GJ39" s="6"/>
-      <c r="GK39" s="6"/>
-      <c r="GL39" s="6"/>
-      <c r="GM39" s="6"/>
-      <c r="GN39" s="6"/>
-      <c r="GO39" s="6"/>
-      <c r="GP39" s="6"/>
-      <c r="GQ39" s="6"/>
-      <c r="GR39" s="6"/>
-      <c r="GS39" s="6"/>
-      <c r="GT39" s="6"/>
-      <c r="GU39" s="6"/>
-      <c r="GV39" s="6"/>
-      <c r="GW39" s="6"/>
-      <c r="GX39" s="6"/>
-      <c r="GY39" s="6"/>
-      <c r="GZ39" s="6"/>
-      <c r="HA39" s="6"/>
-      <c r="HB39" s="6"/>
-      <c r="HC39" s="6"/>
-      <c r="HD39" s="6"/>
-      <c r="HE39" s="6"/>
-      <c r="HF39" s="6"/>
-      <c r="HG39" s="6"/>
-      <c r="HH39" s="6"/>
-      <c r="HI39" s="6"/>
-      <c r="HJ39" s="6"/>
-      <c r="HK39" s="6"/>
-      <c r="HL39" s="6"/>
-      <c r="HM39" s="6"/>
-      <c r="HN39" s="6"/>
-      <c r="HO39" s="6"/>
-      <c r="HP39" s="6"/>
-      <c r="HQ39" s="6"/>
-      <c r="HR39" s="6"/>
-      <c r="HS39" s="6"/>
-      <c r="HT39" s="6"/>
-      <c r="HU39" s="6"/>
-      <c r="HV39" s="6"/>
-      <c r="HW39" s="6"/>
-      <c r="HX39" s="6"/>
-      <c r="HY39" s="6"/>
-      <c r="HZ39" s="6"/>
-      <c r="IA39" s="6"/>
-      <c r="IB39" s="6"/>
-      <c r="IC39" s="6"/>
-      <c r="ID39" s="6"/>
-      <c r="IE39" s="6"/>
-      <c r="IF39" s="6"/>
-      <c r="IG39" s="6"/>
-      <c r="IH39" s="6"/>
-      <c r="II39" s="6"/>
-      <c r="IJ39" s="6"/>
-      <c r="IK39" s="6"/>
-      <c r="IL39" s="6"/>
-      <c r="IM39" s="6"/>
-      <c r="IN39" s="6"/>
-      <c r="IO39" s="6"/>
-      <c r="IP39" s="6"/>
-    </row>
-    <row r="40" spans="1:250" s="7" customFormat="1" ht="12">
-      <c r="A40" s="79">
-        <v>1</v>
-      </c>
-      <c r="B40" s="70"/>
-      <c r="C40" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="69"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6"/>
-      <c r="AB40" s="6"/>
-      <c r="AC40" s="6"/>
-      <c r="AD40" s="6"/>
-      <c r="AE40" s="6"/>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="6"/>
-      <c r="AH40" s="6"/>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="6"/>
-      <c r="AK40" s="6"/>
-      <c r="AL40" s="6"/>
-      <c r="AM40" s="6"/>
-      <c r="AN40" s="6"/>
-      <c r="AO40" s="6"/>
-      <c r="AP40" s="6"/>
-      <c r="AQ40" s="6"/>
-      <c r="AR40" s="6"/>
-      <c r="AS40" s="6"/>
-      <c r="AT40" s="6"/>
-      <c r="AU40" s="6"/>
-      <c r="AV40" s="6"/>
-      <c r="AW40" s="6"/>
-      <c r="AX40" s="6"/>
-      <c r="AY40" s="6"/>
-      <c r="AZ40" s="6"/>
-      <c r="BA40" s="6"/>
-      <c r="BB40" s="6"/>
-      <c r="BC40" s="6"/>
-      <c r="BD40" s="6"/>
-      <c r="BE40" s="6"/>
-      <c r="BF40" s="6"/>
-      <c r="BG40" s="6"/>
-      <c r="BH40" s="6"/>
-      <c r="BI40" s="6"/>
-      <c r="BJ40" s="6"/>
-      <c r="BK40" s="6"/>
-      <c r="BL40" s="6"/>
-      <c r="BM40" s="6"/>
-      <c r="BN40" s="6"/>
-      <c r="BO40" s="6"/>
-      <c r="BP40" s="6"/>
-      <c r="BQ40" s="6"/>
-      <c r="BR40" s="6"/>
-      <c r="BS40" s="6"/>
-      <c r="BT40" s="6"/>
-      <c r="BU40" s="6"/>
-      <c r="BV40" s="6"/>
-      <c r="BW40" s="6"/>
-      <c r="BX40" s="6"/>
-      <c r="BY40" s="6"/>
-      <c r="BZ40" s="6"/>
-      <c r="CA40" s="6"/>
-      <c r="CB40" s="6"/>
-      <c r="CC40" s="6"/>
-      <c r="CD40" s="6"/>
-      <c r="CE40" s="6"/>
-      <c r="CF40" s="6"/>
-      <c r="CG40" s="6"/>
-      <c r="CH40" s="6"/>
-      <c r="CI40" s="6"/>
-      <c r="CJ40" s="6"/>
-      <c r="CK40" s="6"/>
-      <c r="CL40" s="6"/>
-      <c r="CM40" s="6"/>
-      <c r="CN40" s="6"/>
-      <c r="CO40" s="6"/>
-      <c r="CP40" s="6"/>
-      <c r="CQ40" s="6"/>
-      <c r="CR40" s="6"/>
-      <c r="CS40" s="6"/>
-      <c r="CT40" s="6"/>
-      <c r="CU40" s="6"/>
-      <c r="CV40" s="6"/>
-      <c r="CW40" s="6"/>
-      <c r="CX40" s="6"/>
-      <c r="CY40" s="6"/>
-      <c r="CZ40" s="6"/>
-      <c r="DA40" s="6"/>
-      <c r="DB40" s="6"/>
-      <c r="DC40" s="6"/>
-      <c r="DD40" s="6"/>
-      <c r="DE40" s="6"/>
-      <c r="DF40" s="6"/>
-      <c r="DG40" s="6"/>
-      <c r="DH40" s="6"/>
-      <c r="DI40" s="6"/>
-      <c r="DJ40" s="6"/>
-      <c r="DK40" s="6"/>
-      <c r="DL40" s="6"/>
-      <c r="DM40" s="6"/>
-      <c r="DN40" s="6"/>
-      <c r="DO40" s="6"/>
-      <c r="DP40" s="6"/>
-      <c r="DQ40" s="6"/>
-      <c r="DR40" s="6"/>
-      <c r="DS40" s="6"/>
-      <c r="DT40" s="6"/>
-      <c r="DU40" s="6"/>
-      <c r="DV40" s="6"/>
-      <c r="DW40" s="6"/>
-      <c r="DX40" s="6"/>
-      <c r="DY40" s="6"/>
-      <c r="DZ40" s="6"/>
-      <c r="EA40" s="6"/>
-      <c r="EB40" s="6"/>
-      <c r="EC40" s="6"/>
-      <c r="ED40" s="6"/>
-      <c r="EE40" s="6"/>
-      <c r="EF40" s="6"/>
-      <c r="EG40" s="6"/>
-      <c r="EH40" s="6"/>
-      <c r="EI40" s="6"/>
-      <c r="EJ40" s="6"/>
-      <c r="EK40" s="6"/>
-      <c r="EL40" s="6"/>
-      <c r="EM40" s="6"/>
-      <c r="EN40" s="6"/>
-      <c r="EO40" s="6"/>
-      <c r="EP40" s="6"/>
-      <c r="EQ40" s="6"/>
-      <c r="ER40" s="6"/>
-      <c r="ES40" s="6"/>
-      <c r="ET40" s="6"/>
-      <c r="EU40" s="6"/>
-      <c r="EV40" s="6"/>
-      <c r="EW40" s="6"/>
-      <c r="EX40" s="6"/>
-      <c r="EY40" s="6"/>
-      <c r="EZ40" s="6"/>
-      <c r="FA40" s="6"/>
-      <c r="FB40" s="6"/>
-      <c r="FC40" s="6"/>
-      <c r="FD40" s="6"/>
-      <c r="FE40" s="6"/>
-      <c r="FF40" s="6"/>
-      <c r="FG40" s="6"/>
-      <c r="FH40" s="6"/>
-      <c r="FI40" s="6"/>
-      <c r="FJ40" s="6"/>
-      <c r="FK40" s="6"/>
-      <c r="FL40" s="6"/>
-      <c r="FM40" s="6"/>
-      <c r="FN40" s="6"/>
-      <c r="FO40" s="6"/>
-      <c r="FP40" s="6"/>
-      <c r="FQ40" s="6"/>
-      <c r="FR40" s="6"/>
-      <c r="FS40" s="6"/>
-      <c r="FT40" s="6"/>
-      <c r="FU40" s="6"/>
-      <c r="FV40" s="6"/>
-      <c r="FW40" s="6"/>
-      <c r="FX40" s="6"/>
-      <c r="FY40" s="6"/>
-      <c r="FZ40" s="6"/>
-      <c r="GA40" s="6"/>
-      <c r="GB40" s="6"/>
-      <c r="GC40" s="6"/>
-      <c r="GD40" s="6"/>
-      <c r="GE40" s="6"/>
-      <c r="GF40" s="6"/>
-      <c r="GG40" s="6"/>
-      <c r="GH40" s="6"/>
-      <c r="GI40" s="6"/>
-      <c r="GJ40" s="6"/>
-      <c r="GK40" s="6"/>
-      <c r="GL40" s="6"/>
-      <c r="GM40" s="6"/>
-      <c r="GN40" s="6"/>
-      <c r="GO40" s="6"/>
-      <c r="GP40" s="6"/>
-      <c r="GQ40" s="6"/>
-      <c r="GR40" s="6"/>
-      <c r="GS40" s="6"/>
-      <c r="GT40" s="6"/>
-      <c r="GU40" s="6"/>
-      <c r="GV40" s="6"/>
-      <c r="GW40" s="6"/>
-      <c r="GX40" s="6"/>
-      <c r="GY40" s="6"/>
-      <c r="GZ40" s="6"/>
-      <c r="HA40" s="6"/>
-      <c r="HB40" s="6"/>
-      <c r="HC40" s="6"/>
-      <c r="HD40" s="6"/>
-      <c r="HE40" s="6"/>
-      <c r="HF40" s="6"/>
-      <c r="HG40" s="6"/>
-      <c r="HH40" s="6"/>
-      <c r="HI40" s="6"/>
-      <c r="HJ40" s="6"/>
-      <c r="HK40" s="6"/>
-      <c r="HL40" s="6"/>
-      <c r="HM40" s="6"/>
-      <c r="HN40" s="6"/>
-      <c r="HO40" s="6"/>
-      <c r="HP40" s="6"/>
-      <c r="HQ40" s="6"/>
-      <c r="HR40" s="6"/>
-      <c r="HS40" s="6"/>
-      <c r="HT40" s="6"/>
-      <c r="HU40" s="6"/>
-      <c r="HV40" s="6"/>
-      <c r="HW40" s="6"/>
-      <c r="HX40" s="6"/>
-      <c r="HY40" s="6"/>
-      <c r="HZ40" s="6"/>
-      <c r="IA40" s="6"/>
-      <c r="IB40" s="6"/>
-      <c r="IC40" s="6"/>
-      <c r="ID40" s="6"/>
-      <c r="IE40" s="6"/>
-      <c r="IF40" s="6"/>
-      <c r="IG40" s="6"/>
-      <c r="IH40" s="6"/>
-      <c r="II40" s="6"/>
-      <c r="IJ40" s="6"/>
-      <c r="IK40" s="6"/>
-      <c r="IL40" s="6"/>
-      <c r="IM40" s="6"/>
-      <c r="IN40" s="6"/>
-      <c r="IO40" s="6"/>
-      <c r="IP40" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="6"/>
+      <c r="AG37" s="6"/>
+      <c r="AH37" s="6"/>
+      <c r="AI37" s="6"/>
+      <c r="AJ37" s="6"/>
+      <c r="AK37" s="6"/>
+      <c r="AL37" s="6"/>
+      <c r="AM37" s="6"/>
+      <c r="AN37" s="6"/>
+      <c r="AO37" s="6"/>
+      <c r="AP37" s="6"/>
+      <c r="AQ37" s="6"/>
+      <c r="AR37" s="6"/>
+      <c r="AS37" s="6"/>
+      <c r="AT37" s="6"/>
+      <c r="AU37" s="6"/>
+      <c r="AV37" s="6"/>
+      <c r="AW37" s="6"/>
+      <c r="AX37" s="6"/>
+      <c r="AY37" s="6"/>
+      <c r="AZ37" s="6"/>
+      <c r="BA37" s="6"/>
+      <c r="BB37" s="6"/>
+      <c r="BC37" s="6"/>
+      <c r="BD37" s="6"/>
+      <c r="BE37" s="6"/>
+      <c r="BF37" s="6"/>
+      <c r="BG37" s="6"/>
+      <c r="BH37" s="6"/>
+      <c r="BI37" s="6"/>
+      <c r="BJ37" s="6"/>
+      <c r="BK37" s="6"/>
+      <c r="BL37" s="6"/>
+      <c r="BM37" s="6"/>
+      <c r="BN37" s="6"/>
+      <c r="BO37" s="6"/>
+      <c r="BP37" s="6"/>
+      <c r="BQ37" s="6"/>
+      <c r="BR37" s="6"/>
+      <c r="BS37" s="6"/>
+      <c r="BT37" s="6"/>
+      <c r="BU37" s="6"/>
+      <c r="BV37" s="6"/>
+      <c r="BW37" s="6"/>
+      <c r="BX37" s="6"/>
+      <c r="BY37" s="6"/>
+      <c r="BZ37" s="6"/>
+      <c r="CA37" s="6"/>
+      <c r="CB37" s="6"/>
+      <c r="CC37" s="6"/>
+      <c r="CD37" s="6"/>
+      <c r="CE37" s="6"/>
+      <c r="CF37" s="6"/>
+      <c r="CG37" s="6"/>
+      <c r="CH37" s="6"/>
+      <c r="CI37" s="6"/>
+      <c r="CJ37" s="6"/>
+      <c r="CK37" s="6"/>
+      <c r="CL37" s="6"/>
+      <c r="CM37" s="6"/>
+      <c r="CN37" s="6"/>
+      <c r="CO37" s="6"/>
+      <c r="CP37" s="6"/>
+      <c r="CQ37" s="6"/>
+      <c r="CR37" s="6"/>
+      <c r="CS37" s="6"/>
+      <c r="CT37" s="6"/>
+      <c r="CU37" s="6"/>
+      <c r="CV37" s="6"/>
+      <c r="CW37" s="6"/>
+      <c r="CX37" s="6"/>
+      <c r="CY37" s="6"/>
+      <c r="CZ37" s="6"/>
+      <c r="DA37" s="6"/>
+      <c r="DB37" s="6"/>
+      <c r="DC37" s="6"/>
+      <c r="DD37" s="6"/>
+      <c r="DE37" s="6"/>
+      <c r="DF37" s="6"/>
+      <c r="DG37" s="6"/>
+      <c r="DH37" s="6"/>
+      <c r="DI37" s="6"/>
+      <c r="DJ37" s="6"/>
+      <c r="DK37" s="6"/>
+      <c r="DL37" s="6"/>
+      <c r="DM37" s="6"/>
+      <c r="DN37" s="6"/>
+      <c r="DO37" s="6"/>
+      <c r="DP37" s="6"/>
+      <c r="DQ37" s="6"/>
+      <c r="DR37" s="6"/>
+      <c r="DS37" s="6"/>
+      <c r="DT37" s="6"/>
+      <c r="DU37" s="6"/>
+      <c r="DV37" s="6"/>
+      <c r="DW37" s="6"/>
+      <c r="DX37" s="6"/>
+      <c r="DY37" s="6"/>
+      <c r="DZ37" s="6"/>
+      <c r="EA37" s="6"/>
+      <c r="EB37" s="6"/>
+      <c r="EC37" s="6"/>
+      <c r="ED37" s="6"/>
+      <c r="EE37" s="6"/>
+      <c r="EF37" s="6"/>
+      <c r="EG37" s="6"/>
+      <c r="EH37" s="6"/>
+      <c r="EI37" s="6"/>
+      <c r="EJ37" s="6"/>
+      <c r="EK37" s="6"/>
+      <c r="EL37" s="6"/>
+      <c r="EM37" s="6"/>
+      <c r="EN37" s="6"/>
+      <c r="EO37" s="6"/>
+      <c r="EP37" s="6"/>
+      <c r="EQ37" s="6"/>
+      <c r="ER37" s="6"/>
+      <c r="ES37" s="6"/>
+      <c r="ET37" s="6"/>
+      <c r="EU37" s="6"/>
+      <c r="EV37" s="6"/>
+      <c r="EW37" s="6"/>
+      <c r="EX37" s="6"/>
+      <c r="EY37" s="6"/>
+      <c r="EZ37" s="6"/>
+      <c r="FA37" s="6"/>
+      <c r="FB37" s="6"/>
+      <c r="FC37" s="6"/>
+      <c r="FD37" s="6"/>
+      <c r="FE37" s="6"/>
+      <c r="FF37" s="6"/>
+      <c r="FG37" s="6"/>
+      <c r="FH37" s="6"/>
+      <c r="FI37" s="6"/>
+      <c r="FJ37" s="6"/>
+      <c r="FK37" s="6"/>
+      <c r="FL37" s="6"/>
+      <c r="FM37" s="6"/>
+      <c r="FN37" s="6"/>
+      <c r="FO37" s="6"/>
+      <c r="FP37" s="6"/>
+      <c r="FQ37" s="6"/>
+      <c r="FR37" s="6"/>
+      <c r="FS37" s="6"/>
+      <c r="FT37" s="6"/>
+      <c r="FU37" s="6"/>
+      <c r="FV37" s="6"/>
+      <c r="FW37" s="6"/>
+      <c r="FX37" s="6"/>
+      <c r="FY37" s="6"/>
+      <c r="FZ37" s="6"/>
+      <c r="GA37" s="6"/>
+      <c r="GB37" s="6"/>
+      <c r="GC37" s="6"/>
+      <c r="GD37" s="6"/>
+      <c r="GE37" s="6"/>
+      <c r="GF37" s="6"/>
+      <c r="GG37" s="6"/>
+      <c r="GH37" s="6"/>
+      <c r="GI37" s="6"/>
+      <c r="GJ37" s="6"/>
+      <c r="GK37" s="6"/>
+      <c r="GL37" s="6"/>
+      <c r="GM37" s="6"/>
+      <c r="GN37" s="6"/>
+      <c r="GO37" s="6"/>
+      <c r="GP37" s="6"/>
+      <c r="GQ37" s="6"/>
+      <c r="GR37" s="6"/>
+      <c r="GS37" s="6"/>
+      <c r="GT37" s="6"/>
+      <c r="GU37" s="6"/>
+      <c r="GV37" s="6"/>
+      <c r="GW37" s="6"/>
+      <c r="GX37" s="6"/>
+      <c r="GY37" s="6"/>
+      <c r="GZ37" s="6"/>
+      <c r="HA37" s="6"/>
+      <c r="HB37" s="6"/>
+      <c r="HC37" s="6"/>
+      <c r="HD37" s="6"/>
+      <c r="HE37" s="6"/>
+      <c r="HF37" s="6"/>
+      <c r="HG37" s="6"/>
+      <c r="HH37" s="6"/>
+      <c r="HI37" s="6"/>
+      <c r="HJ37" s="6"/>
+      <c r="HK37" s="6"/>
+      <c r="HL37" s="6"/>
+      <c r="HM37" s="6"/>
+      <c r="HN37" s="6"/>
+      <c r="HO37" s="6"/>
+      <c r="HP37" s="6"/>
+      <c r="HQ37" s="6"/>
+      <c r="HR37" s="6"/>
+      <c r="HS37" s="6"/>
+      <c r="HT37" s="6"/>
+      <c r="HU37" s="6"/>
+      <c r="HV37" s="6"/>
+      <c r="HW37" s="6"/>
+      <c r="HX37" s="6"/>
+      <c r="HY37" s="6"/>
+      <c r="HZ37" s="6"/>
+      <c r="IA37" s="6"/>
+      <c r="IB37" s="6"/>
+      <c r="IC37" s="6"/>
+      <c r="ID37" s="6"/>
+      <c r="IE37" s="6"/>
+      <c r="IF37" s="6"/>
+      <c r="IG37" s="6"/>
+      <c r="IH37" s="6"/>
+      <c r="II37" s="6"/>
+      <c r="IJ37" s="6"/>
+      <c r="IK37" s="6"/>
+      <c r="IL37" s="6"/>
+      <c r="IM37" s="6"/>
+      <c r="IN37" s="6"/>
+      <c r="IO37" s="6"/>
+      <c r="IP37" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="AJ7:AN7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="Z7:AD7"/>
-    <mergeCell ref="AE7:AI7"/>
+    <mergeCell ref="HM7:HQ7"/>
+    <mergeCell ref="HR7:HV7"/>
+    <mergeCell ref="GI7:GM7"/>
+    <mergeCell ref="GN7:GR7"/>
+    <mergeCell ref="GS7:GW7"/>
+    <mergeCell ref="GX7:HB7"/>
+    <mergeCell ref="HC7:HG7"/>
+    <mergeCell ref="HH7:HL7"/>
+    <mergeCell ref="DQ7:DU7"/>
+    <mergeCell ref="GD7:GH7"/>
+    <mergeCell ref="EA7:EE7"/>
+    <mergeCell ref="EF7:EJ7"/>
+    <mergeCell ref="EK7:EO7"/>
+    <mergeCell ref="EP7:ET7"/>
+    <mergeCell ref="EU7:EY7"/>
+    <mergeCell ref="EZ7:FD7"/>
+    <mergeCell ref="FE7:FI7"/>
+    <mergeCell ref="FJ7:FN7"/>
+    <mergeCell ref="FO7:FS7"/>
+    <mergeCell ref="FT7:FX7"/>
+    <mergeCell ref="FY7:GC7"/>
+    <mergeCell ref="AO7:AS7"/>
+    <mergeCell ref="AT7:AX7"/>
+    <mergeCell ref="AY7:BC7"/>
+    <mergeCell ref="BD7:BH7"/>
+    <mergeCell ref="BI7:BM7"/>
     <mergeCell ref="BN7:BR7"/>
     <mergeCell ref="HW7:IA7"/>
     <mergeCell ref="IB7:IF7"/>
@@ -9151,109 +9067,34 @@
     <mergeCell ref="DB7:DF7"/>
     <mergeCell ref="DG7:DK7"/>
     <mergeCell ref="DL7:DP7"/>
-    <mergeCell ref="AO7:AS7"/>
-    <mergeCell ref="AT7:AX7"/>
-    <mergeCell ref="AY7:BC7"/>
-    <mergeCell ref="BD7:BH7"/>
-    <mergeCell ref="BI7:BM7"/>
-    <mergeCell ref="DQ7:DU7"/>
-    <mergeCell ref="GD7:GH7"/>
-    <mergeCell ref="EA7:EE7"/>
-    <mergeCell ref="EF7:EJ7"/>
-    <mergeCell ref="EK7:EO7"/>
-    <mergeCell ref="EP7:ET7"/>
-    <mergeCell ref="EU7:EY7"/>
-    <mergeCell ref="EZ7:FD7"/>
-    <mergeCell ref="FE7:FI7"/>
-    <mergeCell ref="FJ7:FN7"/>
-    <mergeCell ref="FO7:FS7"/>
-    <mergeCell ref="FT7:FX7"/>
-    <mergeCell ref="FY7:GC7"/>
-    <mergeCell ref="HM7:HQ7"/>
-    <mergeCell ref="HR7:HV7"/>
-    <mergeCell ref="GI7:GM7"/>
-    <mergeCell ref="GN7:GR7"/>
-    <mergeCell ref="GS7:GW7"/>
-    <mergeCell ref="GX7:HB7"/>
-    <mergeCell ref="HC7:HG7"/>
-    <mergeCell ref="HH7:HL7"/>
+    <mergeCell ref="AJ7:AN7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="Z7:AD7"/>
+    <mergeCell ref="AE7:AI7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="K8:IP8 K16:IP20 K30:IP30">
-    <cfRule type="expression" dxfId="20" priority="37" stopIfTrue="1">
+  <conditionalFormatting sqref="K8:IP8 K16:IP17 K27:IP27 K24:IP25 K33:IP34 K36:IP36">
+    <cfRule type="expression" dxfId="5" priority="40" stopIfTrue="1">
       <formula>K$6=$C$4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="41" stopIfTrue="1">
       <formula>AND(K$6&gt;=$F8,K$6&lt;$F8+#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="42" stopIfTrue="1">
       <formula>AND(K$6&gt;=$F8,K$6&lt;=$F8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:IP15 K21:IP37">
-    <cfRule type="expression" dxfId="17" priority="49" stopIfTrue="1">
+  <conditionalFormatting sqref="K9:IP15 K18:IP37">
+    <cfRule type="expression" dxfId="2" priority="52" stopIfTrue="1">
       <formula>K$6=$C$4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="53" stopIfTrue="1">
       <formula>AND(K$6&gt;=$F9,K$6&lt;$F9+#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="54" stopIfTrue="1">
       <formula>AND(K$6&gt;=$F9,K$6&lt;=$F9+$H9-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27:IP28">
-    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
-      <formula>K$6=$C$4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
-      <formula>AND(K$6&gt;=$F27,K$6&lt;$F27+#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
-      <formula>AND(K$6&gt;=$F27,K$6&lt;=$F27+$H27-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K36:IP37">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
-      <formula>K$6=$C$4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
-      <formula>AND(K$6&gt;=$F36,K$6&lt;$F36+#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
-      <formula>AND(K$6&gt;=$F36,K$6&lt;=$F36+$H36-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K39:IP39">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
-      <formula>K$6=$C$4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
-      <formula>AND(K$6&gt;=$F39,K$6&lt;$F39+#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
-      <formula>AND(K$6&gt;=$F39,K$6&lt;=$F39+$H39-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K39:IP40">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
-      <formula>K$6=$C$4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>AND(K$6&gt;=$F39,K$6&lt;$F39+#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
-      <formula>AND(K$6&gt;=$F39,K$6&lt;=$F39+$H39-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K38:IP38">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
-      <formula>K$6=$C$4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>AND(K$6&gt;=$F38,K$6&lt;$F38+#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>AND(K$6&gt;=$F38,K$6&lt;=$F38+$H38-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -9261,11 +9102,47 @@
     <hyperlink ref="A1" r:id="rId2" tooltip="Link to Vertex42.com"/>
   </hyperlinks>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.51181102362204722" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup orientation="landscape" r:id="rId3"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A38" numberStoredAsText="1"/>
+    <ignoredError sqref="A35" numberStoredAsText="1"/>
   </ignoredErrors>
+  <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6145" r:id="rId5" name="Scroll Bar 1">
+              <controlPr defaultSize="0" print="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>94</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+          <mc:Fallback/>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/P2012001/3 项目管理/3-1 计划/开发计划.xlsx
+++ b/P2012001/3 项目管理/3-1 计划/开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14460"/>
   </bookViews>
   <sheets>
     <sheet name="开发计划" sheetId="8" r:id="rId1"/>
@@ -986,7 +986,7 @@
     <cellStyle name="超级链接" xfId="1" builtinId="8"/>
     <cellStyle name="随超级链接" xfId="3" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -1024,32 +1024,6 @@
       <fill>
         <patternFill>
           <bgColor indexed="40"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="23"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1475,7 +1449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IP37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -9025,32 +8999,12 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="HM7:HQ7"/>
-    <mergeCell ref="HR7:HV7"/>
-    <mergeCell ref="GI7:GM7"/>
-    <mergeCell ref="GN7:GR7"/>
-    <mergeCell ref="GS7:GW7"/>
-    <mergeCell ref="GX7:HB7"/>
-    <mergeCell ref="HC7:HG7"/>
-    <mergeCell ref="HH7:HL7"/>
-    <mergeCell ref="DQ7:DU7"/>
-    <mergeCell ref="GD7:GH7"/>
-    <mergeCell ref="EA7:EE7"/>
-    <mergeCell ref="EF7:EJ7"/>
-    <mergeCell ref="EK7:EO7"/>
-    <mergeCell ref="EP7:ET7"/>
-    <mergeCell ref="EU7:EY7"/>
-    <mergeCell ref="EZ7:FD7"/>
-    <mergeCell ref="FE7:FI7"/>
-    <mergeCell ref="FJ7:FN7"/>
-    <mergeCell ref="FO7:FS7"/>
-    <mergeCell ref="FT7:FX7"/>
-    <mergeCell ref="FY7:GC7"/>
-    <mergeCell ref="AO7:AS7"/>
-    <mergeCell ref="AT7:AX7"/>
-    <mergeCell ref="AY7:BC7"/>
-    <mergeCell ref="BD7:BH7"/>
-    <mergeCell ref="BI7:BM7"/>
+    <mergeCell ref="AJ7:AN7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="Z7:AD7"/>
+    <mergeCell ref="AE7:AI7"/>
     <mergeCell ref="BN7:BR7"/>
     <mergeCell ref="HW7:IA7"/>
     <mergeCell ref="IB7:IF7"/>
@@ -9067,12 +9021,32 @@
     <mergeCell ref="DB7:DF7"/>
     <mergeCell ref="DG7:DK7"/>
     <mergeCell ref="DL7:DP7"/>
-    <mergeCell ref="AJ7:AN7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="Z7:AD7"/>
-    <mergeCell ref="AE7:AI7"/>
+    <mergeCell ref="AO7:AS7"/>
+    <mergeCell ref="AT7:AX7"/>
+    <mergeCell ref="AY7:BC7"/>
+    <mergeCell ref="BD7:BH7"/>
+    <mergeCell ref="BI7:BM7"/>
+    <mergeCell ref="DQ7:DU7"/>
+    <mergeCell ref="GD7:GH7"/>
+    <mergeCell ref="EA7:EE7"/>
+    <mergeCell ref="EF7:EJ7"/>
+    <mergeCell ref="EK7:EO7"/>
+    <mergeCell ref="EP7:ET7"/>
+    <mergeCell ref="EU7:EY7"/>
+    <mergeCell ref="EZ7:FD7"/>
+    <mergeCell ref="FE7:FI7"/>
+    <mergeCell ref="FJ7:FN7"/>
+    <mergeCell ref="FO7:FS7"/>
+    <mergeCell ref="FT7:FX7"/>
+    <mergeCell ref="FY7:GC7"/>
+    <mergeCell ref="HM7:HQ7"/>
+    <mergeCell ref="HR7:HV7"/>
+    <mergeCell ref="GI7:GM7"/>
+    <mergeCell ref="GN7:GR7"/>
+    <mergeCell ref="GS7:GW7"/>
+    <mergeCell ref="GX7:HB7"/>
+    <mergeCell ref="HC7:HG7"/>
+    <mergeCell ref="HH7:HL7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="K8:IP8 K16:IP17 K27:IP27 K24:IP25 K33:IP34 K36:IP36">
@@ -9102,7 +9076,6 @@
     <hyperlink ref="A1" r:id="rId2" tooltip="Link to Vertex42.com"/>
   </hyperlinks>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.51181102362204722" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
     <ignoredError sqref="A35" numberStoredAsText="1"/>
